--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4917" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC980"/>
+  <dimension ref="A1:AC983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22089,7 +22089,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3720206</v>
+        <v>3720207</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22101,73 +22101,73 @@
         <v>44465.39583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L243">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N243">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O243">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P243">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="Q243">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W243">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z243">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>3720207</v>
+        <v>3720206</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,73 +22190,73 @@
         <v>44465.39583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>55</v>
+      </c>
+      <c r="K244">
+        <v>1.285</v>
+      </c>
+      <c r="L244">
+        <v>5.25</v>
+      </c>
+      <c r="M244">
+        <v>8</v>
+      </c>
+      <c r="N244">
+        <v>1.3</v>
+      </c>
+      <c r="O244">
+        <v>4.75</v>
+      </c>
+      <c r="P244">
+        <v>10</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.94</v>
+      </c>
+      <c r="S244">
+        <v>1.96</v>
+      </c>
+      <c r="T244">
         <v>3</v>
       </c>
-      <c r="J244" t="s">
-        <v>53</v>
-      </c>
-      <c r="K244">
-        <v>2.3</v>
-      </c>
-      <c r="L244">
-        <v>3.4</v>
-      </c>
-      <c r="M244">
-        <v>2.75</v>
-      </c>
-      <c r="N244">
-        <v>2.25</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>2.8</v>
-      </c>
-      <c r="Q244">
-        <v>-0.25</v>
-      </c>
-      <c r="R244">
+      <c r="U244">
+        <v>1.825</v>
+      </c>
+      <c r="V244">
         <v>2.025</v>
       </c>
-      <c r="S244">
-        <v>1.825</v>
-      </c>
-      <c r="T244">
-        <v>2.5</v>
-      </c>
-      <c r="U244">
-        <v>1.85</v>
-      </c>
-      <c r="V244">
-        <v>2</v>
-      </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
         <v>0.825</v>
-      </c>
-      <c r="AB244">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -30722,7 +30722,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>3720281</v>
+        <v>3720283</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30734,56 +30734,56 @@
         <v>44552.61458333334</v>
       </c>
       <c r="F340" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G340" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>53</v>
       </c>
       <c r="K340">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M340">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N340">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O340">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P340">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q340">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R340">
+        <v>1.825</v>
+      </c>
+      <c r="S340">
+        <v>2.025</v>
+      </c>
+      <c r="T340">
+        <v>2.25</v>
+      </c>
+      <c r="U340">
         <v>1.85</v>
       </c>
-      <c r="S340">
+      <c r="V340">
         <v>2</v>
       </c>
-      <c r="T340">
-        <v>3</v>
-      </c>
-      <c r="U340">
-        <v>1.825</v>
-      </c>
-      <c r="V340">
-        <v>2.025</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30791,19 +30791,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0.333</v>
+        <v>1.875</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
+        <v>1.025</v>
+      </c>
+      <c r="AB340">
+        <v>-1</v>
+      </c>
+      <c r="AC340">
         <v>1</v>
-      </c>
-      <c r="AB340">
-        <v>0</v>
-      </c>
-      <c r="AC340">
-        <v>-0</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>3720283</v>
+        <v>3720281</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,76 +30823,76 @@
         <v>44552.61458333334</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G341" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J341" t="s">
         <v>53</v>
       </c>
       <c r="K341">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L341">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M341">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="N341">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O341">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P341">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="Q341">
+        <v>1.5</v>
+      </c>
+      <c r="R341">
+        <v>1.85</v>
+      </c>
+      <c r="S341">
+        <v>2</v>
+      </c>
+      <c r="T341">
+        <v>3</v>
+      </c>
+      <c r="U341">
+        <v>1.825</v>
+      </c>
+      <c r="V341">
+        <v>2.025</v>
+      </c>
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
+        <v>0.333</v>
+      </c>
+      <c r="Z341">
+        <v>-1</v>
+      </c>
+      <c r="AA341">
+        <v>1</v>
+      </c>
+      <c r="AB341">
         <v>0</v>
       </c>
-      <c r="R341">
-        <v>1.825</v>
-      </c>
-      <c r="S341">
-        <v>2.025</v>
-      </c>
-      <c r="T341">
-        <v>2.25</v>
-      </c>
-      <c r="U341">
-        <v>1.85</v>
-      </c>
-      <c r="V341">
-        <v>2</v>
-      </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.875</v>
-      </c>
-      <c r="Z341">
-        <v>-1</v>
-      </c>
-      <c r="AA341">
-        <v>1.025</v>
-      </c>
-      <c r="AB341">
-        <v>-1</v>
-      </c>
       <c r="AC341">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -33837,7 +33837,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>3720311</v>
+        <v>3720308</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33849,76 +33849,76 @@
         <v>44604.61458333334</v>
       </c>
       <c r="F375" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G375" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
         <v>53</v>
       </c>
       <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>3.4</v>
+      </c>
+      <c r="M375">
+        <v>3.5</v>
+      </c>
+      <c r="N375">
         <v>1.8</v>
       </c>
-      <c r="L375">
+      <c r="O375">
+        <v>3.4</v>
+      </c>
+      <c r="P375">
+        <v>4.75</v>
+      </c>
+      <c r="Q375">
+        <v>-0.5</v>
+      </c>
+      <c r="R375">
+        <v>1.825</v>
+      </c>
+      <c r="S375">
+        <v>2.025</v>
+      </c>
+      <c r="T375">
+        <v>2.25</v>
+      </c>
+      <c r="U375">
+        <v>1.875</v>
+      </c>
+      <c r="V375">
+        <v>1.975</v>
+      </c>
+      <c r="W375">
+        <v>-1</v>
+      </c>
+      <c r="X375">
+        <v>-1</v>
+      </c>
+      <c r="Y375">
         <v>3.75</v>
       </c>
-      <c r="M375">
-        <v>4</v>
-      </c>
-      <c r="N375">
-        <v>2.45</v>
-      </c>
-      <c r="O375">
-        <v>3.5</v>
-      </c>
-      <c r="P375">
-        <v>2.7</v>
-      </c>
-      <c r="Q375">
-        <v>0</v>
-      </c>
-      <c r="R375">
-        <v>1.89</v>
-      </c>
-      <c r="S375">
-        <v>2.01</v>
-      </c>
-      <c r="T375">
-        <v>2.75</v>
-      </c>
-      <c r="U375">
-        <v>2</v>
-      </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
-      <c r="W375">
-        <v>-1</v>
-      </c>
-      <c r="X375">
-        <v>-1</v>
-      </c>
-      <c r="Y375">
-        <v>1.7</v>
-      </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>1.01</v>
+        <v>1.025</v>
       </c>
       <c r="AB375">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>3720308</v>
+        <v>3720311</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33938,55 +33938,55 @@
         <v>44604.61458333334</v>
       </c>
       <c r="F376" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G376" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J376" t="s">
         <v>53</v>
       </c>
       <c r="K376">
+        <v>1.8</v>
+      </c>
+      <c r="L376">
+        <v>3.75</v>
+      </c>
+      <c r="M376">
+        <v>4</v>
+      </c>
+      <c r="N376">
+        <v>2.45</v>
+      </c>
+      <c r="O376">
+        <v>3.5</v>
+      </c>
+      <c r="P376">
+        <v>2.7</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <v>1.89</v>
+      </c>
+      <c r="S376">
+        <v>2.01</v>
+      </c>
+      <c r="T376">
+        <v>2.75</v>
+      </c>
+      <c r="U376">
         <v>2</v>
       </c>
-      <c r="L376">
-        <v>3.4</v>
-      </c>
-      <c r="M376">
-        <v>3.5</v>
-      </c>
-      <c r="N376">
-        <v>1.8</v>
-      </c>
-      <c r="O376">
-        <v>3.4</v>
-      </c>
-      <c r="P376">
-        <v>4.75</v>
-      </c>
-      <c r="Q376">
-        <v>-0.5</v>
-      </c>
-      <c r="R376">
-        <v>1.825</v>
-      </c>
-      <c r="S376">
-        <v>2.025</v>
-      </c>
-      <c r="T376">
-        <v>2.25</v>
-      </c>
-      <c r="U376">
-        <v>1.875</v>
-      </c>
       <c r="V376">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W376">
         <v>-1</v>
@@ -33995,19 +33995,19 @@
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>1.025</v>
+        <v>1.01</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC376">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -36596,7 +36596,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>3720328</v>
+        <v>3720333</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36608,76 +36608,76 @@
         <v>44626.53125</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G406" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
         <v>3</v>
       </c>
-      <c r="I406">
-        <v>2</v>
-      </c>
       <c r="J406" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>1.062</v>
+        <v>5.5</v>
       </c>
       <c r="L406">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="M406">
-        <v>26</v>
+        <v>1.533</v>
       </c>
       <c r="N406">
-        <v>1.03</v>
+        <v>6.5</v>
       </c>
       <c r="O406">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P406">
-        <v>41</v>
+        <v>1.55</v>
       </c>
       <c r="Q406">
-        <v>-3.75</v>
+        <v>1</v>
       </c>
       <c r="R406">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S406">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T406">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="U406">
+        <v>1.9</v>
+      </c>
+      <c r="V406">
         <v>1.95</v>
       </c>
-      <c r="V406">
-        <v>1.9</v>
-      </c>
       <c r="W406">
-        <v>0.03000000000000003</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z406">
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB406">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC406">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36685,7 +36685,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>3720333</v>
+        <v>3720328</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36697,76 +36697,76 @@
         <v>44626.53125</v>
       </c>
       <c r="F407" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K407">
-        <v>5.5</v>
+        <v>1.062</v>
       </c>
       <c r="L407">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="M407">
-        <v>1.533</v>
+        <v>26</v>
       </c>
       <c r="N407">
-        <v>6.5</v>
+        <v>1.03</v>
       </c>
       <c r="O407">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P407">
-        <v>1.55</v>
+        <v>41</v>
       </c>
       <c r="Q407">
-        <v>1</v>
+        <v>-3.75</v>
       </c>
       <c r="R407">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S407">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T407">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="U407">
+        <v>1.95</v>
+      </c>
+      <c r="V407">
         <v>1.9</v>
       </c>
-      <c r="V407">
-        <v>1.95</v>
-      </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
         <v>-1</v>
       </c>
       <c r="AA407">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB407">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC407">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -41936,7 +41936,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>3952414</v>
+        <v>3952417</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41948,76 +41948,76 @@
         <v>44688.625</v>
       </c>
       <c r="F466" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G466" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K466">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L466">
         <v>3.4</v>
       </c>
       <c r="M466">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N466">
         <v>2.45</v>
       </c>
       <c r="O466">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P466">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q466">
         <v>0</v>
       </c>
       <c r="R466">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="S466">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="T466">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U466">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V466">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W466">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X466">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AA466">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC466">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -42025,7 +42025,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>3952417</v>
+        <v>3952414</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42037,76 +42037,76 @@
         <v>44688.625</v>
       </c>
       <c r="F467" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G467" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J467" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K467">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L467">
         <v>3.4</v>
       </c>
       <c r="M467">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N467">
         <v>2.45</v>
       </c>
       <c r="O467">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P467">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q467">
         <v>0</v>
       </c>
       <c r="R467">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S467">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="T467">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U467">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V467">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W467">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X467">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y467">
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB467">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC467">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -42737,7 +42737,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>3986175</v>
+        <v>3981504</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42749,76 +42749,76 @@
         <v>44692.625</v>
       </c>
       <c r="F475" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G475" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J475" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K475">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L475">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M475">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N475">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O475">
+        <v>3.2</v>
+      </c>
+      <c r="P475">
         <v>3.6</v>
       </c>
-      <c r="P475">
-        <v>2.3</v>
-      </c>
       <c r="Q475">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="S475">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="T475">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U475">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V475">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W475">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X475">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y475">
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>0.445</v>
+        <v>0.875</v>
       </c>
       <c r="AA475">
+        <v>-1</v>
+      </c>
+      <c r="AB475">
         <v>-0.5</v>
       </c>
-      <c r="AB475">
-        <v>-1</v>
-      </c>
       <c r="AC475">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42826,7 +42826,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>3981504</v>
+        <v>3986175</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42838,76 +42838,76 @@
         <v>44692.625</v>
       </c>
       <c r="F476" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G476" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>54</v>
+      </c>
+      <c r="K476">
+        <v>2.3</v>
+      </c>
+      <c r="L476">
+        <v>3.5</v>
+      </c>
+      <c r="M476">
+        <v>2.8</v>
+      </c>
+      <c r="N476">
+        <v>2.875</v>
+      </c>
+      <c r="O476">
+        <v>3.6</v>
+      </c>
+      <c r="P476">
+        <v>2.3</v>
+      </c>
+      <c r="Q476">
+        <v>0.25</v>
+      </c>
+      <c r="R476">
+        <v>1.89</v>
+      </c>
+      <c r="S476">
+        <v>2.01</v>
+      </c>
+      <c r="T476">
+        <v>2.75</v>
+      </c>
+      <c r="U476">
         <v>2</v>
       </c>
-      <c r="I476">
-        <v>0</v>
-      </c>
-      <c r="J476" t="s">
-        <v>55</v>
-      </c>
-      <c r="K476">
-        <v>2.45</v>
-      </c>
-      <c r="L476">
-        <v>3.3</v>
-      </c>
-      <c r="M476">
-        <v>2.75</v>
-      </c>
-      <c r="N476">
-        <v>2.15</v>
-      </c>
-      <c r="O476">
-        <v>3.2</v>
-      </c>
-      <c r="P476">
-        <v>3.6</v>
-      </c>
-      <c r="Q476">
-        <v>-0.25</v>
-      </c>
-      <c r="R476">
-        <v>1.875</v>
-      </c>
-      <c r="S476">
-        <v>1.975</v>
-      </c>
-      <c r="T476">
-        <v>2.25</v>
-      </c>
-      <c r="U476">
-        <v>1.9</v>
-      </c>
       <c r="V476">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W476">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X476">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y476">
         <v>-1</v>
       </c>
       <c r="Z476">
-        <v>0.875</v>
+        <v>0.445</v>
       </c>
       <c r="AA476">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB476">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC476">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -43360,7 +43360,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>4051311</v>
+        <v>4149676</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43372,76 +43372,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F482" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G482" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482">
+        <v>2</v>
+      </c>
+      <c r="J482" t="s">
+        <v>54</v>
+      </c>
+      <c r="K482">
+        <v>6.5</v>
+      </c>
+      <c r="L482">
+        <v>4.5</v>
+      </c>
+      <c r="M482">
+        <v>1.4</v>
+      </c>
+      <c r="N482">
+        <v>5</v>
+      </c>
+      <c r="O482">
+        <v>4.5</v>
+      </c>
+      <c r="P482">
+        <v>1.6</v>
+      </c>
+      <c r="Q482">
         <v>1</v>
       </c>
-      <c r="J482" t="s">
-        <v>53</v>
-      </c>
-      <c r="K482">
-        <v>2.2</v>
-      </c>
-      <c r="L482">
+      <c r="R482">
+        <v>1.9</v>
+      </c>
+      <c r="S482">
+        <v>1.95</v>
+      </c>
+      <c r="T482">
         <v>3.5</v>
       </c>
-      <c r="M482">
-        <v>2.8</v>
-      </c>
-      <c r="N482">
-        <v>1.95</v>
-      </c>
-      <c r="O482">
-        <v>3.75</v>
-      </c>
-      <c r="P482">
+      <c r="U482">
+        <v>1.925</v>
+      </c>
+      <c r="V482">
+        <v>1.925</v>
+      </c>
+      <c r="W482">
+        <v>-1</v>
+      </c>
+      <c r="X482">
         <v>3.5</v>
       </c>
-      <c r="Q482">
-        <v>-0.5</v>
-      </c>
-      <c r="R482">
-        <v>2.01</v>
-      </c>
-      <c r="S482">
-        <v>1.89</v>
-      </c>
-      <c r="T482">
-        <v>3</v>
-      </c>
-      <c r="U482">
-        <v>1.8</v>
-      </c>
-      <c r="V482">
-        <v>2.05</v>
-      </c>
-      <c r="W482">
-        <v>-1</v>
-      </c>
-      <c r="X482">
-        <v>-1</v>
-      </c>
       <c r="Y482">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA482">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB482">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC482">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43449,7 +43449,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>4048248</v>
+        <v>4052055</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43461,56 +43461,56 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F483" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G483" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H483">
         <v>1</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J483" t="s">
         <v>53</v>
       </c>
       <c r="K483">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L483">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M483">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="N483">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O483">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P483">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q483">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R483">
+        <v>1.84</v>
+      </c>
+      <c r="S483">
+        <v>2.06</v>
+      </c>
+      <c r="T483">
+        <v>3.5</v>
+      </c>
+      <c r="U483">
+        <v>1.975</v>
+      </c>
+      <c r="V483">
         <v>1.875</v>
       </c>
-      <c r="S483">
-        <v>1.975</v>
-      </c>
-      <c r="T483">
-        <v>3.75</v>
-      </c>
-      <c r="U483">
-        <v>2</v>
-      </c>
-      <c r="V483">
-        <v>1.85</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
@@ -43518,19 +43518,19 @@
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Z483">
         <v>-1</v>
       </c>
       <c r="AA483">
+        <v>1.06</v>
+      </c>
+      <c r="AB483">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB483">
-        <v>-1</v>
-      </c>
       <c r="AC483">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43538,7 +43538,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>4048711</v>
+        <v>4052056</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43550,55 +43550,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F484" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G484" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H484">
         <v>1</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J484" t="s">
         <v>53</v>
       </c>
       <c r="K484">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="L484">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M484">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N484">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O484">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P484">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q484">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R484">
-        <v>1.92</v>
+        <v>2.155</v>
       </c>
       <c r="S484">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="T484">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U484">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V484">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W484">
         <v>-1</v>
@@ -43607,19 +43607,19 @@
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z484">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA484">
-        <v>-1</v>
+        <v>0.76</v>
       </c>
       <c r="AB484">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC484">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43627,7 +43627,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>4048714</v>
+        <v>4048249</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43639,76 +43639,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F485" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G485" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I485">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J485" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K485">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L485">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M485">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N485">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O485">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P485">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q485">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S485">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T485">
         <v>3</v>
       </c>
       <c r="U485">
+        <v>1.85</v>
+      </c>
+      <c r="V485">
         <v>2</v>
       </c>
-      <c r="V485">
-        <v>1.85</v>
-      </c>
       <c r="W485">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA485">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC485">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -43805,7 +43805,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>4048249</v>
+        <v>4048714</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43817,76 +43817,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F487" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G487" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H487">
+        <v>2</v>
+      </c>
+      <c r="I487">
         <v>3</v>
       </c>
-      <c r="I487">
-        <v>0</v>
-      </c>
       <c r="J487" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K487">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L487">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M487">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N487">
+        <v>1.65</v>
+      </c>
+      <c r="O487">
+        <v>4.2</v>
+      </c>
+      <c r="P487">
+        <v>5.25</v>
+      </c>
+      <c r="Q487">
+        <v>-0.75</v>
+      </c>
+      <c r="R487">
+        <v>1.8</v>
+      </c>
+      <c r="S487">
         <v>2.1</v>
-      </c>
-      <c r="O487">
-        <v>3.9</v>
-      </c>
-      <c r="P487">
-        <v>3.1</v>
-      </c>
-      <c r="Q487">
-        <v>-0.25</v>
-      </c>
-      <c r="R487">
-        <v>1.875</v>
-      </c>
-      <c r="S487">
-        <v>1.975</v>
       </c>
       <c r="T487">
         <v>3</v>
       </c>
       <c r="U487">
+        <v>2</v>
+      </c>
+      <c r="V487">
         <v>1.85</v>
       </c>
-      <c r="V487">
-        <v>2</v>
-      </c>
       <c r="W487">
+        <v>-1</v>
+      </c>
+      <c r="X487">
+        <v>-1</v>
+      </c>
+      <c r="Y487">
+        <v>4.25</v>
+      </c>
+      <c r="Z487">
+        <v>-1</v>
+      </c>
+      <c r="AA487">
         <v>1.1</v>
       </c>
-      <c r="X487">
-        <v>-1</v>
-      </c>
-      <c r="Y487">
-        <v>-1</v>
-      </c>
-      <c r="Z487">
-        <v>0.875</v>
-      </c>
-      <c r="AA487">
-        <v>-1</v>
-      </c>
       <c r="AB487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC487">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43894,7 +43894,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>4052055</v>
+        <v>4048711</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43906,55 +43906,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F488" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G488" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H488">
         <v>1</v>
       </c>
       <c r="I488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J488" t="s">
         <v>53</v>
       </c>
       <c r="K488">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="L488">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M488">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="N488">
-        <v>1.222</v>
+        <v>7</v>
       </c>
       <c r="O488">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P488">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="Q488">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R488">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="S488">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T488">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U488">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V488">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W488">
         <v>-1</v>
@@ -43963,19 +43963,19 @@
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>11</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA488">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB488">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC488">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43983,7 +43983,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>4149676</v>
+        <v>4048248</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43995,76 +43995,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F489" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G489" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489">
         <v>2</v>
       </c>
       <c r="J489" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K489">
+        <v>1.444</v>
+      </c>
+      <c r="L489">
+        <v>4.333</v>
+      </c>
+      <c r="M489">
+        <v>5.75</v>
+      </c>
+      <c r="N489">
+        <v>1.45</v>
+      </c>
+      <c r="O489">
+        <v>4.75</v>
+      </c>
+      <c r="P489">
         <v>6.5</v>
       </c>
-      <c r="L489">
-        <v>4.5</v>
-      </c>
-      <c r="M489">
-        <v>1.4</v>
-      </c>
-      <c r="N489">
-        <v>5</v>
-      </c>
-      <c r="O489">
-        <v>4.5</v>
-      </c>
-      <c r="P489">
-        <v>1.6</v>
-      </c>
       <c r="Q489">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R489">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S489">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T489">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U489">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V489">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W489">
         <v>-1</v>
       </c>
       <c r="X489">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z489">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB489">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC489">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44072,7 +44072,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>4052056</v>
+        <v>4051311</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44084,55 +44084,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F490" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G490" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
         <v>1</v>
-      </c>
-      <c r="I490">
-        <v>3</v>
       </c>
       <c r="J490" t="s">
         <v>53</v>
       </c>
       <c r="K490">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L490">
+        <v>3.5</v>
+      </c>
+      <c r="M490">
+        <v>2.8</v>
+      </c>
+      <c r="N490">
+        <v>1.95</v>
+      </c>
+      <c r="O490">
+        <v>3.75</v>
+      </c>
+      <c r="P490">
+        <v>3.5</v>
+      </c>
+      <c r="Q490">
+        <v>-0.5</v>
+      </c>
+      <c r="R490">
+        <v>2.01</v>
+      </c>
+      <c r="S490">
+        <v>1.89</v>
+      </c>
+      <c r="T490">
         <v>3</v>
       </c>
-      <c r="M490">
-        <v>3.2</v>
-      </c>
-      <c r="N490">
-        <v>2.375</v>
-      </c>
-      <c r="O490">
-        <v>3.1</v>
-      </c>
-      <c r="P490">
-        <v>3.3</v>
-      </c>
-      <c r="Q490">
-        <v>-0.25</v>
-      </c>
-      <c r="R490">
-        <v>2.155</v>
-      </c>
-      <c r="S490">
-        <v>1.76</v>
-      </c>
-      <c r="T490">
-        <v>2.25</v>
-      </c>
       <c r="U490">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V490">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W490">
         <v>-1</v>
@@ -44141,19 +44141,19 @@
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z490">
         <v>-1</v>
       </c>
       <c r="AA490">
-        <v>0.76</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB490">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC490">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -45229,7 +45229,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>5159749</v>
+        <v>5159748</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45241,55 +45241,55 @@
         <v>44780.39583333334</v>
       </c>
       <c r="F503" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G503" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J503" t="s">
         <v>53</v>
       </c>
       <c r="K503">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L503">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M503">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N503">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O503">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P503">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q503">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R503">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S503">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T503">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U503">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V503">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W503">
         <v>-1</v>
@@ -45298,19 +45298,19 @@
         <v>-1</v>
       </c>
       <c r="Y503">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="Z503">
         <v>-1</v>
       </c>
       <c r="AA503">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB503">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC503">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -45318,7 +45318,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>5159748</v>
+        <v>5159749</v>
       </c>
       <c r="C504" t="s">
         <v>28</v>
@@ -45330,56 +45330,56 @@
         <v>44780.39583333334</v>
       </c>
       <c r="F504" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G504" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J504" t="s">
         <v>53</v>
       </c>
       <c r="K504">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L504">
+        <v>3.4</v>
+      </c>
+      <c r="M504">
+        <v>2.2</v>
+      </c>
+      <c r="N504">
+        <v>3.1</v>
+      </c>
+      <c r="O504">
         <v>3.5</v>
       </c>
-      <c r="M504">
-        <v>2</v>
-      </c>
-      <c r="N504">
-        <v>3.75</v>
-      </c>
-      <c r="O504">
-        <v>3.8</v>
-      </c>
       <c r="P504">
+        <v>2.15</v>
+      </c>
+      <c r="Q504">
+        <v>0.25</v>
+      </c>
+      <c r="R504">
         <v>1.95</v>
       </c>
-      <c r="Q504">
-        <v>0.5</v>
-      </c>
-      <c r="R504">
+      <c r="S504">
+        <v>1.9</v>
+      </c>
+      <c r="T504">
+        <v>2.5</v>
+      </c>
+      <c r="U504">
         <v>1.875</v>
       </c>
-      <c r="S504">
+      <c r="V504">
         <v>1.975</v>
       </c>
-      <c r="T504">
-        <v>2.75</v>
-      </c>
-      <c r="U504">
-        <v>1.825</v>
-      </c>
-      <c r="V504">
-        <v>2.025</v>
-      </c>
       <c r="W504">
         <v>-1</v>
       </c>
@@ -45387,19 +45387,19 @@
         <v>-1</v>
       </c>
       <c r="Y504">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="Z504">
         <v>-1</v>
       </c>
       <c r="AA504">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB504">
+        <v>-1</v>
+      </c>
+      <c r="AC504">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB504">
-        <v>0.825</v>
-      </c>
-      <c r="AC504">
-        <v>-1</v>
       </c>
     </row>
     <row r="505" spans="1:29">
@@ -53061,7 +53061,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5159809</v>
+        <v>5159810</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53073,76 +53073,76 @@
         <v>44857.39583333334</v>
       </c>
       <c r="F591" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G591" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J591" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K591">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="L591">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M591">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N591">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="O591">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P591">
+        <v>1.3</v>
+      </c>
+      <c r="Q591">
         <v>1.75</v>
       </c>
-      <c r="Q591">
-        <v>0.75</v>
-      </c>
       <c r="R591">
+        <v>1.85</v>
+      </c>
+      <c r="S591">
+        <v>2</v>
+      </c>
+      <c r="T591">
+        <v>3.25</v>
+      </c>
+      <c r="U591">
+        <v>2.025</v>
+      </c>
+      <c r="V591">
         <v>1.825</v>
       </c>
-      <c r="S591">
-        <v>2.025</v>
-      </c>
-      <c r="T591">
-        <v>2.75</v>
-      </c>
-      <c r="U591">
-        <v>2</v>
-      </c>
-      <c r="V591">
-        <v>1.85</v>
-      </c>
       <c r="W591">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA591">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC591">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53150,7 +53150,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5159810</v>
+        <v>5159809</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53162,76 +53162,76 @@
         <v>44857.39583333334</v>
       </c>
       <c r="F592" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G592" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H592">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I592">
+        <v>1</v>
+      </c>
+      <c r="J592" t="s">
+        <v>53</v>
+      </c>
+      <c r="K592">
+        <v>4.2</v>
+      </c>
+      <c r="L592">
+        <v>3.6</v>
+      </c>
+      <c r="M592">
+        <v>1.833</v>
+      </c>
+      <c r="N592">
+        <v>4.2</v>
+      </c>
+      <c r="O592">
+        <v>3.75</v>
+      </c>
+      <c r="P592">
+        <v>1.75</v>
+      </c>
+      <c r="Q592">
+        <v>0.75</v>
+      </c>
+      <c r="R592">
+        <v>1.825</v>
+      </c>
+      <c r="S592">
+        <v>2.025</v>
+      </c>
+      <c r="T592">
+        <v>2.75</v>
+      </c>
+      <c r="U592">
         <v>2</v>
       </c>
-      <c r="J592" t="s">
-        <v>55</v>
-      </c>
-      <c r="K592">
-        <v>8</v>
-      </c>
-      <c r="L592">
-        <v>5</v>
-      </c>
-      <c r="M592">
-        <v>1.363</v>
-      </c>
-      <c r="N592">
-        <v>11</v>
-      </c>
-      <c r="O592">
-        <v>5.5</v>
-      </c>
-      <c r="P592">
-        <v>1.3</v>
-      </c>
-      <c r="Q592">
-        <v>1.75</v>
-      </c>
-      <c r="R592">
+      <c r="V592">
         <v>1.85</v>
       </c>
-      <c r="S592">
-        <v>2</v>
-      </c>
-      <c r="T592">
-        <v>3.25</v>
-      </c>
-      <c r="U592">
-        <v>2.025</v>
-      </c>
-      <c r="V592">
-        <v>1.825</v>
-      </c>
       <c r="W592">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z592">
+        <v>-0.5</v>
+      </c>
+      <c r="AA592">
+        <v>0.5125</v>
+      </c>
+      <c r="AB592">
+        <v>-1</v>
+      </c>
+      <c r="AC592">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA592">
-        <v>-1</v>
-      </c>
-      <c r="AB592">
-        <v>1.025</v>
-      </c>
-      <c r="AC592">
-        <v>-1</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -56888,7 +56888,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56900,76 +56900,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F634" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G634" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K634">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L634">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M634">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N634">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O634">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P634">
         <v>6.5</v>
       </c>
       <c r="Q634">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R634">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S634">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T634">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U634">
+        <v>2.025</v>
+      </c>
+      <c r="V634">
         <v>1.825</v>
       </c>
-      <c r="V634">
-        <v>2.025</v>
-      </c>
       <c r="W634">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA634">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56977,7 +56977,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56989,76 +56989,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F635" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G635" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K635">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L635">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M635">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N635">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O635">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P635">
         <v>6.5</v>
       </c>
       <c r="Q635">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R635">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S635">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T635">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U635">
+        <v>1.825</v>
+      </c>
+      <c r="V635">
         <v>2.025</v>
       </c>
-      <c r="V635">
-        <v>1.825</v>
-      </c>
       <c r="W635">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X635">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA635">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB635">
         <v>-1</v>
       </c>
       <c r="AC635">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57155,7 +57155,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57167,10 +57167,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F637" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G637" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H637">
         <v>2</v>
@@ -57182,58 +57182,58 @@
         <v>54</v>
       </c>
       <c r="K637">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L637">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M637">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N637">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O637">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P637">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q637">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R637">
+        <v>1.8</v>
+      </c>
+      <c r="S637">
+        <v>2.05</v>
+      </c>
+      <c r="T637">
+        <v>2.75</v>
+      </c>
+      <c r="U637">
         <v>1.975</v>
       </c>
-      <c r="S637">
+      <c r="V637">
         <v>1.875</v>
       </c>
-      <c r="T637">
-        <v>3</v>
-      </c>
-      <c r="U637">
-        <v>1.825</v>
-      </c>
-      <c r="V637">
-        <v>2.025</v>
-      </c>
       <c r="W637">
         <v>-1</v>
       </c>
       <c r="X637">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
+        <v>0.4</v>
+      </c>
+      <c r="AA637">
+        <v>-0.5</v>
+      </c>
+      <c r="AB637">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA637">
-        <v>-1</v>
-      </c>
-      <c r="AB637">
-        <v>0.825</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57244,7 +57244,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57256,10 +57256,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F638" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G638" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -57271,58 +57271,58 @@
         <v>54</v>
       </c>
       <c r="K638">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L638">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M638">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N638">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O638">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P638">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q638">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R638">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S638">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T638">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U638">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V638">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W638">
         <v>-1</v>
       </c>
       <c r="X638">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA638">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB638">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57333,7 +57333,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5159377</v>
+        <v>5159838</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57345,40 +57345,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F639" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G639" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H639">
         <v>0</v>
       </c>
       <c r="I639">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J639" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K639">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L639">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M639">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N639">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O639">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P639">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q639">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R639">
         <v>1.925</v>
@@ -57387,22 +57387,22 @@
         <v>1.925</v>
       </c>
       <c r="T639">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U639">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V639">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W639">
         <v>-1</v>
       </c>
       <c r="X639">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y639">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z639">
         <v>-1</v>
@@ -57411,10 +57411,10 @@
         <v>0.925</v>
       </c>
       <c r="AB639">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC639">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57422,7 +57422,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5159838</v>
+        <v>5159377</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57434,40 +57434,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F640" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G640" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H640">
         <v>0</v>
       </c>
       <c r="I640">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J640" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K640">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L640">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M640">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N640">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O640">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P640">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q640">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R640">
         <v>1.925</v>
@@ -57476,22 +57476,22 @@
         <v>1.925</v>
       </c>
       <c r="T640">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U640">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V640">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W640">
         <v>-1</v>
       </c>
       <c r="X640">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y640">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z640">
         <v>-1</v>
@@ -57500,10 +57500,10 @@
         <v>0.925</v>
       </c>
       <c r="AB640">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC640">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -58401,7 +58401,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58413,73 +58413,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F651" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G651" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J651" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K651">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
         <v>3.5</v>
       </c>
       <c r="M651">
+        <v>2.15</v>
+      </c>
+      <c r="N651">
+        <v>4</v>
+      </c>
+      <c r="O651">
+        <v>3.4</v>
+      </c>
+      <c r="P651">
         <v>2</v>
-      </c>
-      <c r="N651">
-        <v>4.2</v>
-      </c>
-      <c r="O651">
-        <v>3.6</v>
-      </c>
-      <c r="P651">
-        <v>1.85</v>
       </c>
       <c r="Q651">
         <v>0.5</v>
       </c>
       <c r="R651">
+        <v>1.825</v>
+      </c>
+      <c r="S651">
         <v>2.025</v>
       </c>
-      <c r="S651">
+      <c r="T651">
+        <v>2.25</v>
+      </c>
+      <c r="U651">
         <v>1.825</v>
       </c>
-      <c r="T651">
-        <v>2.75</v>
-      </c>
-      <c r="U651">
-        <v>1.975</v>
-      </c>
       <c r="V651">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y651">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA651">
+        <v>-1</v>
+      </c>
+      <c r="AB651">
         <v>0.825</v>
-      </c>
-      <c r="AB651">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58490,7 +58490,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58502,73 +58502,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F652" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G652" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J652" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L652">
         <v>3.5</v>
       </c>
       <c r="M652">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N652">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O652">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q652">
         <v>0.5</v>
       </c>
       <c r="R652">
+        <v>2.025</v>
+      </c>
+      <c r="S652">
         <v>1.825</v>
       </c>
-      <c r="S652">
-        <v>2.025</v>
-      </c>
       <c r="T652">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V652">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z652">
+        <v>-1</v>
+      </c>
+      <c r="AA652">
         <v>0.825</v>
       </c>
-      <c r="AA652">
-        <v>-1</v>
-      </c>
       <c r="AB652">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -58668,7 +58668,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58680,13 +58680,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F654" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G654" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -58695,43 +58695,43 @@
         <v>55</v>
       </c>
       <c r="K654">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L654">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M654">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N654">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O654">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P654">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q654">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R654">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S654">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T654">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U654">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V654">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W654">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
@@ -58740,16 +58740,16 @@
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA654">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58757,7 +58757,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58769,13 +58769,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F655" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G655" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -58784,43 +58784,43 @@
         <v>55</v>
       </c>
       <c r="K655">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L655">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M655">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N655">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O655">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P655">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q655">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R655">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S655">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T655">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U655">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V655">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W655">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X655">
         <v>-1</v>
@@ -58829,16 +58829,16 @@
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -65610,7 +65610,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5159909</v>
+        <v>5159398</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65622,55 +65622,55 @@
         <v>45017.625</v>
       </c>
       <c r="F732" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G732" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732">
         <v>2</v>
-      </c>
-      <c r="I732">
-        <v>4</v>
       </c>
       <c r="J732" t="s">
         <v>53</v>
       </c>
       <c r="K732">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L732">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M732">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N732">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O732">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P732">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q732">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R732">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S732">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T732">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U732">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V732">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W732">
         <v>-1</v>
@@ -65679,16 +65679,16 @@
         <v>-1</v>
       </c>
       <c r="Y732">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="Z732">
         <v>-1</v>
       </c>
       <c r="AA732">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB732">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC732">
         <v>-1</v>
@@ -65699,7 +65699,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5159398</v>
+        <v>5159909</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65711,55 +65711,55 @@
         <v>45017.625</v>
       </c>
       <c r="F733" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G733" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I733">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J733" t="s">
         <v>53</v>
       </c>
       <c r="K733">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L733">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M733">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N733">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O733">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P733">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q733">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R733">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S733">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T733">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U733">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V733">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W733">
         <v>-1</v>
@@ -65768,16 +65768,16 @@
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>2.2</v>
+        <v>0.615</v>
       </c>
       <c r="Z733">
         <v>-1</v>
       </c>
       <c r="AA733">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB733">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC733">
         <v>-1</v>
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,76 +67402,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F752" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G752" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J752" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K752">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L752">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M752">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N752">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O752">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P752">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q752">
+        <v>1.75</v>
+      </c>
+      <c r="R752">
+        <v>2.02</v>
+      </c>
+      <c r="S752">
+        <v>1.88</v>
+      </c>
+      <c r="T752">
+        <v>3.5</v>
+      </c>
+      <c r="U752">
+        <v>1.825</v>
+      </c>
+      <c r="V752">
+        <v>2.025</v>
+      </c>
+      <c r="W752">
+        <v>-1</v>
+      </c>
+      <c r="X752">
+        <v>-1</v>
+      </c>
+      <c r="Y752">
         <v>0.25</v>
       </c>
-      <c r="R752">
-        <v>2.025</v>
-      </c>
-      <c r="S752">
-        <v>1.825</v>
-      </c>
-      <c r="T752">
-        <v>2.5</v>
-      </c>
-      <c r="U752">
-        <v>1.875</v>
-      </c>
-      <c r="V752">
-        <v>1.975</v>
-      </c>
-      <c r="W752">
-        <v>2.3</v>
-      </c>
-      <c r="X752">
-        <v>-1</v>
-      </c>
-      <c r="Y752">
-        <v>-1</v>
-      </c>
       <c r="Z752">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA752">
         <v>-1</v>
       </c>
       <c r="AB752">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC752">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,76 +67491,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F753" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G753" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J753" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K753">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L753">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M753">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N753">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O753">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P753">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q753">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R753">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S753">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T753">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U753">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V753">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W753">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X753">
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z753">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA753">
         <v>-1</v>
       </c>
       <c r="AB753">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC753">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -67657,7 +67657,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67669,76 +67669,76 @@
         <v>45032.625</v>
       </c>
       <c r="F755" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G755" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I755">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J755" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K755">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L755">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M755">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N755">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O755">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P755">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q755">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R755">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S755">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T755">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U755">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V755">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W755">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X755">
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z755">
         <v>-1</v>
       </c>
       <c r="AA755">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB755">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC755">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67746,7 +67746,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67758,76 +67758,76 @@
         <v>45032.625</v>
       </c>
       <c r="F756" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G756" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
         <v>3</v>
       </c>
-      <c r="I756">
-        <v>1</v>
-      </c>
       <c r="J756" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K756">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L756">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M756">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N756">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O756">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P756">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q756">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R756">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S756">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T756">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U756">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V756">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W756">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z756">
         <v>-1</v>
       </c>
       <c r="AA756">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB756">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -70416,7 +70416,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5499720</v>
+        <v>5535269</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70428,76 +70428,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F786" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G786" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H786">
+        <v>0</v>
+      </c>
+      <c r="I786">
+        <v>3</v>
+      </c>
+      <c r="J786" t="s">
+        <v>53</v>
+      </c>
+      <c r="K786">
+        <v>4.333</v>
+      </c>
+      <c r="L786">
+        <v>3.75</v>
+      </c>
+      <c r="M786">
+        <v>1.75</v>
+      </c>
+      <c r="N786">
+        <v>4.5</v>
+      </c>
+      <c r="O786">
         <v>4</v>
       </c>
-      <c r="I786">
-        <v>1</v>
-      </c>
-      <c r="J786" t="s">
-        <v>55</v>
-      </c>
-      <c r="K786">
-        <v>1.363</v>
-      </c>
-      <c r="L786">
-        <v>4.75</v>
-      </c>
-      <c r="M786">
-        <v>7.5</v>
-      </c>
-      <c r="N786">
-        <v>1.4</v>
-      </c>
-      <c r="O786">
-        <v>4.75</v>
-      </c>
       <c r="P786">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q786">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R786">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S786">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T786">
         <v>3</v>
       </c>
       <c r="U786">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V786">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W786">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z786">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB786">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC786">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70505,7 +70505,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5499719</v>
+        <v>5499720</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70517,73 +70517,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F787" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G787" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H787">
+        <v>4</v>
+      </c>
+      <c r="I787">
         <v>1</v>
       </c>
-      <c r="I787">
-        <v>3</v>
-      </c>
       <c r="J787" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K787">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L787">
         <v>4.75</v>
       </c>
       <c r="M787">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N787">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="O787">
         <v>4.75</v>
       </c>
       <c r="P787">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q787">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R787">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S787">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T787">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U787">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V787">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W787">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z787">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA787">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB787">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70594,7 +70594,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5535269</v>
+        <v>5499721</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70606,76 +70606,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F788" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G788" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H788">
+        <v>6</v>
+      </c>
+      <c r="I788">
         <v>0</v>
       </c>
-      <c r="I788">
-        <v>3</v>
-      </c>
       <c r="J788" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K788">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="L788">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M788">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N788">
+        <v>1.444</v>
+      </c>
+      <c r="O788">
         <v>4.5</v>
       </c>
-      <c r="O788">
-        <v>4</v>
-      </c>
       <c r="P788">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q788">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R788">
+        <v>1.975</v>
+      </c>
+      <c r="S788">
         <v>1.875</v>
       </c>
-      <c r="S788">
-        <v>1.975</v>
-      </c>
       <c r="T788">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U788">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V788">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W788">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X788">
         <v>-1</v>
       </c>
       <c r="Y788">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA788">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB788">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC788">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70772,7 +70772,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5505056</v>
+        <v>5499719</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70784,55 +70784,55 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F790" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G790" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J790" t="s">
         <v>53</v>
       </c>
       <c r="K790">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="L790">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M790">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="N790">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O790">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P790">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q790">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R790">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S790">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T790">
         <v>3.25</v>
       </c>
       <c r="U790">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V790">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70841,16 +70841,16 @@
         <v>-1</v>
       </c>
       <c r="Y790">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z790">
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB790">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC790">
         <v>-1</v>
@@ -70861,7 +70861,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5499721</v>
+        <v>5505056</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70873,73 +70873,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F791" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G791" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H791">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I791">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J791" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K791">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="L791">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M791">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N791">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O791">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P791">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q791">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R791">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S791">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T791">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U791">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V791">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W791">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X791">
         <v>-1</v>
       </c>
       <c r="Y791">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z791">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB791">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC791">
         <v>-1</v>
@@ -70950,7 +70950,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5702299</v>
+        <v>5541489</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70962,76 +70962,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F792" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G792" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K792">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L792">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M792">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N792">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="O792">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P792">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q792">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R792">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S792">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T792">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U792">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V792">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W792">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X792">
         <v>-1</v>
       </c>
       <c r="Y792">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z792">
         <v>-1</v>
       </c>
       <c r="AA792">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB792">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC792">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71039,7 +71039,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>5559913</v>
+        <v>5702299</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -71051,76 +71051,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F793" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G793" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H793">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I793">
         <v>2</v>
       </c>
       <c r="J793" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K793">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L793">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M793">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N793">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O793">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P793">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q793">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R793">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S793">
+        <v>1.8</v>
+      </c>
+      <c r="T793">
+        <v>3</v>
+      </c>
+      <c r="U793">
+        <v>2.05</v>
+      </c>
+      <c r="V793">
+        <v>1.8</v>
+      </c>
+      <c r="W793">
+        <v>-1</v>
+      </c>
+      <c r="X793">
+        <v>-1</v>
+      </c>
+      <c r="Y793">
         <v>1.9</v>
       </c>
-      <c r="T793">
-        <v>3.5</v>
-      </c>
-      <c r="U793">
-        <v>1.85</v>
-      </c>
-      <c r="V793">
-        <v>2</v>
-      </c>
-      <c r="W793">
-        <v>0.75</v>
-      </c>
-      <c r="X793">
-        <v>-1</v>
-      </c>
-      <c r="Y793">
-        <v>-1</v>
-      </c>
       <c r="Z793">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA793">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB793">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC793">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="794" spans="1:29">
@@ -71128,7 +71128,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5539940</v>
+        <v>5559913</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71140,58 +71140,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F794" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G794" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H794">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I794">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
         <v>55</v>
       </c>
       <c r="K794">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L794">
+        <v>4</v>
+      </c>
+      <c r="M794">
+        <v>3.5</v>
+      </c>
+      <c r="N794">
+        <v>1.75</v>
+      </c>
+      <c r="O794">
+        <v>4.75</v>
+      </c>
+      <c r="P794">
         <v>3.8</v>
       </c>
-      <c r="M794">
-        <v>2.1</v>
-      </c>
-      <c r="N794">
-        <v>3</v>
-      </c>
-      <c r="O794">
-        <v>3.8</v>
-      </c>
-      <c r="P794">
-        <v>2.15</v>
-      </c>
       <c r="Q794">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R794">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S794">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T794">
         <v>3.5</v>
       </c>
       <c r="U794">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V794">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W794">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X794">
         <v>-1</v>
@@ -71200,13 +71200,13 @@
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>0.9199999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA794">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB794">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC794">
         <v>-1</v>
@@ -71217,7 +71217,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5539941</v>
+        <v>5539940</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71229,76 +71229,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F795" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G795" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H795">
+        <v>4</v>
+      </c>
+      <c r="I795">
         <v>0</v>
       </c>
-      <c r="I795">
-        <v>1</v>
-      </c>
       <c r="J795" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K795">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L795">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M795">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N795">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O795">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P795">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q795">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R795">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S795">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T795">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U795">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V795">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W795">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X795">
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z795">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA795">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB795">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC795">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71306,7 +71306,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5541488</v>
+        <v>5539941</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71318,76 +71318,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F796" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G796" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796">
         <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K796">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L796">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M796">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N796">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O796">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P796">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q796">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R796">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S796">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T796">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U796">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V796">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W796">
         <v>-1</v>
       </c>
       <c r="X796">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y796">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z796">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA796">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB796">
         <v>-1</v>
       </c>
       <c r="AC796">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71395,7 +71395,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5541489</v>
+        <v>5541488</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71407,76 +71407,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F797" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G797" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H797">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I797">
+        <v>1</v>
+      </c>
+      <c r="J797" t="s">
+        <v>54</v>
+      </c>
+      <c r="K797">
+        <v>2.625</v>
+      </c>
+      <c r="L797">
+        <v>3.5</v>
+      </c>
+      <c r="M797">
+        <v>2.6</v>
+      </c>
+      <c r="N797">
+        <v>2.6</v>
+      </c>
+      <c r="O797">
+        <v>3.8</v>
+      </c>
+      <c r="P797">
+        <v>2.5</v>
+      </c>
+      <c r="Q797">
+        <v>0</v>
+      </c>
+      <c r="R797">
+        <v>1.975</v>
+      </c>
+      <c r="S797">
+        <v>1.875</v>
+      </c>
+      <c r="T797">
+        <v>3.25</v>
+      </c>
+      <c r="U797">
+        <v>1.85</v>
+      </c>
+      <c r="V797">
         <v>2</v>
       </c>
-      <c r="J797" t="s">
-        <v>55</v>
-      </c>
-      <c r="K797">
-        <v>1.533</v>
-      </c>
-      <c r="L797">
-        <v>4.5</v>
-      </c>
-      <c r="M797">
-        <v>5.75</v>
-      </c>
-      <c r="N797">
-        <v>1.285</v>
-      </c>
-      <c r="O797">
-        <v>6</v>
-      </c>
-      <c r="P797">
-        <v>9</v>
-      </c>
-      <c r="Q797">
-        <v>-1.75</v>
-      </c>
-      <c r="R797">
-        <v>1.95</v>
-      </c>
-      <c r="S797">
-        <v>1.9</v>
-      </c>
-      <c r="T797">
-        <v>3.5</v>
-      </c>
-      <c r="U797">
-        <v>1.95</v>
-      </c>
-      <c r="V797">
-        <v>1.9</v>
-      </c>
       <c r="W797">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X797">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA797">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB797">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71484,7 +71484,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5535270</v>
+        <v>5539306</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71496,76 +71496,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F798" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G798" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798">
         <v>0</v>
       </c>
-      <c r="I798">
-        <v>5</v>
-      </c>
       <c r="J798" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L798">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M798">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N798">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O798">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P798">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q798">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R798">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S798">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T798">
         <v>2.75</v>
       </c>
       <c r="U798">
+        <v>2</v>
+      </c>
+      <c r="V798">
         <v>1.85</v>
       </c>
-      <c r="V798">
-        <v>2</v>
-      </c>
       <c r="W798">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA798">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB798">
+        <v>-1</v>
+      </c>
+      <c r="AC798">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC798">
-        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71573,7 +71573,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5559912</v>
+        <v>5535270</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71585,73 +71585,73 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F799" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G799" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H799">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J799" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K799">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L799">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M799">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N799">
         <v>3.1</v>
       </c>
       <c r="O799">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P799">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q799">
         <v>0.25</v>
       </c>
       <c r="R799">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S799">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T799">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U799">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V799">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W799">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X799">
         <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z799">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB799">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC799">
         <v>-1</v>
@@ -71662,7 +71662,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5539306</v>
+        <v>5559912</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71674,58 +71674,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F800" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G800" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J800" t="s">
         <v>55</v>
       </c>
       <c r="K800">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L800">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M800">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N800">
+        <v>3.1</v>
+      </c>
+      <c r="O800">
+        <v>4.2</v>
+      </c>
+      <c r="P800">
         <v>2.05</v>
       </c>
-      <c r="O800">
-        <v>3.8</v>
-      </c>
-      <c r="P800">
-        <v>3.4</v>
-      </c>
       <c r="Q800">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R800">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S800">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T800">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U800">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V800">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W800">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="X800">
         <v>-1</v>
@@ -71734,16 +71734,16 @@
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA800">
         <v>-1</v>
       </c>
       <c r="AB800">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC800">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72819,7 +72819,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72831,76 +72831,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F813" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G813" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I813">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J813" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K813">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L813">
+        <v>4.5</v>
+      </c>
+      <c r="M813">
+        <v>8</v>
+      </c>
+      <c r="N813">
+        <v>1.55</v>
+      </c>
+      <c r="O813">
+        <v>4</v>
+      </c>
+      <c r="P813">
         <v>6</v>
       </c>
-      <c r="M813">
-        <v>10</v>
-      </c>
-      <c r="N813">
-        <v>1.2</v>
-      </c>
-      <c r="O813">
-        <v>7</v>
-      </c>
-      <c r="P813">
-        <v>17</v>
-      </c>
       <c r="Q813">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R813">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S813">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T813">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U813">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V813">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W813">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X813">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y813">
         <v>-1</v>
       </c>
       <c r="Z813">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA813">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB813">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC813">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72908,7 +72908,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72920,76 +72920,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F814" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G814" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H814">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J814" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K814">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L814">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M814">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N814">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O814">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P814">
+        <v>17</v>
+      </c>
+      <c r="Q814">
+        <v>-2.25</v>
+      </c>
+      <c r="R814">
+        <v>2.05</v>
+      </c>
+      <c r="S814">
+        <v>1.8</v>
+      </c>
+      <c r="T814">
+        <v>3.5</v>
+      </c>
+      <c r="U814">
+        <v>2</v>
+      </c>
+      <c r="V814">
+        <v>1.85</v>
+      </c>
+      <c r="W814">
+        <v>-1</v>
+      </c>
+      <c r="X814">
         <v>6</v>
       </c>
-      <c r="Q814">
-        <v>-1</v>
-      </c>
-      <c r="R814">
-        <v>1.9</v>
-      </c>
-      <c r="S814">
-        <v>1.95</v>
-      </c>
-      <c r="T814">
-        <v>2.75</v>
-      </c>
-      <c r="U814">
-        <v>1.95</v>
-      </c>
-      <c r="V814">
-        <v>1.9</v>
-      </c>
-      <c r="W814">
-        <v>0.55</v>
-      </c>
-      <c r="X814">
-        <v>-1</v>
-      </c>
       <c r="Y814">
         <v>-1</v>
       </c>
       <c r="Z814">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA814">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB814">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC814">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -81719,7 +81719,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81731,76 +81731,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F913" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G913" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H913">
+        <v>0</v>
+      </c>
+      <c r="I913">
         <v>3</v>
       </c>
-      <c r="I913">
-        <v>0</v>
-      </c>
       <c r="J913" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K913">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L913">
         <v>3.75</v>
       </c>
       <c r="M913">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N913">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O913">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P913">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q913">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R913">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S913">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T913">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U913">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V913">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W913">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X913">
         <v>-1</v>
       </c>
       <c r="Y913">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z913">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA913">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC913">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -81808,7 +81808,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81820,76 +81820,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F914" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G914" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H914">
+        <v>3</v>
+      </c>
+      <c r="I914">
         <v>0</v>
       </c>
-      <c r="I914">
-        <v>3</v>
-      </c>
       <c r="J914" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K914">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L914">
         <v>3.75</v>
       </c>
       <c r="M914">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N914">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O914">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P914">
+        <v>3.8</v>
+      </c>
+      <c r="Q914">
+        <v>-0.5</v>
+      </c>
+      <c r="R914">
+        <v>1.975</v>
+      </c>
+      <c r="S914">
+        <v>1.875</v>
+      </c>
+      <c r="T914">
+        <v>2.5</v>
+      </c>
+      <c r="U914">
         <v>2</v>
       </c>
-      <c r="Q914">
-        <v>0.5</v>
-      </c>
-      <c r="R914">
-        <v>1.825</v>
-      </c>
-      <c r="S914">
-        <v>2.025</v>
-      </c>
-      <c r="T914">
-        <v>3</v>
-      </c>
-      <c r="U914">
-        <v>2.025</v>
-      </c>
       <c r="V914">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W914">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X914">
         <v>-1</v>
       </c>
       <c r="Y914">
+        <v>-1</v>
+      </c>
+      <c r="Z914">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA914">
+        <v>-1</v>
+      </c>
+      <c r="AB914">
         <v>1</v>
       </c>
-      <c r="Z914">
-        <v>-1</v>
-      </c>
-      <c r="AA914">
-        <v>1.025</v>
-      </c>
-      <c r="AB914">
-        <v>0</v>
-      </c>
       <c r="AC914">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="915" spans="1:29">
@@ -82164,7 +82164,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C918" t="s">
         <v>28</v>
@@ -82176,76 +82176,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F918" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G918" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I918">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J918" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K918">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L918">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M918">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N918">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O918">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P918">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q918">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R918">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S918">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T918">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U918">
+        <v>1.875</v>
+      </c>
+      <c r="V918">
         <v>1.975</v>
       </c>
-      <c r="V918">
-        <v>1.875</v>
-      </c>
       <c r="W918">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X918">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y918">
         <v>-1</v>
       </c>
       <c r="Z918">
+        <v>0.825</v>
+      </c>
+      <c r="AA918">
+        <v>-1</v>
+      </c>
+      <c r="AB918">
         <v>-0.5</v>
       </c>
-      <c r="AA918">
-        <v>0.475</v>
-      </c>
-      <c r="AB918">
-        <v>-1</v>
-      </c>
       <c r="AC918">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="919" spans="1:29">
@@ -82253,7 +82253,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -82265,76 +82265,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F919" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G919" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H919">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I919">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J919" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K919">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L919">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M919">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N919">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O919">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P919">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q919">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R919">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S919">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T919">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U919">
+        <v>1.975</v>
+      </c>
+      <c r="V919">
         <v>1.875</v>
       </c>
-      <c r="V919">
-        <v>1.975</v>
-      </c>
       <c r="W919">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X919">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y919">
         <v>-1</v>
       </c>
       <c r="Z919">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA919">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB919">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC919">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="920" spans="1:29">
@@ -87385,7 +87385,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6838499</v>
+        <v>6838498</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87394,49 +87394,49 @@
         <v>28</v>
       </c>
       <c r="E977" s="2">
-        <v>45325.66666666666</v>
+        <v>45325.61458333334</v>
       </c>
       <c r="F977" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G977" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K977">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L977">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M977">
+        <v>2.75</v>
+      </c>
+      <c r="N977">
+        <v>2.375</v>
+      </c>
+      <c r="O977">
+        <v>3.5</v>
+      </c>
+      <c r="P977">
+        <v>2.8</v>
+      </c>
+      <c r="Q977">
+        <v>-0.25</v>
+      </c>
+      <c r="R977">
         <v>2.1</v>
       </c>
-      <c r="N977">
-        <v>3.6</v>
-      </c>
-      <c r="O977">
-        <v>3.75</v>
-      </c>
-      <c r="P977">
-        <v>1.909</v>
-      </c>
-      <c r="Q977">
-        <v>0.5</v>
-      </c>
-      <c r="R977">
-        <v>1.91</v>
-      </c>
       <c r="S977">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="T977">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U977">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V977">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87459,7 +87459,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>6838500</v>
+        <v>6838499</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87468,49 +87468,49 @@
         <v>28</v>
       </c>
       <c r="E978" s="2">
-        <v>45325.70833333334</v>
+        <v>45325.66666666666</v>
       </c>
       <c r="F978" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G978" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K978">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L978">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M978">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N978">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O978">
         <v>3.75</v>
       </c>
       <c r="P978">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q978">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R978">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="S978">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="T978">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U978">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V978">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87533,7 +87533,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>6838581</v>
+        <v>6838500</v>
       </c>
       <c r="C979" t="s">
         <v>28</v>
@@ -87542,49 +87542,49 @@
         <v>28</v>
       </c>
       <c r="E979" s="2">
-        <v>45326.34375</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F979" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G979" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K979">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L979">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M979">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N979">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="O979">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P979">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q979">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R979">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="S979">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="T979">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U979">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V979">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87607,7 +87607,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>6838501</v>
+        <v>6838581</v>
       </c>
       <c r="C980" t="s">
         <v>28</v>
@@ -87616,49 +87616,49 @@
         <v>28</v>
       </c>
       <c r="E980" s="2">
-        <v>45326.4375</v>
+        <v>45326.34375</v>
       </c>
       <c r="F980" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G980" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K980">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L980">
         <v>3.6</v>
       </c>
       <c r="M980">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N980">
+        <v>2.625</v>
+      </c>
+      <c r="O980">
         <v>3.6</v>
       </c>
-      <c r="O980">
-        <v>3.8</v>
-      </c>
       <c r="P980">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q980">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R980">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S980">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T980">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U980">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V980">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W980">
         <v>0</v>
@@ -87673,6 +87673,228 @@
         <v>0</v>
       </c>
       <c r="AA980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:27">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>6838503</v>
+      </c>
+      <c r="C981" t="s">
+        <v>28</v>
+      </c>
+      <c r="D981" t="s">
+        <v>28</v>
+      </c>
+      <c r="E981" s="2">
+        <v>45326.4375</v>
+      </c>
+      <c r="F981" t="s">
+        <v>33</v>
+      </c>
+      <c r="G981" t="s">
+        <v>51</v>
+      </c>
+      <c r="K981">
+        <v>1.5</v>
+      </c>
+      <c r="L981">
+        <v>4.333</v>
+      </c>
+      <c r="M981">
+        <v>6</v>
+      </c>
+      <c r="N981">
+        <v>1.4</v>
+      </c>
+      <c r="O981">
+        <v>4.333</v>
+      </c>
+      <c r="P981">
+        <v>8</v>
+      </c>
+      <c r="Q981">
+        <v>-1.25</v>
+      </c>
+      <c r="R981">
+        <v>1.9</v>
+      </c>
+      <c r="S981">
+        <v>2</v>
+      </c>
+      <c r="T981">
+        <v>2.75</v>
+      </c>
+      <c r="U981">
+        <v>1.875</v>
+      </c>
+      <c r="V981">
+        <v>1.975</v>
+      </c>
+      <c r="W981">
+        <v>0</v>
+      </c>
+      <c r="X981">
+        <v>0</v>
+      </c>
+      <c r="Y981">
+        <v>0</v>
+      </c>
+      <c r="Z981">
+        <v>0</v>
+      </c>
+      <c r="AA981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:27">
+      <c r="A982" s="1">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <v>6838501</v>
+      </c>
+      <c r="C982" t="s">
+        <v>28</v>
+      </c>
+      <c r="D982" t="s">
+        <v>28</v>
+      </c>
+      <c r="E982" s="2">
+        <v>45326.4375</v>
+      </c>
+      <c r="F982" t="s">
+        <v>45</v>
+      </c>
+      <c r="G982" t="s">
+        <v>42</v>
+      </c>
+      <c r="K982">
+        <v>3.25</v>
+      </c>
+      <c r="L982">
+        <v>3.6</v>
+      </c>
+      <c r="M982">
+        <v>2.1</v>
+      </c>
+      <c r="N982">
+        <v>3.8</v>
+      </c>
+      <c r="O982">
+        <v>3.8</v>
+      </c>
+      <c r="P982">
+        <v>1.85</v>
+      </c>
+      <c r="Q982">
+        <v>0.5</v>
+      </c>
+      <c r="R982">
+        <v>2.06</v>
+      </c>
+      <c r="S982">
+        <v>1.84</v>
+      </c>
+      <c r="T982">
+        <v>3</v>
+      </c>
+      <c r="U982">
+        <v>2.025</v>
+      </c>
+      <c r="V982">
+        <v>1.825</v>
+      </c>
+      <c r="W982">
+        <v>0</v>
+      </c>
+      <c r="X982">
+        <v>0</v>
+      </c>
+      <c r="Y982">
+        <v>0</v>
+      </c>
+      <c r="Z982">
+        <v>0</v>
+      </c>
+      <c r="AA982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:27">
+      <c r="A983" s="1">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <v>6838502</v>
+      </c>
+      <c r="C983" t="s">
+        <v>28</v>
+      </c>
+      <c r="D983" t="s">
+        <v>28</v>
+      </c>
+      <c r="E983" s="2">
+        <v>45326.53125</v>
+      </c>
+      <c r="F983" t="s">
+        <v>34</v>
+      </c>
+      <c r="G983" t="s">
+        <v>32</v>
+      </c>
+      <c r="K983">
+        <v>1.952</v>
+      </c>
+      <c r="L983">
+        <v>3.5</v>
+      </c>
+      <c r="M983">
+        <v>3.75</v>
+      </c>
+      <c r="N983">
+        <v>1.95</v>
+      </c>
+      <c r="O983">
+        <v>3.5</v>
+      </c>
+      <c r="P983">
+        <v>3.75</v>
+      </c>
+      <c r="Q983">
+        <v>-0.5</v>
+      </c>
+      <c r="R983">
+        <v>2.02</v>
+      </c>
+      <c r="S983">
+        <v>1.88</v>
+      </c>
+      <c r="T983">
+        <v>2.5</v>
+      </c>
+      <c r="U983">
+        <v>1.85</v>
+      </c>
+      <c r="V983">
+        <v>2</v>
+      </c>
+      <c r="W983">
+        <v>0</v>
+      </c>
+      <c r="X983">
+        <v>0</v>
+      </c>
+      <c r="Y983">
+        <v>0</v>
+      </c>
+      <c r="Z983">
+        <v>0</v>
+      </c>
+      <c r="AA983">
         <v>0</v>
       </c>
     </row>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -53061,7 +53061,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5159810</v>
+        <v>5159809</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53073,76 +53073,76 @@
         <v>44857.39583333334</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G591" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H591">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591" t="s">
+        <v>53</v>
+      </c>
+      <c r="K591">
+        <v>4.2</v>
+      </c>
+      <c r="L591">
+        <v>3.6</v>
+      </c>
+      <c r="M591">
+        <v>1.833</v>
+      </c>
+      <c r="N591">
+        <v>4.2</v>
+      </c>
+      <c r="O591">
+        <v>3.75</v>
+      </c>
+      <c r="P591">
+        <v>1.75</v>
+      </c>
+      <c r="Q591">
+        <v>0.75</v>
+      </c>
+      <c r="R591">
+        <v>1.825</v>
+      </c>
+      <c r="S591">
+        <v>2.025</v>
+      </c>
+      <c r="T591">
+        <v>2.75</v>
+      </c>
+      <c r="U591">
         <v>2</v>
       </c>
-      <c r="J591" t="s">
-        <v>55</v>
-      </c>
-      <c r="K591">
-        <v>8</v>
-      </c>
-      <c r="L591">
-        <v>5</v>
-      </c>
-      <c r="M591">
-        <v>1.363</v>
-      </c>
-      <c r="N591">
-        <v>11</v>
-      </c>
-      <c r="O591">
-        <v>5.5</v>
-      </c>
-      <c r="P591">
-        <v>1.3</v>
-      </c>
-      <c r="Q591">
-        <v>1.75</v>
-      </c>
-      <c r="R591">
+      <c r="V591">
         <v>1.85</v>
       </c>
-      <c r="S591">
-        <v>2</v>
-      </c>
-      <c r="T591">
-        <v>3.25</v>
-      </c>
-      <c r="U591">
-        <v>2.025</v>
-      </c>
-      <c r="V591">
-        <v>1.825</v>
-      </c>
       <c r="W591">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z591">
+        <v>-0.5</v>
+      </c>
+      <c r="AA591">
+        <v>0.5125</v>
+      </c>
+      <c r="AB591">
+        <v>-1</v>
+      </c>
+      <c r="AC591">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA591">
-        <v>-1</v>
-      </c>
-      <c r="AB591">
-        <v>1.025</v>
-      </c>
-      <c r="AC591">
-        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53150,7 +53150,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5159809</v>
+        <v>5159810</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53162,76 +53162,76 @@
         <v>44857.39583333334</v>
       </c>
       <c r="F592" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G592" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J592" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K592">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="L592">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M592">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N592">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="O592">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P592">
+        <v>1.3</v>
+      </c>
+      <c r="Q592">
         <v>1.75</v>
       </c>
-      <c r="Q592">
-        <v>0.75</v>
-      </c>
       <c r="R592">
+        <v>1.85</v>
+      </c>
+      <c r="S592">
+        <v>2</v>
+      </c>
+      <c r="T592">
+        <v>3.25</v>
+      </c>
+      <c r="U592">
+        <v>2.025</v>
+      </c>
+      <c r="V592">
         <v>1.825</v>
       </c>
-      <c r="S592">
-        <v>2.025</v>
-      </c>
-      <c r="T592">
-        <v>2.75</v>
-      </c>
-      <c r="U592">
-        <v>2</v>
-      </c>
-      <c r="V592">
-        <v>1.85</v>
-      </c>
       <c r="W592">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X592">
         <v>-1</v>
       </c>
       <c r="Y592">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z592">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA592">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB592">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC592">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -56710,7 +56710,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56722,76 +56722,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F632" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G632" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K632">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L632">
         <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N632">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q632">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S632">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U632">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V632">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X632">
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA632">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC632">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56799,7 +56799,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56811,76 +56811,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F633" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
         <v>2</v>
       </c>
-      <c r="I633">
-        <v>1</v>
-      </c>
       <c r="J633" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K633">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L633">
         <v>3.5</v>
       </c>
       <c r="M633">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N633">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P633">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q633">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R633">
+        <v>2</v>
+      </c>
+      <c r="S633">
+        <v>1.85</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>2.025</v>
+      </c>
+      <c r="V633">
         <v>1.825</v>
       </c>
-      <c r="S633">
-        <v>2.025</v>
-      </c>
-      <c r="T633">
-        <v>3</v>
-      </c>
-      <c r="U633">
-        <v>1.95</v>
-      </c>
-      <c r="V633">
-        <v>1.9</v>
-      </c>
       <c r="W633">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X633">
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z633">
+        <v>-1</v>
+      </c>
+      <c r="AA633">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.825</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>0</v>
-      </c>
-      <c r="AC633">
-        <v>-0</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56888,7 +56888,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56900,76 +56900,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F634" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G634" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K634">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L634">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M634">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N634">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O634">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P634">
         <v>6.5</v>
       </c>
       <c r="Q634">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R634">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S634">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T634">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U634">
+        <v>1.825</v>
+      </c>
+      <c r="V634">
         <v>2.025</v>
       </c>
-      <c r="V634">
-        <v>1.825</v>
-      </c>
       <c r="W634">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X634">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA634">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56977,7 +56977,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56989,76 +56989,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F635" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G635" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K635">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L635">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M635">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N635">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O635">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P635">
         <v>6.5</v>
       </c>
       <c r="Q635">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R635">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S635">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T635">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U635">
+        <v>2.025</v>
+      </c>
+      <c r="V635">
         <v>1.825</v>
       </c>
-      <c r="V635">
-        <v>2.025</v>
-      </c>
       <c r="W635">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA635">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB635">
         <v>-1</v>
       </c>
       <c r="AC635">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57155,7 +57155,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57167,10 +57167,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F637" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G637" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H637">
         <v>2</v>
@@ -57182,58 +57182,58 @@
         <v>54</v>
       </c>
       <c r="K637">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L637">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M637">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N637">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O637">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P637">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q637">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R637">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S637">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T637">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U637">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V637">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W637">
         <v>-1</v>
       </c>
       <c r="X637">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA637">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB637">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57244,7 +57244,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57256,10 +57256,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F638" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G638" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -57271,58 +57271,58 @@
         <v>54</v>
       </c>
       <c r="K638">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L638">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M638">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N638">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O638">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P638">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q638">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R638">
+        <v>1.8</v>
+      </c>
+      <c r="S638">
+        <v>2.05</v>
+      </c>
+      <c r="T638">
+        <v>2.75</v>
+      </c>
+      <c r="U638">
         <v>1.975</v>
       </c>
-      <c r="S638">
+      <c r="V638">
         <v>1.875</v>
       </c>
-      <c r="T638">
-        <v>3</v>
-      </c>
-      <c r="U638">
-        <v>1.825</v>
-      </c>
-      <c r="V638">
-        <v>2.025</v>
-      </c>
       <c r="W638">
         <v>-1</v>
       </c>
       <c r="X638">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
+        <v>0.4</v>
+      </c>
+      <c r="AA638">
+        <v>-0.5</v>
+      </c>
+      <c r="AB638">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA638">
-        <v>-1</v>
-      </c>
-      <c r="AB638">
-        <v>0.825</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -58401,7 +58401,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58413,73 +58413,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F651" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G651" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J651" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K651">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L651">
         <v>3.5</v>
       </c>
       <c r="M651">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N651">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O651">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P651">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q651">
         <v>0.5</v>
       </c>
       <c r="R651">
+        <v>2.025</v>
+      </c>
+      <c r="S651">
         <v>1.825</v>
       </c>
-      <c r="S651">
-        <v>2.025</v>
-      </c>
       <c r="T651">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U651">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V651">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z651">
+        <v>-1</v>
+      </c>
+      <c r="AA651">
         <v>0.825</v>
       </c>
-      <c r="AA651">
-        <v>-1</v>
-      </c>
       <c r="AB651">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58490,7 +58490,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58502,73 +58502,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F652" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G652" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I652">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J652" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K652">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L652">
         <v>3.5</v>
       </c>
       <c r="M652">
+        <v>2.15</v>
+      </c>
+      <c r="N652">
+        <v>4</v>
+      </c>
+      <c r="O652">
+        <v>3.4</v>
+      </c>
+      <c r="P652">
         <v>2</v>
-      </c>
-      <c r="N652">
-        <v>4.2</v>
-      </c>
-      <c r="O652">
-        <v>3.6</v>
-      </c>
-      <c r="P652">
-        <v>1.85</v>
       </c>
       <c r="Q652">
         <v>0.5</v>
       </c>
       <c r="R652">
+        <v>1.825</v>
+      </c>
+      <c r="S652">
         <v>2.025</v>
       </c>
-      <c r="S652">
+      <c r="T652">
+        <v>2.25</v>
+      </c>
+      <c r="U652">
         <v>1.825</v>
       </c>
-      <c r="T652">
-        <v>2.75</v>
-      </c>
-      <c r="U652">
-        <v>1.975</v>
-      </c>
       <c r="V652">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y652">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA652">
+        <v>-1</v>
+      </c>
+      <c r="AB652">
         <v>0.825</v>
-      </c>
-      <c r="AB652">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,76 +67402,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F752" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G752" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J752" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K752">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L752">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M752">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N752">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O752">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P752">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q752">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R752">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S752">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T752">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U752">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V752">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W752">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X752">
         <v>-1</v>
       </c>
       <c r="Y752">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z752">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA752">
         <v>-1</v>
       </c>
       <c r="AB752">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC752">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,76 +67491,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F753" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G753" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J753" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K753">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L753">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M753">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N753">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O753">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P753">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q753">
+        <v>1.75</v>
+      </c>
+      <c r="R753">
+        <v>2.02</v>
+      </c>
+      <c r="S753">
+        <v>1.88</v>
+      </c>
+      <c r="T753">
+        <v>3.5</v>
+      </c>
+      <c r="U753">
+        <v>1.825</v>
+      </c>
+      <c r="V753">
+        <v>2.025</v>
+      </c>
+      <c r="W753">
+        <v>-1</v>
+      </c>
+      <c r="X753">
+        <v>-1</v>
+      </c>
+      <c r="Y753">
         <v>0.25</v>
       </c>
-      <c r="R753">
-        <v>2.025</v>
-      </c>
-      <c r="S753">
-        <v>1.825</v>
-      </c>
-      <c r="T753">
-        <v>2.5</v>
-      </c>
-      <c r="U753">
-        <v>1.875</v>
-      </c>
-      <c r="V753">
-        <v>1.975</v>
-      </c>
-      <c r="W753">
-        <v>2.3</v>
-      </c>
-      <c r="X753">
-        <v>-1</v>
-      </c>
-      <c r="Y753">
-        <v>-1</v>
-      </c>
       <c r="Z753">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA753">
         <v>-1</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC753">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -87276,10 +87276,10 @@
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="S975">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T975">
         <v>2.75</v>
@@ -87498,19 +87498,19 @@
         <v>0.25</v>
       </c>
       <c r="R978">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S978">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T978">
         <v>3.25</v>
       </c>
       <c r="U978">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V978">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87572,19 +87572,19 @@
         <v>-0.75</v>
       </c>
       <c r="R979">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S979">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T979">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U979">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V979">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87646,10 +87646,10 @@
         <v>0</v>
       </c>
       <c r="R980">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S980">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T980">
         <v>2.5</v>
@@ -87708,31 +87708,31 @@
         <v>6</v>
       </c>
       <c r="N981">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O981">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P981">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q981">
         <v>-1.25</v>
       </c>
       <c r="R981">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S981">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T981">
         <v>2.75</v>
       </c>
       <c r="U981">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V981">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W981">
         <v>0</v>
@@ -87794,19 +87794,19 @@
         <v>0.5</v>
       </c>
       <c r="R982">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S982">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T982">
         <v>3</v>
       </c>
       <c r="U982">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V982">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W982">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -56710,7 +56710,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56722,76 +56722,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F632" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G632" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
         <v>2</v>
       </c>
-      <c r="I632">
-        <v>1</v>
-      </c>
       <c r="J632" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K632">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L632">
         <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N632">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P632">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R632">
+        <v>2</v>
+      </c>
+      <c r="S632">
+        <v>1.85</v>
+      </c>
+      <c r="T632">
+        <v>2.5</v>
+      </c>
+      <c r="U632">
+        <v>2.025</v>
+      </c>
+      <c r="V632">
         <v>1.825</v>
       </c>
-      <c r="S632">
-        <v>2.025</v>
-      </c>
-      <c r="T632">
-        <v>3</v>
-      </c>
-      <c r="U632">
-        <v>1.95</v>
-      </c>
-      <c r="V632">
-        <v>1.9</v>
-      </c>
       <c r="W632">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X632">
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z632">
+        <v>-1</v>
+      </c>
+      <c r="AA632">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB632">
+        <v>-1</v>
+      </c>
+      <c r="AC632">
         <v>0.825</v>
-      </c>
-      <c r="AA632">
-        <v>-1</v>
-      </c>
-      <c r="AB632">
-        <v>0</v>
-      </c>
-      <c r="AC632">
-        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56799,7 +56799,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56811,76 +56811,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F633" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G633" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K633">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L633">
         <v>3.5</v>
       </c>
       <c r="M633">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N633">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O633">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q633">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R633">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S633">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U633">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V633">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W633">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X633">
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z633">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA633">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB633">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC633">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56888,7 +56888,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56900,76 +56900,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F634" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G634" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K634">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L634">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M634">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N634">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O634">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P634">
         <v>6.5</v>
       </c>
       <c r="Q634">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R634">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S634">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T634">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U634">
+        <v>2.025</v>
+      </c>
+      <c r="V634">
         <v>1.825</v>
       </c>
-      <c r="V634">
-        <v>2.025</v>
-      </c>
       <c r="W634">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA634">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56977,7 +56977,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56989,76 +56989,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F635" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G635" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K635">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L635">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M635">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N635">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O635">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P635">
         <v>6.5</v>
       </c>
       <c r="Q635">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R635">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S635">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T635">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U635">
+        <v>1.825</v>
+      </c>
+      <c r="V635">
         <v>2.025</v>
       </c>
-      <c r="V635">
-        <v>1.825</v>
-      </c>
       <c r="W635">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X635">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA635">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB635">
         <v>-1</v>
       </c>
       <c r="AC635">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57155,7 +57155,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57167,10 +57167,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F637" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G637" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H637">
         <v>2</v>
@@ -57182,58 +57182,58 @@
         <v>54</v>
       </c>
       <c r="K637">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L637">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M637">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N637">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O637">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P637">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q637">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R637">
+        <v>1.8</v>
+      </c>
+      <c r="S637">
+        <v>2.05</v>
+      </c>
+      <c r="T637">
+        <v>2.75</v>
+      </c>
+      <c r="U637">
         <v>1.975</v>
       </c>
-      <c r="S637">
+      <c r="V637">
         <v>1.875</v>
       </c>
-      <c r="T637">
-        <v>3</v>
-      </c>
-      <c r="U637">
-        <v>1.825</v>
-      </c>
-      <c r="V637">
-        <v>2.025</v>
-      </c>
       <c r="W637">
         <v>-1</v>
       </c>
       <c r="X637">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
+        <v>0.4</v>
+      </c>
+      <c r="AA637">
+        <v>-0.5</v>
+      </c>
+      <c r="AB637">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA637">
-        <v>-1</v>
-      </c>
-      <c r="AB637">
-        <v>0.825</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57244,7 +57244,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57256,10 +57256,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F638" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G638" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -57271,58 +57271,58 @@
         <v>54</v>
       </c>
       <c r="K638">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L638">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M638">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N638">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O638">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P638">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q638">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R638">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S638">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T638">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U638">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V638">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W638">
         <v>-1</v>
       </c>
       <c r="X638">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA638">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB638">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -58401,7 +58401,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58413,73 +58413,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F651" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G651" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J651" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K651">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
         <v>3.5</v>
       </c>
       <c r="M651">
+        <v>2.15</v>
+      </c>
+      <c r="N651">
+        <v>4</v>
+      </c>
+      <c r="O651">
+        <v>3.4</v>
+      </c>
+      <c r="P651">
         <v>2</v>
-      </c>
-      <c r="N651">
-        <v>4.2</v>
-      </c>
-      <c r="O651">
-        <v>3.6</v>
-      </c>
-      <c r="P651">
-        <v>1.85</v>
       </c>
       <c r="Q651">
         <v>0.5</v>
       </c>
       <c r="R651">
+        <v>1.825</v>
+      </c>
+      <c r="S651">
         <v>2.025</v>
       </c>
-      <c r="S651">
+      <c r="T651">
+        <v>2.25</v>
+      </c>
+      <c r="U651">
         <v>1.825</v>
       </c>
-      <c r="T651">
-        <v>2.75</v>
-      </c>
-      <c r="U651">
-        <v>1.975</v>
-      </c>
       <c r="V651">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y651">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA651">
+        <v>-1</v>
+      </c>
+      <c r="AB651">
         <v>0.825</v>
-      </c>
-      <c r="AB651">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58490,7 +58490,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58502,73 +58502,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F652" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G652" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J652" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L652">
         <v>3.5</v>
       </c>
       <c r="M652">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N652">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O652">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q652">
         <v>0.5</v>
       </c>
       <c r="R652">
+        <v>2.025</v>
+      </c>
+      <c r="S652">
         <v>1.825</v>
       </c>
-      <c r="S652">
-        <v>2.025</v>
-      </c>
       <c r="T652">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V652">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z652">
+        <v>-1</v>
+      </c>
+      <c r="AA652">
         <v>0.825</v>
       </c>
-      <c r="AA652">
-        <v>-1</v>
-      </c>
       <c r="AB652">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -87276,10 +87276,10 @@
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S975">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T975">
         <v>2.75</v>
@@ -87424,10 +87424,10 @@
         <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S977">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T977">
         <v>2.5</v>
@@ -87492,16 +87492,16 @@
         <v>3.75</v>
       </c>
       <c r="P978">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q978">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R978">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S978">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T978">
         <v>3.25</v>
@@ -87646,10 +87646,10 @@
         <v>0</v>
       </c>
       <c r="R980">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S980">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T980">
         <v>2.5</v>
@@ -87720,10 +87720,10 @@
         <v>-1.25</v>
       </c>
       <c r="R981">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S981">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T981">
         <v>2.75</v>
@@ -87782,22 +87782,22 @@
         <v>2.1</v>
       </c>
       <c r="N982">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O982">
         <v>3.8</v>
       </c>
       <c r="P982">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q982">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R982">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S982">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T982">
         <v>3</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -56710,7 +56710,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56722,76 +56722,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F632" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G632" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K632">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L632">
         <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N632">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q632">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S632">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U632">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V632">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X632">
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA632">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC632">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56799,7 +56799,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56811,76 +56811,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F633" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
         <v>2</v>
       </c>
-      <c r="I633">
-        <v>1</v>
-      </c>
       <c r="J633" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K633">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L633">
         <v>3.5</v>
       </c>
       <c r="M633">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N633">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P633">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q633">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R633">
+        <v>2</v>
+      </c>
+      <c r="S633">
+        <v>1.85</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>2.025</v>
+      </c>
+      <c r="V633">
         <v>1.825</v>
       </c>
-      <c r="S633">
-        <v>2.025</v>
-      </c>
-      <c r="T633">
-        <v>3</v>
-      </c>
-      <c r="U633">
-        <v>1.95</v>
-      </c>
-      <c r="V633">
-        <v>1.9</v>
-      </c>
       <c r="W633">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X633">
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z633">
+        <v>-1</v>
+      </c>
+      <c r="AA633">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.825</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>0</v>
-      </c>
-      <c r="AC633">
-        <v>-0</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -58668,7 +58668,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58680,13 +58680,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F654" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G654" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -58695,43 +58695,43 @@
         <v>55</v>
       </c>
       <c r="K654">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L654">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M654">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N654">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O654">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P654">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q654">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R654">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S654">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T654">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U654">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V654">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W654">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
@@ -58740,16 +58740,16 @@
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58757,7 +58757,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58769,13 +58769,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F655" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G655" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -58784,43 +58784,43 @@
         <v>55</v>
       </c>
       <c r="K655">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L655">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M655">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N655">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O655">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P655">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q655">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R655">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S655">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T655">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U655">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V655">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W655">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X655">
         <v>-1</v>
@@ -58829,16 +58829,16 @@
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA655">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -59202,7 +59202,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59214,76 +59214,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F660" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G660" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H660">
         <v>1</v>
       </c>
       <c r="I660">
+        <v>1</v>
+      </c>
+      <c r="J660" t="s">
+        <v>54</v>
+      </c>
+      <c r="K660">
+        <v>2.3</v>
+      </c>
+      <c r="L660">
+        <v>3.25</v>
+      </c>
+      <c r="M660">
+        <v>3.1</v>
+      </c>
+      <c r="N660">
+        <v>2.4</v>
+      </c>
+      <c r="O660">
+        <v>3.3</v>
+      </c>
+      <c r="P660">
         <v>3</v>
-      </c>
-      <c r="J660" t="s">
-        <v>53</v>
-      </c>
-      <c r="K660">
-        <v>2.15</v>
-      </c>
-      <c r="L660">
-        <v>3.5</v>
-      </c>
-      <c r="M660">
-        <v>3.2</v>
-      </c>
-      <c r="N660">
-        <v>2.2</v>
-      </c>
-      <c r="O660">
-        <v>3.4</v>
-      </c>
-      <c r="P660">
-        <v>3.25</v>
       </c>
       <c r="Q660">
         <v>-0.25</v>
       </c>
       <c r="R660">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S660">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
         <v>2.25</v>
       </c>
       <c r="U660">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V660">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W660">
         <v>-1</v>
       </c>
       <c r="X660">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y660">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z660">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA660">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB660">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC660">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,76 +59303,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G661" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H661">
         <v>1</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J661" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K661">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L661">
+        <v>3.5</v>
+      </c>
+      <c r="M661">
+        <v>3.2</v>
+      </c>
+      <c r="N661">
+        <v>2.2</v>
+      </c>
+      <c r="O661">
+        <v>3.4</v>
+      </c>
+      <c r="P661">
         <v>3.25</v>
-      </c>
-      <c r="M661">
-        <v>3.1</v>
-      </c>
-      <c r="N661">
-        <v>2.4</v>
-      </c>
-      <c r="O661">
-        <v>3.3</v>
-      </c>
-      <c r="P661">
-        <v>3</v>
       </c>
       <c r="Q661">
         <v>-0.25</v>
       </c>
       <c r="R661">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S661">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T661">
         <v>2.25</v>
       </c>
       <c r="U661">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V661">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W661">
         <v>-1</v>
       </c>
       <c r="X661">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y661">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z661">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA661">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB661">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC661">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -65610,7 +65610,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5159398</v>
+        <v>5159909</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65622,55 +65622,55 @@
         <v>45017.625</v>
       </c>
       <c r="F732" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G732" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I732">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J732" t="s">
         <v>53</v>
       </c>
       <c r="K732">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L732">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M732">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N732">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O732">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P732">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q732">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R732">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S732">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T732">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U732">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V732">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W732">
         <v>-1</v>
@@ -65679,16 +65679,16 @@
         <v>-1</v>
       </c>
       <c r="Y732">
-        <v>2.2</v>
+        <v>0.615</v>
       </c>
       <c r="Z732">
         <v>-1</v>
       </c>
       <c r="AA732">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB732">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC732">
         <v>-1</v>
@@ -65699,7 +65699,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5159909</v>
+        <v>5159398</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65711,55 +65711,55 @@
         <v>45017.625</v>
       </c>
       <c r="F733" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G733" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733">
         <v>2</v>
-      </c>
-      <c r="I733">
-        <v>4</v>
       </c>
       <c r="J733" t="s">
         <v>53</v>
       </c>
       <c r="K733">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L733">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M733">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N733">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O733">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P733">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q733">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R733">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S733">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T733">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U733">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V733">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W733">
         <v>-1</v>
@@ -65768,16 +65768,16 @@
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="Z733">
         <v>-1</v>
       </c>
       <c r="AA733">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB733">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC733">
         <v>-1</v>
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,76 +67402,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F752" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G752" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J752" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K752">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L752">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M752">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N752">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O752">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P752">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q752">
+        <v>1.75</v>
+      </c>
+      <c r="R752">
+        <v>2.02</v>
+      </c>
+      <c r="S752">
+        <v>1.88</v>
+      </c>
+      <c r="T752">
+        <v>3.5</v>
+      </c>
+      <c r="U752">
+        <v>1.825</v>
+      </c>
+      <c r="V752">
+        <v>2.025</v>
+      </c>
+      <c r="W752">
+        <v>-1</v>
+      </c>
+      <c r="X752">
+        <v>-1</v>
+      </c>
+      <c r="Y752">
         <v>0.25</v>
       </c>
-      <c r="R752">
-        <v>2.025</v>
-      </c>
-      <c r="S752">
-        <v>1.825</v>
-      </c>
-      <c r="T752">
-        <v>2.5</v>
-      </c>
-      <c r="U752">
-        <v>1.875</v>
-      </c>
-      <c r="V752">
-        <v>1.975</v>
-      </c>
-      <c r="W752">
-        <v>2.3</v>
-      </c>
-      <c r="X752">
-        <v>-1</v>
-      </c>
-      <c r="Y752">
-        <v>-1</v>
-      </c>
       <c r="Z752">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA752">
         <v>-1</v>
       </c>
       <c r="AB752">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC752">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,76 +67491,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F753" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G753" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J753" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K753">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L753">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M753">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N753">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O753">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P753">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q753">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R753">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S753">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T753">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U753">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V753">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W753">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X753">
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z753">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA753">
         <v>-1</v>
       </c>
       <c r="AB753">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC753">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -87285,10 +87285,10 @@
         <v>2.75</v>
       </c>
       <c r="U975">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V975">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87498,10 +87498,10 @@
         <v>0.5</v>
       </c>
       <c r="R978">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S978">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T978">
         <v>3.25</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -56710,7 +56710,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56722,76 +56722,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F632" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G632" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
         <v>2</v>
       </c>
-      <c r="I632">
-        <v>1</v>
-      </c>
       <c r="J632" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K632">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L632">
         <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N632">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P632">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R632">
+        <v>2</v>
+      </c>
+      <c r="S632">
+        <v>1.85</v>
+      </c>
+      <c r="T632">
+        <v>2.5</v>
+      </c>
+      <c r="U632">
+        <v>2.025</v>
+      </c>
+      <c r="V632">
         <v>1.825</v>
       </c>
-      <c r="S632">
-        <v>2.025</v>
-      </c>
-      <c r="T632">
-        <v>3</v>
-      </c>
-      <c r="U632">
-        <v>1.95</v>
-      </c>
-      <c r="V632">
-        <v>1.9</v>
-      </c>
       <c r="W632">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X632">
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z632">
+        <v>-1</v>
+      </c>
+      <c r="AA632">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB632">
+        <v>-1</v>
+      </c>
+      <c r="AC632">
         <v>0.825</v>
-      </c>
-      <c r="AA632">
-        <v>-1</v>
-      </c>
-      <c r="AB632">
-        <v>0</v>
-      </c>
-      <c r="AC632">
-        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56799,7 +56799,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56811,76 +56811,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F633" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G633" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K633">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L633">
         <v>3.5</v>
       </c>
       <c r="M633">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N633">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O633">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q633">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R633">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S633">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U633">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V633">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W633">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X633">
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z633">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA633">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB633">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC633">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56888,7 +56888,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56900,76 +56900,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F634" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G634" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K634">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L634">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M634">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N634">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O634">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P634">
         <v>6.5</v>
       </c>
       <c r="Q634">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R634">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S634">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T634">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U634">
+        <v>1.825</v>
+      </c>
+      <c r="V634">
         <v>2.025</v>
       </c>
-      <c r="V634">
-        <v>1.825</v>
-      </c>
       <c r="W634">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X634">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA634">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56977,7 +56977,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56989,76 +56989,76 @@
         <v>44940.70833333334</v>
       </c>
       <c r="F635" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G635" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K635">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L635">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M635">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N635">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O635">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P635">
         <v>6.5</v>
       </c>
       <c r="Q635">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R635">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S635">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T635">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U635">
+        <v>2.025</v>
+      </c>
+      <c r="V635">
         <v>1.825</v>
       </c>
-      <c r="V635">
-        <v>2.025</v>
-      </c>
       <c r="W635">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA635">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB635">
         <v>-1</v>
       </c>
       <c r="AC635">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57155,7 +57155,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57167,10 +57167,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F637" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G637" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H637">
         <v>2</v>
@@ -57182,58 +57182,58 @@
         <v>54</v>
       </c>
       <c r="K637">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L637">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M637">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N637">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O637">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P637">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q637">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R637">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S637">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T637">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U637">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V637">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W637">
         <v>-1</v>
       </c>
       <c r="X637">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA637">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB637">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57244,7 +57244,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57256,10 +57256,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F638" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G638" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -57271,58 +57271,58 @@
         <v>54</v>
       </c>
       <c r="K638">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L638">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M638">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N638">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O638">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P638">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q638">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R638">
+        <v>1.8</v>
+      </c>
+      <c r="S638">
+        <v>2.05</v>
+      </c>
+      <c r="T638">
+        <v>2.75</v>
+      </c>
+      <c r="U638">
         <v>1.975</v>
       </c>
-      <c r="S638">
+      <c r="V638">
         <v>1.875</v>
       </c>
-      <c r="T638">
-        <v>3</v>
-      </c>
-      <c r="U638">
-        <v>1.825</v>
-      </c>
-      <c r="V638">
-        <v>2.025</v>
-      </c>
       <c r="W638">
         <v>-1</v>
       </c>
       <c r="X638">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
+        <v>0.4</v>
+      </c>
+      <c r="AA638">
+        <v>-0.5</v>
+      </c>
+      <c r="AB638">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA638">
-        <v>-1</v>
-      </c>
-      <c r="AB638">
-        <v>0.825</v>
       </c>
       <c r="AC638">
         <v>-1</v>
@@ -57333,7 +57333,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5159838</v>
+        <v>5159377</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57345,40 +57345,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F639" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G639" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H639">
         <v>0</v>
       </c>
       <c r="I639">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J639" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K639">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L639">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M639">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N639">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O639">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P639">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q639">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R639">
         <v>1.925</v>
@@ -57387,22 +57387,22 @@
         <v>1.925</v>
       </c>
       <c r="T639">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U639">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V639">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W639">
         <v>-1</v>
       </c>
       <c r="X639">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y639">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z639">
         <v>-1</v>
@@ -57411,10 +57411,10 @@
         <v>0.925</v>
       </c>
       <c r="AB639">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC639">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57422,7 +57422,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5159377</v>
+        <v>5159838</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57434,40 +57434,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F640" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G640" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H640">
         <v>0</v>
       </c>
       <c r="I640">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J640" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K640">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L640">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M640">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N640">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O640">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P640">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q640">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R640">
         <v>1.925</v>
@@ -57476,22 +57476,22 @@
         <v>1.925</v>
       </c>
       <c r="T640">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U640">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V640">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W640">
         <v>-1</v>
       </c>
       <c r="X640">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y640">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z640">
         <v>-1</v>
@@ -57500,10 +57500,10 @@
         <v>0.925</v>
       </c>
       <c r="AB640">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC640">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -58668,7 +58668,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58680,13 +58680,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F654" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G654" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -58695,43 +58695,43 @@
         <v>55</v>
       </c>
       <c r="K654">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L654">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M654">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N654">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O654">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P654">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q654">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R654">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S654">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T654">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U654">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V654">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W654">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
@@ -58740,16 +58740,16 @@
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA654">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58757,7 +58757,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58769,13 +58769,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F655" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G655" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -58784,43 +58784,43 @@
         <v>55</v>
       </c>
       <c r="K655">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L655">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M655">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N655">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O655">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P655">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q655">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R655">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S655">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T655">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U655">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V655">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W655">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X655">
         <v>-1</v>
@@ -58829,16 +58829,16 @@
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -59202,7 +59202,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59214,76 +59214,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F660" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G660" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H660">
         <v>1</v>
       </c>
       <c r="I660">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J660" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K660">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L660">
+        <v>3.5</v>
+      </c>
+      <c r="M660">
+        <v>3.2</v>
+      </c>
+      <c r="N660">
+        <v>2.2</v>
+      </c>
+      <c r="O660">
+        <v>3.4</v>
+      </c>
+      <c r="P660">
         <v>3.25</v>
-      </c>
-      <c r="M660">
-        <v>3.1</v>
-      </c>
-      <c r="N660">
-        <v>2.4</v>
-      </c>
-      <c r="O660">
-        <v>3.3</v>
-      </c>
-      <c r="P660">
-        <v>3</v>
       </c>
       <c r="Q660">
         <v>-0.25</v>
       </c>
       <c r="R660">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S660">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T660">
         <v>2.25</v>
       </c>
       <c r="U660">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V660">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W660">
         <v>-1</v>
       </c>
       <c r="X660">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y660">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z660">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA660">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB660">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC660">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,76 +59303,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G661" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H661">
         <v>1</v>
       </c>
       <c r="I661">
+        <v>1</v>
+      </c>
+      <c r="J661" t="s">
+        <v>54</v>
+      </c>
+      <c r="K661">
+        <v>2.3</v>
+      </c>
+      <c r="L661">
+        <v>3.25</v>
+      </c>
+      <c r="M661">
+        <v>3.1</v>
+      </c>
+      <c r="N661">
+        <v>2.4</v>
+      </c>
+      <c r="O661">
+        <v>3.3</v>
+      </c>
+      <c r="P661">
         <v>3</v>
-      </c>
-      <c r="J661" t="s">
-        <v>53</v>
-      </c>
-      <c r="K661">
-        <v>2.15</v>
-      </c>
-      <c r="L661">
-        <v>3.5</v>
-      </c>
-      <c r="M661">
-        <v>3.2</v>
-      </c>
-      <c r="N661">
-        <v>2.2</v>
-      </c>
-      <c r="O661">
-        <v>3.4</v>
-      </c>
-      <c r="P661">
-        <v>3.25</v>
       </c>
       <c r="Q661">
         <v>-0.25</v>
       </c>
       <c r="R661">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S661">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T661">
         <v>2.25</v>
       </c>
       <c r="U661">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V661">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W661">
         <v>-1</v>
       </c>
       <c r="X661">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y661">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z661">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA661">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB661">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC661">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -65610,7 +65610,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5159909</v>
+        <v>5159398</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65622,55 +65622,55 @@
         <v>45017.625</v>
       </c>
       <c r="F732" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G732" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732">
         <v>2</v>
-      </c>
-      <c r="I732">
-        <v>4</v>
       </c>
       <c r="J732" t="s">
         <v>53</v>
       </c>
       <c r="K732">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L732">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M732">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N732">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O732">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P732">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q732">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R732">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S732">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T732">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U732">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V732">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W732">
         <v>-1</v>
@@ -65679,16 +65679,16 @@
         <v>-1</v>
       </c>
       <c r="Y732">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="Z732">
         <v>-1</v>
       </c>
       <c r="AA732">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB732">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC732">
         <v>-1</v>
@@ -65699,7 +65699,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5159398</v>
+        <v>5159909</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65711,55 +65711,55 @@
         <v>45017.625</v>
       </c>
       <c r="F733" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G733" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I733">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J733" t="s">
         <v>53</v>
       </c>
       <c r="K733">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L733">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M733">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N733">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O733">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P733">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q733">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R733">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S733">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T733">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U733">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V733">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W733">
         <v>-1</v>
@@ -65768,16 +65768,16 @@
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>2.2</v>
+        <v>0.615</v>
       </c>
       <c r="Z733">
         <v>-1</v>
       </c>
       <c r="AA733">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB733">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC733">
         <v>-1</v>
@@ -66411,7 +66411,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66423,76 +66423,76 @@
         <v>45024.625</v>
       </c>
       <c r="F741" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G741" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H741">
+        <v>4</v>
+      </c>
+      <c r="I741">
         <v>0</v>
       </c>
-      <c r="I741">
-        <v>1</v>
-      </c>
       <c r="J741" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K741">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L741">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M741">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N741">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O741">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P741">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q741">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R741">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S741">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T741">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U741">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V741">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W741">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X741">
         <v>-1</v>
       </c>
       <c r="Y741">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA741">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB741">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC741">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,76 +66512,76 @@
         <v>45024.625</v>
       </c>
       <c r="F742" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G742" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H742">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I742">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J742" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K742">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L742">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M742">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N742">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O742">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P742">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q742">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R742">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S742">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T742">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U742">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V742">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W742">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z742">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA742">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB742">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC742">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -67390,7 +67390,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67402,76 +67402,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F752" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G752" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J752" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K752">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L752">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M752">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N752">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O752">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P752">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q752">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R752">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S752">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T752">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U752">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V752">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W752">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X752">
         <v>-1</v>
       </c>
       <c r="Y752">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z752">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA752">
         <v>-1</v>
       </c>
       <c r="AB752">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC752">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67479,7 +67479,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67491,76 +67491,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F753" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G753" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J753" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K753">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L753">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M753">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N753">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O753">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P753">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q753">
+        <v>1.75</v>
+      </c>
+      <c r="R753">
+        <v>2.02</v>
+      </c>
+      <c r="S753">
+        <v>1.88</v>
+      </c>
+      <c r="T753">
+        <v>3.5</v>
+      </c>
+      <c r="U753">
+        <v>1.825</v>
+      </c>
+      <c r="V753">
+        <v>2.025</v>
+      </c>
+      <c r="W753">
+        <v>-1</v>
+      </c>
+      <c r="X753">
+        <v>-1</v>
+      </c>
+      <c r="Y753">
         <v>0.25</v>
       </c>
-      <c r="R753">
-        <v>2.025</v>
-      </c>
-      <c r="S753">
-        <v>1.825</v>
-      </c>
-      <c r="T753">
-        <v>2.5</v>
-      </c>
-      <c r="U753">
-        <v>1.875</v>
-      </c>
-      <c r="V753">
-        <v>1.975</v>
-      </c>
-      <c r="W753">
-        <v>2.3</v>
-      </c>
-      <c r="X753">
-        <v>-1</v>
-      </c>
-      <c r="Y753">
-        <v>-1</v>
-      </c>
       <c r="Z753">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA753">
         <v>-1</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC753">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -67657,7 +67657,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67669,76 +67669,76 @@
         <v>45032.625</v>
       </c>
       <c r="F755" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G755" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H755">
+        <v>0</v>
+      </c>
+      <c r="I755">
         <v>3</v>
       </c>
-      <c r="I755">
-        <v>1</v>
-      </c>
       <c r="J755" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K755">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L755">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M755">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N755">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O755">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P755">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q755">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R755">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S755">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T755">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U755">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V755">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W755">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X755">
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z755">
         <v>-1</v>
       </c>
       <c r="AA755">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB755">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67746,7 +67746,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67758,76 +67758,76 @@
         <v>45032.625</v>
       </c>
       <c r="F756" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G756" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I756">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J756" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K756">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L756">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M756">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N756">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O756">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P756">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q756">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R756">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S756">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T756">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U756">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V756">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W756">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z756">
         <v>-1</v>
       </c>
       <c r="AA756">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB756">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC756">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -70416,7 +70416,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5535269</v>
+        <v>5499720</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70428,76 +70428,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F786" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G786" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I786">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J786" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K786">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="L786">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M786">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="N786">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O786">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P786">
-        <v>1.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q786">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R786">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S786">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T786">
         <v>3</v>
       </c>
       <c r="U786">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V786">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W786">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA786">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB786">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC786">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70505,7 +70505,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5499720</v>
+        <v>5499719</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70517,73 +70517,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F787" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G787" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H787">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I787">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J787" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K787">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L787">
         <v>4.75</v>
       </c>
       <c r="M787">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N787">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="O787">
         <v>4.75</v>
       </c>
       <c r="P787">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q787">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R787">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S787">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T787">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U787">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V787">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W787">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z787">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA787">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB787">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70594,7 +70594,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5499721</v>
+        <v>5535269</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70606,76 +70606,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F788" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G788" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H788">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I788">
+        <v>3</v>
+      </c>
+      <c r="J788" t="s">
+        <v>53</v>
+      </c>
+      <c r="K788">
+        <v>4.333</v>
+      </c>
+      <c r="L788">
+        <v>3.75</v>
+      </c>
+      <c r="M788">
+        <v>1.75</v>
+      </c>
+      <c r="N788">
+        <v>4.5</v>
+      </c>
+      <c r="O788">
+        <v>4</v>
+      </c>
+      <c r="P788">
+        <v>1.75</v>
+      </c>
+      <c r="Q788">
+        <v>0.75</v>
+      </c>
+      <c r="R788">
+        <v>1.875</v>
+      </c>
+      <c r="S788">
+        <v>1.975</v>
+      </c>
+      <c r="T788">
+        <v>3</v>
+      </c>
+      <c r="U788">
+        <v>1.925</v>
+      </c>
+      <c r="V788">
+        <v>1.925</v>
+      </c>
+      <c r="W788">
+        <v>-1</v>
+      </c>
+      <c r="X788">
+        <v>-1</v>
+      </c>
+      <c r="Y788">
+        <v>0.75</v>
+      </c>
+      <c r="Z788">
+        <v>-1</v>
+      </c>
+      <c r="AA788">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB788">
         <v>0</v>
       </c>
-      <c r="J788" t="s">
-        <v>55</v>
-      </c>
-      <c r="K788">
-        <v>1.444</v>
-      </c>
-      <c r="L788">
-        <v>4.5</v>
-      </c>
-      <c r="M788">
-        <v>6.5</v>
-      </c>
-      <c r="N788">
-        <v>1.444</v>
-      </c>
-      <c r="O788">
-        <v>4.5</v>
-      </c>
-      <c r="P788">
-        <v>7.5</v>
-      </c>
-      <c r="Q788">
-        <v>-1.25</v>
-      </c>
-      <c r="R788">
-        <v>1.975</v>
-      </c>
-      <c r="S788">
-        <v>1.875</v>
-      </c>
-      <c r="T788">
-        <v>2.75</v>
-      </c>
-      <c r="U788">
-        <v>1.8</v>
-      </c>
-      <c r="V788">
-        <v>2.05</v>
-      </c>
-      <c r="W788">
-        <v>0.444</v>
-      </c>
-      <c r="X788">
-        <v>-1</v>
-      </c>
-      <c r="Y788">
-        <v>-1</v>
-      </c>
-      <c r="Z788">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA788">
-        <v>-1</v>
-      </c>
-      <c r="AB788">
-        <v>0.8</v>
-      </c>
       <c r="AC788">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70772,7 +70772,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5499719</v>
+        <v>5505056</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70784,55 +70784,55 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F790" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G790" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J790" t="s">
         <v>53</v>
       </c>
       <c r="K790">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="L790">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M790">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="N790">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O790">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P790">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q790">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R790">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S790">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T790">
         <v>3.25</v>
       </c>
       <c r="U790">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V790">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70841,16 +70841,16 @@
         <v>-1</v>
       </c>
       <c r="Y790">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z790">
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB790">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC790">
         <v>-1</v>
@@ -70861,7 +70861,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5505056</v>
+        <v>5499721</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70873,73 +70873,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F791" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G791" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H791">
+        <v>6</v>
+      </c>
+      <c r="I791">
         <v>0</v>
       </c>
-      <c r="I791">
-        <v>5</v>
-      </c>
       <c r="J791" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K791">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="L791">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M791">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N791">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O791">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P791">
+        <v>7.5</v>
+      </c>
+      <c r="Q791">
+        <v>-1.25</v>
+      </c>
+      <c r="R791">
+        <v>1.975</v>
+      </c>
+      <c r="S791">
+        <v>1.875</v>
+      </c>
+      <c r="T791">
+        <v>2.75</v>
+      </c>
+      <c r="U791">
         <v>1.8</v>
       </c>
-      <c r="Q791">
-        <v>0.75</v>
-      </c>
-      <c r="R791">
-        <v>1.825</v>
-      </c>
-      <c r="S791">
-        <v>2.025</v>
-      </c>
-      <c r="T791">
-        <v>3.25</v>
-      </c>
-      <c r="U791">
-        <v>2.025</v>
-      </c>
       <c r="V791">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W791">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X791">
         <v>-1</v>
       </c>
       <c r="Y791">
+        <v>-1</v>
+      </c>
+      <c r="Z791">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA791">
+        <v>-1</v>
+      </c>
+      <c r="AB791">
         <v>0.8</v>
-      </c>
-      <c r="Z791">
-        <v>-1</v>
-      </c>
-      <c r="AA791">
-        <v>1.025</v>
-      </c>
-      <c r="AB791">
-        <v>1.025</v>
       </c>
       <c r="AC791">
         <v>-1</v>
@@ -70950,7 +70950,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5541489</v>
+        <v>5702299</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70962,76 +70962,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F792" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G792" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H792">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K792">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L792">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M792">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N792">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="O792">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P792">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="Q792">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R792">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S792">
+        <v>1.8</v>
+      </c>
+      <c r="T792">
+        <v>3</v>
+      </c>
+      <c r="U792">
+        <v>2.05</v>
+      </c>
+      <c r="V792">
+        <v>1.8</v>
+      </c>
+      <c r="W792">
+        <v>-1</v>
+      </c>
+      <c r="X792">
+        <v>-1</v>
+      </c>
+      <c r="Y792">
         <v>1.9</v>
       </c>
-      <c r="T792">
-        <v>3.5</v>
-      </c>
-      <c r="U792">
-        <v>1.95</v>
-      </c>
-      <c r="V792">
-        <v>1.9</v>
-      </c>
-      <c r="W792">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X792">
-        <v>-1</v>
-      </c>
-      <c r="Y792">
-        <v>-1</v>
-      </c>
       <c r="Z792">
         <v>-1</v>
       </c>
       <c r="AA792">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB792">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC792">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71039,7 +71039,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>5702299</v>
+        <v>5559913</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -71051,76 +71051,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F793" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G793" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I793">
         <v>2</v>
       </c>
       <c r="J793" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K793">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L793">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M793">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N793">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O793">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P793">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q793">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R793">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S793">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T793">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U793">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V793">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W793">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X793">
         <v>-1</v>
       </c>
       <c r="Y793">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z793">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA793">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB793">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC793">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="794" spans="1:29">
@@ -71128,7 +71128,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5559913</v>
+        <v>5539940</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71140,59 +71140,59 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F794" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G794" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H794">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I794">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J794" t="s">
         <v>55</v>
       </c>
       <c r="K794">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L794">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M794">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N794">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O794">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P794">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q794">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R794">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S794">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T794">
         <v>3.5</v>
       </c>
       <c r="U794">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V794">
+        <v>1.875</v>
+      </c>
+      <c r="W794">
         <v>2</v>
       </c>
-      <c r="W794">
-        <v>0.75</v>
-      </c>
       <c r="X794">
         <v>-1</v>
       </c>
@@ -71200,13 +71200,13 @@
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>0.475</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA794">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB794">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC794">
         <v>-1</v>
@@ -71217,7 +71217,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5539940</v>
+        <v>5539941</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71229,76 +71229,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F795" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G795" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H795">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I795">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J795" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K795">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="L795">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M795">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N795">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O795">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P795">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q795">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R795">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S795">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T795">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U795">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V795">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W795">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X795">
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z795">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA795">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB795">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC795">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71306,7 +71306,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5539941</v>
+        <v>5541488</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71318,76 +71318,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F796" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G796" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I796">
         <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K796">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L796">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M796">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="N796">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O796">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P796">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q796">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R796">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S796">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T796">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U796">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V796">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W796">
         <v>-1</v>
       </c>
       <c r="X796">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y796">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z796">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA796">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB796">
         <v>-1</v>
       </c>
       <c r="AC796">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71395,7 +71395,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5541488</v>
+        <v>5541489</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71407,76 +71407,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F797" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G797" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J797" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L797">
+        <v>4.5</v>
+      </c>
+      <c r="M797">
+        <v>5.75</v>
+      </c>
+      <c r="N797">
+        <v>1.285</v>
+      </c>
+      <c r="O797">
+        <v>6</v>
+      </c>
+      <c r="P797">
+        <v>9</v>
+      </c>
+      <c r="Q797">
+        <v>-1.75</v>
+      </c>
+      <c r="R797">
+        <v>1.95</v>
+      </c>
+      <c r="S797">
+        <v>1.9</v>
+      </c>
+      <c r="T797">
         <v>3.5</v>
       </c>
-      <c r="M797">
-        <v>2.6</v>
-      </c>
-      <c r="N797">
-        <v>2.6</v>
-      </c>
-      <c r="O797">
-        <v>3.8</v>
-      </c>
-      <c r="P797">
-        <v>2.5</v>
-      </c>
-      <c r="Q797">
-        <v>0</v>
-      </c>
-      <c r="R797">
-        <v>1.975</v>
-      </c>
-      <c r="S797">
-        <v>1.875</v>
-      </c>
-      <c r="T797">
-        <v>3.25</v>
-      </c>
       <c r="U797">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V797">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X797">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA797">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB797">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC797">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71484,7 +71484,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5539306</v>
+        <v>5535270</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71496,76 +71496,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F798" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G798" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K798">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L798">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M798">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N798">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O798">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P798">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q798">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R798">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S798">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T798">
         <v>2.75</v>
       </c>
       <c r="U798">
+        <v>1.85</v>
+      </c>
+      <c r="V798">
         <v>2</v>
       </c>
-      <c r="V798">
-        <v>1.85</v>
-      </c>
       <c r="W798">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC798">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71573,7 +71573,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5535270</v>
+        <v>5559912</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71585,73 +71585,73 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F799" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G799" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I799">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K799">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L799">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M799">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N799">
         <v>3.1</v>
       </c>
       <c r="O799">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P799">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q799">
         <v>0.25</v>
       </c>
       <c r="R799">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S799">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T799">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U799">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V799">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X799">
         <v>-1</v>
       </c>
       <c r="Y799">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z799">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA799">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB799">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC799">
         <v>-1</v>
@@ -71662,7 +71662,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5559912</v>
+        <v>5539306</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71674,58 +71674,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F800" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G800" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H800">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J800" t="s">
         <v>55</v>
       </c>
       <c r="K800">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L800">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M800">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N800">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O800">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P800">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q800">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R800">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S800">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T800">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U800">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V800">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W800">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="X800">
         <v>-1</v>
@@ -71734,16 +71734,16 @@
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA800">
         <v>-1</v>
       </c>
       <c r="AB800">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC800">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72819,7 +72819,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72831,76 +72831,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F813" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G813" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H813">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I813">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J813" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K813">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L813">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M813">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N813">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O813">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P813">
+        <v>17</v>
+      </c>
+      <c r="Q813">
+        <v>-2.25</v>
+      </c>
+      <c r="R813">
+        <v>2.05</v>
+      </c>
+      <c r="S813">
+        <v>1.8</v>
+      </c>
+      <c r="T813">
+        <v>3.5</v>
+      </c>
+      <c r="U813">
+        <v>2</v>
+      </c>
+      <c r="V813">
+        <v>1.85</v>
+      </c>
+      <c r="W813">
+        <v>-1</v>
+      </c>
+      <c r="X813">
         <v>6</v>
       </c>
-      <c r="Q813">
-        <v>-1</v>
-      </c>
-      <c r="R813">
-        <v>1.9</v>
-      </c>
-      <c r="S813">
-        <v>1.95</v>
-      </c>
-      <c r="T813">
-        <v>2.75</v>
-      </c>
-      <c r="U813">
-        <v>1.95</v>
-      </c>
-      <c r="V813">
-        <v>1.9</v>
-      </c>
-      <c r="W813">
-        <v>0.55</v>
-      </c>
-      <c r="X813">
-        <v>-1</v>
-      </c>
       <c r="Y813">
         <v>-1</v>
       </c>
       <c r="Z813">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA813">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB813">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC813">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72908,7 +72908,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72920,76 +72920,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F814" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G814" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I814">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J814" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K814">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L814">
+        <v>4.5</v>
+      </c>
+      <c r="M814">
+        <v>8</v>
+      </c>
+      <c r="N814">
+        <v>1.55</v>
+      </c>
+      <c r="O814">
+        <v>4</v>
+      </c>
+      <c r="P814">
         <v>6</v>
       </c>
-      <c r="M814">
-        <v>10</v>
-      </c>
-      <c r="N814">
-        <v>1.2</v>
-      </c>
-      <c r="O814">
-        <v>7</v>
-      </c>
-      <c r="P814">
-        <v>17</v>
-      </c>
       <c r="Q814">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R814">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S814">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T814">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U814">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V814">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W814">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X814">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y814">
         <v>-1</v>
       </c>
       <c r="Z814">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA814">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB814">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC814">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -86080,7 +86080,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>6838485</v>
+        <v>6838580</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86092,13 +86092,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F962" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G962" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I962">
         <v>2</v>
@@ -86107,34 +86107,34 @@
         <v>53</v>
       </c>
       <c r="K962">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L962">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M962">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N962">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="O962">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P962">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="Q962">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R962">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S962">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T962">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U962">
         <v>1.875</v>
@@ -86149,19 +86149,19 @@
         <v>-1</v>
       </c>
       <c r="Y962">
-        <v>0.1659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z962">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA962">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB962">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC962">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86169,7 +86169,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>6838580</v>
+        <v>6838485</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86181,13 +86181,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F963" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G963" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I963">
         <v>2</v>
@@ -86196,34 +86196,34 @@
         <v>53</v>
       </c>
       <c r="K963">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L963">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M963">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N963">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="O963">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P963">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q963">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R963">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S963">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T963">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U963">
         <v>1.875</v>
@@ -86238,19 +86238,19 @@
         <v>-1</v>
       </c>
       <c r="Y963">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z963">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA963">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB963">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC963">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="964" spans="1:29">

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -30722,7 +30722,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>3720283</v>
+        <v>3720281</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30734,76 +30734,76 @@
         <v>44552.61458333334</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J340" t="s">
         <v>53</v>
       </c>
       <c r="K340">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L340">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M340">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="N340">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O340">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P340">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="Q340">
+        <v>1.5</v>
+      </c>
+      <c r="R340">
+        <v>1.85</v>
+      </c>
+      <c r="S340">
+        <v>2</v>
+      </c>
+      <c r="T340">
+        <v>3</v>
+      </c>
+      <c r="U340">
+        <v>1.825</v>
+      </c>
+      <c r="V340">
+        <v>2.025</v>
+      </c>
+      <c r="W340">
+        <v>-1</v>
+      </c>
+      <c r="X340">
+        <v>-1</v>
+      </c>
+      <c r="Y340">
+        <v>0.333</v>
+      </c>
+      <c r="Z340">
+        <v>-1</v>
+      </c>
+      <c r="AA340">
+        <v>1</v>
+      </c>
+      <c r="AB340">
         <v>0</v>
       </c>
-      <c r="R340">
-        <v>1.825</v>
-      </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.25</v>
-      </c>
-      <c r="U340">
-        <v>1.85</v>
-      </c>
-      <c r="V340">
-        <v>2</v>
-      </c>
-      <c r="W340">
-        <v>-1</v>
-      </c>
-      <c r="X340">
-        <v>-1</v>
-      </c>
-      <c r="Y340">
-        <v>1.875</v>
-      </c>
-      <c r="Z340">
-        <v>-1</v>
-      </c>
-      <c r="AA340">
-        <v>1.025</v>
-      </c>
-      <c r="AB340">
-        <v>-1</v>
-      </c>
       <c r="AC340">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>3720281</v>
+        <v>3720283</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,56 +30823,56 @@
         <v>44552.61458333334</v>
       </c>
       <c r="F341" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G341" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
         <v>53</v>
       </c>
       <c r="K341">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M341">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N341">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O341">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P341">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q341">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.825</v>
+      </c>
+      <c r="S341">
+        <v>2.025</v>
+      </c>
+      <c r="T341">
+        <v>2.25</v>
+      </c>
+      <c r="U341">
         <v>1.85</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>2</v>
       </c>
-      <c r="T341">
-        <v>3</v>
-      </c>
-      <c r="U341">
-        <v>1.825</v>
-      </c>
-      <c r="V341">
-        <v>2.025</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30880,19 +30880,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0.333</v>
+        <v>1.875</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
+        <v>1.025</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+      <c r="AC341">
         <v>1</v>
-      </c>
-      <c r="AB341">
-        <v>0</v>
-      </c>
-      <c r="AC341">
-        <v>-0</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>3719617</v>
+        <v>3720299</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,76 +32603,76 @@
         <v>44584.4375</v>
       </c>
       <c r="F361" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G361" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H361">
         <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K361">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L361">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M361">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N361">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="O361">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P361">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q361">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
+        <v>1.925</v>
+      </c>
+      <c r="S361">
+        <v>1.925</v>
+      </c>
+      <c r="T361">
+        <v>3</v>
+      </c>
+      <c r="U361">
         <v>2.025</v>
       </c>
-      <c r="S361">
+      <c r="V361">
         <v>1.825</v>
       </c>
-      <c r="T361">
-        <v>2.25</v>
-      </c>
-      <c r="U361">
-        <v>1.8</v>
-      </c>
-      <c r="V361">
-        <v>2.05</v>
-      </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z361">
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB361">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC361">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32680,7 +32680,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>3720299</v>
+        <v>3719617</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32692,76 +32692,76 @@
         <v>44584.4375</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H362">
         <v>1</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K362">
+        <v>1.833</v>
+      </c>
+      <c r="L362">
+        <v>3.5</v>
+      </c>
+      <c r="M362">
+        <v>4.333</v>
+      </c>
+      <c r="N362">
+        <v>1.75</v>
+      </c>
+      <c r="O362">
         <v>3.4</v>
       </c>
-      <c r="L362">
-        <v>3.75</v>
-      </c>
-      <c r="M362">
-        <v>2</v>
-      </c>
-      <c r="N362">
-        <v>3.8</v>
-      </c>
-      <c r="O362">
-        <v>3.8</v>
-      </c>
       <c r="P362">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q362">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y362">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB362">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC362">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -35083,7 +35083,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>3720319</v>
+        <v>3720315</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35095,76 +35095,76 @@
         <v>44612.53125</v>
       </c>
       <c r="F389" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G389" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H389">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I389">
         <v>1</v>
       </c>
       <c r="J389" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K389">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="L389">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M389">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N389">
-        <v>1.142</v>
+        <v>1.727</v>
       </c>
       <c r="O389">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P389">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q389">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R389">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S389">
         <v>1.95</v>
       </c>
       <c r="T389">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U389">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W389">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X389">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA389">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB389">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC389">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35172,7 +35172,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>3720315</v>
+        <v>3720319</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35184,76 +35184,76 @@
         <v>44612.53125</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G390" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I390">
         <v>1</v>
       </c>
       <c r="J390" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K390">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="L390">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M390">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N390">
-        <v>1.727</v>
+        <v>1.142</v>
       </c>
       <c r="O390">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P390">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q390">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R390">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S390">
         <v>1.95</v>
       </c>
       <c r="T390">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U390">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V390">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X390">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA390">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB390">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC390">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35617,7 +35617,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>3720321</v>
+        <v>3720327</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35629,13 +35629,13 @@
         <v>44619.34375</v>
       </c>
       <c r="F395" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G395" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I395">
         <v>1</v>
@@ -35644,31 +35644,31 @@
         <v>55</v>
       </c>
       <c r="K395">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L395">
         <v>3.5</v>
       </c>
       <c r="M395">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N395">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O395">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q395">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R395">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="S395">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="T395">
         <v>2.5</v>
@@ -35680,7 +35680,7 @@
         <v>1.875</v>
       </c>
       <c r="W395">
-        <v>1.625</v>
+        <v>0.833</v>
       </c>
       <c r="X395">
         <v>-1</v>
@@ -35689,7 +35689,7 @@
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.9399999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA395">
         <v>-1</v>
@@ -35706,7 +35706,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>3720327</v>
+        <v>3720321</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35718,13 +35718,13 @@
         <v>44619.34375</v>
       </c>
       <c r="F396" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G396" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I396">
         <v>1</v>
@@ -35733,31 +35733,31 @@
         <v>55</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L396">
         <v>3.5</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N396">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P396">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R396">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="S396">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="T396">
         <v>2.5</v>
@@ -35769,7 +35769,7 @@
         <v>1.875</v>
       </c>
       <c r="W396">
-        <v>0.833</v>
+        <v>1.625</v>
       </c>
       <c r="X396">
         <v>-1</v>
@@ -35778,7 +35778,7 @@
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>0.8700000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA396">
         <v>-1</v>
@@ -38999,7 +38999,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3719639</v>
+        <v>3719638</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39011,76 +39011,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F433" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G433" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J433" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K433">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L433">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M433">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N433">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O433">
+        <v>3.3</v>
+      </c>
+      <c r="P433">
         <v>3.5</v>
-      </c>
-      <c r="P433">
-        <v>3.2</v>
       </c>
       <c r="Q433">
         <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>1.925</v>
+        <v>1.79</v>
       </c>
       <c r="S433">
-        <v>1.925</v>
+        <v>2.11</v>
       </c>
       <c r="T433">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U433">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V433">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W433">
         <v>-1</v>
       </c>
       <c r="X433">
+        <v>-1</v>
+      </c>
+      <c r="Y433">
         <v>2.5</v>
       </c>
-      <c r="Y433">
-        <v>-1</v>
-      </c>
       <c r="Z433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.4625</v>
+        <v>1.11</v>
       </c>
       <c r="AB433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC433">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39088,7 +39088,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>3719638</v>
+        <v>3719639</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39100,76 +39100,76 @@
         <v>44654.39583333334</v>
       </c>
       <c r="F434" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G434" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K434">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L434">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M434">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N434">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O434">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P434">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>1.79</v>
+        <v>1.925</v>
       </c>
       <c r="S434">
-        <v>2.11</v>
+        <v>1.925</v>
       </c>
       <c r="T434">
+        <v>2.25</v>
+      </c>
+      <c r="U434">
+        <v>2.025</v>
+      </c>
+      <c r="V434">
+        <v>1.825</v>
+      </c>
+      <c r="W434">
+        <v>-1</v>
+      </c>
+      <c r="X434">
         <v>2.5</v>
       </c>
-      <c r="U434">
-        <v>2</v>
-      </c>
-      <c r="V434">
-        <v>1.85</v>
-      </c>
-      <c r="W434">
-        <v>-1</v>
-      </c>
-      <c r="X434">
-        <v>-1</v>
-      </c>
       <c r="Y434">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA434">
-        <v>1.11</v>
+        <v>0.4625</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC434">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -42915,7 +42915,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4052054</v>
+        <v>3988634</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42927,49 +42927,49 @@
         <v>44692.625</v>
       </c>
       <c r="F477" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G477" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I477">
         <v>2</v>
       </c>
       <c r="J477" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K477">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L477">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M477">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="N477">
-        <v>2.9</v>
+        <v>1.166</v>
       </c>
       <c r="O477">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="P477">
-        <v>2.4</v>
+        <v>15</v>
       </c>
       <c r="Q477">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R477">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="S477">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="T477">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -42978,19 +42978,19 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X477">
         <v>-1</v>
       </c>
       <c r="Y477">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z477">
         <v>-1</v>
       </c>
       <c r="AA477">
-        <v>0.77</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB477">
         <v>0.95</v>
@@ -43004,7 +43004,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>3988634</v>
+        <v>3988633</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43016,34 +43016,34 @@
         <v>44692.625</v>
       </c>
       <c r="F478" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G478" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H478">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
         <v>55</v>
       </c>
       <c r="K478">
-        <v>1.166</v>
+        <v>1.142</v>
       </c>
       <c r="L478">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M478">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N478">
-        <v>1.166</v>
+        <v>1.142</v>
       </c>
       <c r="O478">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P478">
         <v>15</v>
@@ -43052,22 +43052,22 @@
         <v>-2.25</v>
       </c>
       <c r="R478">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S478">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="T478">
         <v>3.75</v>
       </c>
       <c r="U478">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V478">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W478">
-        <v>0.1659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43076,13 +43076,13 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC478">
         <v>-1</v>
@@ -43093,7 +43093,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>3988633</v>
+        <v>3988029</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43105,73 +43105,73 @@
         <v>44692.625</v>
       </c>
       <c r="F479" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G479" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H479">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J479" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K479">
-        <v>1.142</v>
+        <v>2.875</v>
       </c>
       <c r="L479">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M479">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N479">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="O479">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P479">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="Q479">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R479">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S479">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="T479">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U479">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V479">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W479">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X479">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y479">
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0.8700000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AA479">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB479">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC479">
         <v>-1</v>
@@ -43182,7 +43182,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>3988029</v>
+        <v>4052054</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43194,73 +43194,73 @@
         <v>44692.625</v>
       </c>
       <c r="F480" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G480" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480">
         <v>2</v>
       </c>
       <c r="J480" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K480">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L480">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M480">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N480">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O480">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P480">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q480">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R480">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="S480">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="T480">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U480">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V480">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W480">
         <v>-1</v>
       </c>
       <c r="X480">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y480">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z480">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AA480">
-        <v>-0.5</v>
+        <v>0.77</v>
       </c>
       <c r="AB480">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC480">
         <v>-1</v>
@@ -43360,7 +43360,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>4149676</v>
+        <v>4051311</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43372,76 +43372,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F482" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G482" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J482" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K482">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L482">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M482">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="N482">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O482">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P482">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q482">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R482">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S482">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T482">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U482">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V482">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y482">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z482">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA482">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB482">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC482">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43449,7 +43449,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>4052055</v>
+        <v>4048248</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43461,55 +43461,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F483" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G483" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H483">
         <v>1</v>
       </c>
       <c r="I483">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J483" t="s">
         <v>53</v>
       </c>
       <c r="K483">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L483">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M483">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="N483">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O483">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P483">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Q483">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R483">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="S483">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T483">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U483">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V483">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W483">
         <v>-1</v>
@@ -43518,19 +43518,19 @@
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Z483">
         <v>-1</v>
       </c>
       <c r="AA483">
-        <v>1.06</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB483">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC483">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43538,7 +43538,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>4052056</v>
+        <v>4048711</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43550,55 +43550,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F484" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G484" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H484">
         <v>1</v>
       </c>
       <c r="I484">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J484" t="s">
         <v>53</v>
       </c>
       <c r="K484">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="L484">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M484">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N484">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="O484">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P484">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q484">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R484">
-        <v>2.155</v>
+        <v>1.92</v>
       </c>
       <c r="S484">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="T484">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U484">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V484">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W484">
         <v>-1</v>
@@ -43607,19 +43607,19 @@
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA484">
-        <v>0.76</v>
+        <v>-1</v>
       </c>
       <c r="AB484">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC484">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43627,7 +43627,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>4048249</v>
+        <v>4048714</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43639,76 +43639,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F485" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G485" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H485">
+        <v>2</v>
+      </c>
+      <c r="I485">
         <v>3</v>
       </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
       <c r="J485" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K485">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L485">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M485">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N485">
+        <v>1.65</v>
+      </c>
+      <c r="O485">
+        <v>4.2</v>
+      </c>
+      <c r="P485">
+        <v>5.25</v>
+      </c>
+      <c r="Q485">
+        <v>-0.75</v>
+      </c>
+      <c r="R485">
+        <v>1.8</v>
+      </c>
+      <c r="S485">
         <v>2.1</v>
-      </c>
-      <c r="O485">
-        <v>3.9</v>
-      </c>
-      <c r="P485">
-        <v>3.1</v>
-      </c>
-      <c r="Q485">
-        <v>-0.25</v>
-      </c>
-      <c r="R485">
-        <v>1.875</v>
-      </c>
-      <c r="S485">
-        <v>1.975</v>
       </c>
       <c r="T485">
         <v>3</v>
       </c>
       <c r="U485">
+        <v>2</v>
+      </c>
+      <c r="V485">
         <v>1.85</v>
       </c>
-      <c r="V485">
-        <v>2</v>
-      </c>
       <c r="W485">
+        <v>-1</v>
+      </c>
+      <c r="X485">
+        <v>-1</v>
+      </c>
+      <c r="Y485">
+        <v>4.25</v>
+      </c>
+      <c r="Z485">
+        <v>-1</v>
+      </c>
+      <c r="AA485">
         <v>1.1</v>
       </c>
-      <c r="X485">
-        <v>-1</v>
-      </c>
-      <c r="Y485">
-        <v>-1</v>
-      </c>
-      <c r="Z485">
-        <v>0.875</v>
-      </c>
-      <c r="AA485">
-        <v>-1</v>
-      </c>
       <c r="AB485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC485">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -43805,7 +43805,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>4048714</v>
+        <v>4048249</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43817,76 +43817,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F487" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G487" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I487">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J487" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K487">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L487">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M487">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N487">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O487">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P487">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q487">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R487">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S487">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T487">
         <v>3</v>
       </c>
       <c r="U487">
+        <v>1.85</v>
+      </c>
+      <c r="V487">
         <v>2</v>
       </c>
-      <c r="V487">
-        <v>1.85</v>
-      </c>
       <c r="W487">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X487">
         <v>-1</v>
       </c>
       <c r="Y487">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z487">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA487">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC487">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43894,7 +43894,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>4048711</v>
+        <v>4052056</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43906,55 +43906,55 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F488" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G488" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H488">
         <v>1</v>
       </c>
       <c r="I488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J488" t="s">
         <v>53</v>
       </c>
       <c r="K488">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="L488">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M488">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N488">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O488">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P488">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q488">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>1.92</v>
+        <v>2.155</v>
       </c>
       <c r="S488">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="T488">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U488">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V488">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W488">
         <v>-1</v>
@@ -43963,19 +43963,19 @@
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z488">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA488">
-        <v>-1</v>
+        <v>0.76</v>
       </c>
       <c r="AB488">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC488">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -43983,7 +43983,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>4048248</v>
+        <v>4052055</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43995,56 +43995,56 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F489" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G489" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H489">
         <v>1</v>
       </c>
       <c r="I489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J489" t="s">
         <v>53</v>
       </c>
       <c r="K489">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L489">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M489">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="N489">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O489">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P489">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Q489">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R489">
+        <v>1.84</v>
+      </c>
+      <c r="S489">
+        <v>2.06</v>
+      </c>
+      <c r="T489">
+        <v>3.5</v>
+      </c>
+      <c r="U489">
+        <v>1.975</v>
+      </c>
+      <c r="V489">
         <v>1.875</v>
       </c>
-      <c r="S489">
-        <v>1.975</v>
-      </c>
-      <c r="T489">
-        <v>3.75</v>
-      </c>
-      <c r="U489">
-        <v>2</v>
-      </c>
-      <c r="V489">
-        <v>1.85</v>
-      </c>
       <c r="W489">
         <v>-1</v>
       </c>
@@ -44052,19 +44052,19 @@
         <v>-1</v>
       </c>
       <c r="Y489">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Z489">
         <v>-1</v>
       </c>
       <c r="AA489">
+        <v>1.06</v>
+      </c>
+      <c r="AB489">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB489">
-        <v>-1</v>
-      </c>
       <c r="AC489">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44072,7 +44072,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>4051311</v>
+        <v>4149676</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44084,76 +44084,76 @@
         <v>44696.39583333334</v>
       </c>
       <c r="F490" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G490" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490">
+        <v>2</v>
+      </c>
+      <c r="J490" t="s">
+        <v>54</v>
+      </c>
+      <c r="K490">
+        <v>6.5</v>
+      </c>
+      <c r="L490">
+        <v>4.5</v>
+      </c>
+      <c r="M490">
+        <v>1.4</v>
+      </c>
+      <c r="N490">
+        <v>5</v>
+      </c>
+      <c r="O490">
+        <v>4.5</v>
+      </c>
+      <c r="P490">
+        <v>1.6</v>
+      </c>
+      <c r="Q490">
         <v>1</v>
       </c>
-      <c r="J490" t="s">
-        <v>53</v>
-      </c>
-      <c r="K490">
-        <v>2.2</v>
-      </c>
-      <c r="L490">
+      <c r="R490">
+        <v>1.9</v>
+      </c>
+      <c r="S490">
+        <v>1.95</v>
+      </c>
+      <c r="T490">
         <v>3.5</v>
       </c>
-      <c r="M490">
-        <v>2.8</v>
-      </c>
-      <c r="N490">
-        <v>1.95</v>
-      </c>
-      <c r="O490">
-        <v>3.75</v>
-      </c>
-      <c r="P490">
+      <c r="U490">
+        <v>1.925</v>
+      </c>
+      <c r="V490">
+        <v>1.925</v>
+      </c>
+      <c r="W490">
+        <v>-1</v>
+      </c>
+      <c r="X490">
         <v>3.5</v>
       </c>
-      <c r="Q490">
-        <v>-0.5</v>
-      </c>
-      <c r="R490">
-        <v>2.01</v>
-      </c>
-      <c r="S490">
-        <v>1.89</v>
-      </c>
-      <c r="T490">
-        <v>3</v>
-      </c>
-      <c r="U490">
-        <v>1.8</v>
-      </c>
-      <c r="V490">
-        <v>2.05</v>
-      </c>
-      <c r="W490">
-        <v>-1</v>
-      </c>
-      <c r="X490">
-        <v>-1</v>
-      </c>
       <c r="Y490">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA490">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC490">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -56710,7 +56710,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56722,76 +56722,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F632" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G632" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K632">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L632">
         <v>3.5</v>
       </c>
       <c r="M632">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N632">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q632">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S632">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U632">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V632">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X632">
         <v>-1</v>
       </c>
       <c r="Y632">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA632">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC632">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56799,7 +56799,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56811,76 +56811,76 @@
         <v>44940.61458333334</v>
       </c>
       <c r="F633" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
         <v>2</v>
       </c>
-      <c r="I633">
-        <v>1</v>
-      </c>
       <c r="J633" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K633">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L633">
         <v>3.5</v>
       </c>
       <c r="M633">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N633">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P633">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q633">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R633">
+        <v>2</v>
+      </c>
+      <c r="S633">
+        <v>1.85</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>2.025</v>
+      </c>
+      <c r="V633">
         <v>1.825</v>
       </c>
-      <c r="S633">
-        <v>2.025</v>
-      </c>
-      <c r="T633">
-        <v>3</v>
-      </c>
-      <c r="U633">
-        <v>1.95</v>
-      </c>
-      <c r="V633">
-        <v>1.9</v>
-      </c>
       <c r="W633">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X633">
         <v>-1</v>
       </c>
       <c r="Y633">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z633">
+        <v>-1</v>
+      </c>
+      <c r="AA633">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.825</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>0</v>
-      </c>
-      <c r="AC633">
-        <v>-0</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57333,7 +57333,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5159377</v>
+        <v>5159838</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57345,40 +57345,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F639" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G639" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H639">
         <v>0</v>
       </c>
       <c r="I639">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J639" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K639">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L639">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M639">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N639">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O639">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P639">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q639">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R639">
         <v>1.925</v>
@@ -57387,22 +57387,22 @@
         <v>1.925</v>
       </c>
       <c r="T639">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U639">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V639">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W639">
         <v>-1</v>
       </c>
       <c r="X639">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y639">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z639">
         <v>-1</v>
@@ -57411,10 +57411,10 @@
         <v>0.925</v>
       </c>
       <c r="AB639">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC639">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57422,7 +57422,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5159838</v>
+        <v>5159377</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57434,40 +57434,40 @@
         <v>44941.53125</v>
       </c>
       <c r="F640" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G640" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H640">
         <v>0</v>
       </c>
       <c r="I640">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J640" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K640">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L640">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M640">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N640">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O640">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P640">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q640">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R640">
         <v>1.925</v>
@@ -57476,22 +57476,22 @@
         <v>1.925</v>
       </c>
       <c r="T640">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U640">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V640">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W640">
         <v>-1</v>
       </c>
       <c r="X640">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y640">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z640">
         <v>-1</v>
@@ -57500,10 +57500,10 @@
         <v>0.925</v>
       </c>
       <c r="AB640">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC640">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -58401,7 +58401,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58413,73 +58413,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F651" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G651" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J651" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K651">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L651">
         <v>3.5</v>
       </c>
       <c r="M651">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N651">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O651">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P651">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q651">
         <v>0.5</v>
       </c>
       <c r="R651">
+        <v>2.025</v>
+      </c>
+      <c r="S651">
         <v>1.825</v>
       </c>
-      <c r="S651">
-        <v>2.025</v>
-      </c>
       <c r="T651">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U651">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V651">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z651">
+        <v>-1</v>
+      </c>
+      <c r="AA651">
         <v>0.825</v>
       </c>
-      <c r="AA651">
-        <v>-1</v>
-      </c>
       <c r="AB651">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58490,7 +58490,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58502,73 +58502,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F652" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G652" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I652">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J652" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K652">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L652">
         <v>3.5</v>
       </c>
       <c r="M652">
+        <v>2.15</v>
+      </c>
+      <c r="N652">
+        <v>4</v>
+      </c>
+      <c r="O652">
+        <v>3.4</v>
+      </c>
+      <c r="P652">
         <v>2</v>
-      </c>
-      <c r="N652">
-        <v>4.2</v>
-      </c>
-      <c r="O652">
-        <v>3.6</v>
-      </c>
-      <c r="P652">
-        <v>1.85</v>
       </c>
       <c r="Q652">
         <v>0.5</v>
       </c>
       <c r="R652">
+        <v>1.825</v>
+      </c>
+      <c r="S652">
         <v>2.025</v>
       </c>
-      <c r="S652">
+      <c r="T652">
+        <v>2.25</v>
+      </c>
+      <c r="U652">
         <v>1.825</v>
       </c>
-      <c r="T652">
-        <v>2.75</v>
-      </c>
-      <c r="U652">
-        <v>1.975</v>
-      </c>
       <c r="V652">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y652">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA652">
+        <v>-1</v>
+      </c>
+      <c r="AB652">
         <v>0.825</v>
-      </c>
-      <c r="AB652">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -66411,7 +66411,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66423,76 +66423,76 @@
         <v>45024.625</v>
       </c>
       <c r="F741" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G741" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H741">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I741">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J741" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K741">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L741">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M741">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N741">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O741">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P741">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q741">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R741">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S741">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T741">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U741">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V741">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W741">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X741">
         <v>-1</v>
       </c>
       <c r="Y741">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z741">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA741">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB741">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC741">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -66500,7 +66500,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66512,76 +66512,76 @@
         <v>45024.625</v>
       </c>
       <c r="F742" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G742" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H742">
+        <v>4</v>
+      </c>
+      <c r="I742">
         <v>0</v>
       </c>
-      <c r="I742">
-        <v>1</v>
-      </c>
       <c r="J742" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K742">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L742">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M742">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N742">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O742">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P742">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q742">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R742">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S742">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T742">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U742">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V742">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W742">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X742">
         <v>-1</v>
       </c>
       <c r="Y742">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z742">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA742">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB742">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC742">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -70416,7 +70416,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5499720</v>
+        <v>5535269</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70428,76 +70428,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F786" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G786" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H786">
+        <v>0</v>
+      </c>
+      <c r="I786">
+        <v>3</v>
+      </c>
+      <c r="J786" t="s">
+        <v>53</v>
+      </c>
+      <c r="K786">
+        <v>4.333</v>
+      </c>
+      <c r="L786">
+        <v>3.75</v>
+      </c>
+      <c r="M786">
+        <v>1.75</v>
+      </c>
+      <c r="N786">
+        <v>4.5</v>
+      </c>
+      <c r="O786">
         <v>4</v>
       </c>
-      <c r="I786">
-        <v>1</v>
-      </c>
-      <c r="J786" t="s">
-        <v>55</v>
-      </c>
-      <c r="K786">
-        <v>1.363</v>
-      </c>
-      <c r="L786">
-        <v>4.75</v>
-      </c>
-      <c r="M786">
-        <v>7.5</v>
-      </c>
-      <c r="N786">
-        <v>1.4</v>
-      </c>
-      <c r="O786">
-        <v>4.75</v>
-      </c>
       <c r="P786">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q786">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R786">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S786">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T786">
         <v>3</v>
       </c>
       <c r="U786">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V786">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W786">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z786">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB786">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC786">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70505,7 +70505,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5499719</v>
+        <v>5499720</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70517,73 +70517,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F787" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G787" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H787">
+        <v>4</v>
+      </c>
+      <c r="I787">
         <v>1</v>
       </c>
-      <c r="I787">
-        <v>3</v>
-      </c>
       <c r="J787" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K787">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L787">
         <v>4.75</v>
       </c>
       <c r="M787">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N787">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="O787">
         <v>4.75</v>
       </c>
       <c r="P787">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q787">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R787">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S787">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T787">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U787">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V787">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W787">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z787">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA787">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB787">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70594,7 +70594,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5535269</v>
+        <v>5499721</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70606,76 +70606,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F788" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G788" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H788">
+        <v>6</v>
+      </c>
+      <c r="I788">
         <v>0</v>
       </c>
-      <c r="I788">
-        <v>3</v>
-      </c>
       <c r="J788" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K788">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="L788">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M788">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="N788">
+        <v>1.444</v>
+      </c>
+      <c r="O788">
         <v>4.5</v>
       </c>
-      <c r="O788">
-        <v>4</v>
-      </c>
       <c r="P788">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q788">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R788">
+        <v>1.975</v>
+      </c>
+      <c r="S788">
         <v>1.875</v>
       </c>
-      <c r="S788">
-        <v>1.975</v>
-      </c>
       <c r="T788">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U788">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V788">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W788">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X788">
         <v>-1</v>
       </c>
       <c r="Y788">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA788">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB788">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC788">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -70772,7 +70772,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>5505056</v>
+        <v>5499719</v>
       </c>
       <c r="C790" t="s">
         <v>28</v>
@@ -70784,55 +70784,55 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F790" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G790" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J790" t="s">
         <v>53</v>
       </c>
       <c r="K790">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="L790">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M790">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="N790">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O790">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P790">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q790">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R790">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S790">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T790">
         <v>3.25</v>
       </c>
       <c r="U790">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V790">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W790">
         <v>-1</v>
@@ -70841,16 +70841,16 @@
         <v>-1</v>
       </c>
       <c r="Y790">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z790">
         <v>-1</v>
       </c>
       <c r="AA790">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB790">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC790">
         <v>-1</v>
@@ -70861,7 +70861,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5499721</v>
+        <v>5505056</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70873,73 +70873,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F791" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G791" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H791">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I791">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J791" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K791">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="L791">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M791">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N791">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O791">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P791">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q791">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R791">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S791">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T791">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U791">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V791">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W791">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X791">
         <v>-1</v>
       </c>
       <c r="Y791">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z791">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB791">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC791">
         <v>-1</v>
@@ -70950,7 +70950,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5702299</v>
+        <v>5541489</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70962,76 +70962,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F792" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G792" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K792">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L792">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M792">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N792">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="O792">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P792">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="Q792">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R792">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S792">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T792">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U792">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V792">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W792">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X792">
         <v>-1</v>
       </c>
       <c r="Y792">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z792">
         <v>-1</v>
       </c>
       <c r="AA792">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB792">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC792">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71039,7 +71039,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>5559913</v>
+        <v>5702299</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -71051,76 +71051,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F793" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G793" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H793">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I793">
         <v>2</v>
       </c>
       <c r="J793" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K793">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L793">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M793">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N793">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="O793">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P793">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q793">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R793">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S793">
+        <v>1.8</v>
+      </c>
+      <c r="T793">
+        <v>3</v>
+      </c>
+      <c r="U793">
+        <v>2.05</v>
+      </c>
+      <c r="V793">
+        <v>1.8</v>
+      </c>
+      <c r="W793">
+        <v>-1</v>
+      </c>
+      <c r="X793">
+        <v>-1</v>
+      </c>
+      <c r="Y793">
         <v>1.9</v>
       </c>
-      <c r="T793">
-        <v>3.5</v>
-      </c>
-      <c r="U793">
-        <v>1.85</v>
-      </c>
-      <c r="V793">
-        <v>2</v>
-      </c>
-      <c r="W793">
-        <v>0.75</v>
-      </c>
-      <c r="X793">
-        <v>-1</v>
-      </c>
-      <c r="Y793">
-        <v>-1</v>
-      </c>
       <c r="Z793">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA793">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB793">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC793">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="794" spans="1:29">
@@ -71128,7 +71128,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5539940</v>
+        <v>5559913</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71140,58 +71140,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F794" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G794" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H794">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I794">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
         <v>55</v>
       </c>
       <c r="K794">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L794">
+        <v>4</v>
+      </c>
+      <c r="M794">
+        <v>3.5</v>
+      </c>
+      <c r="N794">
+        <v>1.75</v>
+      </c>
+      <c r="O794">
+        <v>4.75</v>
+      </c>
+      <c r="P794">
         <v>3.8</v>
       </c>
-      <c r="M794">
-        <v>2.1</v>
-      </c>
-      <c r="N794">
-        <v>3</v>
-      </c>
-      <c r="O794">
-        <v>3.8</v>
-      </c>
-      <c r="P794">
-        <v>2.15</v>
-      </c>
       <c r="Q794">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R794">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S794">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T794">
         <v>3.5</v>
       </c>
       <c r="U794">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V794">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W794">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="X794">
         <v>-1</v>
@@ -71200,13 +71200,13 @@
         <v>-1</v>
       </c>
       <c r="Z794">
-        <v>0.9199999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA794">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB794">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC794">
         <v>-1</v>
@@ -71217,7 +71217,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5539941</v>
+        <v>5539940</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71229,76 +71229,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F795" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G795" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H795">
+        <v>4</v>
+      </c>
+      <c r="I795">
         <v>0</v>
       </c>
-      <c r="I795">
-        <v>1</v>
-      </c>
       <c r="J795" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K795">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L795">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M795">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N795">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O795">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P795">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q795">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R795">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S795">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T795">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U795">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V795">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W795">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X795">
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z795">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA795">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB795">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC795">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71306,7 +71306,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5541488</v>
+        <v>5539941</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71318,76 +71318,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F796" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G796" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796">
         <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K796">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L796">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M796">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N796">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O796">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P796">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q796">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R796">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S796">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T796">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U796">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V796">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W796">
         <v>-1</v>
       </c>
       <c r="X796">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y796">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z796">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA796">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB796">
         <v>-1</v>
       </c>
       <c r="AC796">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71395,7 +71395,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5541489</v>
+        <v>5541488</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71407,76 +71407,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F797" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G797" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H797">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I797">
+        <v>1</v>
+      </c>
+      <c r="J797" t="s">
+        <v>54</v>
+      </c>
+      <c r="K797">
+        <v>2.625</v>
+      </c>
+      <c r="L797">
+        <v>3.5</v>
+      </c>
+      <c r="M797">
+        <v>2.6</v>
+      </c>
+      <c r="N797">
+        <v>2.6</v>
+      </c>
+      <c r="O797">
+        <v>3.8</v>
+      </c>
+      <c r="P797">
+        <v>2.5</v>
+      </c>
+      <c r="Q797">
+        <v>0</v>
+      </c>
+      <c r="R797">
+        <v>1.975</v>
+      </c>
+      <c r="S797">
+        <v>1.875</v>
+      </c>
+      <c r="T797">
+        <v>3.25</v>
+      </c>
+      <c r="U797">
+        <v>1.85</v>
+      </c>
+      <c r="V797">
         <v>2</v>
       </c>
-      <c r="J797" t="s">
-        <v>55</v>
-      </c>
-      <c r="K797">
-        <v>1.533</v>
-      </c>
-      <c r="L797">
-        <v>4.5</v>
-      </c>
-      <c r="M797">
-        <v>5.75</v>
-      </c>
-      <c r="N797">
-        <v>1.285</v>
-      </c>
-      <c r="O797">
-        <v>6</v>
-      </c>
-      <c r="P797">
-        <v>9</v>
-      </c>
-      <c r="Q797">
-        <v>-1.75</v>
-      </c>
-      <c r="R797">
-        <v>1.95</v>
-      </c>
-      <c r="S797">
-        <v>1.9</v>
-      </c>
-      <c r="T797">
-        <v>3.5</v>
-      </c>
-      <c r="U797">
-        <v>1.95</v>
-      </c>
-      <c r="V797">
-        <v>1.9</v>
-      </c>
       <c r="W797">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X797">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA797">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB797">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71484,7 +71484,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5535270</v>
+        <v>5539306</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71496,76 +71496,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F798" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G798" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798">
         <v>0</v>
       </c>
-      <c r="I798">
-        <v>5</v>
-      </c>
       <c r="J798" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L798">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M798">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N798">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O798">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P798">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q798">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R798">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S798">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T798">
         <v>2.75</v>
       </c>
       <c r="U798">
+        <v>2</v>
+      </c>
+      <c r="V798">
         <v>1.85</v>
       </c>
-      <c r="V798">
-        <v>2</v>
-      </c>
       <c r="W798">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X798">
         <v>-1</v>
       </c>
       <c r="Y798">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA798">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB798">
+        <v>-1</v>
+      </c>
+      <c r="AC798">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC798">
-        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71573,7 +71573,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5559912</v>
+        <v>5535270</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71585,73 +71585,73 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F799" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G799" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H799">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J799" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K799">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L799">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M799">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N799">
         <v>3.1</v>
       </c>
       <c r="O799">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P799">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q799">
         <v>0.25</v>
       </c>
       <c r="R799">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S799">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T799">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U799">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V799">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W799">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X799">
         <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z799">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB799">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC799">
         <v>-1</v>
@@ -71662,7 +71662,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5539306</v>
+        <v>5559912</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71674,58 +71674,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F800" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G800" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J800" t="s">
         <v>55</v>
       </c>
       <c r="K800">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L800">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M800">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N800">
+        <v>3.1</v>
+      </c>
+      <c r="O800">
+        <v>4.2</v>
+      </c>
+      <c r="P800">
         <v>2.05</v>
       </c>
-      <c r="O800">
-        <v>3.8</v>
-      </c>
-      <c r="P800">
-        <v>3.4</v>
-      </c>
       <c r="Q800">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R800">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S800">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T800">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U800">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V800">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W800">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="X800">
         <v>-1</v>
@@ -71734,16 +71734,16 @@
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA800">
         <v>-1</v>
       </c>
       <c r="AB800">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC800">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72819,7 +72819,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72831,76 +72831,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F813" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G813" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I813">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J813" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K813">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L813">
+        <v>4.5</v>
+      </c>
+      <c r="M813">
+        <v>8</v>
+      </c>
+      <c r="N813">
+        <v>1.55</v>
+      </c>
+      <c r="O813">
+        <v>4</v>
+      </c>
+      <c r="P813">
         <v>6</v>
       </c>
-      <c r="M813">
-        <v>10</v>
-      </c>
-      <c r="N813">
-        <v>1.2</v>
-      </c>
-      <c r="O813">
-        <v>7</v>
-      </c>
-      <c r="P813">
-        <v>17</v>
-      </c>
       <c r="Q813">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R813">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S813">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T813">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U813">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V813">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W813">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X813">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y813">
         <v>-1</v>
       </c>
       <c r="Z813">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA813">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB813">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC813">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -72908,7 +72908,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72920,76 +72920,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F814" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G814" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H814">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J814" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K814">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L814">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M814">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N814">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O814">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P814">
+        <v>17</v>
+      </c>
+      <c r="Q814">
+        <v>-2.25</v>
+      </c>
+      <c r="R814">
+        <v>2.05</v>
+      </c>
+      <c r="S814">
+        <v>1.8</v>
+      </c>
+      <c r="T814">
+        <v>3.5</v>
+      </c>
+      <c r="U814">
+        <v>2</v>
+      </c>
+      <c r="V814">
+        <v>1.85</v>
+      </c>
+      <c r="W814">
+        <v>-1</v>
+      </c>
+      <c r="X814">
         <v>6</v>
       </c>
-      <c r="Q814">
-        <v>-1</v>
-      </c>
-      <c r="R814">
-        <v>1.9</v>
-      </c>
-      <c r="S814">
-        <v>1.95</v>
-      </c>
-      <c r="T814">
-        <v>2.75</v>
-      </c>
-      <c r="U814">
-        <v>1.95</v>
-      </c>
-      <c r="V814">
-        <v>1.9</v>
-      </c>
-      <c r="W814">
-        <v>0.55</v>
-      </c>
-      <c r="X814">
-        <v>-1</v>
-      </c>
       <c r="Y814">
         <v>-1</v>
       </c>
       <c r="Z814">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA814">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB814">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC814">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="815" spans="1:29">
@@ -86080,7 +86080,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>6838580</v>
+        <v>6838485</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86092,13 +86092,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F962" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G962" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I962">
         <v>2</v>
@@ -86107,34 +86107,34 @@
         <v>53</v>
       </c>
       <c r="K962">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L962">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M962">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N962">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="O962">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P962">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q962">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R962">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S962">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T962">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U962">
         <v>1.875</v>
@@ -86149,19 +86149,19 @@
         <v>-1</v>
       </c>
       <c r="Y962">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z962">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA962">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB962">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC962">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86169,7 +86169,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>6838485</v>
+        <v>6838580</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86181,13 +86181,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F963" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G963" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I963">
         <v>2</v>
@@ -86196,34 +86196,34 @@
         <v>53</v>
       </c>
       <c r="K963">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L963">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M963">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N963">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="O963">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P963">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="Q963">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R963">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S963">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T963">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U963">
         <v>1.875</v>
@@ -86238,19 +86238,19 @@
         <v>-1</v>
       </c>
       <c r="Y963">
-        <v>0.1659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z963">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA963">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB963">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC963">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -86970,7 +86970,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86982,76 +86982,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F972" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G972" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J972" t="s">
         <v>54</v>
       </c>
       <c r="K972">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L972">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M972">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N972">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O972">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P972">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q972">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R972">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S972">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T972">
         <v>2.75</v>
       </c>
       <c r="U972">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V972">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W972">
         <v>-1</v>
       </c>
       <c r="X972">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y972">
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA972">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB972">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC972">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87059,7 +87059,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87071,76 +87071,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F973" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G973" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J973" t="s">
         <v>54</v>
       </c>
       <c r="K973">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L973">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M973">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N973">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O973">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P973">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q973">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R973">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S973">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T973">
         <v>2.75</v>
       </c>
       <c r="U973">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V973">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W973">
         <v>-1</v>
       </c>
       <c r="X973">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y973">
         <v>-1</v>
       </c>
       <c r="Z973">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA973">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB973">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87264,31 +87264,31 @@
         <v>3.5</v>
       </c>
       <c r="N975">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O975">
+        <v>3.6</v>
+      </c>
+      <c r="P975">
         <v>3.75</v>
-      </c>
-      <c r="P975">
-        <v>3.8</v>
       </c>
       <c r="Q975">
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S975">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T975">
         <v>2.75</v>
       </c>
       <c r="U975">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V975">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87341,28 +87341,28 @@
         <v>1.25</v>
       </c>
       <c r="O976">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P976">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q976">
         <v>-1.75</v>
       </c>
       <c r="R976">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S976">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T976">
         <v>3</v>
       </c>
       <c r="U976">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V976">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87412,31 +87412,31 @@
         <v>2.75</v>
       </c>
       <c r="N977">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O977">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P977">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q977">
         <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="S977">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T977">
         <v>2.5</v>
       </c>
       <c r="U977">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V977">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87507,10 +87507,10 @@
         <v>3.25</v>
       </c>
       <c r="U978">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V978">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87560,13 +87560,13 @@
         <v>4.5</v>
       </c>
       <c r="N979">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O979">
         <v>3.75</v>
       </c>
       <c r="P979">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q979">
         <v>-0.75</v>
@@ -87578,13 +87578,13 @@
         <v>1.99</v>
       </c>
       <c r="T979">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U979">
+        <v>2.05</v>
+      </c>
+      <c r="V979">
         <v>1.8</v>
-      </c>
-      <c r="V979">
-        <v>2.05</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87655,10 +87655,10 @@
         <v>2.5</v>
       </c>
       <c r="U980">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V980">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W980">
         <v>0</v>
@@ -87711,7 +87711,7 @@
         <v>1.363</v>
       </c>
       <c r="O981">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P981">
         <v>8.5</v>
@@ -87720,19 +87720,19 @@
         <v>-1.25</v>
       </c>
       <c r="R981">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S981">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T981">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U981">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V981">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W981">
         <v>0</v>
@@ -87782,7 +87782,7 @@
         <v>2.1</v>
       </c>
       <c r="N982">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O982">
         <v>3.8</v>
@@ -87794,19 +87794,19 @@
         <v>0.75</v>
       </c>
       <c r="R982">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S982">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T982">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U982">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V982">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W982">
         <v>0</v>
@@ -87868,19 +87868,19 @@
         <v>-0.5</v>
       </c>
       <c r="R983">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S983">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T983">
         <v>2.5</v>
       </c>
       <c r="U983">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V983">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W983">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -58401,7 +58401,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58413,73 +58413,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F651" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G651" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J651" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K651">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L651">
         <v>3.5</v>
       </c>
       <c r="M651">
+        <v>2.15</v>
+      </c>
+      <c r="N651">
+        <v>4</v>
+      </c>
+      <c r="O651">
+        <v>3.4</v>
+      </c>
+      <c r="P651">
         <v>2</v>
-      </c>
-      <c r="N651">
-        <v>4.2</v>
-      </c>
-      <c r="O651">
-        <v>3.6</v>
-      </c>
-      <c r="P651">
-        <v>1.85</v>
       </c>
       <c r="Q651">
         <v>0.5</v>
       </c>
       <c r="R651">
+        <v>1.825</v>
+      </c>
+      <c r="S651">
         <v>2.025</v>
       </c>
-      <c r="S651">
+      <c r="T651">
+        <v>2.25</v>
+      </c>
+      <c r="U651">
         <v>1.825</v>
       </c>
-      <c r="T651">
-        <v>2.75</v>
-      </c>
-      <c r="U651">
-        <v>1.975</v>
-      </c>
       <c r="V651">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y651">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA651">
+        <v>-1</v>
+      </c>
+      <c r="AB651">
         <v>0.825</v>
-      </c>
-      <c r="AB651">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC651">
         <v>-1</v>
@@ -58490,7 +58490,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58502,73 +58502,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F652" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G652" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J652" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K652">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L652">
         <v>3.5</v>
       </c>
       <c r="M652">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N652">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O652">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q652">
         <v>0.5</v>
       </c>
       <c r="R652">
+        <v>2.025</v>
+      </c>
+      <c r="S652">
         <v>1.825</v>
       </c>
-      <c r="S652">
-        <v>2.025</v>
-      </c>
       <c r="T652">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U652">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V652">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y652">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z652">
+        <v>-1</v>
+      </c>
+      <c r="AA652">
         <v>0.825</v>
       </c>
-      <c r="AA652">
-        <v>-1</v>
-      </c>
       <c r="AB652">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC652">
         <v>-1</v>
@@ -58668,7 +58668,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58680,13 +58680,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F654" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G654" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -58695,43 +58695,43 @@
         <v>55</v>
       </c>
       <c r="K654">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L654">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M654">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N654">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O654">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P654">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q654">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R654">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S654">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T654">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U654">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V654">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W654">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X654">
         <v>-1</v>
@@ -58740,16 +58740,16 @@
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58757,7 +58757,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58769,13 +58769,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F655" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G655" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -58784,43 +58784,43 @@
         <v>55</v>
       </c>
       <c r="K655">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L655">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M655">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N655">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O655">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P655">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q655">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R655">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S655">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T655">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U655">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V655">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W655">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X655">
         <v>-1</v>
@@ -58829,16 +58829,16 @@
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA655">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -67657,7 +67657,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67669,76 +67669,76 @@
         <v>45032.625</v>
       </c>
       <c r="F755" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G755" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I755">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J755" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K755">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L755">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M755">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N755">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O755">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P755">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q755">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R755">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S755">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T755">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U755">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V755">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W755">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X755">
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z755">
         <v>-1</v>
       </c>
       <c r="AA755">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB755">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC755">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67746,7 +67746,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67758,76 +67758,76 @@
         <v>45032.625</v>
       </c>
       <c r="F756" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G756" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
         <v>3</v>
       </c>
-      <c r="I756">
-        <v>1</v>
-      </c>
       <c r="J756" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K756">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L756">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M756">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N756">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O756">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P756">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q756">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R756">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S756">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T756">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U756">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V756">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W756">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z756">
         <v>-1</v>
       </c>
       <c r="AA756">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB756">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -80651,7 +80651,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -80663,76 +80663,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F901" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G901" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H901">
+        <v>1</v>
+      </c>
+      <c r="I901">
+        <v>2</v>
+      </c>
+      <c r="J901" t="s">
+        <v>53</v>
+      </c>
+      <c r="K901">
+        <v>2.15</v>
+      </c>
+      <c r="L901">
+        <v>3.4</v>
+      </c>
+      <c r="M901">
+        <v>3</v>
+      </c>
+      <c r="N901">
+        <v>1.7</v>
+      </c>
+      <c r="O901">
         <v>4</v>
       </c>
-      <c r="I901">
-        <v>1</v>
-      </c>
-      <c r="J901" t="s">
-        <v>55</v>
-      </c>
-      <c r="K901">
-        <v>1.444</v>
-      </c>
-      <c r="L901">
-        <v>4.6</v>
-      </c>
-      <c r="M901">
-        <v>5.5</v>
-      </c>
-      <c r="N901">
-        <v>1.4</v>
-      </c>
-      <c r="O901">
-        <v>5.25</v>
-      </c>
       <c r="P901">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q901">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R901">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S901">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T901">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U901">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V901">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W901">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X901">
         <v>-1</v>
       </c>
       <c r="Y901">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z901">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA901">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB901">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC901">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="902" spans="1:29">
@@ -80740,7 +80740,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80752,76 +80752,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F902" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G902" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H902">
+        <v>4</v>
+      </c>
+      <c r="I902">
         <v>1</v>
       </c>
-      <c r="I902">
+      <c r="J902" t="s">
+        <v>55</v>
+      </c>
+      <c r="K902">
+        <v>1.444</v>
+      </c>
+      <c r="L902">
+        <v>4.6</v>
+      </c>
+      <c r="M902">
+        <v>5.5</v>
+      </c>
+      <c r="N902">
+        <v>1.4</v>
+      </c>
+      <c r="O902">
+        <v>5.25</v>
+      </c>
+      <c r="P902">
+        <v>7</v>
+      </c>
+      <c r="Q902">
+        <v>-1.5</v>
+      </c>
+      <c r="R902">
         <v>2</v>
       </c>
-      <c r="J902" t="s">
-        <v>53</v>
-      </c>
-      <c r="K902">
-        <v>2.15</v>
-      </c>
-      <c r="L902">
-        <v>3.4</v>
-      </c>
-      <c r="M902">
-        <v>3</v>
-      </c>
-      <c r="N902">
-        <v>1.7</v>
-      </c>
-      <c r="O902">
-        <v>4</v>
-      </c>
-      <c r="P902">
-        <v>4.75</v>
-      </c>
-      <c r="Q902">
-        <v>-0.75</v>
-      </c>
-      <c r="R902">
-        <v>1.9</v>
-      </c>
       <c r="S902">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T902">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U902">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V902">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W902">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X902">
         <v>-1</v>
       </c>
       <c r="Y902">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z902">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA902">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB902">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC902">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -82609,7 +82609,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C923" t="s">
         <v>28</v>
@@ -82621,73 +82621,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F923" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G923" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H923">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J923" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K923">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L923">
+        <v>3.7</v>
+      </c>
+      <c r="M923">
+        <v>3.1</v>
+      </c>
+      <c r="N923">
+        <v>1.95</v>
+      </c>
+      <c r="O923">
+        <v>3.8</v>
+      </c>
+      <c r="P923">
         <v>3.5</v>
-      </c>
-      <c r="M923">
-        <v>3.4</v>
-      </c>
-      <c r="N923">
-        <v>2</v>
-      </c>
-      <c r="O923">
-        <v>3.6</v>
-      </c>
-      <c r="P923">
-        <v>3.6</v>
       </c>
       <c r="Q923">
         <v>-0.5</v>
       </c>
       <c r="R923">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S923">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T923">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U923">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V923">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W923">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X923">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y923">
         <v>-1</v>
       </c>
       <c r="Z923">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA923">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB923">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC923">
         <v>-1</v>
@@ -82698,7 +82698,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C924" t="s">
         <v>28</v>
@@ -82710,73 +82710,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F924" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G924" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H924">
+        <v>3</v>
+      </c>
+      <c r="I924">
+        <v>1</v>
+      </c>
+      <c r="J924" t="s">
+        <v>55</v>
+      </c>
+      <c r="K924">
         <v>2</v>
       </c>
-      <c r="I924">
+      <c r="L924">
+        <v>3.5</v>
+      </c>
+      <c r="M924">
+        <v>3.4</v>
+      </c>
+      <c r="N924">
         <v>2</v>
       </c>
-      <c r="J924" t="s">
-        <v>54</v>
-      </c>
-      <c r="K924">
-        <v>2.05</v>
-      </c>
-      <c r="L924">
-        <v>3.7</v>
-      </c>
-      <c r="M924">
-        <v>3.1</v>
-      </c>
-      <c r="N924">
-        <v>1.95</v>
-      </c>
       <c r="O924">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P924">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q924">
         <v>-0.5</v>
       </c>
       <c r="R924">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S924">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T924">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U924">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V924">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W924">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X924">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y924">
         <v>-1</v>
       </c>
       <c r="Z924">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA924">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB924">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC924">
         <v>-1</v>
@@ -86970,7 +86970,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86982,76 +86982,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F972" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G972" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J972" t="s">
         <v>54</v>
       </c>
       <c r="K972">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L972">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M972">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N972">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O972">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P972">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q972">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R972">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S972">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T972">
         <v>2.75</v>
       </c>
       <c r="U972">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V972">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W972">
         <v>-1</v>
       </c>
       <c r="X972">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y972">
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA972">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB972">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC972">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87059,7 +87059,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87071,76 +87071,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F973" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G973" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J973" t="s">
         <v>54</v>
       </c>
       <c r="K973">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L973">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M973">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N973">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O973">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P973">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q973">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R973">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S973">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T973">
         <v>2.75</v>
       </c>
       <c r="U973">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V973">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W973">
         <v>-1</v>
       </c>
       <c r="X973">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y973">
         <v>-1</v>
       </c>
       <c r="Z973">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA973">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB973">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC973">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87276,19 +87276,19 @@
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S975">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T975">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U975">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V975">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87350,10 +87350,10 @@
         <v>-1.75</v>
       </c>
       <c r="R976">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S976">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T976">
         <v>3</v>
@@ -87412,31 +87412,31 @@
         <v>2.75</v>
       </c>
       <c r="N977">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O977">
         <v>3.4</v>
       </c>
       <c r="P977">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q977">
         <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="S977">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T977">
         <v>2.5</v>
       </c>
       <c r="U977">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V977">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87498,10 +87498,10 @@
         <v>0.5</v>
       </c>
       <c r="R978">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S978">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T978">
         <v>3.25</v>
@@ -87572,10 +87572,10 @@
         <v>-0.75</v>
       </c>
       <c r="R979">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S979">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T979">
         <v>3</v>
@@ -87646,10 +87646,10 @@
         <v>0</v>
       </c>
       <c r="R980">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S980">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T980">
         <v>2.5</v>
@@ -87782,22 +87782,22 @@
         <v>2.1</v>
       </c>
       <c r="N982">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O982">
         <v>3.8</v>
       </c>
       <c r="P982">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q982">
         <v>0.75</v>
       </c>
       <c r="R982">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S982">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T982">
         <v>2.75</v>
@@ -87856,22 +87856,22 @@
         <v>3.75</v>
       </c>
       <c r="N983">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O983">
         <v>3.5</v>
       </c>
       <c r="P983">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q983">
         <v>-0.5</v>
       </c>
       <c r="R983">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S983">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T983">
         <v>2.5</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>2.025</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.825</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
+        <v>2.15</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
         <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
-      </c>
-      <c r="AB31">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,13 +3402,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3417,43 +3417,43 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L33">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3.2</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
+        <v>3.4</v>
+      </c>
+      <c r="P39">
         <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.1</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>2.3</v>
+      </c>
+      <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>3.1</v>
+      </c>
+      <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>3.3</v>
+      </c>
+      <c r="P40">
         <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>2.15</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>3.25</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5159385</v>
+        <v>5159863</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,76 +4826,76 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N49">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P49">
+        <v>5.25</v>
+      </c>
+      <c r="Q49">
+        <v>-0.75</v>
+      </c>
+      <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
         <v>2.5</v>
       </c>
-      <c r="Q49">
-        <v>0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.725</v>
-      </c>
-      <c r="S49">
-        <v>2.075</v>
-      </c>
-      <c r="T49">
-        <v>2.25</v>
-      </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.3625</v>
+        <v>0.4125</v>
       </c>
       <c r="AA49">
         <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5159863</v>
+        <v>5159385</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.4125</v>
+        <v>0.3625</v>
       </c>
       <c r="AA50">
         <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5159873</v>
+        <v>5159871</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I61">
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>4.333</v>
+      </c>
+      <c r="L61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>5.75</v>
+      </c>
+      <c r="O61">
+        <v>4.333</v>
+      </c>
+      <c r="P61">
+        <v>1.533</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>1.9</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
+        <v>1.975</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61">
-        <v>2.3</v>
-      </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>2.625</v>
-      </c>
-      <c r="N61">
-        <v>2.55</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.75</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
-      <c r="W61">
-        <v>1.55</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5159871</v>
+        <v>5159873</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>2.625</v>
+      </c>
+      <c r="N62">
+        <v>2.55</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>2.75</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>2</v>
       </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62">
-        <v>4.333</v>
-      </c>
-      <c r="L62">
-        <v>3.8</v>
-      </c>
-      <c r="M62">
-        <v>1.727</v>
-      </c>
-      <c r="N62">
-        <v>5.75</v>
-      </c>
-      <c r="O62">
-        <v>4.333</v>
-      </c>
-      <c r="P62">
-        <v>1.533</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5159868</v>
+        <v>5159387</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.96</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
       <c r="W63">
-        <v>0.1419999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.96</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
         <v>-0.5</v>
       </c>
-      <c r="AA63">
-        <v>0.4875</v>
-      </c>
-      <c r="AB63">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5159387</v>
+        <v>5159868</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,58 +6161,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="P64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R64">
-        <v>1.96</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>2</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>0.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6221,16 +6221,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5159885</v>
+        <v>5159390</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7585,76 +7585,76 @@
         <v>44983.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K80">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L80">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5159390</v>
+        <v>5159885</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,76 +7674,76 @@
         <v>44983.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M81">
+        <v>1.5</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>1.444</v>
+      </c>
+      <c r="Q81">
+        <v>1.25</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="N81">
-        <v>2.5</v>
-      </c>
-      <c r="O81">
-        <v>3.1</v>
-      </c>
-      <c r="P81">
-        <v>3.1</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2.1</v>
-      </c>
-      <c r="S81">
-        <v>1.775</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
       <c r="U81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z81">
+        <v>0.4625</v>
+      </c>
+      <c r="AA81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.3875</v>
-      </c>
       <c r="AB81">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5159598</v>
+        <v>5159900</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>52</v>
+      </c>
+      <c r="K105">
+        <v>1.7</v>
+      </c>
+      <c r="L105">
         <v>4</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K105">
-        <v>2.55</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
       <c r="M105">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5159900</v>
+        <v>5159598</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
+        <v>2.7</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>1.8</v>
       </c>
-      <c r="O106">
-        <v>4</v>
-      </c>
-      <c r="P106">
-        <v>3.6</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5159911</v>
+        <v>5159397</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115">
+        <v>1.4</v>
+      </c>
+      <c r="L115">
+        <v>4.75</v>
+      </c>
+      <c r="M115">
+        <v>6.5</v>
+      </c>
+      <c r="N115">
+        <v>1.4</v>
+      </c>
+      <c r="O115">
+        <v>4.75</v>
+      </c>
+      <c r="P115">
+        <v>6.5</v>
+      </c>
+      <c r="Q115">
+        <v>-1.25</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
         <v>3</v>
       </c>
-      <c r="J115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K115">
-        <v>5</v>
-      </c>
-      <c r="L115">
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>2.025</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>3.75</v>
       </c>
-      <c r="M115">
-        <v>1.615</v>
-      </c>
-      <c r="N115">
-        <v>7</v>
-      </c>
-      <c r="O115">
-        <v>4.333</v>
-      </c>
-      <c r="P115">
-        <v>1.45</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5159397</v>
+        <v>5159911</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N116">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.975</v>
-      </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.8</v>
+      </c>
+      <c r="AB116">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45024.625</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O120">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P120">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45024.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M121">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N121">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q131">
+        <v>1.75</v>
+      </c>
+      <c r="R131">
+        <v>2.02</v>
+      </c>
+      <c r="S131">
+        <v>1.88</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>2.025</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>0.25</v>
       </c>
-      <c r="R131">
-        <v>2.025</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
-      <c r="W131">
-        <v>2.3</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L132">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O132">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45032.625</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O135">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q135">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5499719</v>
+        <v>5499718</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,40 +14883,40 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>3</v>
-      </c>
       <c r="J162" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K162">
+        <v>1.25</v>
+      </c>
+      <c r="L162">
         <v>6</v>
       </c>
-      <c r="L162">
-        <v>4.75</v>
-      </c>
       <c r="M162">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="N162">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P162">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="Q162">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
         <v>1.875</v>
@@ -14925,31 +14925,31 @@
         <v>1.975</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5499720</v>
+        <v>5499721</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,58 +14972,58 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>50</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M163">
+        <v>6.5</v>
+      </c>
+      <c r="N163">
+        <v>1.444</v>
+      </c>
+      <c r="O163">
+        <v>4.5</v>
+      </c>
+      <c r="P163">
         <v>7.5</v>
       </c>
-      <c r="N163">
-        <v>1.4</v>
-      </c>
-      <c r="O163">
-        <v>4.75</v>
-      </c>
-      <c r="P163">
-        <v>8.5</v>
-      </c>
       <c r="Q163">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W163">
-        <v>0.3999999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,13 +15032,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1.06</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499721</v>
+        <v>5535269</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164" t="s">
+        <v>52</v>
+      </c>
+      <c r="K164">
+        <v>4.333</v>
+      </c>
+      <c r="L164">
+        <v>3.75</v>
+      </c>
+      <c r="M164">
+        <v>1.75</v>
+      </c>
+      <c r="N164">
+        <v>4.5</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>1.75</v>
+      </c>
+      <c r="Q164">
+        <v>0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
+        <v>1.925</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>0.75</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB164">
         <v>0</v>
       </c>
-      <c r="J164" t="s">
-        <v>50</v>
-      </c>
-      <c r="K164">
-        <v>1.444</v>
-      </c>
-      <c r="L164">
-        <v>4.5</v>
-      </c>
-      <c r="M164">
-        <v>6.5</v>
-      </c>
-      <c r="N164">
-        <v>1.444</v>
-      </c>
-      <c r="O164">
-        <v>4.5</v>
-      </c>
-      <c r="P164">
-        <v>7.5</v>
-      </c>
-      <c r="Q164">
-        <v>-1.25</v>
-      </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>2.05</v>
-      </c>
-      <c r="W164">
-        <v>0.444</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.8</v>
-      </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499718</v>
+        <v>5499491</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,19 +15150,19 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
         <v>1.25</v>
@@ -15171,52 +15171,52 @@
         <v>6</v>
       </c>
       <c r="M165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N165">
-        <v>1.285</v>
+        <v>1.181</v>
       </c>
       <c r="O165">
+        <v>7</v>
+      </c>
+      <c r="P165">
+        <v>13</v>
+      </c>
+      <c r="Q165">
+        <v>-2.25</v>
+      </c>
+      <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>1.8</v>
+      </c>
+      <c r="T165">
+        <v>3.75</v>
+      </c>
+      <c r="U165">
+        <v>1.975</v>
+      </c>
+      <c r="V165">
+        <v>1.875</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
         <v>6</v>
       </c>
-      <c r="P165">
-        <v>10</v>
-      </c>
-      <c r="Q165">
-        <v>-1.75</v>
-      </c>
-      <c r="R165">
-        <v>1.875</v>
-      </c>
-      <c r="S165">
-        <v>1.975</v>
-      </c>
-      <c r="T165">
-        <v>3.5</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
-      </c>
-      <c r="W165">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5498582</v>
+        <v>5505055</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15343,43 +15343,43 @@
         <v>50</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S167">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,7 +15388,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5499491</v>
+        <v>5498582</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>50</v>
+      </c>
+      <c r="K168">
+        <v>2.05</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>3.4</v>
+      </c>
+      <c r="N168">
+        <v>1.909</v>
+      </c>
+      <c r="O168">
+        <v>3.8</v>
+      </c>
+      <c r="P168">
+        <v>3.8</v>
+      </c>
+      <c r="Q168">
+        <v>-0.5</v>
+      </c>
+      <c r="R168">
+        <v>1.94</v>
+      </c>
+      <c r="S168">
+        <v>1.96</v>
+      </c>
+      <c r="T168">
         <v>3</v>
       </c>
-      <c r="J168" t="s">
-        <v>51</v>
-      </c>
-      <c r="K168">
-        <v>1.25</v>
-      </c>
-      <c r="L168">
-        <v>6</v>
-      </c>
-      <c r="M168">
-        <v>11</v>
-      </c>
-      <c r="N168">
-        <v>1.181</v>
-      </c>
-      <c r="O168">
-        <v>7</v>
-      </c>
-      <c r="P168">
-        <v>13</v>
-      </c>
-      <c r="Q168">
-        <v>-2.25</v>
-      </c>
-      <c r="R168">
-        <v>2.05</v>
-      </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
-      <c r="T168">
-        <v>3.75</v>
-      </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X168">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5505055</v>
+        <v>5499719</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
         <v>3</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K169">
+        <v>6</v>
+      </c>
+      <c r="L169">
+        <v>4.75</v>
+      </c>
+      <c r="M169">
+        <v>1.444</v>
+      </c>
+      <c r="N169">
+        <v>6.5</v>
+      </c>
+      <c r="O169">
+        <v>4.75</v>
+      </c>
+      <c r="P169">
+        <v>1.45</v>
+      </c>
+      <c r="Q169">
+        <v>1.25</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>3.25</v>
+      </c>
+      <c r="U169">
+        <v>2.05</v>
+      </c>
+      <c r="V169">
         <v>1.8</v>
       </c>
-      <c r="L169">
-        <v>3.8</v>
-      </c>
-      <c r="M169">
-        <v>4</v>
-      </c>
-      <c r="N169">
-        <v>1.75</v>
-      </c>
-      <c r="O169">
-        <v>4.2</v>
-      </c>
-      <c r="P169">
-        <v>4</v>
-      </c>
-      <c r="Q169">
-        <v>-0.75</v>
-      </c>
-      <c r="R169">
-        <v>1.97</v>
-      </c>
-      <c r="S169">
-        <v>1.93</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
       <c r="W169">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z169">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5535269</v>
+        <v>5499720</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,76 +15595,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="N170">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>1.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T170">
         <v>3</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5702299</v>
+        <v>5541488</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>51</v>
+      </c>
+      <c r="K171">
+        <v>2.625</v>
+      </c>
+      <c r="L171">
+        <v>3.5</v>
+      </c>
+      <c r="M171">
+        <v>2.6</v>
+      </c>
+      <c r="N171">
+        <v>2.6</v>
+      </c>
+      <c r="O171">
+        <v>3.8</v>
+      </c>
+      <c r="P171">
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.875</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
         <v>2</v>
       </c>
-      <c r="J171" t="s">
-        <v>52</v>
-      </c>
-      <c r="K171">
-        <v>2.7</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>2.45</v>
-      </c>
-      <c r="N171">
-        <v>2.375</v>
-      </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>2.9</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>2.05</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5541489</v>
+        <v>5702299</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L172">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N172">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="O172">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="Q172">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
+        <v>1.8</v>
+      </c>
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>2.05</v>
+      </c>
+      <c r="V172">
+        <v>1.8</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>1.9</v>
       </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>1.95</v>
-      </c>
-      <c r="V172">
-        <v>1.9</v>
-      </c>
-      <c r="W172">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5535270</v>
+        <v>5559912</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,73 +15862,73 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N173">
         <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q173">
         <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5539941</v>
+        <v>5535270</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,55 +15951,55 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J174" t="s">
         <v>52</v>
       </c>
       <c r="K174">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L174">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q174">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -16008,19 +16008,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5539306</v>
+        <v>5559913</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175">
         <v>2</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
+        <v>1.909</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>3.5</v>
+      </c>
+      <c r="N175">
+        <v>1.75</v>
+      </c>
+      <c r="O175">
+        <v>4.75</v>
+      </c>
+      <c r="P175">
+        <v>3.8</v>
+      </c>
+      <c r="Q175">
+        <v>-0.75</v>
+      </c>
+      <c r="R175">
+        <v>1.95</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
+        <v>3.5</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>2</v>
       </c>
-      <c r="L175">
-        <v>3.8</v>
-      </c>
-      <c r="M175">
-        <v>3.4</v>
-      </c>
-      <c r="N175">
-        <v>2.05</v>
-      </c>
-      <c r="O175">
-        <v>3.8</v>
-      </c>
-      <c r="P175">
-        <v>3.4</v>
-      </c>
-      <c r="Q175">
+      <c r="W175">
+        <v>0.75</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.475</v>
+      </c>
+      <c r="AA175">
         <v>-0.5</v>
       </c>
-      <c r="R175">
-        <v>2</v>
-      </c>
-      <c r="S175">
-        <v>1.85</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>2</v>
-      </c>
-      <c r="V175">
-        <v>1.85</v>
-      </c>
-      <c r="W175">
-        <v>1.05</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>1</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5541488</v>
+        <v>5539941</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M176">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N176">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P176">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5559912</v>
+        <v>5539940</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,46 +16218,46 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>50</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M177">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N177">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.92</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.98</v>
       </c>
       <c r="T177">
         <v>3.5</v>
@@ -16269,7 +16269,7 @@
         <v>1.875</v>
       </c>
       <c r="W177">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,7 +16278,7 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5539940</v>
+        <v>5541489</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,58 +16307,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P178">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R178">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
         <v>3.5</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16367,13 +16367,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5559913</v>
+        <v>5539306</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,58 +16396,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>50</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
         <v>1.85</v>
       </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
       <c r="W179">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16456,16 +16456,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N192">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P192">
+        <v>17</v>
+      </c>
+      <c r="Q192">
+        <v>-2.25</v>
+      </c>
+      <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
         <v>6</v>
       </c>
-      <c r="Q192">
-        <v>-1</v>
-      </c>
-      <c r="R192">
-        <v>1.9</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>0.55</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L193">
+        <v>4.5</v>
+      </c>
+      <c r="M193">
+        <v>8</v>
+      </c>
+      <c r="N193">
+        <v>1.55</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>6</v>
       </c>
-      <c r="M193">
-        <v>10</v>
-      </c>
-      <c r="N193">
-        <v>1.2</v>
-      </c>
-      <c r="O193">
-        <v>7</v>
-      </c>
-      <c r="P193">
-        <v>17</v>
-      </c>
       <c r="Q193">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X193">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838364</v>
+        <v>6838363</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20045,58 +20045,58 @@
         <v>45185.625</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>50</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L220">
+        <v>5.5</v>
+      </c>
+      <c r="M220">
+        <v>9.5</v>
+      </c>
+      <c r="N220">
+        <v>1.166</v>
+      </c>
+      <c r="O220">
+        <v>8</v>
+      </c>
+      <c r="P220">
+        <v>15</v>
+      </c>
+      <c r="Q220">
+        <v>-2.25</v>
+      </c>
+      <c r="R220">
+        <v>1.9</v>
+      </c>
+      <c r="S220">
+        <v>1.95</v>
+      </c>
+      <c r="T220">
         <v>3.75</v>
       </c>
-      <c r="M220">
-        <v>3.6</v>
-      </c>
-      <c r="N220">
-        <v>1.444</v>
-      </c>
-      <c r="O220">
-        <v>4.75</v>
-      </c>
-      <c r="P220">
-        <v>7.5</v>
-      </c>
-      <c r="Q220">
-        <v>-1.25</v>
-      </c>
-      <c r="R220">
+      <c r="U220">
         <v>1.925</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.925</v>
       </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
-      <c r="U220">
-        <v>1.875</v>
-      </c>
-      <c r="V220">
-        <v>1.975</v>
-      </c>
       <c r="W220">
-        <v>0.444</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20105,16 +20105,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838363</v>
+        <v>6838364</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,58 +20134,58 @@
         <v>45185.625</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>50</v>
       </c>
       <c r="K221">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="O221">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P221">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Q221">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20194,16 +20194,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6838370</v>
+        <v>6838367</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,76 +20401,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X224">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC224">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6838367</v>
+        <v>6838370</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K225">
+        <v>2.1</v>
+      </c>
+      <c r="L225">
         <v>3.6</v>
       </c>
-      <c r="L225">
-        <v>3.75</v>
-      </c>
       <c r="M225">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N225">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W225">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6838386</v>
+        <v>6838387</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,76 +21736,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F239" t="s">
+        <v>33</v>
+      </c>
+      <c r="G239" t="s">
+        <v>39</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>50</v>
+      </c>
+      <c r="K239">
+        <v>1.125</v>
+      </c>
+      <c r="L239">
+        <v>8.5</v>
+      </c>
+      <c r="M239">
+        <v>17</v>
+      </c>
+      <c r="N239">
+        <v>1.035</v>
+      </c>
+      <c r="O239">
+        <v>17</v>
+      </c>
+      <c r="P239">
         <v>34</v>
       </c>
-      <c r="G239" t="s">
-        <v>48</v>
-      </c>
-      <c r="H239">
-        <v>0</v>
-      </c>
-      <c r="I239">
+      <c r="Q239">
+        <v>-3.75</v>
+      </c>
+      <c r="R239">
         <v>2</v>
       </c>
-      <c r="J239" t="s">
-        <v>52</v>
-      </c>
-      <c r="K239">
-        <v>1.444</v>
-      </c>
-      <c r="L239">
-        <v>4.333</v>
-      </c>
-      <c r="M239">
-        <v>7</v>
-      </c>
-      <c r="N239">
-        <v>1.55</v>
-      </c>
-      <c r="O239">
-        <v>4</v>
-      </c>
-      <c r="P239">
-        <v>6</v>
-      </c>
-      <c r="Q239">
-        <v>-1</v>
-      </c>
-      <c r="R239">
-        <v>1.94</v>
-      </c>
       <c r="S239">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U239">
+        <v>1.85</v>
+      </c>
+      <c r="V239">
         <v>2</v>
       </c>
-      <c r="V239">
-        <v>1.85</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.96</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6838387</v>
+        <v>6838386</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,76 +21825,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>52</v>
+      </c>
+      <c r="K240">
+        <v>1.444</v>
+      </c>
+      <c r="L240">
+        <v>4.333</v>
+      </c>
+      <c r="M240">
+        <v>7</v>
+      </c>
+      <c r="N240">
+        <v>1.55</v>
+      </c>
+      <c r="O240">
+        <v>4</v>
+      </c>
+      <c r="P240">
+        <v>6</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.94</v>
+      </c>
+      <c r="S240">
+        <v>1.96</v>
+      </c>
+      <c r="T240">
         <v>3</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-      <c r="J240" t="s">
-        <v>50</v>
-      </c>
-      <c r="K240">
-        <v>1.125</v>
-      </c>
-      <c r="L240">
-        <v>8.5</v>
-      </c>
-      <c r="M240">
-        <v>17</v>
-      </c>
-      <c r="N240">
-        <v>1.035</v>
-      </c>
-      <c r="O240">
-        <v>17</v>
-      </c>
-      <c r="P240">
-        <v>34</v>
-      </c>
-      <c r="Q240">
-        <v>-3.75</v>
-      </c>
-      <c r="R240">
+      <c r="U240">
         <v>2</v>
       </c>
-      <c r="S240">
+      <c r="V240">
         <v>1.85</v>
       </c>
-      <c r="T240">
-        <v>4.75</v>
-      </c>
-      <c r="U240">
-        <v>1.85</v>
-      </c>
-      <c r="V240">
-        <v>2</v>
-      </c>
       <c r="W240">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
+        <v>0.96</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB240">
-        <v>-1</v>
-      </c>
-      <c r="AC240">
-        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,13 +23160,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -23175,43 +23175,43 @@
         <v>50</v>
       </c>
       <c r="K255">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L255">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O255">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q255">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
+        <v>0.45</v>
+      </c>
+      <c r="AA255">
         <v>-0.5</v>
       </c>
-      <c r="AA255">
-        <v>0.4625</v>
-      </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,13 +23249,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -23264,43 +23264,43 @@
         <v>50</v>
       </c>
       <c r="K256">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N256">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P256">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23309,16 +23309,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
+        <v>0.4625</v>
+      </c>
+      <c r="AB256">
+        <v>0.4875</v>
+      </c>
+      <c r="AC256">
         <v>-0.5</v>
-      </c>
-      <c r="AB256">
-        <v>0</v>
-      </c>
-      <c r="AC256">
-        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L258">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M258">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N258">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P258">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q258">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R258">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U258">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W258">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L259">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M259">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N259">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O259">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q259">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R259">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,76 +24139,76 @@
         <v>45227.625</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L266">
+        <v>3.5</v>
+      </c>
+      <c r="M266">
+        <v>2.5</v>
+      </c>
+      <c r="N266">
+        <v>2.9</v>
+      </c>
+      <c r="O266">
         <v>3.6</v>
       </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.75</v>
-      </c>
-      <c r="O266">
-        <v>3.75</v>
-      </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
         <v>1.975</v>
-      </c>
-      <c r="S266">
-        <v>1.875</v>
       </c>
       <c r="T266">
         <v>2.75</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,76 +24228,76 @@
         <v>45227.625</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
+        <v>1.975</v>
+      </c>
+      <c r="S267">
         <v>1.875</v>
-      </c>
-      <c r="S267">
-        <v>1.975</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X267">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,58 +24495,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
         <v>50</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M270">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N270">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O270">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P270">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R270">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T270">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24555,13 +24555,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,58 +24584,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H271">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M271">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N271">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O271">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P271">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q271">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S271">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T271">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24644,13 +24644,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838421</v>
+        <v>6838420</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,40 +24851,40 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F274" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H274">
         <v>1</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L274">
         <v>4.5</v>
       </c>
       <c r="M274">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N274">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O274">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="P274">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="Q274">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R274">
         <v>1.9</v>
@@ -24893,22 +24893,22 @@
         <v>1.95</v>
       </c>
       <c r="T274">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z274">
         <v>0.8999999999999999</v>
@@ -24920,7 +24920,7 @@
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6838420</v>
+        <v>6838421</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,40 +24940,40 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F275" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H275">
         <v>1</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K275">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L275">
         <v>4.5</v>
       </c>
       <c r="M275">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N275">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="O275">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P275">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="Q275">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R275">
         <v>1.9</v>
@@ -24982,22 +24982,22 @@
         <v>1.95</v>
       </c>
       <c r="T275">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V275">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y275">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
         <v>0.8999999999999999</v>
@@ -25009,7 +25009,7 @@
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>52</v>
+      </c>
+      <c r="K280">
+        <v>2.15</v>
+      </c>
+      <c r="L280">
+        <v>3.4</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>1.7</v>
+      </c>
+      <c r="O280">
         <v>4</v>
       </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>50</v>
-      </c>
-      <c r="K280">
-        <v>1.444</v>
-      </c>
-      <c r="L280">
-        <v>4.6</v>
-      </c>
-      <c r="M280">
-        <v>5.5</v>
-      </c>
-      <c r="N280">
-        <v>1.4</v>
-      </c>
-      <c r="O280">
-        <v>5.25</v>
-      </c>
       <c r="P280">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W280">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281">
         <v>1</v>
       </c>
-      <c r="I281">
+      <c r="J281" t="s">
+        <v>50</v>
+      </c>
+      <c r="K281">
+        <v>1.444</v>
+      </c>
+      <c r="L281">
+        <v>4.6</v>
+      </c>
+      <c r="M281">
+        <v>5.5</v>
+      </c>
+      <c r="N281">
+        <v>1.4</v>
+      </c>
+      <c r="O281">
+        <v>5.25</v>
+      </c>
+      <c r="P281">
+        <v>7</v>
+      </c>
+      <c r="Q281">
+        <v>-1.5</v>
+      </c>
+      <c r="R281">
         <v>2</v>
       </c>
-      <c r="J281" t="s">
-        <v>52</v>
-      </c>
-      <c r="K281">
-        <v>2.15</v>
-      </c>
-      <c r="L281">
-        <v>3.4</v>
-      </c>
-      <c r="M281">
-        <v>3</v>
-      </c>
-      <c r="N281">
-        <v>1.7</v>
-      </c>
-      <c r="O281">
-        <v>4</v>
-      </c>
-      <c r="P281">
-        <v>4.75</v>
-      </c>
-      <c r="Q281">
-        <v>-0.75</v>
-      </c>
-      <c r="R281">
-        <v>1.9</v>
-      </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,73 +26008,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L287">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M287">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N287">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O287">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P287">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q287">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z287">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB287">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,73 +26097,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288" t="s">
+        <v>51</v>
+      </c>
+      <c r="K288">
+        <v>5</v>
+      </c>
+      <c r="L288">
+        <v>4.4</v>
+      </c>
+      <c r="M288">
+        <v>1.571</v>
+      </c>
+      <c r="N288">
+        <v>5.25</v>
+      </c>
+      <c r="O288">
+        <v>4.75</v>
+      </c>
+      <c r="P288">
+        <v>1.533</v>
+      </c>
+      <c r="Q288">
         <v>1</v>
       </c>
-      <c r="I288">
-        <v>4</v>
-      </c>
-      <c r="J288" t="s">
-        <v>52</v>
-      </c>
-      <c r="K288">
-        <v>2.625</v>
-      </c>
-      <c r="L288">
-        <v>3.6</v>
-      </c>
-      <c r="M288">
-        <v>2.5</v>
-      </c>
-      <c r="N288">
-        <v>3</v>
-      </c>
-      <c r="O288">
+      <c r="R288">
+        <v>2.04</v>
+      </c>
+      <c r="S288">
+        <v>1.86</v>
+      </c>
+      <c r="T288">
+        <v>3.25</v>
+      </c>
+      <c r="U288">
+        <v>1.9</v>
+      </c>
+      <c r="V288">
+        <v>1.95</v>
+      </c>
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
         <v>3.75</v>
       </c>
-      <c r="P288">
-        <v>2.2</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.925</v>
-      </c>
-      <c r="S288">
-        <v>1.925</v>
-      </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
-      <c r="U288">
-        <v>2.05</v>
-      </c>
-      <c r="V288">
-        <v>1.8</v>
-      </c>
-      <c r="W288">
-        <v>-1</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
       <c r="Y288">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
         <v>0</v>
       </c>
-      <c r="I292">
-        <v>3</v>
-      </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L292">
         <v>3.75</v>
       </c>
       <c r="M292">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N292">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
+        <v>3.8</v>
+      </c>
+      <c r="Q292">
+        <v>-0.5</v>
+      </c>
+      <c r="R292">
+        <v>1.975</v>
+      </c>
+      <c r="S292">
+        <v>1.875</v>
+      </c>
+      <c r="T292">
+        <v>2.5</v>
+      </c>
+      <c r="U292">
         <v>2</v>
       </c>
-      <c r="Q292">
-        <v>0.5</v>
-      </c>
-      <c r="R292">
-        <v>1.825</v>
-      </c>
-      <c r="S292">
-        <v>2.025</v>
-      </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
-      <c r="U292">
-        <v>2.025</v>
-      </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
+        <v>-1</v>
+      </c>
+      <c r="Z292">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA292">
+        <v>-1</v>
+      </c>
+      <c r="AB292">
         <v>1</v>
       </c>
-      <c r="Z292">
-        <v>-1</v>
-      </c>
-      <c r="AA292">
-        <v>1.025</v>
-      </c>
-      <c r="AB292">
-        <v>0</v>
-      </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
         <v>3</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L293">
         <v>3.75</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N293">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z293">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26619,7 +26619,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26631,76 +26631,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K294">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L294">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N294">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P294">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T294">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
+        <v>1.9</v>
+      </c>
+      <c r="V294">
         <v>1.95</v>
       </c>
-      <c r="V294">
-        <v>1.9</v>
-      </c>
       <c r="W294">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26708,7 +26708,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26720,76 +26720,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K295">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L295">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N295">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P295">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
+        <v>1.95</v>
+      </c>
+      <c r="V295">
         <v>1.9</v>
       </c>
-      <c r="V295">
-        <v>1.95</v>
-      </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC295">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26886,7 +26886,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26898,76 +26898,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K297">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M297">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N297">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P297">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
         <v>1.975</v>
       </c>
-      <c r="V297">
-        <v>1.875</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X297">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
+        <v>0.825</v>
+      </c>
+      <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
         <v>-0.5</v>
       </c>
-      <c r="AA297">
-        <v>0.475</v>
-      </c>
-      <c r="AB297">
-        <v>-1</v>
-      </c>
       <c r="AC297">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26975,7 +26975,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26987,76 +26987,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F298" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N298">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O298">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P298">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q298">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
         <v>1.875</v>
       </c>
-      <c r="V298">
-        <v>1.975</v>
-      </c>
       <c r="W298">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6838451</v>
+        <v>6838450</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,55 +27699,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F306" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>52</v>
       </c>
       <c r="K306">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L306">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M306">
         <v>1.75</v>
       </c>
       <c r="N306">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O306">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P306">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q306">
         <v>0.5</v>
       </c>
       <c r="R306">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U306">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27756,19 +27756,19 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB306">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27776,7 +27776,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838450</v>
+        <v>6838451</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27788,55 +27788,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F307" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
         <v>52</v>
       </c>
       <c r="K307">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L307">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M307">
         <v>1.75</v>
       </c>
       <c r="N307">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O307">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P307">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q307">
         <v>0.5</v>
       </c>
       <c r="R307">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S307">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27845,19 +27845,19 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC307">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -30802,7 +30802,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6838580</v>
+        <v>6838485</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30814,13 +30814,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F341" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341">
         <v>2</v>
@@ -30829,34 +30829,34 @@
         <v>52</v>
       </c>
       <c r="K341">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L341">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M341">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N341">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="O341">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P341">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q341">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R341">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S341">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T341">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U341">
         <v>1.875</v>
@@ -30871,19 +30871,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA341">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC341">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30891,7 +30891,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6838485</v>
+        <v>6838580</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30903,13 +30903,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F342" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G342" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>2</v>
@@ -30918,34 +30918,34 @@
         <v>52</v>
       </c>
       <c r="K342">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L342">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M342">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N342">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="O342">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P342">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="Q342">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R342">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S342">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T342">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
         <v>1.875</v>
@@ -30960,19 +30960,19 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0.1659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z342">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB342">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,76 +31259,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F346" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L346">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N346">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O346">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P346">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q346">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31336,7 +31336,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31348,76 +31348,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L347">
+        <v>9.5</v>
+      </c>
+      <c r="M347">
+        <v>19</v>
+      </c>
+      <c r="N347">
+        <v>1.1</v>
+      </c>
+      <c r="O347">
+        <v>10</v>
+      </c>
+      <c r="P347">
+        <v>23</v>
+      </c>
+      <c r="Q347">
+        <v>-2.5</v>
+      </c>
+      <c r="R347">
+        <v>1.9</v>
+      </c>
+      <c r="S347">
+        <v>1.95</v>
+      </c>
+      <c r="T347">
         <v>3.75</v>
       </c>
-      <c r="M347">
-        <v>2.1</v>
-      </c>
-      <c r="N347">
-        <v>2.3</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
-      <c r="P347">
-        <v>2.8</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
+      <c r="U347">
         <v>2.025</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.5</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X347">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31976,6 +31976,15 @@
       <c r="G354" t="s">
         <v>37</v>
       </c>
+      <c r="H354">
+        <v>2</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>50</v>
+      </c>
       <c r="K354">
         <v>2</v>
       </c>
@@ -31986,46 +31995,52 @@
         <v>3.5</v>
       </c>
       <c r="N354">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P354">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q354">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R354">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W354">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA354">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>0.825</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32060,10 +32075,10 @@
         <v>7.5</v>
       </c>
       <c r="N355">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O355">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P355">
         <v>10</v>
@@ -32072,10 +32087,10 @@
         <v>-1.5</v>
       </c>
       <c r="R355">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S355">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T355">
         <v>3</v>
@@ -32146,19 +32161,19 @@
         <v>-0.25</v>
       </c>
       <c r="R356">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S356">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T356">
         <v>2.5</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V356">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32208,31 +32223,31 @@
         <v>2.1</v>
       </c>
       <c r="N357">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O357">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P357">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q357">
         <v>0.5</v>
       </c>
       <c r="R357">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S357">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T357">
         <v>3.25</v>
       </c>
       <c r="U357">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V357">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32282,31 +32297,31 @@
         <v>4.5</v>
       </c>
       <c r="N358">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O358">
         <v>4</v>
       </c>
       <c r="P358">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q358">
         <v>-0.75</v>
       </c>
       <c r="R358">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S358">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T358">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U358">
+        <v>1.8</v>
+      </c>
+      <c r="V358">
         <v>2.05</v>
-      </c>
-      <c r="V358">
-        <v>1.8</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32368,10 +32383,10 @@
         <v>0</v>
       </c>
       <c r="R359">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S359">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32430,31 +32445,31 @@
         <v>6</v>
       </c>
       <c r="N360">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O360">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P360">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q360">
         <v>-1.5</v>
       </c>
       <c r="R360">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="S360">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T360">
         <v>3</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32590,19 +32605,19 @@
         <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S362">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T362">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U362">
+        <v>1.825</v>
+      </c>
+      <c r="V362">
         <v>2.025</v>
-      </c>
-      <c r="V362">
-        <v>1.825</v>
       </c>
       <c r="W362">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -130,16 +130,16 @@
     <t>Excelsior</t>
   </si>
   <si>
+    <t>FC Volendam</t>
+  </si>
+  <si>
     <t>Heerenveen</t>
   </si>
   <si>
-    <t>FC Volendam</t>
+    <t>Ajax</t>
   </si>
   <si>
     <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Ajax</t>
   </si>
   <si>
     <t>Vitesse</t>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2.025</v>
+      </c>
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.825</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1625,73 +1625,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P13">
         <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
+        <v>2.025</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,73 +1714,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N14">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O14">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P14">
         <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>2.025</v>
       </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X14">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2248,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2515,7 +2515,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>44948.34375</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2782,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>44950.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3316,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3669,10 +3669,10 @@
         <v>44952.70833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -4028,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4384,7 +4384,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>44961.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4829,7 +4829,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>44969.34375</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -5894,7 +5894,7 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6075,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6161,7 +6161,7 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -6339,7 +6339,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6873,10 +6873,10 @@
         <v>44976.53125</v>
       </c>
       <c r="F72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s">
         <v>41</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -7051,7 +7051,7 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7229,7 +7229,7 @@
         <v>44982.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7410,7 +7410,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>44989.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8211,7 +8211,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8300,7 +8300,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8475,7 +8475,7 @@
         <v>44990.53125</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8920,7 +8920,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -9098,10 +9098,10 @@
         <v>44997.4375</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9546,7 +9546,7 @@
         <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>45004.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10614,7 +10614,7 @@
         <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45024.625</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L120">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M120">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N120">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O120">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45024.625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K121">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O121">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P121">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11323,10 +11323,10 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
         <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11590,7 +11590,7 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
@@ -11946,10 +11946,10 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12124,7 +12124,7 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12391,7 +12391,7 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12658,7 +12658,7 @@
         <v>45037.625</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12747,7 +12747,7 @@
         <v>45038.57291666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>44</v>
@@ -12928,7 +12928,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13106,7 +13106,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13373,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13459,7 +13459,7 @@
         <v>45052.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13640,7 +13640,7 @@
         <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13726,7 +13726,7 @@
         <v>45052.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -14260,10 +14260,10 @@
         <v>45059.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>45059.625</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14883,7 +14883,7 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
         <v>34</v>
@@ -15153,7 +15153,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5505056</v>
+        <v>5499720</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,73 +15239,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M166">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="N166">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S166">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA166">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5505055</v>
+        <v>5498582</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,10 +15328,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15343,43 +15343,43 @@
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>3.4</v>
+      </c>
+      <c r="N167">
+        <v>1.909</v>
+      </c>
+      <c r="O167">
         <v>3.8</v>
       </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
-      <c r="N167">
-        <v>1.75</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
       <c r="P167">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="S167">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T167">
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,7 +15388,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5498582</v>
+        <v>5505055</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,10 +15417,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15432,43 +15432,43 @@
         <v>50</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S168">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15477,7 +15477,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5499719</v>
+        <v>5505056</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,55 +15506,55 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J169" t="s">
         <v>52</v>
       </c>
       <c r="K169">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="L169">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="N169">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Q169">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
         <v>3.25</v>
       </c>
       <c r="U169">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15563,16 +15563,16 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB169">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499720</v>
+        <v>5499719</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,73 +15595,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L170">
         <v>4.75</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N170">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="O170">
         <v>4.75</v>
       </c>
       <c r="P170">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q170">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z170">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15865,7 +15865,7 @@
         <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -15954,7 +15954,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
         <v>37</v>
@@ -16396,7 +16396,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16485,7 +16485,7 @@
         <v>45078.57291666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16577,7 +16577,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -16752,7 +16752,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -16841,7 +16841,7 @@
         <v>45085.625</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -16933,7 +16933,7 @@
         <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17019,7 +17019,7 @@
         <v>45149.625</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17197,7 +17197,7 @@
         <v>45150.57291666666</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -17286,7 +17286,7 @@
         <v>45150.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
         <v>49</v>
@@ -17378,7 +17378,7 @@
         <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>8</v>
+      </c>
+      <c r="N192">
+        <v>1.55</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
         <v>6</v>
       </c>
-      <c r="M192">
-        <v>10</v>
-      </c>
-      <c r="N192">
-        <v>1.2</v>
-      </c>
-      <c r="O192">
-        <v>7</v>
-      </c>
-      <c r="P192">
-        <v>17</v>
-      </c>
       <c r="Q192">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X192">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P193">
+        <v>17</v>
+      </c>
+      <c r="Q193">
+        <v>-2.25</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>1.8</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>6</v>
       </c>
-      <c r="Q193">
-        <v>-1</v>
-      </c>
-      <c r="R193">
-        <v>1.9</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
-      <c r="W193">
-        <v>0.55</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17912,7 +17912,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18179,7 +18179,7 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18268,7 +18268,7 @@
         <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18443,7 +18443,7 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18977,10 +18977,10 @@
         <v>45165.48958333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>45170.625</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
         <v>36</v>
@@ -19247,7 +19247,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19600,7 +19600,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>29</v>
@@ -19692,7 +19692,7 @@
         <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -20137,7 +20137,7 @@
         <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20404,7 +20404,7 @@
         <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20582,7 +20582,7 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20757,7 +20757,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>49</v>
@@ -21024,7 +21024,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21113,7 +21113,7 @@
         <v>45193.30208333334</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
         <v>42</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6838387</v>
+        <v>6838386</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,76 +21736,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239">
+        <v>1.444</v>
+      </c>
+      <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
+        <v>7</v>
+      </c>
+      <c r="N239">
+        <v>1.55</v>
+      </c>
+      <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
+        <v>6</v>
+      </c>
+      <c r="Q239">
+        <v>-1</v>
+      </c>
+      <c r="R239">
+        <v>1.94</v>
+      </c>
+      <c r="S239">
+        <v>1.96</v>
+      </c>
+      <c r="T239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" t="s">
-        <v>50</v>
-      </c>
-      <c r="K239">
-        <v>1.125</v>
-      </c>
-      <c r="L239">
-        <v>8.5</v>
-      </c>
-      <c r="M239">
-        <v>17</v>
-      </c>
-      <c r="N239">
-        <v>1.035</v>
-      </c>
-      <c r="O239">
-        <v>17</v>
-      </c>
-      <c r="P239">
-        <v>34</v>
-      </c>
-      <c r="Q239">
-        <v>-3.75</v>
-      </c>
-      <c r="R239">
+      <c r="U239">
         <v>2</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>4.75</v>
-      </c>
-      <c r="U239">
-        <v>1.85</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
       <c r="W239">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
+        <v>0.96</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
-      <c r="AC239">
-        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6838386</v>
+        <v>6838387</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,76 +21825,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F240" t="s">
+        <v>33</v>
+      </c>
+      <c r="G240" t="s">
+        <v>38</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>50</v>
+      </c>
+      <c r="K240">
+        <v>1.125</v>
+      </c>
+      <c r="L240">
+        <v>8.5</v>
+      </c>
+      <c r="M240">
+        <v>17</v>
+      </c>
+      <c r="N240">
+        <v>1.035</v>
+      </c>
+      <c r="O240">
+        <v>17</v>
+      </c>
+      <c r="P240">
         <v>34</v>
       </c>
-      <c r="G240" t="s">
-        <v>48</v>
-      </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
+      <c r="Q240">
+        <v>-3.75</v>
+      </c>
+      <c r="R240">
         <v>2</v>
       </c>
-      <c r="J240" t="s">
-        <v>52</v>
-      </c>
-      <c r="K240">
-        <v>1.444</v>
-      </c>
-      <c r="L240">
-        <v>4.333</v>
-      </c>
-      <c r="M240">
-        <v>7</v>
-      </c>
-      <c r="N240">
-        <v>1.55</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>6</v>
-      </c>
-      <c r="Q240">
-        <v>-1</v>
-      </c>
-      <c r="R240">
-        <v>1.94</v>
-      </c>
       <c r="S240">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
         <v>2</v>
       </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.96</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21917,7 +21917,7 @@
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22184,7 +22184,7 @@
         <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22359,7 +22359,7 @@
         <v>45205.625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
         <v>34</v>
@@ -22448,7 +22448,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
         <v>36</v>
@@ -22982,7 +22982,7 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G253" t="s">
         <v>31</v>
@@ -23071,7 +23071,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G254" t="s">
         <v>33</v>
@@ -23163,7 +23163,7 @@
         <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23519,7 +23519,7 @@
         <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H259">
         <v>3</v>
@@ -23608,7 +23608,7 @@
         <v>34</v>
       </c>
       <c r="G260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H260">
         <v>4</v>
@@ -23875,7 +23875,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         <v>45227.57291666666</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24228,7 +24228,7 @@
         <v>45227.625</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24498,7 +24498,7 @@
         <v>33</v>
       </c>
       <c r="G270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H270">
         <v>5</v>
@@ -24584,7 +24584,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G271" t="s">
         <v>37</v>
@@ -24673,10 +24673,10 @@
         <v>45232.66666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,76 +25207,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F278" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L278">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M278">
+        <v>4.5</v>
+      </c>
+      <c r="N278">
+        <v>1.55</v>
+      </c>
+      <c r="O278">
+        <v>4.5</v>
+      </c>
+      <c r="P278">
+        <v>5.25</v>
+      </c>
+      <c r="Q278">
+        <v>-1</v>
+      </c>
+      <c r="R278">
+        <v>1.875</v>
+      </c>
+      <c r="S278">
+        <v>1.975</v>
+      </c>
+      <c r="T278">
         <v>3</v>
       </c>
-      <c r="N278">
-        <v>2.25</v>
-      </c>
-      <c r="O278">
+      <c r="U278">
+        <v>1.825</v>
+      </c>
+      <c r="V278">
+        <v>2.025</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
         <v>3.5</v>
       </c>
-      <c r="P278">
-        <v>3.2</v>
-      </c>
-      <c r="Q278">
-        <v>-0.25</v>
-      </c>
-      <c r="R278">
-        <v>1.95</v>
-      </c>
-      <c r="S278">
-        <v>1.9</v>
-      </c>
-      <c r="T278">
-        <v>2.75</v>
-      </c>
-      <c r="U278">
-        <v>2.025</v>
-      </c>
-      <c r="V278">
-        <v>1.825</v>
-      </c>
-      <c r="W278">
-        <v>1.25</v>
-      </c>
-      <c r="X278">
-        <v>-1</v>
-      </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC278">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,76 +25296,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G279" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>50</v>
+      </c>
+      <c r="K279">
+        <v>2.05</v>
+      </c>
+      <c r="L279">
+        <v>3.6</v>
+      </c>
+      <c r="M279">
         <v>3</v>
       </c>
-      <c r="I279">
-        <v>3</v>
-      </c>
-      <c r="J279" t="s">
-        <v>51</v>
-      </c>
-      <c r="K279">
-        <v>1.6</v>
-      </c>
-      <c r="L279">
-        <v>4</v>
-      </c>
-      <c r="M279">
-        <v>4.5</v>
-      </c>
       <c r="N279">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T279">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
+        <v>2.025</v>
+      </c>
+      <c r="V279">
         <v>1.825</v>
       </c>
-      <c r="V279">
-        <v>2.025</v>
-      </c>
       <c r="W279">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X279">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
+        <v>-1</v>
+      </c>
+      <c r="AC279">
         <v>0.825</v>
-      </c>
-      <c r="AC279">
-        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
         <v>48</v>
@@ -25474,10 +25474,10 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G281" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H281">
         <v>4</v>
@@ -25833,7 +25833,7 @@
         <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26008,10 +26008,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26100,7 +26100,7 @@
         <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>2</v>
@@ -26453,7 +26453,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
         <v>32</v>
@@ -26720,7 +26720,7 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G295" t="s">
         <v>42</v>
@@ -26901,7 +26901,7 @@
         <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H297">
         <v>3</v>
@@ -27076,7 +27076,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F299" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27165,7 +27165,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27254,7 +27254,7 @@
         <v>45262.61458333334</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>47</v>
@@ -27524,7 +27524,7 @@
         <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27702,7 +27702,7 @@
         <v>36</v>
       </c>
       <c r="G306" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -27969,7 +27969,7 @@
         <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28058,7 +28058,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -28233,10 +28233,10 @@
         <v>45269.61458333334</v>
       </c>
       <c r="F312" t="s">
+        <v>40</v>
+      </c>
+      <c r="G312" t="s">
         <v>41</v>
-      </c>
-      <c r="G312" t="s">
-        <v>40</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -29034,10 +29034,10 @@
         <v>45276.70833333334</v>
       </c>
       <c r="F321" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" t="s">
         <v>38</v>
-      </c>
-      <c r="G321" t="s">
-        <v>39</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29200,7 +29200,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6838467</v>
+        <v>6838466</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29212,73 +29212,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F323" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="L323">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="N323">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="O323">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q323">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R323">
+        <v>2.04</v>
+      </c>
+      <c r="S323">
+        <v>1.86</v>
+      </c>
+      <c r="T323">
+        <v>2.5</v>
+      </c>
+      <c r="U323">
+        <v>1.875</v>
+      </c>
+      <c r="V323">
         <v>1.975</v>
       </c>
-      <c r="S323">
-        <v>1.875</v>
-      </c>
-      <c r="T323">
-        <v>3.5</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.95</v>
-      </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y323">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA323">
+        <v>-1</v>
+      </c>
+      <c r="AB323">
         <v>0.875</v>
-      </c>
-      <c r="AB323">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29289,7 +29289,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6838466</v>
+        <v>6838467</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29301,73 +29301,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G324" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324" t="s">
+        <v>52</v>
+      </c>
+      <c r="K324">
+        <v>10</v>
+      </c>
+      <c r="L324">
+        <v>6</v>
+      </c>
+      <c r="M324">
+        <v>1.25</v>
+      </c>
+      <c r="N324">
+        <v>13</v>
+      </c>
+      <c r="O324">
+        <v>7</v>
+      </c>
+      <c r="P324">
+        <v>1.2</v>
+      </c>
+      <c r="Q324">
         <v>2</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
-      <c r="J324" t="s">
-        <v>51</v>
-      </c>
-      <c r="K324">
-        <v>4.2</v>
-      </c>
-      <c r="L324">
-        <v>3.75</v>
-      </c>
-      <c r="M324">
-        <v>1.8</v>
-      </c>
-      <c r="N324">
-        <v>4.2</v>
-      </c>
-      <c r="O324">
-        <v>3.6</v>
-      </c>
-      <c r="P324">
-        <v>1.85</v>
-      </c>
-      <c r="Q324">
-        <v>0.5</v>
-      </c>
       <c r="R324">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="S324">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U324">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z324">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB324">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC324">
         <v>-1</v>
@@ -29390,7 +29390,7 @@
         <v>45277.53125</v>
       </c>
       <c r="F325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G325" t="s">
         <v>47</v>
@@ -29660,7 +29660,7 @@
         <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -29838,7 +29838,7 @@
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30013,7 +30013,7 @@
         <v>45305.34375</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
         <v>48</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838477</v>
+        <v>6838476</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,76 +30102,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K333">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L333">
         <v>3.6</v>
       </c>
       <c r="M333">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N333">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O333">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z333">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30179,7 +30179,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6838476</v>
+        <v>6838477</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30191,76 +30191,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
+        <v>2.5</v>
+      </c>
+      <c r="N334">
+        <v>2.9</v>
+      </c>
+      <c r="O334">
+        <v>3.8</v>
+      </c>
+      <c r="P334">
+        <v>2.2</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.825</v>
+      </c>
+      <c r="S334">
+        <v>2.025</v>
+      </c>
+      <c r="T334">
+        <v>2.75</v>
+      </c>
+      <c r="U334">
         <v>2</v>
       </c>
-      <c r="N334">
-        <v>4.2</v>
-      </c>
-      <c r="O334">
-        <v>4</v>
-      </c>
-      <c r="P334">
-        <v>1.75</v>
-      </c>
-      <c r="Q334">
-        <v>0.75</v>
-      </c>
-      <c r="R334">
+      <c r="V334">
         <v>1.85</v>
       </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>3.25</v>
-      </c>
-      <c r="U334">
-        <v>1.975</v>
-      </c>
-      <c r="V334">
-        <v>1.875</v>
-      </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y334">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
+        <v>0.4125</v>
+      </c>
+      <c r="AA334">
         <v>-0.5</v>
       </c>
-      <c r="AA334">
-        <v>0.5</v>
-      </c>
       <c r="AB334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30372,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30550,7 +30550,7 @@
         <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -30903,7 +30903,7 @@
         <v>45312.4375</v>
       </c>
       <c r="F342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G342" t="s">
         <v>43</v>
@@ -30992,7 +30992,7 @@
         <v>45312.53125</v>
       </c>
       <c r="F343" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G343" t="s">
         <v>30</v>
@@ -31262,7 +31262,7 @@
         <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31529,7 +31529,7 @@
         <v>49</v>
       </c>
       <c r="G349" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H349">
         <v>2</v>
@@ -31615,7 +31615,7 @@
         <v>45319.34375</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31882,7 +31882,7 @@
         <v>45319.53125</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
@@ -32075,22 +32075,22 @@
         <v>7.5</v>
       </c>
       <c r="N355">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O355">
         <v>6</v>
       </c>
       <c r="P355">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q355">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R355">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S355">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T355">
         <v>3</v>
@@ -32137,7 +32137,7 @@
         <v>32</v>
       </c>
       <c r="G356" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K356">
         <v>2.4</v>
@@ -32149,22 +32149,22 @@
         <v>2.75</v>
       </c>
       <c r="N356">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O356">
         <v>3.3</v>
       </c>
       <c r="P356">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q356">
         <v>-0.25</v>
       </c>
       <c r="R356">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S356">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T356">
         <v>2.5</v>
@@ -32208,7 +32208,7 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F357" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G357" t="s">
         <v>33</v>
@@ -32223,7 +32223,7 @@
         <v>2.1</v>
       </c>
       <c r="N357">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O357">
         <v>4.333</v>
@@ -32235,19 +32235,19 @@
         <v>0.5</v>
       </c>
       <c r="R357">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S357">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T357">
         <v>3.25</v>
       </c>
       <c r="U357">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V357">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32297,31 +32297,31 @@
         <v>4.5</v>
       </c>
       <c r="N358">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O358">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P358">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R358">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="S358">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="T358">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U358">
+        <v>2.05</v>
+      </c>
+      <c r="V358">
         <v>1.8</v>
-      </c>
-      <c r="V358">
-        <v>2.05</v>
       </c>
       <c r="W358">
         <v>0</v>
@@ -32371,22 +32371,22 @@
         <v>2.6</v>
       </c>
       <c r="N359">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O359">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P359">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q359">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R359">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="S359">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="T359">
         <v>2.5</v>
@@ -32433,7 +32433,7 @@
         <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K360">
         <v>1.5</v>
@@ -32457,19 +32457,19 @@
         <v>-1.5</v>
       </c>
       <c r="R360">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S360">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T360">
         <v>3</v>
       </c>
       <c r="U360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32531,10 +32531,10 @@
         <v>0.75</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S361">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T361">
         <v>2.75</v>
@@ -32578,7 +32578,7 @@
         <v>45326.53125</v>
       </c>
       <c r="F362" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G362" t="s">
         <v>47</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -148,10 +148,10 @@
     <t>Go Ahead Eagles</t>
   </si>
   <si>
-    <t>FC Groningen</t>
+    <t>FC Emmen</t>
   </si>
   <si>
-    <t>FC Emmen</t>
+    <t>FC Groningen</t>
   </si>
   <si>
     <t>Feyenoord</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC371"/>
+  <dimension ref="A1:AC368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,58 +1904,58 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1993,58 +1993,58 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2.05</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.975</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.4</v>
+      </c>
+      <c r="AA17">
+        <v>-0.5</v>
+      </c>
+      <c r="AB17">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5159838</v>
+        <v>5159377</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,37 +2070,37 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2109,22 +2109,22 @@
         <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2133,10 +2133,10 @@
         <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5159377</v>
+        <v>5159838</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2198,22 +2198,22 @@
         <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2222,10 +2222,10 @@
         <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2337,7 +2337,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2604,7 +2604,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2957,7 +2957,7 @@
         <v>44950.61458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3580,7 +3580,7 @@
         <v>44952.61458333334</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3850,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5159383</v>
+        <v>5159592</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,73 +4292,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>1.285</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>1.2</v>
+      </c>
+      <c r="Q43">
         <v>2</v>
       </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43">
-        <v>2.5</v>
-      </c>
-      <c r="L43">
-        <v>3.4</v>
-      </c>
-      <c r="M43">
-        <v>2.7</v>
-      </c>
-      <c r="N43">
-        <v>2.25</v>
-      </c>
-      <c r="O43">
+      <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
+        <v>1.975</v>
+      </c>
+      <c r="T43">
         <v>3.5</v>
       </c>
-      <c r="P43">
-        <v>3.1</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43">
-        <v>1.85</v>
-      </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5159592</v>
+        <v>5159383</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,73 +4381,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>2.5</v>
+      </c>
+      <c r="L44">
+        <v>3.4</v>
+      </c>
+      <c r="M44">
+        <v>2.7</v>
+      </c>
+      <c r="N44">
+        <v>2.25</v>
+      </c>
+      <c r="O44">
+        <v>3.5</v>
+      </c>
+      <c r="P44">
+        <v>3.1</v>
+      </c>
+      <c r="Q44">
+        <v>-0.25</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
+        <v>1.875</v>
+      </c>
+      <c r="W44">
+        <v>1.25</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44">
-        <v>5.5</v>
-      </c>
-      <c r="M44">
-        <v>1.285</v>
-      </c>
-      <c r="N44">
-        <v>13</v>
-      </c>
-      <c r="O44">
-        <v>7</v>
-      </c>
-      <c r="P44">
-        <v>1.2</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
-      <c r="S44">
-        <v>1.975</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.925</v>
-      </c>
-      <c r="V44">
-        <v>1.925</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>0.2</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
       <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB44">
-        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4826,7 +4826,7 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -5360,7 +5360,7 @@
         <v>44962.53125</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5630,7 +5630,7 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5716,7 +5716,7 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5159868</v>
+        <v>5159387</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.96</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
       <c r="W63">
-        <v>0.1419999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.96</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
         <v>-0.5</v>
       </c>
-      <c r="AA63">
-        <v>0.4875</v>
-      </c>
-      <c r="AB63">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5159387</v>
+        <v>5159868</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,58 +6161,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="P64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R64">
-        <v>1.96</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>2</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>0.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6221,16 +6221,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6428,10 +6428,10 @@
         <v>44975.61458333334</v>
       </c>
       <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s">
         <v>44</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7674,7 +7674,7 @@
         <v>44983.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5159888</v>
+        <v>5159892</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,55 +7852,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
         <v>-1</v>
@@ -7918,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5159892</v>
+        <v>5159888</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,55 +7941,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>4.75</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8033,7 +8033,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8122,7 +8122,7 @@
         <v>46</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -8834,7 +8834,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>45003.61458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9721,7 +9721,7 @@
         <v>45004.34375</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
         <v>39</v>
@@ -10436,7 +10436,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10881,7 +10881,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10967,7 +10967,7 @@
         <v>45023.625</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45024.625</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O120">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P120">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45024.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M121">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N121">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>45025.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12750,7 +12750,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5159928</v>
+        <v>5159929</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,13 +13014,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13029,43 +13029,43 @@
         <v>50</v>
       </c>
       <c r="K141">
+        <v>2.3</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>2.9</v>
+      </c>
+      <c r="N141">
         <v>2.05</v>
-      </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>1.75</v>
       </c>
       <c r="O141">
         <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5159929</v>
+        <v>5159928</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,13 +13103,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13118,43 +13118,43 @@
         <v>50</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L142">
+        <v>3.4</v>
+      </c>
+      <c r="M142">
         <v>3.5</v>
       </c>
-      <c r="M142">
-        <v>2.9</v>
-      </c>
       <c r="N142">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
         <v>3.8</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,40 +13563,40 @@
         <v>52</v>
       </c>
       <c r="K147">
+        <v>4.2</v>
+      </c>
+      <c r="L147">
+        <v>3.8</v>
+      </c>
+      <c r="M147">
+        <v>1.75</v>
+      </c>
+      <c r="N147">
+        <v>4.2</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
+        <v>1.75</v>
+      </c>
+      <c r="Q147">
+        <v>0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>2</v>
       </c>
-      <c r="L147">
-        <v>3.4</v>
-      </c>
-      <c r="M147">
-        <v>3.6</v>
-      </c>
-      <c r="N147">
-        <v>2.1</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>3.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,41 +13652,41 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
+        <v>1.025</v>
+      </c>
+      <c r="AB148">
         <v>0.95</v>
       </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13815,7 +13815,7 @@
         <v>45053.30208333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13996,7 +13996,7 @@
         <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6622203</v>
+        <v>5470210</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,13 +14705,13 @@
         <v>45060.625</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -14720,43 +14720,43 @@
         <v>50</v>
       </c>
       <c r="K160">
-        <v>1.333</v>
+        <v>1.111</v>
       </c>
       <c r="L160">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="M160">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N160">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="O160">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="P160">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q160">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14765,16 +14765,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5470210</v>
+        <v>6622203</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,13 +14794,13 @@
         <v>45060.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -14809,43 +14809,43 @@
         <v>50</v>
       </c>
       <c r="K161">
-        <v>1.111</v>
+        <v>1.333</v>
       </c>
       <c r="L161">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="M161">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N161">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="O161">
+        <v>5.75</v>
+      </c>
+      <c r="P161">
         <v>9</v>
       </c>
-      <c r="P161">
-        <v>15</v>
-      </c>
       <c r="Q161">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14854,16 +14854,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5535269</v>
+        <v>5505056</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,16 +14883,16 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J162" t="s">
         <v>52</v>
@@ -14907,31 +14907,31 @@
         <v>1.75</v>
       </c>
       <c r="N162">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q162">
         <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14940,19 +14940,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5505055</v>
+        <v>5499718</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,58 +14972,58 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
         <v>50</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L163">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N163">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P163">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.97</v>
+        <v>0.4375</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499721</v>
+        <v>5535269</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164" t="s">
+        <v>52</v>
+      </c>
+      <c r="K164">
+        <v>4.333</v>
+      </c>
+      <c r="L164">
+        <v>3.75</v>
+      </c>
+      <c r="M164">
+        <v>1.75</v>
+      </c>
+      <c r="N164">
+        <v>4.5</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>1.75</v>
+      </c>
+      <c r="Q164">
+        <v>0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
+        <v>1.925</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>0.75</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB164">
         <v>0</v>
       </c>
-      <c r="J164" t="s">
-        <v>50</v>
-      </c>
-      <c r="K164">
-        <v>1.444</v>
-      </c>
-      <c r="L164">
-        <v>4.5</v>
-      </c>
-      <c r="M164">
-        <v>6.5</v>
-      </c>
-      <c r="N164">
-        <v>1.444</v>
-      </c>
-      <c r="O164">
-        <v>4.5</v>
-      </c>
-      <c r="P164">
-        <v>7.5</v>
-      </c>
-      <c r="Q164">
-        <v>-1.25</v>
-      </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>2.05</v>
-      </c>
-      <c r="W164">
-        <v>0.444</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>0.8</v>
-      </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499720</v>
+        <v>5505055</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,46 +15150,46 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>50</v>
       </c>
       <c r="K165">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L165">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M165">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="S165">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="T165">
         <v>3</v>
@@ -15201,7 +15201,7 @@
         <v>2</v>
       </c>
       <c r="W165">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15210,16 +15210,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498582</v>
+        <v>5499721</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,13 +15239,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15254,43 +15254,43 @@
         <v>50</v>
       </c>
       <c r="K166">
+        <v>1.444</v>
+      </c>
+      <c r="L166">
+        <v>4.5</v>
+      </c>
+      <c r="M166">
+        <v>6.5</v>
+      </c>
+      <c r="N166">
+        <v>1.444</v>
+      </c>
+      <c r="O166">
+        <v>4.5</v>
+      </c>
+      <c r="P166">
+        <v>7.5</v>
+      </c>
+      <c r="Q166">
+        <v>-1.25</v>
+      </c>
+      <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.875</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>1.8</v>
+      </c>
+      <c r="V166">
         <v>2.05</v>
       </c>
-      <c r="L166">
-        <v>3.5</v>
-      </c>
-      <c r="M166">
-        <v>3.4</v>
-      </c>
-      <c r="N166">
-        <v>1.909</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
-      <c r="P166">
-        <v>3.8</v>
-      </c>
-      <c r="Q166">
-        <v>-0.5</v>
-      </c>
-      <c r="R166">
-        <v>1.94</v>
-      </c>
-      <c r="S166">
-        <v>1.96</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9399999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5505056</v>
+        <v>5499720</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,73 +15328,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M167">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="N167">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>2.06</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5499718</v>
+        <v>5499719</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,40 +15417,40 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>3</v>
       </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K168">
+        <v>6</v>
+      </c>
+      <c r="L168">
+        <v>4.75</v>
+      </c>
+      <c r="M168">
+        <v>1.444</v>
+      </c>
+      <c r="N168">
+        <v>6.5</v>
+      </c>
+      <c r="O168">
+        <v>4.75</v>
+      </c>
+      <c r="P168">
+        <v>1.45</v>
+      </c>
+      <c r="Q168">
         <v>1.25</v>
-      </c>
-      <c r="L168">
-        <v>6</v>
-      </c>
-      <c r="M168">
-        <v>10</v>
-      </c>
-      <c r="N168">
-        <v>1.285</v>
-      </c>
-      <c r="O168">
-        <v>6</v>
-      </c>
-      <c r="P168">
-        <v>10</v>
-      </c>
-      <c r="Q168">
-        <v>-1.75</v>
       </c>
       <c r="R168">
         <v>1.875</v>
@@ -15459,31 +15459,31 @@
         <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z168">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5499719</v>
+        <v>5499491</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,73 +15506,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K169">
+        <v>1.25</v>
+      </c>
+      <c r="L169">
         <v>6</v>
       </c>
-      <c r="L169">
-        <v>4.75</v>
-      </c>
       <c r="M169">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="N169">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P169">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="Q169">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>1.8</v>
+      </c>
+      <c r="T169">
+        <v>3.75</v>
+      </c>
+      <c r="U169">
+        <v>1.975</v>
+      </c>
+      <c r="V169">
         <v>1.875</v>
       </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
-      <c r="T169">
-        <v>3.25</v>
-      </c>
-      <c r="U169">
-        <v>2.05</v>
-      </c>
-      <c r="V169">
-        <v>1.8</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y169">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
+        <v>0.8</v>
+      </c>
+      <c r="AB169">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB169">
-        <v>1.05</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499491</v>
+        <v>5498582</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,76 +15595,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>3</v>
       </c>
       <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>50</v>
+      </c>
+      <c r="K170">
+        <v>2.05</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>3.4</v>
+      </c>
+      <c r="N170">
+        <v>1.909</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>3.8</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.94</v>
+      </c>
+      <c r="S170">
+        <v>1.96</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="J170" t="s">
-        <v>51</v>
-      </c>
-      <c r="K170">
-        <v>1.25</v>
-      </c>
-      <c r="L170">
-        <v>6</v>
-      </c>
-      <c r="M170">
-        <v>11</v>
-      </c>
-      <c r="N170">
-        <v>1.181</v>
-      </c>
-      <c r="O170">
-        <v>7</v>
-      </c>
-      <c r="P170">
-        <v>13</v>
-      </c>
-      <c r="Q170">
-        <v>-2.25</v>
-      </c>
-      <c r="R170">
-        <v>2.05</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>3.75</v>
-      </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X170">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5539941</v>
+        <v>5559913</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5539940</v>
+        <v>5541489</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,58 +15862,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L173">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N173">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P173">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R173">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5702299</v>
+        <v>5541488</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,76 +15951,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>51</v>
+      </c>
+      <c r="K174">
+        <v>2.625</v>
+      </c>
+      <c r="L174">
+        <v>3.5</v>
+      </c>
+      <c r="M174">
+        <v>2.6</v>
+      </c>
+      <c r="N174">
+        <v>2.6</v>
+      </c>
+      <c r="O174">
+        <v>3.8</v>
+      </c>
+      <c r="P174">
+        <v>2.5</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>3.25</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>2</v>
       </c>
-      <c r="J174" t="s">
-        <v>52</v>
-      </c>
-      <c r="K174">
-        <v>2.7</v>
-      </c>
-      <c r="L174">
-        <v>3.75</v>
-      </c>
-      <c r="M174">
-        <v>2.45</v>
-      </c>
-      <c r="N174">
-        <v>2.375</v>
-      </c>
-      <c r="O174">
-        <v>3.6</v>
-      </c>
-      <c r="P174">
-        <v>2.9</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>2.05</v>
-      </c>
-      <c r="S174">
-        <v>1.8</v>
-      </c>
-      <c r="T174">
-        <v>3</v>
-      </c>
-      <c r="U174">
-        <v>2.05</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y174">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5535270</v>
+        <v>5702299</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,55 +16040,55 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>52</v>
       </c>
       <c r="K175">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O175">
         <v>3.6</v>
       </c>
       <c r="P175">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -16097,19 +16097,19 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5541488</v>
+        <v>5539306</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K176">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M176">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N176">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
         <v>3.8</v>
       </c>
       <c r="P176">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
         <v>1.85</v>
       </c>
-      <c r="V176">
-        <v>2</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5539306</v>
+        <v>5535270</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>2</v>
       </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5559913</v>
+        <v>5539941</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N178">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P178">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
+        <v>1.925</v>
+      </c>
+      <c r="S178">
+        <v>1.925</v>
+      </c>
+      <c r="T178">
+        <v>3.75</v>
+      </c>
+      <c r="U178">
+        <v>1.9</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>1.9</v>
-      </c>
-      <c r="T178">
-        <v>3.5</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
-      </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
       <c r="W178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z178">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5541489</v>
+        <v>5539940</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,58 +16396,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>50</v>
       </c>
       <c r="K179">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N179">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O179">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T179">
         <v>3.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.2849999999999999</v>
+        <v>2</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16456,13 +16456,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N192">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P192">
+        <v>17</v>
+      </c>
+      <c r="Q192">
+        <v>-2.25</v>
+      </c>
+      <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
         <v>6</v>
       </c>
-      <c r="Q192">
-        <v>-1</v>
-      </c>
-      <c r="R192">
-        <v>1.9</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>0.55</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L193">
+        <v>4.5</v>
+      </c>
+      <c r="M193">
+        <v>8</v>
+      </c>
+      <c r="N193">
+        <v>1.55</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>6</v>
       </c>
-      <c r="M193">
-        <v>10</v>
-      </c>
-      <c r="N193">
-        <v>1.2</v>
-      </c>
-      <c r="O193">
-        <v>7</v>
-      </c>
-      <c r="P193">
-        <v>17</v>
-      </c>
       <c r="Q193">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X193">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,73 +18354,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>51</v>
+      </c>
+      <c r="K201">
+        <v>5.5</v>
+      </c>
+      <c r="L201">
+        <v>4.333</v>
+      </c>
+      <c r="M201">
+        <v>1.533</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>1.65</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>2.05</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
         <v>3</v>
       </c>
-      <c r="I201">
-        <v>1</v>
-      </c>
-      <c r="J201" t="s">
-        <v>50</v>
-      </c>
-      <c r="K201">
-        <v>1.363</v>
-      </c>
-      <c r="L201">
-        <v>4.75</v>
-      </c>
-      <c r="M201">
-        <v>8</v>
-      </c>
-      <c r="N201">
-        <v>1.444</v>
-      </c>
-      <c r="O201">
-        <v>4.75</v>
-      </c>
-      <c r="P201">
-        <v>7.5</v>
-      </c>
-      <c r="Q201">
-        <v>-1.25</v>
-      </c>
-      <c r="R201">
-        <v>1.9</v>
-      </c>
-      <c r="S201">
-        <v>1.95</v>
-      </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
       <c r="U201">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,73 +18443,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K202">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L202">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N202">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
+        <v>1.9</v>
+      </c>
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
         <v>2.05</v>
       </c>
-      <c r="S202">
-        <v>1.85</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
         <v>1.05</v>
-      </c>
-      <c r="AA202">
-        <v>-1</v>
-      </c>
-      <c r="AB202">
-        <v>1.025</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6838358</v>
+        <v>6838359</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,76 +19600,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L215">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M215">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N215">
+        <v>6.5</v>
+      </c>
+      <c r="O215">
         <v>4.75</v>
       </c>
-      <c r="O215">
-        <v>4.333</v>
-      </c>
       <c r="P215">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q215">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19677,7 +19677,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6838359</v>
+        <v>6838358</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19689,76 +19689,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K216">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M216">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N216">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O216">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q216">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
+        <v>2.025</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>3</v>
+      </c>
+      <c r="U216">
         <v>1.925</v>
       </c>
-      <c r="S216">
+      <c r="V216">
         <v>1.925</v>
       </c>
-      <c r="T216">
-        <v>3.25</v>
-      </c>
-      <c r="U216">
-        <v>1.875</v>
-      </c>
-      <c r="V216">
-        <v>1.975</v>
-      </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y216">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>0.925</v>
-      </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
-      <c r="AC216">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6838367</v>
+        <v>6838370</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,76 +20401,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
+        <v>2.1</v>
+      </c>
+      <c r="L224">
         <v>3.6</v>
       </c>
-      <c r="L224">
-        <v>3.75</v>
-      </c>
       <c r="M224">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W224">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6838370</v>
+        <v>6838367</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G225" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N225">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X225">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC225">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -21190,7 +21190,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838384</v>
+        <v>6838383</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21202,76 +21202,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
         <v>0</v>
       </c>
-      <c r="I233">
-        <v>3</v>
-      </c>
       <c r="J233" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N233">
+        <v>6</v>
+      </c>
+      <c r="O233">
         <v>4.333</v>
       </c>
-      <c r="O233">
-        <v>4</v>
-      </c>
       <c r="P233">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21279,7 +21279,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838383</v>
+        <v>6838384</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21291,76 +21291,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K234">
+        <v>3.8</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>1.8</v>
+      </c>
+      <c r="N234">
         <v>4.333</v>
       </c>
-      <c r="L234">
-        <v>4.2</v>
-      </c>
-      <c r="M234">
-        <v>1.666</v>
-      </c>
-      <c r="N234">
-        <v>6</v>
-      </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z234">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC234">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6838392</v>
+        <v>6838391</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,10 +22092,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22107,43 +22107,43 @@
         <v>50</v>
       </c>
       <c r="K243">
+        <v>3.25</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
         <v>2.1</v>
       </c>
-      <c r="L243">
+      <c r="N243">
+        <v>3.3</v>
+      </c>
+      <c r="O243">
         <v>3.4</v>
       </c>
-      <c r="M243">
-        <v>3.4</v>
-      </c>
-      <c r="N243">
-        <v>2.375</v>
-      </c>
-      <c r="O243">
-        <v>3.5</v>
-      </c>
       <c r="P243">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S243">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V243">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W243">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>1.07</v>
+        <v>0.925</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22169,7 +22169,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838391</v>
+        <v>6838392</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,10 +22181,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G244" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22196,43 +22196,43 @@
         <v>50</v>
       </c>
       <c r="K244">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
+        <v>3.4</v>
+      </c>
+      <c r="M244">
+        <v>3.4</v>
+      </c>
+      <c r="N244">
+        <v>2.375</v>
+      </c>
+      <c r="O244">
         <v>3.5</v>
       </c>
-      <c r="M244">
-        <v>2.1</v>
-      </c>
-      <c r="N244">
-        <v>3.3</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
       <c r="P244">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22241,16 +22241,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.925</v>
+        <v>1.07</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,13 +23160,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -23175,43 +23175,43 @@
         <v>50</v>
       </c>
       <c r="K255">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L255">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O255">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q255">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
+        <v>0.45</v>
+      </c>
+      <c r="AA255">
         <v>-0.5</v>
       </c>
-      <c r="AA255">
-        <v>0.4625</v>
-      </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,13 +23249,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -23264,43 +23264,43 @@
         <v>50</v>
       </c>
       <c r="K256">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N256">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P256">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23309,16 +23309,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
+        <v>0.4625</v>
+      </c>
+      <c r="AB256">
+        <v>0.4875</v>
+      </c>
+      <c r="AC256">
         <v>-0.5</v>
-      </c>
-      <c r="AB256">
-        <v>0</v>
-      </c>
-      <c r="AC256">
-        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L258">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M258">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N258">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O258">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P258">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q258">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T258">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V258">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W258">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L259">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M259">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N259">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R259">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W259">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6838409</v>
+        <v>6838408</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,73 +23694,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G261" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>51</v>
+      </c>
+      <c r="K261">
+        <v>5</v>
+      </c>
+      <c r="L261">
         <v>4</v>
       </c>
-      <c r="J261" t="s">
-        <v>52</v>
-      </c>
-      <c r="K261">
-        <v>2.375</v>
-      </c>
-      <c r="L261">
-        <v>3.6</v>
-      </c>
       <c r="M261">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N261">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O261">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P261">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R261">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y261">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA261">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6838408</v>
+        <v>6838409</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,73 +23783,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
+        <v>4</v>
+      </c>
+      <c r="J262" t="s">
+        <v>52</v>
+      </c>
+      <c r="K262">
+        <v>2.375</v>
+      </c>
+      <c r="L262">
+        <v>3.6</v>
+      </c>
+      <c r="M262">
+        <v>2.375</v>
+      </c>
+      <c r="N262">
+        <v>2.2</v>
+      </c>
+      <c r="O262">
+        <v>4.2</v>
+      </c>
+      <c r="P262">
+        <v>2.8</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>1.975</v>
+      </c>
+      <c r="S262">
+        <v>1.875</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
         <v>2</v>
       </c>
-      <c r="J262" t="s">
-        <v>51</v>
-      </c>
-      <c r="K262">
-        <v>5</v>
-      </c>
-      <c r="L262">
-        <v>4</v>
-      </c>
-      <c r="M262">
-        <v>1.615</v>
-      </c>
-      <c r="N262">
-        <v>6</v>
-      </c>
-      <c r="O262">
-        <v>4.5</v>
-      </c>
-      <c r="P262">
-        <v>1.5</v>
-      </c>
-      <c r="Q262">
+      <c r="V262">
+        <v>1.85</v>
+      </c>
+      <c r="W262">
+        <v>-1</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>1.8</v>
+      </c>
+      <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.875</v>
+      </c>
+      <c r="AB262">
         <v>1</v>
-      </c>
-      <c r="R262">
-        <v>2.025</v>
-      </c>
-      <c r="S262">
-        <v>1.825</v>
-      </c>
-      <c r="T262">
-        <v>2.75</v>
-      </c>
-      <c r="U262">
-        <v>1.8</v>
-      </c>
-      <c r="V262">
-        <v>2.05</v>
-      </c>
-      <c r="W262">
-        <v>-1</v>
-      </c>
-      <c r="X262">
-        <v>3.5</v>
-      </c>
-      <c r="Y262">
-        <v>-1</v>
-      </c>
-      <c r="Z262">
-        <v>1.025</v>
-      </c>
-      <c r="AA262">
-        <v>-1</v>
-      </c>
-      <c r="AB262">
-        <v>0.8</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,76 +24139,76 @@
         <v>45227.625</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L266">
+        <v>3.5</v>
+      </c>
+      <c r="M266">
+        <v>2.5</v>
+      </c>
+      <c r="N266">
+        <v>2.9</v>
+      </c>
+      <c r="O266">
         <v>3.6</v>
       </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.75</v>
-      </c>
-      <c r="O266">
-        <v>3.75</v>
-      </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
         <v>1.975</v>
-      </c>
-      <c r="S266">
-        <v>1.875</v>
       </c>
       <c r="T266">
         <v>2.75</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,76 +24228,76 @@
         <v>45227.625</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
+        <v>1.975</v>
+      </c>
+      <c r="S267">
         <v>1.875</v>
-      </c>
-      <c r="S267">
-        <v>1.975</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X267">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>52</v>
+      </c>
+      <c r="K280">
+        <v>2.15</v>
+      </c>
+      <c r="L280">
+        <v>3.4</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>1.7</v>
+      </c>
+      <c r="O280">
         <v>4</v>
       </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>50</v>
-      </c>
-      <c r="K280">
-        <v>1.444</v>
-      </c>
-      <c r="L280">
-        <v>4.6</v>
-      </c>
-      <c r="M280">
-        <v>5.5</v>
-      </c>
-      <c r="N280">
-        <v>1.4</v>
-      </c>
-      <c r="O280">
-        <v>5.25</v>
-      </c>
       <c r="P280">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W280">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281">
         <v>1</v>
       </c>
-      <c r="I281">
+      <c r="J281" t="s">
+        <v>50</v>
+      </c>
+      <c r="K281">
+        <v>1.444</v>
+      </c>
+      <c r="L281">
+        <v>4.6</v>
+      </c>
+      <c r="M281">
+        <v>5.5</v>
+      </c>
+      <c r="N281">
+        <v>1.4</v>
+      </c>
+      <c r="O281">
+        <v>5.25</v>
+      </c>
+      <c r="P281">
+        <v>7</v>
+      </c>
+      <c r="Q281">
+        <v>-1.5</v>
+      </c>
+      <c r="R281">
         <v>2</v>
       </c>
-      <c r="J281" t="s">
-        <v>52</v>
-      </c>
-      <c r="K281">
-        <v>2.15</v>
-      </c>
-      <c r="L281">
-        <v>3.4</v>
-      </c>
-      <c r="M281">
-        <v>3</v>
-      </c>
-      <c r="N281">
-        <v>1.7</v>
-      </c>
-      <c r="O281">
-        <v>4</v>
-      </c>
-      <c r="P281">
-        <v>4.75</v>
-      </c>
-      <c r="Q281">
-        <v>-0.75</v>
-      </c>
-      <c r="R281">
-        <v>1.9</v>
-      </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,73 +26008,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287" t="s">
+        <v>51</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+      <c r="L287">
+        <v>4.4</v>
+      </c>
+      <c r="M287">
+        <v>1.571</v>
+      </c>
+      <c r="N287">
+        <v>5.25</v>
+      </c>
+      <c r="O287">
+        <v>4.75</v>
+      </c>
+      <c r="P287">
+        <v>1.533</v>
+      </c>
+      <c r="Q287">
         <v>1</v>
       </c>
-      <c r="I287">
-        <v>4</v>
-      </c>
-      <c r="J287" t="s">
-        <v>52</v>
-      </c>
-      <c r="K287">
-        <v>2.625</v>
-      </c>
-      <c r="L287">
-        <v>3.6</v>
-      </c>
-      <c r="M287">
-        <v>2.5</v>
-      </c>
-      <c r="N287">
-        <v>3</v>
-      </c>
-      <c r="O287">
+      <c r="R287">
+        <v>2.04</v>
+      </c>
+      <c r="S287">
+        <v>1.86</v>
+      </c>
+      <c r="T287">
+        <v>3.25</v>
+      </c>
+      <c r="U287">
+        <v>1.9</v>
+      </c>
+      <c r="V287">
+        <v>1.95</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
         <v>3.75</v>
       </c>
-      <c r="P287">
-        <v>2.2</v>
-      </c>
-      <c r="Q287">
-        <v>0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.925</v>
-      </c>
-      <c r="S287">
-        <v>1.925</v>
-      </c>
-      <c r="T287">
-        <v>3</v>
-      </c>
-      <c r="U287">
-        <v>2.05</v>
-      </c>
-      <c r="V287">
-        <v>1.8</v>
-      </c>
-      <c r="W287">
-        <v>-1</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
       <c r="Y287">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA287">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,73 +26097,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L288">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N288">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O288">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P288">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q288">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S288">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z288">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB288">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26619,7 +26619,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26631,76 +26631,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G294" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K294">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M294">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N294">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R294">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U294">
+        <v>1.95</v>
+      </c>
+      <c r="V294">
         <v>1.9</v>
       </c>
-      <c r="V294">
-        <v>1.95</v>
-      </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26708,7 +26708,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26720,76 +26720,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K295">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N295">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O295">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P295">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S295">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
         <v>1.95</v>
       </c>
-      <c r="V295">
-        <v>1.9</v>
-      </c>
       <c r="W295">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27331,7 +27331,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27343,73 +27343,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K302">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
+        <v>3.7</v>
+      </c>
+      <c r="M302">
+        <v>3.1</v>
+      </c>
+      <c r="N302">
+        <v>1.95</v>
+      </c>
+      <c r="O302">
+        <v>3.8</v>
+      </c>
+      <c r="P302">
         <v>3.5</v>
-      </c>
-      <c r="M302">
-        <v>3.4</v>
-      </c>
-      <c r="N302">
-        <v>2</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>3.6</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27432,73 +27432,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>50</v>
+      </c>
+      <c r="K303">
         <v>2</v>
       </c>
-      <c r="I303">
+      <c r="L303">
+        <v>3.5</v>
+      </c>
+      <c r="M303">
+        <v>3.4</v>
+      </c>
+      <c r="N303">
         <v>2</v>
       </c>
-      <c r="J303" t="s">
-        <v>51</v>
-      </c>
-      <c r="K303">
-        <v>2.05</v>
-      </c>
-      <c r="L303">
-        <v>3.7</v>
-      </c>
-      <c r="M303">
-        <v>3.1</v>
-      </c>
-      <c r="N303">
-        <v>1.95</v>
-      </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X303">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -30090,7 +30090,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838477</v>
+        <v>6838476</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30102,76 +30102,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F333" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J333" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K333">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L333">
         <v>3.6</v>
       </c>
       <c r="M333">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N333">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O333">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z333">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC333">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30179,7 +30179,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6838476</v>
+        <v>6838477</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30191,76 +30191,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
+        <v>2.5</v>
+      </c>
+      <c r="N334">
+        <v>2.9</v>
+      </c>
+      <c r="O334">
+        <v>3.8</v>
+      </c>
+      <c r="P334">
+        <v>2.2</v>
+      </c>
+      <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.825</v>
+      </c>
+      <c r="S334">
+        <v>2.025</v>
+      </c>
+      <c r="T334">
+        <v>2.75</v>
+      </c>
+      <c r="U334">
         <v>2</v>
       </c>
-      <c r="N334">
-        <v>4.2</v>
-      </c>
-      <c r="O334">
-        <v>4</v>
-      </c>
-      <c r="P334">
-        <v>1.75</v>
-      </c>
-      <c r="Q334">
-        <v>0.75</v>
-      </c>
-      <c r="R334">
+      <c r="V334">
         <v>1.85</v>
       </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>3.25</v>
-      </c>
-      <c r="U334">
-        <v>1.975</v>
-      </c>
-      <c r="V334">
-        <v>1.875</v>
-      </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y334">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
+        <v>0.4125</v>
+      </c>
+      <c r="AA334">
         <v>-0.5</v>
       </c>
-      <c r="AA334">
-        <v>0.5</v>
-      </c>
       <c r="AB334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6838490</v>
+        <v>6838491</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,76 +31437,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>4</v>
+      </c>
+      <c r="J348" t="s">
+        <v>52</v>
+      </c>
+      <c r="K348">
+        <v>7.5</v>
+      </c>
+      <c r="L348">
+        <v>5</v>
+      </c>
+      <c r="M348">
+        <v>1.363</v>
+      </c>
+      <c r="N348">
+        <v>4.75</v>
+      </c>
+      <c r="O348">
+        <v>4.5</v>
+      </c>
+      <c r="P348">
+        <v>1.6</v>
+      </c>
+      <c r="Q348">
         <v>1</v>
       </c>
-      <c r="I348">
+      <c r="R348">
+        <v>1.85</v>
+      </c>
+      <c r="S348">
+        <v>2</v>
+      </c>
+      <c r="T348">
+        <v>3.25</v>
+      </c>
+      <c r="U348">
+        <v>1.875</v>
+      </c>
+      <c r="V348">
+        <v>1.975</v>
+      </c>
+      <c r="W348">
+        <v>-1</v>
+      </c>
+      <c r="X348">
+        <v>-1</v>
+      </c>
+      <c r="Y348">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
         <v>1</v>
       </c>
-      <c r="J348" t="s">
-        <v>51</v>
-      </c>
-      <c r="K348">
-        <v>2.7</v>
-      </c>
-      <c r="L348">
-        <v>3.6</v>
-      </c>
-      <c r="M348">
-        <v>2.375</v>
-      </c>
-      <c r="N348">
-        <v>3.2</v>
-      </c>
-      <c r="O348">
-        <v>3.6</v>
-      </c>
-      <c r="P348">
-        <v>2.15</v>
-      </c>
-      <c r="Q348">
-        <v>0.25</v>
-      </c>
-      <c r="R348">
-        <v>1.975</v>
-      </c>
-      <c r="S348">
-        <v>1.875</v>
-      </c>
-      <c r="T348">
-        <v>2.75</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
-      <c r="W348">
-        <v>-1</v>
-      </c>
-      <c r="X348">
-        <v>2.6</v>
-      </c>
-      <c r="Y348">
-        <v>-1</v>
-      </c>
-      <c r="Z348">
-        <v>0.4875</v>
-      </c>
-      <c r="AA348">
-        <v>-0.5</v>
-      </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC348">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6838491</v>
+        <v>6838490</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,76 +31526,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G349" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K349">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="L349">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N349">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O349">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P349">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q349">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S349">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T349">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U349">
+        <v>1.975</v>
+      </c>
+      <c r="V349">
         <v>1.875</v>
       </c>
-      <c r="V349">
-        <v>1.975</v>
-      </c>
       <c r="W349">
         <v>-1</v>
       </c>
       <c r="X349">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y349">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA349">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB349">
+        <v>-1</v>
+      </c>
+      <c r="AC349">
         <v>0.875</v>
-      </c>
-      <c r="AC349">
-        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31692,7 +31692,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31704,76 +31704,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F351" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G351" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
         <v>51</v>
       </c>
       <c r="K351">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L351">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M351">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N351">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O351">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P351">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R351">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S351">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T351">
         <v>2.75</v>
       </c>
       <c r="U351">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V351">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB351">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31781,7 +31781,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31793,76 +31793,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F352" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
         <v>51</v>
       </c>
       <c r="K352">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L352">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N352">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O352">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q352">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R352">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S352">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V352">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA352">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC352">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32493,7 +32493,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6838501</v>
+        <v>6838503</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32505,76 +32505,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K360">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M360">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N360">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O360">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P360">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="Q360">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R360">
+        <v>2</v>
+      </c>
+      <c r="S360">
         <v>1.85</v>
       </c>
-      <c r="S360">
-        <v>2</v>
-      </c>
       <c r="T360">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U360">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA360">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC360">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32582,7 +32582,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6838503</v>
+        <v>6838501</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32594,76 +32594,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F361" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>52</v>
+      </c>
+      <c r="K361">
+        <v>3.25</v>
+      </c>
+      <c r="L361">
+        <v>3.6</v>
+      </c>
+      <c r="M361">
+        <v>2.1</v>
+      </c>
+      <c r="N361">
+        <v>5.25</v>
+      </c>
+      <c r="O361">
+        <v>4.2</v>
+      </c>
+      <c r="P361">
+        <v>1.6</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>1.85</v>
+      </c>
+      <c r="S361">
         <v>2</v>
       </c>
-      <c r="J361" t="s">
-        <v>50</v>
-      </c>
-      <c r="K361">
-        <v>1.5</v>
-      </c>
-      <c r="L361">
-        <v>4.333</v>
-      </c>
-      <c r="M361">
-        <v>6</v>
-      </c>
-      <c r="N361">
-        <v>1.285</v>
-      </c>
-      <c r="O361">
-        <v>5.5</v>
-      </c>
-      <c r="P361">
-        <v>11</v>
-      </c>
-      <c r="Q361">
-        <v>-1.75</v>
-      </c>
-      <c r="R361">
-        <v>2</v>
-      </c>
-      <c r="S361">
-        <v>1.85</v>
-      </c>
       <c r="T361">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U361">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W361">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z361">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB361">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32777,6 +32777,15 @@
       <c r="G363" t="s">
         <v>35</v>
       </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363" t="s">
+        <v>50</v>
+      </c>
       <c r="K363">
         <v>2.5</v>
       </c>
@@ -32790,7 +32799,7 @@
         <v>2.9</v>
       </c>
       <c r="O363">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P363">
         <v>2.3</v>
@@ -32799,34 +32808,40 @@
         <v>0.25</v>
       </c>
       <c r="R363">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB363">
+        <v>-1</v>
+      </c>
+      <c r="AC363">
+        <v>0.875</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32834,7 +32849,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6838505</v>
+        <v>6838509</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32843,49 +32858,49 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45332.61458333334</v>
+        <v>45333.34375</v>
       </c>
       <c r="F364" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G364" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K364">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="L364">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M364">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="O364">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P364">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q364">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S364">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T364">
         <v>3</v>
       </c>
       <c r="U364">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V364">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32908,7 +32923,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6838504</v>
+        <v>6838506</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32917,49 +32932,49 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45332.66666666666</v>
+        <v>45333.4375</v>
       </c>
       <c r="F365" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G365" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K365">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="L365">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M365">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="N365">
+        <v>1.7</v>
+      </c>
+      <c r="O365">
+        <v>3.8</v>
+      </c>
+      <c r="P365">
         <v>5</v>
       </c>
-      <c r="O365">
-        <v>4.2</v>
-      </c>
-      <c r="P365">
-        <v>1.65</v>
-      </c>
       <c r="Q365">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S365">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="T365">
         <v>2.5</v>
       </c>
       <c r="U365">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V365">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32982,7 +32997,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6838582</v>
+        <v>6838511</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -32991,49 +33006,49 @@
         <v>28</v>
       </c>
       <c r="E366" s="2">
-        <v>45332.70833333334</v>
+        <v>45333.4375</v>
       </c>
       <c r="F366" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G366" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K366">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L366">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M366">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N366">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O366">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P366">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R366">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S366">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="T366">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U366">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V366">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W366">
         <v>0</v>
@@ -33056,7 +33071,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6838509</v>
+        <v>6838507</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33065,43 +33080,43 @@
         <v>28</v>
       </c>
       <c r="E367" s="2">
-        <v>45333.34375</v>
+        <v>45333.53125</v>
       </c>
       <c r="F367" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G367" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K367">
-        <v>1.727</v>
+        <v>26</v>
       </c>
       <c r="L367">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="M367">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="N367">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="O367">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P367">
-        <v>4.333</v>
+        <v>1.1</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R367">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S367">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T367">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U367">
         <v>2</v>
@@ -33130,7 +33145,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838511</v>
+        <v>6838508</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33139,49 +33154,49 @@
         <v>28</v>
       </c>
       <c r="E368" s="2">
-        <v>45333.4375</v>
+        <v>45333.66666666666</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K368">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="L368">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M368">
-        <v>1.571</v>
+        <v>13</v>
       </c>
       <c r="N368">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="O368">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="P368">
-        <v>1.727</v>
+        <v>17</v>
       </c>
       <c r="Q368">
-        <v>0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R368">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S368">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T368">
         <v>3.25</v>
       </c>
       <c r="U368">
+        <v>1.9</v>
+      </c>
+      <c r="V368">
         <v>1.95</v>
-      </c>
-      <c r="V368">
-        <v>1.9</v>
       </c>
       <c r="W368">
         <v>0</v>
@@ -33196,228 +33211,6 @@
         <v>0</v>
       </c>
       <c r="AA368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:27">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369">
-        <v>6838506</v>
-      </c>
-      <c r="C369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D369" t="s">
-        <v>28</v>
-      </c>
-      <c r="E369" s="2">
-        <v>45333.4375</v>
-      </c>
-      <c r="F369" t="s">
-        <v>34</v>
-      </c>
-      <c r="G369" t="s">
-        <v>32</v>
-      </c>
-      <c r="K369">
-        <v>2.1</v>
-      </c>
-      <c r="L369">
-        <v>3.3</v>
-      </c>
-      <c r="M369">
-        <v>3.5</v>
-      </c>
-      <c r="N369">
-        <v>1.8</v>
-      </c>
-      <c r="O369">
-        <v>3.75</v>
-      </c>
-      <c r="P369">
-        <v>4.333</v>
-      </c>
-      <c r="Q369">
-        <v>-0.75</v>
-      </c>
-      <c r="R369">
-        <v>2.06</v>
-      </c>
-      <c r="S369">
-        <v>1.84</v>
-      </c>
-      <c r="T369">
-        <v>2.5</v>
-      </c>
-      <c r="U369">
-        <v>1.925</v>
-      </c>
-      <c r="V369">
-        <v>1.925</v>
-      </c>
-      <c r="W369">
-        <v>0</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>0</v>
-      </c>
-      <c r="Z369">
-        <v>0</v>
-      </c>
-      <c r="AA369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370">
-        <v>6838507</v>
-      </c>
-      <c r="C370" t="s">
-        <v>28</v>
-      </c>
-      <c r="D370" t="s">
-        <v>28</v>
-      </c>
-      <c r="E370" s="2">
-        <v>45333.53125</v>
-      </c>
-      <c r="F370" t="s">
-        <v>38</v>
-      </c>
-      <c r="G370" t="s">
-        <v>33</v>
-      </c>
-      <c r="K370">
-        <v>26</v>
-      </c>
-      <c r="L370">
-        <v>15</v>
-      </c>
-      <c r="M370">
-        <v>1.04</v>
-      </c>
-      <c r="N370">
-        <v>21</v>
-      </c>
-      <c r="O370">
-        <v>11</v>
-      </c>
-      <c r="P370">
-        <v>1.1</v>
-      </c>
-      <c r="Q370">
-        <v>2.75</v>
-      </c>
-      <c r="R370">
-        <v>1.85</v>
-      </c>
-      <c r="S370">
-        <v>2.05</v>
-      </c>
-      <c r="T370">
-        <v>3.75</v>
-      </c>
-      <c r="U370">
-        <v>1.925</v>
-      </c>
-      <c r="V370">
-        <v>1.925</v>
-      </c>
-      <c r="W370">
-        <v>0</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>0</v>
-      </c>
-      <c r="Z370">
-        <v>0</v>
-      </c>
-      <c r="AA370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:27">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="B371">
-        <v>6838508</v>
-      </c>
-      <c r="C371" t="s">
-        <v>28</v>
-      </c>
-      <c r="D371" t="s">
-        <v>28</v>
-      </c>
-      <c r="E371" s="2">
-        <v>45333.66666666666</v>
-      </c>
-      <c r="F371" t="s">
-        <v>46</v>
-      </c>
-      <c r="G371" t="s">
-        <v>40</v>
-      </c>
-      <c r="K371">
-        <v>1.166</v>
-      </c>
-      <c r="L371">
-        <v>7.5</v>
-      </c>
-      <c r="M371">
-        <v>13</v>
-      </c>
-      <c r="N371">
-        <v>1.142</v>
-      </c>
-      <c r="O371">
-        <v>8.5</v>
-      </c>
-      <c r="P371">
-        <v>15</v>
-      </c>
-      <c r="Q371">
-        <v>-2.25</v>
-      </c>
-      <c r="R371">
-        <v>1.95</v>
-      </c>
-      <c r="S371">
-        <v>1.95</v>
-      </c>
-      <c r="T371">
-        <v>3.25</v>
-      </c>
-      <c r="U371">
-        <v>1.85</v>
-      </c>
-      <c r="V371">
-        <v>2</v>
-      </c>
-      <c r="W371">
-        <v>0</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>0</v>
-      </c>
-      <c r="Z371">
-        <v>0</v>
-      </c>
-      <c r="AA371">
         <v>0</v>
       </c>
     </row>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -130,10 +130,10 @@
     <t>Excelsior</t>
   </si>
   <si>
-    <t>FC Volendam</t>
+    <t>Heerenveen</t>
   </si>
   <si>
-    <t>Heerenveen</t>
+    <t>FC Volendam</t>
   </si>
   <si>
     <t>Sparta Rotterdam</t>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1.85</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2.025</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
       <c r="W11">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.825</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2248,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>44948.34375</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>2.025</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.825</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
+        <v>2.15</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
         <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
-      </c>
-      <c r="AB31">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3316,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,13 +3402,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3417,43 +3417,43 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L33">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3672,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4381,7 +4381,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4737,7 +4737,7 @@
         <v>44961.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4829,7 +4829,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6075,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6339,7 +6339,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>44982.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7410,7 +7410,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -8030,7 +8030,7 @@
         <v>44989.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -8211,7 +8211,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>44997.4375</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9724,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5159911</v>
+        <v>5159397</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>51</v>
+      </c>
+      <c r="K115">
+        <v>1.4</v>
+      </c>
+      <c r="L115">
+        <v>4.75</v>
+      </c>
+      <c r="M115">
+        <v>6.5</v>
+      </c>
+      <c r="N115">
+        <v>1.4</v>
+      </c>
+      <c r="O115">
+        <v>4.75</v>
+      </c>
+      <c r="P115">
+        <v>6.5</v>
+      </c>
+      <c r="Q115">
+        <v>-1.25</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
         <v>3</v>
       </c>
-      <c r="J115" t="s">
-        <v>52</v>
-      </c>
-      <c r="K115">
-        <v>5</v>
-      </c>
-      <c r="L115">
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>2.025</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>3.75</v>
       </c>
-      <c r="M115">
-        <v>1.615</v>
-      </c>
-      <c r="N115">
-        <v>7</v>
-      </c>
-      <c r="O115">
-        <v>4.333</v>
-      </c>
-      <c r="P115">
-        <v>1.45</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5159397</v>
+        <v>5159911</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N116">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="S116">
-        <v>1.975</v>
-      </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.825</v>
-      </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.8</v>
+      </c>
+      <c r="AB116">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11323,10 +11323,10 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s">
         <v>39</v>
-      </c>
-      <c r="G122" t="s">
-        <v>38</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q131">
+        <v>1.75</v>
+      </c>
+      <c r="R131">
+        <v>2.02</v>
+      </c>
+      <c r="S131">
+        <v>1.88</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>2.025</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>0.25</v>
       </c>
-      <c r="R131">
-        <v>2.025</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
-      <c r="W131">
-        <v>2.3</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L132">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O132">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45032.625</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O135">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q135">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12658,7 +12658,7 @@
         <v>45037.625</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12747,7 +12747,7 @@
         <v>45038.57291666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -13373,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,40 +13563,40 @@
         <v>52</v>
       </c>
       <c r="K147">
+        <v>4.2</v>
+      </c>
+      <c r="L147">
+        <v>3.8</v>
+      </c>
+      <c r="M147">
+        <v>1.75</v>
+      </c>
+      <c r="N147">
+        <v>4.2</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
+        <v>1.75</v>
+      </c>
+      <c r="Q147">
+        <v>0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>2</v>
       </c>
-      <c r="L147">
-        <v>3.4</v>
-      </c>
-      <c r="M147">
-        <v>3.6</v>
-      </c>
-      <c r="N147">
-        <v>2.1</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>3.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,41 +13652,41 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
+        <v>1.025</v>
+      </c>
+      <c r="AB148">
         <v>0.95</v>
       </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14260,7 +14260,7 @@
         <v>45059.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14349,7 +14349,7 @@
         <v>45059.625</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5499718</v>
+        <v>5499719</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,40 +14883,40 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K162">
+        <v>6</v>
+      </c>
+      <c r="L162">
+        <v>4.75</v>
+      </c>
+      <c r="M162">
+        <v>1.444</v>
+      </c>
+      <c r="N162">
+        <v>6.5</v>
+      </c>
+      <c r="O162">
+        <v>4.75</v>
+      </c>
+      <c r="P162">
+        <v>1.45</v>
+      </c>
+      <c r="Q162">
         <v>1.25</v>
-      </c>
-      <c r="L162">
-        <v>6</v>
-      </c>
-      <c r="M162">
-        <v>10</v>
-      </c>
-      <c r="N162">
-        <v>1.285</v>
-      </c>
-      <c r="O162">
-        <v>6</v>
-      </c>
-      <c r="P162">
-        <v>10</v>
-      </c>
-      <c r="Q162">
-        <v>-1.75</v>
       </c>
       <c r="R162">
         <v>1.875</v>
@@ -14925,31 +14925,31 @@
         <v>1.975</v>
       </c>
       <c r="T162">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z162">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5499719</v>
+        <v>5499718</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,40 +14972,40 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>3</v>
-      </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K163">
+        <v>1.25</v>
+      </c>
+      <c r="L163">
         <v>6</v>
       </c>
-      <c r="L163">
-        <v>4.75</v>
-      </c>
       <c r="M163">
-        <v>1.444</v>
+        <v>10</v>
       </c>
       <c r="N163">
-        <v>6.5</v>
+        <v>1.285</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P163">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="Q163">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R163">
         <v>1.875</v>
@@ -15014,31 +15014,31 @@
         <v>1.975</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15153,7 +15153,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5499720</v>
+        <v>5535269</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166" t="s">
+        <v>52</v>
+      </c>
+      <c r="K166">
+        <v>4.333</v>
+      </c>
+      <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>1.75</v>
+      </c>
+      <c r="N166">
+        <v>4.5</v>
+      </c>
+      <c r="O166">
         <v>4</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166" t="s">
-        <v>50</v>
-      </c>
-      <c r="K166">
-        <v>1.363</v>
-      </c>
-      <c r="L166">
-        <v>4.75</v>
-      </c>
-      <c r="M166">
-        <v>7.5</v>
-      </c>
-      <c r="N166">
-        <v>1.4</v>
-      </c>
-      <c r="O166">
-        <v>4.75</v>
-      </c>
       <c r="P166">
-        <v>8.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R166">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z166">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5535269</v>
+        <v>5505056</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,16 +15328,16 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J167" t="s">
         <v>52</v>
@@ -15352,31 +15352,31 @@
         <v>1.75</v>
       </c>
       <c r="N167">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q167">
         <v>0.75</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15385,19 +15385,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5505056</v>
+        <v>5505055</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
         <v>0</v>
       </c>
-      <c r="I168">
-        <v>5</v>
-      </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M168">
+        <v>4</v>
+      </c>
+      <c r="N168">
         <v>1.75</v>
-      </c>
-      <c r="N168">
-        <v>3.8</v>
       </c>
       <c r="O168">
         <v>4.2</v>
       </c>
       <c r="P168">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="Q168">
+        <v>-0.75</v>
+      </c>
+      <c r="R168">
+        <v>1.97</v>
+      </c>
+      <c r="S168">
+        <v>1.93</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
         <v>0.75</v>
       </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
-      <c r="U168">
-        <v>2.025</v>
-      </c>
-      <c r="V168">
-        <v>1.825</v>
-      </c>
-      <c r="W168">
-        <v>-1</v>
-      </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5505055</v>
+        <v>5499721</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,13 +15506,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15521,43 +15521,43 @@
         <v>50</v>
       </c>
       <c r="K169">
+        <v>1.444</v>
+      </c>
+      <c r="L169">
+        <v>4.5</v>
+      </c>
+      <c r="M169">
+        <v>6.5</v>
+      </c>
+      <c r="N169">
+        <v>1.444</v>
+      </c>
+      <c r="O169">
+        <v>4.5</v>
+      </c>
+      <c r="P169">
+        <v>7.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1.25</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
         <v>1.8</v>
       </c>
-      <c r="L169">
-        <v>3.8</v>
-      </c>
-      <c r="M169">
-        <v>4</v>
-      </c>
-      <c r="N169">
-        <v>1.75</v>
-      </c>
-      <c r="O169">
-        <v>4.2</v>
-      </c>
-      <c r="P169">
-        <v>4</v>
-      </c>
-      <c r="Q169">
-        <v>-0.75</v>
-      </c>
-      <c r="R169">
-        <v>1.97</v>
-      </c>
-      <c r="S169">
-        <v>1.93</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
       <c r="V169">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W169">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15566,16 +15566,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.97</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499721</v>
+        <v>5499720</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,58 +15595,58 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>50</v>
       </c>
       <c r="K170">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N170">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O170">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.84</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.444</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15655,13 +15655,13 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.9750000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15862,7 +15862,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -16396,7 +16396,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16485,7 +16485,7 @@
         <v>45078.57291666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16666,7 +16666,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -17019,7 +17019,7 @@
         <v>45149.625</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17197,7 +17197,7 @@
         <v>45150.57291666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>8</v>
+      </c>
+      <c r="N192">
+        <v>1.55</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
         <v>6</v>
       </c>
-      <c r="M192">
-        <v>10</v>
-      </c>
-      <c r="N192">
-        <v>1.2</v>
-      </c>
-      <c r="O192">
-        <v>7</v>
-      </c>
-      <c r="P192">
-        <v>17</v>
-      </c>
       <c r="Q192">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X192">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P193">
+        <v>17</v>
+      </c>
+      <c r="Q193">
+        <v>-2.25</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>1.8</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>6</v>
       </c>
-      <c r="Q193">
-        <v>-1</v>
-      </c>
-      <c r="R193">
-        <v>1.9</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
-      <c r="W193">
-        <v>0.55</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18268,7 +18268,7 @@
         <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>45165.48958333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19247,7 +19247,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19689,7 +19689,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -20048,7 +20048,7 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20757,7 +20757,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>49</v>
@@ -21024,7 +21024,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6838387</v>
+        <v>6838386</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,76 +21736,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239">
+        <v>1.444</v>
+      </c>
+      <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
+        <v>7</v>
+      </c>
+      <c r="N239">
+        <v>1.55</v>
+      </c>
+      <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
+        <v>6</v>
+      </c>
+      <c r="Q239">
+        <v>-1</v>
+      </c>
+      <c r="R239">
+        <v>1.94</v>
+      </c>
+      <c r="S239">
+        <v>1.96</v>
+      </c>
+      <c r="T239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" t="s">
-        <v>50</v>
-      </c>
-      <c r="K239">
-        <v>1.125</v>
-      </c>
-      <c r="L239">
-        <v>8.5</v>
-      </c>
-      <c r="M239">
-        <v>17</v>
-      </c>
-      <c r="N239">
-        <v>1.035</v>
-      </c>
-      <c r="O239">
-        <v>17</v>
-      </c>
-      <c r="P239">
-        <v>34</v>
-      </c>
-      <c r="Q239">
-        <v>-3.75</v>
-      </c>
-      <c r="R239">
+      <c r="U239">
         <v>2</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>4.75</v>
-      </c>
-      <c r="U239">
-        <v>1.85</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
       <c r="W239">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
+        <v>0.96</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
-      <c r="AC239">
-        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6838386</v>
+        <v>6838387</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,76 +21825,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F240" t="s">
+        <v>33</v>
+      </c>
+      <c r="G240" t="s">
+        <v>39</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>50</v>
+      </c>
+      <c r="K240">
+        <v>1.125</v>
+      </c>
+      <c r="L240">
+        <v>8.5</v>
+      </c>
+      <c r="M240">
+        <v>17</v>
+      </c>
+      <c r="N240">
+        <v>1.035</v>
+      </c>
+      <c r="O240">
+        <v>17</v>
+      </c>
+      <c r="P240">
         <v>34</v>
       </c>
-      <c r="G240" t="s">
-        <v>48</v>
-      </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
+      <c r="Q240">
+        <v>-3.75</v>
+      </c>
+      <c r="R240">
         <v>2</v>
       </c>
-      <c r="J240" t="s">
-        <v>52</v>
-      </c>
-      <c r="K240">
-        <v>1.444</v>
-      </c>
-      <c r="L240">
-        <v>4.333</v>
-      </c>
-      <c r="M240">
-        <v>7</v>
-      </c>
-      <c r="N240">
-        <v>1.55</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>6</v>
-      </c>
-      <c r="Q240">
-        <v>-1</v>
-      </c>
-      <c r="R240">
-        <v>1.94</v>
-      </c>
       <c r="S240">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
         <v>2</v>
       </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.96</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21917,7 +21917,7 @@
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22359,7 +22359,7 @@
         <v>45205.625</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
         <v>34</v>
@@ -22448,7 +22448,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,13 +23160,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -23175,43 +23175,43 @@
         <v>50</v>
       </c>
       <c r="K255">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M255">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N255">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P255">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W255">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
+        <v>0.4625</v>
+      </c>
+      <c r="AB255">
+        <v>0.4875</v>
+      </c>
+      <c r="AC255">
         <v>-0.5</v>
-      </c>
-      <c r="AB255">
-        <v>0</v>
-      </c>
-      <c r="AC255">
-        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,13 +23249,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -23264,43 +23264,43 @@
         <v>50</v>
       </c>
       <c r="K256">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L256">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N256">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O256">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q256">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W256">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23309,16 +23309,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
+        <v>0.45</v>
+      </c>
+      <c r="AA256">
         <v>-0.5</v>
       </c>
-      <c r="AA256">
-        <v>0.4625</v>
-      </c>
       <c r="AB256">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23430,7 +23430,7 @@
         <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H258">
         <v>3</v>
@@ -24050,7 +24050,7 @@
         <v>45227.57291666666</v>
       </c>
       <c r="F265" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24584,7 +24584,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
         <v>37</v>
@@ -24676,7 +24676,7 @@
         <v>41</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25299,7 +25299,7 @@
         <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25388,7 +25388,7 @@
         <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H280">
         <v>4</v>
@@ -25833,7 +25833,7 @@
         <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
         <v>40</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
         <v>0</v>
       </c>
-      <c r="I292">
-        <v>3</v>
-      </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L292">
         <v>3.75</v>
       </c>
       <c r="M292">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N292">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
+        <v>3.8</v>
+      </c>
+      <c r="Q292">
+        <v>-0.5</v>
+      </c>
+      <c r="R292">
+        <v>1.975</v>
+      </c>
+      <c r="S292">
+        <v>1.875</v>
+      </c>
+      <c r="T292">
+        <v>2.5</v>
+      </c>
+      <c r="U292">
         <v>2</v>
       </c>
-      <c r="Q292">
-        <v>0.5</v>
-      </c>
-      <c r="R292">
-        <v>1.825</v>
-      </c>
-      <c r="S292">
-        <v>2.025</v>
-      </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
-      <c r="U292">
-        <v>2.025</v>
-      </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
+        <v>-1</v>
+      </c>
+      <c r="Z292">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA292">
+        <v>-1</v>
+      </c>
+      <c r="AB292">
         <v>1</v>
       </c>
-      <c r="Z292">
-        <v>-1</v>
-      </c>
-      <c r="AA292">
-        <v>1.025</v>
-      </c>
-      <c r="AB292">
-        <v>0</v>
-      </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
         <v>3</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L293">
         <v>3.75</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N293">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z293">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26990,7 +26990,7 @@
         <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -27165,7 +27165,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27254,7 +27254,7 @@
         <v>45262.61458333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
         <v>47</v>
@@ -27331,7 +27331,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27343,73 +27343,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K302">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
+        <v>3.7</v>
+      </c>
+      <c r="M302">
+        <v>3.1</v>
+      </c>
+      <c r="N302">
+        <v>1.95</v>
+      </c>
+      <c r="O302">
+        <v>3.8</v>
+      </c>
+      <c r="P302">
         <v>3.5</v>
-      </c>
-      <c r="M302">
-        <v>3.4</v>
-      </c>
-      <c r="N302">
-        <v>2</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>3.6</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27432,73 +27432,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>50</v>
+      </c>
+      <c r="K303">
         <v>2</v>
       </c>
-      <c r="I303">
+      <c r="L303">
+        <v>3.5</v>
+      </c>
+      <c r="M303">
+        <v>3.4</v>
+      </c>
+      <c r="N303">
         <v>2</v>
       </c>
-      <c r="J303" t="s">
-        <v>51</v>
-      </c>
-      <c r="K303">
-        <v>2.05</v>
-      </c>
-      <c r="L303">
-        <v>3.7</v>
-      </c>
-      <c r="M303">
-        <v>3.1</v>
-      </c>
-      <c r="N303">
-        <v>1.95</v>
-      </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X303">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27969,7 +27969,7 @@
         <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28058,7 +28058,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -29034,10 +29034,10 @@
         <v>45276.70833333334</v>
       </c>
       <c r="F321" t="s">
+        <v>38</v>
+      </c>
+      <c r="G321" t="s">
         <v>39</v>
-      </c>
-      <c r="G321" t="s">
-        <v>38</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29838,7 +29838,7 @@
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30013,7 +30013,7 @@
         <v>45305.34375</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
         <v>48</v>
@@ -30372,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30550,7 +30550,7 @@
         <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,76 +31259,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F346" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L346">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N346">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O346">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P346">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q346">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31336,7 +31336,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31348,76 +31348,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L347">
+        <v>9.5</v>
+      </c>
+      <c r="M347">
+        <v>19</v>
+      </c>
+      <c r="N347">
+        <v>1.1</v>
+      </c>
+      <c r="O347">
+        <v>10</v>
+      </c>
+      <c r="P347">
+        <v>23</v>
+      </c>
+      <c r="Q347">
+        <v>-2.5</v>
+      </c>
+      <c r="R347">
+        <v>1.9</v>
+      </c>
+      <c r="S347">
+        <v>1.95</v>
+      </c>
+      <c r="T347">
         <v>3.75</v>
       </c>
-      <c r="M347">
-        <v>2.1</v>
-      </c>
-      <c r="N347">
-        <v>2.3</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
-      <c r="P347">
-        <v>2.8</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
+      <c r="U347">
         <v>2.025</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.5</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X347">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31615,7 +31615,7 @@
         <v>45319.34375</v>
       </c>
       <c r="F350" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31882,7 +31882,7 @@
         <v>45319.53125</v>
       </c>
       <c r="F353" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
@@ -32152,7 +32152,7 @@
         <v>32</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H356">
         <v>3</v>
@@ -32508,7 +32508,7 @@
         <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H360">
         <v>4</v>
@@ -33306,7 +33306,7 @@
         <v>45333.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G369" t="s">
         <v>41</v>
@@ -33395,7 +33395,7 @@
         <v>45333.53125</v>
       </c>
       <c r="F370" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G370" t="s">
         <v>33</v>
@@ -33677,10 +33677,10 @@
         <v>1.909</v>
       </c>
       <c r="N373">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O373">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
         <v>1.85</v>
@@ -33689,19 +33689,19 @@
         <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S373">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33763,19 +33763,19 @@
         <v>-0.5</v>
       </c>
       <c r="R374">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="S374">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="T374">
         <v>2.75</v>
       </c>
       <c r="U374">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V374">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G375" t="s">
         <v>43</v>
@@ -33837,19 +33837,19 @@
         <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S375">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
         <v>2.75</v>
       </c>
       <c r="U375">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V375">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33902,7 +33902,7 @@
         <v>2.1</v>
       </c>
       <c r="O376">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P376">
         <v>3.5</v>
@@ -33911,19 +33911,19 @@
         <v>-0.25</v>
       </c>
       <c r="R376">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S376">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V376">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33982,13 +33982,13 @@
         <v>5.25</v>
       </c>
       <c r="Q377">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="S377">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="T377">
         <v>2.5</v>
@@ -34035,7 +34035,7 @@
         <v>42</v>
       </c>
       <c r="G378" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K378">
         <v>1.727</v>
@@ -34059,10 +34059,10 @@
         <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S378">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T378">
         <v>2.5</v>
@@ -34142,10 +34142,10 @@
         <v>3.5</v>
       </c>
       <c r="U379">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V379">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34207,19 +34207,19 @@
         <v>-2.5</v>
       </c>
       <c r="R380">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S380">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T380">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U380">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W380">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Excelsior</t>
   </si>
   <si>
-    <t>Heerenveen</t>
+    <t>FC Volendam</t>
   </si>
   <si>
-    <t>FC Volendam</t>
+    <t>Heerenveen</t>
   </si>
   <si>
     <t>Sparta Rotterdam</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC380"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2.025</v>
+      </c>
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.825</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2248,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>44948.34375</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
         <v>2</v>
-      </c>
-      <c r="N30">
-        <v>4.2</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
-      <c r="P30">
-        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.825</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
       </c>
-      <c r="S31">
-        <v>2.025</v>
-      </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.825</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3316,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,13 +3402,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3417,43 +3417,43 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L33">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O33">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L34">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O34">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3672,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4381,7 +4381,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4737,7 +4737,7 @@
         <v>44961.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4829,7 +4829,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6075,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6339,7 +6339,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>44982.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7410,7 +7410,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5159888</v>
+        <v>5159892</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,55 +7852,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
         <v>-1</v>
@@ -7918,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5159892</v>
+        <v>5159888</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,55 +7941,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>4.75</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>44989.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -8211,7 +8211,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>44997.4375</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9724,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5159909</v>
+        <v>5159398</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,55 +10344,55 @@
         <v>45017.625</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>2</v>
-      </c>
-      <c r="I111">
-        <v>4</v>
       </c>
       <c r="J111" t="s">
         <v>52</v>
       </c>
       <c r="K111">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M111">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10401,16 +10401,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5159398</v>
+        <v>5159909</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,55 +10433,55 @@
         <v>45017.625</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J112" t="s">
         <v>52</v>
       </c>
       <c r="K112">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N112">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10490,16 +10490,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.2</v>
+        <v>0.615</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5159397</v>
+        <v>5159911</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N115">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
+        <v>0.8</v>
+      </c>
+      <c r="AB115">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5159911</v>
+        <v>5159397</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>51</v>
+      </c>
+      <c r="K116">
+        <v>1.4</v>
+      </c>
+      <c r="L116">
+        <v>4.75</v>
+      </c>
+      <c r="M116">
+        <v>6.5</v>
+      </c>
+      <c r="N116">
+        <v>1.4</v>
+      </c>
+      <c r="O116">
+        <v>4.75</v>
+      </c>
+      <c r="P116">
+        <v>6.5</v>
+      </c>
+      <c r="Q116">
+        <v>-1.25</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
-        <v>52</v>
-      </c>
-      <c r="K116">
-        <v>5</v>
-      </c>
-      <c r="L116">
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>3.75</v>
       </c>
-      <c r="M116">
-        <v>1.615</v>
-      </c>
-      <c r="N116">
-        <v>7</v>
-      </c>
-      <c r="O116">
-        <v>4.333</v>
-      </c>
-      <c r="P116">
-        <v>1.45</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>2.05</v>
-      </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
       <c r="Y116">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11323,10 +11323,10 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
         <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L131">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q132">
+        <v>1.75</v>
+      </c>
+      <c r="R132">
+        <v>2.02</v>
+      </c>
+      <c r="S132">
+        <v>1.88</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>0.25</v>
       </c>
-      <c r="R132">
-        <v>2.025</v>
-      </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
-      <c r="W132">
-        <v>2.3</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>3</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K134">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q134">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45032.625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N135">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P135">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q135">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12658,7 +12658,7 @@
         <v>45037.625</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12747,7 +12747,7 @@
         <v>45038.57291666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -13373,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,41 +13563,41 @@
         <v>52</v>
       </c>
       <c r="K147">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
+        <v>1.025</v>
+      </c>
+      <c r="AB147">
         <v>0.95</v>
       </c>
-      <c r="AB147">
-        <v>0</v>
-      </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,40 +13652,40 @@
         <v>52</v>
       </c>
       <c r="K148">
+        <v>4.2</v>
+      </c>
+      <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>4.2</v>
+      </c>
+      <c r="O148">
+        <v>4.333</v>
+      </c>
+      <c r="P148">
+        <v>1.75</v>
+      </c>
+      <c r="Q148">
+        <v>0.75</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
         <v>2</v>
       </c>
-      <c r="L148">
-        <v>3.4</v>
-      </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>2.1</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>3.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14260,7 +14260,7 @@
         <v>45059.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14349,7 +14349,7 @@
         <v>45059.625</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -15153,7 +15153,7 @@
         <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15420,7 +15420,7 @@
         <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15862,7 +15862,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -16396,7 +16396,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
         <v>43</v>
@@ -16485,7 +16485,7 @@
         <v>45078.57291666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16666,7 +16666,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -17019,7 +17019,7 @@
         <v>45149.625</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17197,7 +17197,7 @@
         <v>45150.57291666666</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -18179,7 +18179,7 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18268,7 +18268,7 @@
         <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>45165.48958333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19247,7 +19247,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19689,7 +19689,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -20048,7 +20048,7 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20757,7 +20757,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>49</v>
@@ -21024,7 +21024,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21828,7 +21828,7 @@
         <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -21917,7 +21917,7 @@
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22359,7 +22359,7 @@
         <v>45205.625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
         <v>34</v>
@@ -22448,7 +22448,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -23252,7 +23252,7 @@
         <v>30</v>
       </c>
       <c r="G256" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -23430,7 +23430,7 @@
         <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H258">
         <v>3</v>
@@ -24050,7 +24050,7 @@
         <v>45227.57291666666</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24584,7 +24584,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G271" t="s">
         <v>37</v>
@@ -24676,7 +24676,7 @@
         <v>41</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25299,7 +25299,7 @@
         <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25388,7 +25388,7 @@
         <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H280">
         <v>4</v>
@@ -25833,7 +25833,7 @@
         <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G288" t="s">
         <v>40</v>
@@ -26453,7 +26453,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
         <v>32</v>
@@ -26990,7 +26990,7 @@
         <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -27165,7 +27165,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27254,7 +27254,7 @@
         <v>45262.61458333334</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>47</v>
@@ -27969,7 +27969,7 @@
         <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28058,7 +28058,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -29034,10 +29034,10 @@
         <v>45276.70833333334</v>
       </c>
       <c r="F321" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" t="s">
         <v>38</v>
-      </c>
-      <c r="G321" t="s">
-        <v>39</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29838,7 +29838,7 @@
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30013,7 +30013,7 @@
         <v>45305.34375</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
         <v>48</v>
@@ -30372,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30550,7 +30550,7 @@
         <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31615,7 +31615,7 @@
         <v>45319.34375</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31882,7 +31882,7 @@
         <v>45319.53125</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
@@ -32152,7 +32152,7 @@
         <v>32</v>
       </c>
       <c r="G356" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H356">
         <v>3</v>
@@ -32508,7 +32508,7 @@
         <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H360">
         <v>4</v>
@@ -33205,7 +33205,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838506</v>
+        <v>6838511</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33217,59 +33217,59 @@
         <v>45333.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G368" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H368">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J368" t="s">
         <v>50</v>
       </c>
       <c r="K368">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L368">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M368">
+        <v>1.571</v>
+      </c>
+      <c r="N368">
         <v>3.5</v>
       </c>
-      <c r="N368">
-        <v>1.615</v>
-      </c>
       <c r="O368">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P368">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q368">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R368">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S368">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T368">
+        <v>3.25</v>
+      </c>
+      <c r="U368">
+        <v>1.9</v>
+      </c>
+      <c r="V368">
+        <v>1.95</v>
+      </c>
+      <c r="W368">
         <v>2.5</v>
       </c>
-      <c r="U368">
-        <v>1.95</v>
-      </c>
-      <c r="V368">
-        <v>1.9</v>
-      </c>
-      <c r="W368">
-        <v>0.615</v>
-      </c>
       <c r="X368">
         <v>-1</v>
       </c>
@@ -33277,13 +33277,13 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33294,7 +33294,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6838511</v>
+        <v>6838506</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33306,58 +33306,58 @@
         <v>45333.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J369" t="s">
         <v>50</v>
       </c>
       <c r="K369">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L369">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M369">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N369">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O369">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P369">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q369">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R369">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S369">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T369">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U369">
+        <v>1.95</v>
+      </c>
+      <c r="V369">
         <v>1.9</v>
       </c>
-      <c r="V369">
-        <v>1.95</v>
-      </c>
       <c r="W369">
-        <v>2.5</v>
+        <v>0.615</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33366,13 +33366,13 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33395,7 +33395,7 @@
         <v>45333.53125</v>
       </c>
       <c r="F370" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G370" t="s">
         <v>33</v>
@@ -33650,7 +33650,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6838515</v>
+        <v>6838513</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,49 +33659,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45339.61458333334</v>
+        <v>45340.34375</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K373">
+        <v>1.5</v>
+      </c>
+      <c r="L373">
+        <v>4.2</v>
+      </c>
+      <c r="M373">
+        <v>6.5</v>
+      </c>
+      <c r="N373">
+        <v>1.615</v>
+      </c>
+      <c r="O373">
         <v>4</v>
       </c>
-      <c r="L373">
-        <v>3.5</v>
-      </c>
-      <c r="M373">
-        <v>1.909</v>
-      </c>
-      <c r="N373">
-        <v>4.5</v>
-      </c>
-      <c r="O373">
-        <v>3.5</v>
-      </c>
       <c r="P373">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R373">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S373">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V373">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33724,7 +33724,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6838519</v>
+        <v>6838520</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33733,49 +33733,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45339.61458333334</v>
+        <v>45340.4375</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G374" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K374">
+        <v>1.727</v>
+      </c>
+      <c r="L374">
+        <v>3.8</v>
+      </c>
+      <c r="M374">
+        <v>4.5</v>
+      </c>
+      <c r="N374">
         <v>1.7</v>
       </c>
-      <c r="L374">
-        <v>3.75</v>
-      </c>
-      <c r="M374">
+      <c r="O374">
+        <v>4</v>
+      </c>
+      <c r="P374">
         <v>4.75</v>
       </c>
-      <c r="N374">
+      <c r="Q374">
+        <v>-0.75</v>
+      </c>
+      <c r="R374">
+        <v>1.92</v>
+      </c>
+      <c r="S374">
+        <v>1.98</v>
+      </c>
+      <c r="T374">
+        <v>2.5</v>
+      </c>
+      <c r="U374">
         <v>1.85</v>
       </c>
-      <c r="O374">
-        <v>3.6</v>
-      </c>
-      <c r="P374">
-        <v>4.2</v>
-      </c>
-      <c r="Q374">
-        <v>-0.5</v>
-      </c>
-      <c r="R374">
-        <v>1.84</v>
-      </c>
-      <c r="S374">
-        <v>2.06</v>
-      </c>
-      <c r="T374">
-        <v>2.75</v>
-      </c>
-      <c r="U374">
+      <c r="V374">
         <v>2</v>
-      </c>
-      <c r="V374">
-        <v>1.85</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33798,7 +33798,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6838518</v>
+        <v>6838512</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33807,49 +33807,49 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.4375</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G375" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K375">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L375">
+        <v>5</v>
+      </c>
+      <c r="M375">
+        <v>5.75</v>
+      </c>
+      <c r="N375">
+        <v>1.45</v>
+      </c>
+      <c r="O375">
+        <v>5.25</v>
+      </c>
+      <c r="P375">
+        <v>5.5</v>
+      </c>
+      <c r="Q375">
+        <v>-1.25</v>
+      </c>
+      <c r="R375">
+        <v>1.93</v>
+      </c>
+      <c r="S375">
+        <v>1.97</v>
+      </c>
+      <c r="T375">
         <v>3.5</v>
       </c>
-      <c r="M375">
-        <v>3.5</v>
-      </c>
-      <c r="N375">
-        <v>1.95</v>
-      </c>
-      <c r="O375">
-        <v>3.6</v>
-      </c>
-      <c r="P375">
-        <v>3.8</v>
-      </c>
-      <c r="Q375">
-        <v>-0.5</v>
-      </c>
-      <c r="R375">
-        <v>1.95</v>
-      </c>
-      <c r="S375">
-        <v>1.95</v>
-      </c>
-      <c r="T375">
-        <v>2.75</v>
-      </c>
       <c r="U375">
+        <v>1.975</v>
+      </c>
+      <c r="V375">
         <v>1.875</v>
-      </c>
-      <c r="V375">
-        <v>1.975</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33872,7 +33872,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6838516</v>
+        <v>6838514</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33881,49 +33881,49 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.53125</v>
       </c>
       <c r="F376" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G376" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K376">
-        <v>2.15</v>
+        <v>1.1</v>
       </c>
       <c r="L376">
+        <v>10</v>
+      </c>
+      <c r="M376">
+        <v>17</v>
+      </c>
+      <c r="N376">
+        <v>1.125</v>
+      </c>
+      <c r="O376">
+        <v>10</v>
+      </c>
+      <c r="P376">
+        <v>17</v>
+      </c>
+      <c r="Q376">
+        <v>-2.5</v>
+      </c>
+      <c r="R376">
+        <v>2.02</v>
+      </c>
+      <c r="S376">
+        <v>1.88</v>
+      </c>
+      <c r="T376">
         <v>3.5</v>
       </c>
-      <c r="M376">
-        <v>3.3</v>
-      </c>
-      <c r="N376">
-        <v>2.1</v>
-      </c>
-      <c r="O376">
-        <v>3.4</v>
-      </c>
-      <c r="P376">
-        <v>3.5</v>
-      </c>
-      <c r="Q376">
-        <v>-0.25</v>
-      </c>
-      <c r="R376">
-        <v>1.86</v>
-      </c>
-      <c r="S376">
-        <v>2.04</v>
-      </c>
-      <c r="T376">
-        <v>2.25</v>
-      </c>
       <c r="U376">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V376">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33938,302 +33938,6 @@
         <v>0</v>
       </c>
       <c r="AA376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377">
-        <v>6838513</v>
-      </c>
-      <c r="C377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
-      </c>
-      <c r="E377" s="2">
-        <v>45340.34375</v>
-      </c>
-      <c r="F377" t="s">
-        <v>29</v>
-      </c>
-      <c r="G377" t="s">
-        <v>34</v>
-      </c>
-      <c r="K377">
-        <v>1.5</v>
-      </c>
-      <c r="L377">
-        <v>4.2</v>
-      </c>
-      <c r="M377">
-        <v>6.5</v>
-      </c>
-      <c r="N377">
-        <v>1.615</v>
-      </c>
-      <c r="O377">
-        <v>4.2</v>
-      </c>
-      <c r="P377">
-        <v>5.25</v>
-      </c>
-      <c r="Q377">
-        <v>-0.75</v>
-      </c>
-      <c r="R377">
-        <v>1.81</v>
-      </c>
-      <c r="S377">
-        <v>2.09</v>
-      </c>
-      <c r="T377">
-        <v>2.5</v>
-      </c>
-      <c r="U377">
-        <v>1.825</v>
-      </c>
-      <c r="V377">
-        <v>2.025</v>
-      </c>
-      <c r="W377">
-        <v>0</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>0</v>
-      </c>
-      <c r="Z377">
-        <v>0</v>
-      </c>
-      <c r="AA377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:29">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378">
-        <v>6838520</v>
-      </c>
-      <c r="C378" t="s">
-        <v>28</v>
-      </c>
-      <c r="D378" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" s="2">
-        <v>45340.4375</v>
-      </c>
-      <c r="F378" t="s">
-        <v>42</v>
-      </c>
-      <c r="G378" t="s">
-        <v>39</v>
-      </c>
-      <c r="K378">
-        <v>1.727</v>
-      </c>
-      <c r="L378">
-        <v>3.8</v>
-      </c>
-      <c r="M378">
-        <v>4.5</v>
-      </c>
-      <c r="N378">
-        <v>1.727</v>
-      </c>
-      <c r="O378">
-        <v>4</v>
-      </c>
-      <c r="P378">
-        <v>4.5</v>
-      </c>
-      <c r="Q378">
-        <v>-0.75</v>
-      </c>
-      <c r="R378">
-        <v>1.97</v>
-      </c>
-      <c r="S378">
-        <v>1.93</v>
-      </c>
-      <c r="T378">
-        <v>2.5</v>
-      </c>
-      <c r="U378">
-        <v>1.85</v>
-      </c>
-      <c r="V378">
-        <v>2</v>
-      </c>
-      <c r="W378">
-        <v>0</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>0</v>
-      </c>
-      <c r="Z378">
-        <v>0</v>
-      </c>
-      <c r="AA378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>6838512</v>
-      </c>
-      <c r="C379" t="s">
-        <v>28</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" s="2">
-        <v>45340.4375</v>
-      </c>
-      <c r="F379" t="s">
-        <v>41</v>
-      </c>
-      <c r="G379" t="s">
-        <v>35</v>
-      </c>
-      <c r="K379">
-        <v>1.444</v>
-      </c>
-      <c r="L379">
-        <v>5</v>
-      </c>
-      <c r="M379">
-        <v>5.75</v>
-      </c>
-      <c r="N379">
-        <v>1.45</v>
-      </c>
-      <c r="O379">
-        <v>5.25</v>
-      </c>
-      <c r="P379">
-        <v>5.5</v>
-      </c>
-      <c r="Q379">
-        <v>-1.25</v>
-      </c>
-      <c r="R379">
-        <v>1.95</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>3.5</v>
-      </c>
-      <c r="U379">
-        <v>2</v>
-      </c>
-      <c r="V379">
-        <v>1.85</v>
-      </c>
-      <c r="W379">
-        <v>0</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>0</v>
-      </c>
-      <c r="Z379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>6838514</v>
-      </c>
-      <c r="C380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" s="2">
-        <v>45340.53125</v>
-      </c>
-      <c r="F380" t="s">
-        <v>46</v>
-      </c>
-      <c r="G380" t="s">
-        <v>30</v>
-      </c>
-      <c r="K380">
-        <v>1.1</v>
-      </c>
-      <c r="L380">
-        <v>10</v>
-      </c>
-      <c r="M380">
-        <v>17</v>
-      </c>
-      <c r="N380">
-        <v>1.125</v>
-      </c>
-      <c r="O380">
-        <v>10</v>
-      </c>
-      <c r="P380">
-        <v>17</v>
-      </c>
-      <c r="Q380">
-        <v>-2.5</v>
-      </c>
-      <c r="R380">
-        <v>2.01</v>
-      </c>
-      <c r="S380">
-        <v>1.89</v>
-      </c>
-      <c r="T380">
-        <v>3.5</v>
-      </c>
-      <c r="U380">
-        <v>1.85</v>
-      </c>
-      <c r="V380">
-        <v>2</v>
-      </c>
-      <c r="W380">
-        <v>0</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>0</v>
-      </c>
-      <c r="Z380">
-        <v>0</v>
-      </c>
-      <c r="AA380">
         <v>0</v>
       </c>
     </row>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -148,10 +148,10 @@
     <t>Go Ahead Eagles</t>
   </si>
   <si>
-    <t>FC Groningen</t>
+    <t>FC Emmen</t>
   </si>
   <si>
-    <t>FC Emmen</t>
+    <t>FC Groningen</t>
   </si>
   <si>
     <t>Feyenoord</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,58 +1904,58 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2.05</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>2.025</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.4</v>
+      </c>
+      <c r="AA16">
+        <v>-0.5</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1993,58 +1993,58 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5159838</v>
+        <v>5159377</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,37 +2070,37 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2109,22 +2109,22 @@
         <v>1.925</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2133,10 +2133,10 @@
         <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5159377</v>
+        <v>5159838</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,37 +2159,37 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2198,22 +2198,22 @@
         <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2222,10 +2222,10 @@
         <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2337,7 +2337,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5159844</v>
+        <v>5159843</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>-1.5</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
         <v>3.25</v>
       </c>
-      <c r="P22">
-        <v>2.45</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.76</v>
-      </c>
-      <c r="S22">
-        <v>2.155</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.155</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5159843</v>
+        <v>5159844</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
+        <v>1.76</v>
+      </c>
+      <c r="S23">
+        <v>2.155</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.825</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>1.155</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2604,7 +2604,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2957,7 +2957,7 @@
         <v>44950.61458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>2.025</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.825</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
+        <v>2.15</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
         <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
-      </c>
-      <c r="AB31">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3580,7 +3580,7 @@
         <v>44952.61458333334</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3850,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3.2</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
+        <v>3.4</v>
+      </c>
+      <c r="P39">
         <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.1</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>2.3</v>
+      </c>
+      <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>3.1</v>
+      </c>
+      <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>3.3</v>
+      </c>
+      <c r="P40">
         <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>2.15</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>3.25</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4384,7 +4384,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4915,7 +4915,7 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
@@ -5360,7 +5360,7 @@
         <v>44962.53125</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5630,7 +5630,7 @@
         <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5716,7 +5716,7 @@
         <v>44968.70833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5159873</v>
+        <v>5159871</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I61">
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>4.333</v>
+      </c>
+      <c r="L61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>5.75</v>
+      </c>
+      <c r="O61">
+        <v>4.333</v>
+      </c>
+      <c r="P61">
+        <v>1.533</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>1.9</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
+        <v>1.975</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61">
-        <v>2.3</v>
-      </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>2.625</v>
-      </c>
-      <c r="N61">
-        <v>2.55</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.75</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
-      <c r="W61">
-        <v>1.55</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5159871</v>
+        <v>5159873</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>2.625</v>
+      </c>
+      <c r="N62">
+        <v>2.55</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>2.75</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>2</v>
       </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62">
-        <v>4.333</v>
-      </c>
-      <c r="L62">
-        <v>3.8</v>
-      </c>
-      <c r="M62">
-        <v>1.727</v>
-      </c>
-      <c r="N62">
-        <v>5.75</v>
-      </c>
-      <c r="O62">
-        <v>4.333</v>
-      </c>
-      <c r="P62">
-        <v>1.533</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5159387</v>
+        <v>5159868</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="L63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="P63">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q63">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R63">
-        <v>1.96</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>2</v>
       </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>0.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5159868</v>
+        <v>5159387</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,58 +6161,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="O64">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P64">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q64">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.96</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="T64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="V64">
-        <v>2</v>
-      </c>
       <c r="W64">
-        <v>0.1419999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6221,16 +6221,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
+        <v>0.96</v>
+      </c>
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="AA64">
-        <v>0.4875</v>
-      </c>
-      <c r="AB64">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6428,10 +6428,10 @@
         <v>44975.61458333334</v>
       </c>
       <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s">
         <v>44</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7674,7 +7674,7 @@
         <v>44983.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -8033,7 +8033,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8122,7 +8122,7 @@
         <v>46</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -8834,7 +8834,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>45003.61458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9721,7 +9721,7 @@
         <v>45004.34375</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
         <v>39</v>
@@ -10347,7 +10347,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10881,7 +10881,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10967,7 +10967,7 @@
         <v>45023.625</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11501,7 +11501,7 @@
         <v>45025.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11860,7 +11860,7 @@
         <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12483,7 +12483,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12750,7 +12750,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5159928</v>
+        <v>5159929</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,13 +13014,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13029,43 +13029,43 @@
         <v>50</v>
       </c>
       <c r="K141">
+        <v>2.3</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>2.9</v>
+      </c>
+      <c r="N141">
         <v>2.05</v>
-      </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>1.75</v>
       </c>
       <c r="O141">
         <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5159929</v>
+        <v>5159928</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,13 +13103,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13118,43 +13118,43 @@
         <v>50</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L142">
+        <v>3.4</v>
+      </c>
+      <c r="M142">
         <v>3.5</v>
       </c>
-      <c r="M142">
-        <v>2.9</v>
-      </c>
       <c r="N142">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
         <v>3.8</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,40 +13563,40 @@
         <v>52</v>
       </c>
       <c r="K147">
+        <v>4.2</v>
+      </c>
+      <c r="L147">
+        <v>3.8</v>
+      </c>
+      <c r="M147">
+        <v>1.75</v>
+      </c>
+      <c r="N147">
+        <v>4.2</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
+        <v>1.75</v>
+      </c>
+      <c r="Q147">
+        <v>0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>2</v>
       </c>
-      <c r="L147">
-        <v>3.4</v>
-      </c>
-      <c r="M147">
-        <v>3.6</v>
-      </c>
-      <c r="N147">
-        <v>2.1</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>3.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,41 +13652,41 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
+        <v>1.025</v>
+      </c>
+      <c r="AB148">
         <v>0.95</v>
       </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13815,7 +13815,7 @@
         <v>45053.30208333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13996,7 +13996,7 @@
         <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14708,7 +14708,7 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>5</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5499719</v>
+        <v>5505055</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,76 +14883,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>50</v>
+      </c>
+      <c r="K162">
+        <v>1.8</v>
+      </c>
+      <c r="L162">
+        <v>3.8</v>
+      </c>
+      <c r="M162">
+        <v>4</v>
+      </c>
+      <c r="N162">
+        <v>1.75</v>
+      </c>
+      <c r="O162">
+        <v>4.2</v>
+      </c>
+      <c r="P162">
+        <v>4</v>
+      </c>
+      <c r="Q162">
+        <v>-0.75</v>
+      </c>
+      <c r="R162">
+        <v>1.97</v>
+      </c>
+      <c r="S162">
+        <v>1.93</v>
+      </c>
+      <c r="T162">
         <v>3</v>
       </c>
-      <c r="J162" t="s">
-        <v>52</v>
-      </c>
-      <c r="K162">
-        <v>6</v>
-      </c>
-      <c r="L162">
-        <v>4.75</v>
-      </c>
-      <c r="M162">
-        <v>1.444</v>
-      </c>
-      <c r="N162">
-        <v>6.5</v>
-      </c>
-      <c r="O162">
-        <v>4.75</v>
-      </c>
-      <c r="P162">
-        <v>1.45</v>
-      </c>
-      <c r="Q162">
-        <v>1.25</v>
-      </c>
-      <c r="R162">
-        <v>1.875</v>
-      </c>
-      <c r="S162">
-        <v>1.975</v>
-      </c>
-      <c r="T162">
-        <v>3.25</v>
-      </c>
       <c r="U162">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5499718</v>
+        <v>5499720</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,13 +14972,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -14987,43 +14987,43 @@
         <v>50</v>
       </c>
       <c r="K163">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O163">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q163">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T163">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,13 +15032,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.4375</v>
+        <v>1.06</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5498582</v>
+        <v>5499721</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,13 +15061,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15076,43 +15076,43 @@
         <v>50</v>
       </c>
       <c r="K164">
+        <v>1.444</v>
+      </c>
+      <c r="L164">
+        <v>4.5</v>
+      </c>
+      <c r="M164">
+        <v>6.5</v>
+      </c>
+      <c r="N164">
+        <v>1.444</v>
+      </c>
+      <c r="O164">
+        <v>4.5</v>
+      </c>
+      <c r="P164">
+        <v>7.5</v>
+      </c>
+      <c r="Q164">
+        <v>-1.25</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.875</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
         <v>2.05</v>
       </c>
-      <c r="L164">
-        <v>3.5</v>
-      </c>
-      <c r="M164">
-        <v>3.4</v>
-      </c>
-      <c r="N164">
-        <v>1.909</v>
-      </c>
-      <c r="O164">
-        <v>3.8</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.94</v>
-      </c>
-      <c r="S164">
-        <v>1.96</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>2.025</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
       <c r="W164">
-        <v>0.909</v>
+        <v>0.444</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15121,16 +15121,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9399999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499491</v>
+        <v>5505056</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="L165">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="N165">
-        <v>1.181</v>
+        <v>3.8</v>
       </c>
       <c r="O165">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="Q165">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5535269</v>
+        <v>5499719</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,13 +15239,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>3</v>
@@ -15254,25 +15254,25 @@
         <v>52</v>
       </c>
       <c r="K166">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M166">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="N166">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="O166">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R166">
         <v>1.875</v>
@@ -15281,13 +15281,13 @@
         <v>1.975</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15296,7 +15296,7 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z166">
         <v>-1</v>
@@ -15305,10 +15305,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5505056</v>
+        <v>5498582</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,49 +15328,49 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H167">
+        <v>3</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
-        <v>5</v>
-      </c>
       <c r="J167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
+        <v>1.909</v>
+      </c>
+      <c r="O167">
         <v>3.8</v>
       </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
       <c r="P167">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.94</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.96</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U167">
         <v>2.025</v>
@@ -15379,25 +15379,25 @@
         <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5505055</v>
+        <v>5499491</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
+        <v>1.25</v>
+      </c>
+      <c r="L168">
+        <v>6</v>
+      </c>
+      <c r="M168">
+        <v>11</v>
+      </c>
+      <c r="N168">
+        <v>1.181</v>
+      </c>
+      <c r="O168">
+        <v>7</v>
+      </c>
+      <c r="P168">
+        <v>13</v>
+      </c>
+      <c r="Q168">
+        <v>-2.25</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
         <v>1.8</v>
       </c>
-      <c r="L168">
-        <v>3.8</v>
-      </c>
-      <c r="M168">
-        <v>4</v>
-      </c>
-      <c r="N168">
-        <v>1.75</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
-      <c r="P168">
-        <v>4</v>
-      </c>
-      <c r="Q168">
-        <v>-0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.97</v>
-      </c>
-      <c r="S168">
-        <v>1.93</v>
-      </c>
       <c r="T168">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5499721</v>
+        <v>5535269</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>52</v>
+      </c>
+      <c r="K169">
+        <v>4.333</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>1.75</v>
+      </c>
+      <c r="N169">
+        <v>4.5</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>1.75</v>
+      </c>
+      <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>1.925</v>
+      </c>
+      <c r="V169">
+        <v>1.925</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>0.75</v>
+      </c>
+      <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>50</v>
-      </c>
-      <c r="K169">
-        <v>1.444</v>
-      </c>
-      <c r="L169">
-        <v>4.5</v>
-      </c>
-      <c r="M169">
-        <v>6.5</v>
-      </c>
-      <c r="N169">
-        <v>1.444</v>
-      </c>
-      <c r="O169">
-        <v>4.5</v>
-      </c>
-      <c r="P169">
-        <v>7.5</v>
-      </c>
-      <c r="Q169">
-        <v>-1.25</v>
-      </c>
-      <c r="R169">
-        <v>1.975</v>
-      </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2.05</v>
-      </c>
-      <c r="W169">
-        <v>0.444</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>0.8</v>
-      </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499720</v>
+        <v>5499718</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,13 +15595,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -15610,43 +15610,43 @@
         <v>50</v>
       </c>
       <c r="K170">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L170">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N170">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P170">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q170">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15655,13 +15655,13 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1.06</v>
+        <v>0.4375</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5541489</v>
+        <v>5539306</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,58 +15684,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O171">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15744,16 +15744,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5559913</v>
+        <v>5541489</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,10 +15862,10 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -15877,25 +15877,25 @@
         <v>50</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="N173">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="O173">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R173">
         <v>1.95</v>
@@ -15907,13 +15907,13 @@
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5702299</v>
+        <v>5539940</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,76 +15951,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174">
+        <v>3.2</v>
+      </c>
+      <c r="L174">
+        <v>3.8</v>
+      </c>
+      <c r="M174">
+        <v>2.1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174">
+        <v>3.8</v>
+      </c>
+      <c r="P174">
+        <v>2.15</v>
+      </c>
+      <c r="Q174">
+        <v>0.5</v>
+      </c>
+      <c r="R174">
+        <v>1.92</v>
+      </c>
+      <c r="S174">
+        <v>1.98</v>
+      </c>
+      <c r="T174">
+        <v>3.5</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
+        <v>1.875</v>
+      </c>
+      <c r="W174">
         <v>2</v>
       </c>
-      <c r="J174" t="s">
-        <v>52</v>
-      </c>
-      <c r="K174">
-        <v>2.7</v>
-      </c>
-      <c r="L174">
-        <v>3.75</v>
-      </c>
-      <c r="M174">
-        <v>2.45</v>
-      </c>
-      <c r="N174">
-        <v>2.375</v>
-      </c>
-      <c r="O174">
-        <v>3.6</v>
-      </c>
-      <c r="P174">
-        <v>2.9</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>2.05</v>
-      </c>
-      <c r="S174">
-        <v>1.8</v>
-      </c>
-      <c r="T174">
-        <v>3</v>
-      </c>
-      <c r="U174">
-        <v>2.05</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5535270</v>
+        <v>5541488</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,49 +16040,49 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>51</v>
+      </c>
+      <c r="K175">
+        <v>2.625</v>
+      </c>
+      <c r="L175">
+        <v>3.5</v>
+      </c>
+      <c r="M175">
+        <v>2.6</v>
+      </c>
+      <c r="N175">
+        <v>2.6</v>
+      </c>
+      <c r="O175">
+        <v>3.8</v>
+      </c>
+      <c r="P175">
+        <v>2.5</v>
+      </c>
+      <c r="Q175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>5</v>
-      </c>
-      <c r="J175" t="s">
-        <v>52</v>
-      </c>
-      <c r="K175">
-        <v>3.2</v>
-      </c>
-      <c r="L175">
-        <v>3.6</v>
-      </c>
-      <c r="M175">
-        <v>2.2</v>
-      </c>
-      <c r="N175">
-        <v>3.1</v>
-      </c>
-      <c r="O175">
-        <v>3.6</v>
-      </c>
-      <c r="P175">
-        <v>2.2</v>
-      </c>
-      <c r="Q175">
-        <v>0.25</v>
-      </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
         <v>1.85</v>
@@ -16094,22 +16094,22 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5539940</v>
+        <v>5539941</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="L176">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M176">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N176">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P176">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.98</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z176">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5539941</v>
+        <v>5535270</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,55 +16218,55 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
         <v>52</v>
       </c>
       <c r="K177">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16275,19 +16275,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5541488</v>
+        <v>5702299</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N178">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
+        <v>-0.25</v>
+      </c>
+      <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
+        <v>2.05</v>
+      </c>
+      <c r="V178">
+        <v>1.8</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>1.9</v>
+      </c>
+      <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.8</v>
+      </c>
+      <c r="AB178">
         <v>0</v>
       </c>
-      <c r="R178">
-        <v>1.975</v>
-      </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
-      <c r="T178">
-        <v>3.25</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
-      </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>2.8</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
+      <c r="AC178">
         <v>-0</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5539306</v>
+        <v>5559913</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>2</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>50</v>
       </c>
       <c r="K179">
+        <v>1.909</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>3.5</v>
+      </c>
+      <c r="N179">
+        <v>1.75</v>
+      </c>
+      <c r="O179">
+        <v>4.75</v>
+      </c>
+      <c r="P179">
+        <v>3.8</v>
+      </c>
+      <c r="Q179">
+        <v>-0.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>3.5</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
         <v>2</v>
       </c>
-      <c r="L179">
-        <v>3.8</v>
-      </c>
-      <c r="M179">
-        <v>3.4</v>
-      </c>
-      <c r="N179">
-        <v>2.05</v>
-      </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>3.4</v>
-      </c>
-      <c r="Q179">
+      <c r="W179">
+        <v>0.75</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.475</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="R179">
-        <v>2</v>
-      </c>
-      <c r="S179">
-        <v>1.85</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>1.85</v>
-      </c>
-      <c r="W179">
-        <v>1.05</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>1</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,73 +18354,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L201">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M201">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N201">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P201">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.95</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
         <v>2.05</v>
       </c>
-      <c r="S201">
-        <v>1.85</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
         <v>1.05</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>1.025</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,73 +18443,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>51</v>
+      </c>
+      <c r="K202">
+        <v>5.5</v>
+      </c>
+      <c r="L202">
+        <v>4.333</v>
+      </c>
+      <c r="M202">
+        <v>1.533</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202">
+        <v>4.2</v>
+      </c>
+      <c r="P202">
+        <v>1.65</v>
+      </c>
+      <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
         <v>3</v>
       </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-      <c r="J202" t="s">
-        <v>50</v>
-      </c>
-      <c r="K202">
-        <v>1.363</v>
-      </c>
-      <c r="L202">
-        <v>4.75</v>
-      </c>
-      <c r="M202">
-        <v>8</v>
-      </c>
-      <c r="N202">
-        <v>1.444</v>
-      </c>
-      <c r="O202">
-        <v>4.75</v>
-      </c>
-      <c r="P202">
-        <v>7.5</v>
-      </c>
-      <c r="Q202">
-        <v>-1.25</v>
-      </c>
-      <c r="R202">
-        <v>1.9</v>
-      </c>
-      <c r="S202">
-        <v>1.95</v>
-      </c>
-      <c r="T202">
-        <v>3.25</v>
-      </c>
       <c r="U202">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -21190,7 +21190,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838384</v>
+        <v>6838383</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21202,76 +21202,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
         <v>0</v>
       </c>
-      <c r="I233">
-        <v>3</v>
-      </c>
       <c r="J233" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N233">
+        <v>6</v>
+      </c>
+      <c r="O233">
         <v>4.333</v>
       </c>
-      <c r="O233">
-        <v>4</v>
-      </c>
       <c r="P233">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q233">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21279,7 +21279,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838383</v>
+        <v>6838384</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21291,76 +21291,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K234">
+        <v>3.8</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>1.8</v>
+      </c>
+      <c r="N234">
         <v>4.333</v>
       </c>
-      <c r="L234">
-        <v>4.2</v>
-      </c>
-      <c r="M234">
-        <v>1.666</v>
-      </c>
-      <c r="N234">
-        <v>6</v>
-      </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z234">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC234">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>52</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M252">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N252">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P252">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R252">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S252">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,16 +22950,16 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB252">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC252">
         <v>-0.5</v>
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,55 +22982,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L253">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N253">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O253">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P253">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q253">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W253">
         <v>-1</v>
@@ -23039,16 +23039,16 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB253">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC253">
         <v>-0.5</v>
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,13 +23160,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -23175,43 +23175,43 @@
         <v>50</v>
       </c>
       <c r="K255">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L255">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O255">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q255">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
+        <v>0.45</v>
+      </c>
+      <c r="AA255">
         <v>-0.5</v>
       </c>
-      <c r="AA255">
-        <v>0.4625</v>
-      </c>
       <c r="AB255">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,13 +23249,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -23264,43 +23264,43 @@
         <v>50</v>
       </c>
       <c r="K256">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N256">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P256">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23309,16 +23309,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
+        <v>0.4625</v>
+      </c>
+      <c r="AB256">
+        <v>0.4875</v>
+      </c>
+      <c r="AC256">
         <v>-0.5</v>
-      </c>
-      <c r="AB256">
-        <v>0</v>
-      </c>
-      <c r="AC256">
-        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L258">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M258">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N258">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P258">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q258">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R258">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U258">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W258">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L259">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M259">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N259">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O259">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q259">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R259">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6838408</v>
+        <v>6838409</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,73 +23694,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
+        <v>4</v>
+      </c>
+      <c r="J261" t="s">
+        <v>52</v>
+      </c>
+      <c r="K261">
+        <v>2.375</v>
+      </c>
+      <c r="L261">
+        <v>3.6</v>
+      </c>
+      <c r="M261">
+        <v>2.375</v>
+      </c>
+      <c r="N261">
+        <v>2.2</v>
+      </c>
+      <c r="O261">
+        <v>4.2</v>
+      </c>
+      <c r="P261">
+        <v>2.8</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.975</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
         <v>2</v>
       </c>
-      <c r="J261" t="s">
-        <v>51</v>
-      </c>
-      <c r="K261">
-        <v>5</v>
-      </c>
-      <c r="L261">
-        <v>4</v>
-      </c>
-      <c r="M261">
-        <v>1.615</v>
-      </c>
-      <c r="N261">
-        <v>6</v>
-      </c>
-      <c r="O261">
-        <v>4.5</v>
-      </c>
-      <c r="P261">
-        <v>1.5</v>
-      </c>
-      <c r="Q261">
+      <c r="V261">
+        <v>1.85</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>-1</v>
+      </c>
+      <c r="Y261">
+        <v>1.8</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.875</v>
+      </c>
+      <c r="AB261">
         <v>1</v>
-      </c>
-      <c r="R261">
-        <v>2.025</v>
-      </c>
-      <c r="S261">
-        <v>1.825</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
-      <c r="U261">
-        <v>1.8</v>
-      </c>
-      <c r="V261">
-        <v>2.05</v>
-      </c>
-      <c r="W261">
-        <v>-1</v>
-      </c>
-      <c r="X261">
-        <v>3.5</v>
-      </c>
-      <c r="Y261">
-        <v>-1</v>
-      </c>
-      <c r="Z261">
-        <v>1.025</v>
-      </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>0.8</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6838409</v>
+        <v>6838408</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,73 +23783,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
+        <v>5</v>
+      </c>
+      <c r="L262">
         <v>4</v>
       </c>
-      <c r="J262" t="s">
-        <v>52</v>
-      </c>
-      <c r="K262">
-        <v>2.375</v>
-      </c>
-      <c r="L262">
-        <v>3.6</v>
-      </c>
       <c r="M262">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N262">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O262">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P262">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA262">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,73 +26008,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L287">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M287">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N287">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O287">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P287">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q287">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U287">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z287">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB287">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,73 +26097,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288" t="s">
+        <v>51</v>
+      </c>
+      <c r="K288">
+        <v>5</v>
+      </c>
+      <c r="L288">
+        <v>4.4</v>
+      </c>
+      <c r="M288">
+        <v>1.571</v>
+      </c>
+      <c r="N288">
+        <v>5.25</v>
+      </c>
+      <c r="O288">
+        <v>4.75</v>
+      </c>
+      <c r="P288">
+        <v>1.533</v>
+      </c>
+      <c r="Q288">
         <v>1</v>
       </c>
-      <c r="I288">
-        <v>4</v>
-      </c>
-      <c r="J288" t="s">
-        <v>52</v>
-      </c>
-      <c r="K288">
-        <v>2.625</v>
-      </c>
-      <c r="L288">
-        <v>3.6</v>
-      </c>
-      <c r="M288">
-        <v>2.5</v>
-      </c>
-      <c r="N288">
-        <v>3</v>
-      </c>
-      <c r="O288">
+      <c r="R288">
+        <v>2.04</v>
+      </c>
+      <c r="S288">
+        <v>1.86</v>
+      </c>
+      <c r="T288">
+        <v>3.25</v>
+      </c>
+      <c r="U288">
+        <v>1.9</v>
+      </c>
+      <c r="V288">
+        <v>1.95</v>
+      </c>
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
         <v>3.75</v>
       </c>
-      <c r="P288">
-        <v>2.2</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.925</v>
-      </c>
-      <c r="S288">
-        <v>1.925</v>
-      </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
-      <c r="U288">
-        <v>2.05</v>
-      </c>
-      <c r="V288">
-        <v>1.8</v>
-      </c>
-      <c r="W288">
-        <v>-1</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
       <c r="Y288">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26886,7 +26886,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26898,76 +26898,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F297" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K297">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M297">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N297">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P297">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
         <v>1.975</v>
       </c>
-      <c r="V297">
-        <v>1.875</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X297">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
+        <v>0.825</v>
+      </c>
+      <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
         <v>-0.5</v>
       </c>
-      <c r="AA297">
-        <v>0.475</v>
-      </c>
-      <c r="AB297">
-        <v>-1</v>
-      </c>
       <c r="AC297">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26975,7 +26975,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26987,76 +26987,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F298" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N298">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O298">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P298">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q298">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
         <v>1.875</v>
       </c>
-      <c r="V298">
-        <v>1.975</v>
-      </c>
       <c r="W298">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6838451</v>
+        <v>6838450</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,55 +27699,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F306" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>52</v>
       </c>
       <c r="K306">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L306">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M306">
         <v>1.75</v>
       </c>
       <c r="N306">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O306">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P306">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q306">
         <v>0.5</v>
       </c>
       <c r="R306">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U306">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27756,19 +27756,19 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB306">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27776,7 +27776,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838450</v>
+        <v>6838451</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27788,55 +27788,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F307" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
         <v>52</v>
       </c>
       <c r="K307">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L307">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M307">
         <v>1.75</v>
       </c>
       <c r="N307">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O307">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P307">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q307">
         <v>0.5</v>
       </c>
       <c r="R307">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S307">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27845,19 +27845,19 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC307">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,76 +31259,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G346" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L346">
+        <v>9.5</v>
+      </c>
+      <c r="M346">
+        <v>19</v>
+      </c>
+      <c r="N346">
+        <v>1.1</v>
+      </c>
+      <c r="O346">
+        <v>10</v>
+      </c>
+      <c r="P346">
+        <v>23</v>
+      </c>
+      <c r="Q346">
+        <v>-2.5</v>
+      </c>
+      <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
         <v>3.75</v>
       </c>
-      <c r="M346">
-        <v>2.1</v>
-      </c>
-      <c r="N346">
-        <v>2.3</v>
-      </c>
-      <c r="O346">
-        <v>3.75</v>
-      </c>
-      <c r="P346">
-        <v>2.8</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
+      <c r="U346">
         <v>2.025</v>
       </c>
-      <c r="S346">
+      <c r="V346">
         <v>1.825</v>
       </c>
-      <c r="T346">
-        <v>2.5</v>
-      </c>
-      <c r="U346">
-        <v>1.975</v>
-      </c>
-      <c r="V346">
-        <v>1.875</v>
-      </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X346">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31336,7 +31336,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31348,76 +31348,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L347">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N347">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O347">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P347">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -33205,7 +33205,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838511</v>
+        <v>6838506</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33217,58 +33217,58 @@
         <v>45333.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>50</v>
       </c>
       <c r="K368">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L368">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M368">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N368">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O368">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P368">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q368">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R368">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S368">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T368">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U368">
+        <v>1.95</v>
+      </c>
+      <c r="V368">
         <v>1.9</v>
       </c>
-      <c r="V368">
-        <v>1.95</v>
-      </c>
       <c r="W368">
-        <v>2.5</v>
+        <v>0.615</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33277,13 +33277,13 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33294,7 +33294,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6838506</v>
+        <v>6838511</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33306,59 +33306,59 @@
         <v>45333.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G369" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H369">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J369" t="s">
         <v>50</v>
       </c>
       <c r="K369">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L369">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M369">
+        <v>1.571</v>
+      </c>
+      <c r="N369">
         <v>3.5</v>
       </c>
-      <c r="N369">
-        <v>1.615</v>
-      </c>
       <c r="O369">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P369">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q369">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R369">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S369">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T369">
+        <v>3.25</v>
+      </c>
+      <c r="U369">
+        <v>1.9</v>
+      </c>
+      <c r="V369">
+        <v>1.95</v>
+      </c>
+      <c r="W369">
         <v>2.5</v>
       </c>
-      <c r="U369">
-        <v>1.95</v>
-      </c>
-      <c r="V369">
-        <v>1.9</v>
-      </c>
-      <c r="W369">
-        <v>0.615</v>
-      </c>
       <c r="X369">
         <v>-1</v>
       </c>
@@ -33366,13 +33366,13 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33650,7 +33650,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6838513</v>
+        <v>6838519</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,64 +33659,79 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45340.34375</v>
+        <v>45339.61458333334</v>
       </c>
       <c r="F373" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="H373">
+        <v>4</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373" t="s">
+        <v>50</v>
       </c>
       <c r="K373">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L373">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M373">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N373">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O373">
+        <v>3.6</v>
+      </c>
+      <c r="P373">
         <v>4</v>
       </c>
-      <c r="P373">
-        <v>5.5</v>
-      </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R373">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S373">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="T373">
         <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W373">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC373">
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33724,7 +33739,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6838520</v>
+        <v>6838515</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33733,64 +33748,79 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45340.4375</v>
+        <v>45339.61458333334</v>
       </c>
       <c r="F374" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G374" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+      <c r="J374" t="s">
+        <v>52</v>
       </c>
       <c r="K374">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L374">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N374">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="O374">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P374">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R374">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S374">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA374">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB374">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC374">
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33798,7 +33828,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6838512</v>
+        <v>6838518</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33807,64 +33837,79 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45340.4375</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G375" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>2</v>
+      </c>
+      <c r="J375" t="s">
+        <v>52</v>
       </c>
       <c r="K375">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L375">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M375">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N375">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O375">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P375">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q375">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S375">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="T375">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB375">
+        <v>-1</v>
+      </c>
+      <c r="AC375">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33872,72 +33917,1109 @@
         <v>374</v>
       </c>
       <c r="B376">
+        <v>6838516</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45339.70833333334</v>
+      </c>
+      <c r="F376" t="s">
+        <v>47</v>
+      </c>
+      <c r="G376" t="s">
+        <v>48</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>52</v>
+      </c>
+      <c r="K376">
+        <v>2.15</v>
+      </c>
+      <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
+        <v>3.3</v>
+      </c>
+      <c r="N376">
+        <v>2.2</v>
+      </c>
+      <c r="O376">
+        <v>3.5</v>
+      </c>
+      <c r="P376">
+        <v>3.2</v>
+      </c>
+      <c r="Q376">
+        <v>-0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.925</v>
+      </c>
+      <c r="S376">
+        <v>1.925</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
+        <v>1.9</v>
+      </c>
+      <c r="V376">
+        <v>1.95</v>
+      </c>
+      <c r="W376">
+        <v>-1</v>
+      </c>
+      <c r="X376">
+        <v>-1</v>
+      </c>
+      <c r="Y376">
+        <v>2.2</v>
+      </c>
+      <c r="Z376">
+        <v>-1</v>
+      </c>
+      <c r="AA376">
+        <v>0.925</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>6838513</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45340.34375</v>
+      </c>
+      <c r="F377" t="s">
+        <v>29</v>
+      </c>
+      <c r="G377" t="s">
+        <v>34</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>52</v>
+      </c>
+      <c r="K377">
+        <v>1.5</v>
+      </c>
+      <c r="L377">
+        <v>4.2</v>
+      </c>
+      <c r="M377">
+        <v>6.5</v>
+      </c>
+      <c r="N377">
+        <v>1.666</v>
+      </c>
+      <c r="O377">
+        <v>4</v>
+      </c>
+      <c r="P377">
+        <v>5</v>
+      </c>
+      <c r="Q377">
+        <v>-0.75</v>
+      </c>
+      <c r="R377">
+        <v>1.875</v>
+      </c>
+      <c r="S377">
+        <v>1.975</v>
+      </c>
+      <c r="T377">
+        <v>2.75</v>
+      </c>
+      <c r="U377">
+        <v>1.825</v>
+      </c>
+      <c r="V377">
+        <v>2.025</v>
+      </c>
+      <c r="W377">
+        <v>-1</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>4</v>
+      </c>
+      <c r="Z377">
+        <v>-1</v>
+      </c>
+      <c r="AA377">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB377">
+        <v>-1</v>
+      </c>
+      <c r="AC377">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>6838512</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45340.4375</v>
+      </c>
+      <c r="F378" t="s">
+        <v>41</v>
+      </c>
+      <c r="G378" t="s">
+        <v>35</v>
+      </c>
+      <c r="H378">
+        <v>2</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+      <c r="J378" t="s">
+        <v>51</v>
+      </c>
+      <c r="K378">
+        <v>1.444</v>
+      </c>
+      <c r="L378">
+        <v>5</v>
+      </c>
+      <c r="M378">
+        <v>5.75</v>
+      </c>
+      <c r="N378">
+        <v>1.571</v>
+      </c>
+      <c r="O378">
+        <v>4.75</v>
+      </c>
+      <c r="P378">
+        <v>4.75</v>
+      </c>
+      <c r="Q378">
+        <v>-1</v>
+      </c>
+      <c r="R378">
+        <v>1.925</v>
+      </c>
+      <c r="S378">
+        <v>1.925</v>
+      </c>
+      <c r="T378">
+        <v>3.25</v>
+      </c>
+      <c r="U378">
+        <v>2</v>
+      </c>
+      <c r="V378">
+        <v>1.85</v>
+      </c>
+      <c r="W378">
+        <v>-1</v>
+      </c>
+      <c r="X378">
+        <v>3.75</v>
+      </c>
+      <c r="Y378">
+        <v>-1</v>
+      </c>
+      <c r="Z378">
+        <v>-1</v>
+      </c>
+      <c r="AA378">
+        <v>0.925</v>
+      </c>
+      <c r="AB378">
+        <v>1</v>
+      </c>
+      <c r="AC378">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>6838520</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45340.4375</v>
+      </c>
+      <c r="F379" t="s">
+        <v>42</v>
+      </c>
+      <c r="G379" t="s">
+        <v>38</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379" t="s">
+        <v>51</v>
+      </c>
+      <c r="K379">
+        <v>1.727</v>
+      </c>
+      <c r="L379">
+        <v>3.8</v>
+      </c>
+      <c r="M379">
+        <v>4.5</v>
+      </c>
+      <c r="N379">
+        <v>1.571</v>
+      </c>
+      <c r="O379">
+        <v>4.2</v>
+      </c>
+      <c r="P379">
+        <v>5.75</v>
+      </c>
+      <c r="Q379">
+        <v>-1</v>
+      </c>
+      <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.9</v>
+      </c>
+      <c r="T379">
+        <v>2.75</v>
+      </c>
+      <c r="U379">
+        <v>1.925</v>
+      </c>
+      <c r="V379">
+        <v>1.925</v>
+      </c>
+      <c r="W379">
+        <v>-1</v>
+      </c>
+      <c r="X379">
+        <v>3.2</v>
+      </c>
+      <c r="Y379">
+        <v>-1</v>
+      </c>
+      <c r="Z379">
+        <v>-1</v>
+      </c>
+      <c r="AA379">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB379">
+        <v>-1</v>
+      </c>
+      <c r="AC379">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
         <v>6838514</v>
       </c>
-      <c r="C376" t="s">
-        <v>28</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" s="2">
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
         <v>45340.53125</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F380" t="s">
         <v>46</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G380" t="s">
         <v>30</v>
       </c>
-      <c r="K376">
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380" t="s">
+        <v>50</v>
+      </c>
+      <c r="K380">
         <v>1.1</v>
       </c>
-      <c r="L376">
+      <c r="L380">
         <v>10</v>
       </c>
-      <c r="M376">
+      <c r="M380">
         <v>17</v>
       </c>
-      <c r="N376">
+      <c r="N380">
         <v>1.125</v>
       </c>
-      <c r="O376">
-        <v>10</v>
-      </c>
-      <c r="P376">
+      <c r="O380">
+        <v>9.5</v>
+      </c>
+      <c r="P380">
         <v>17</v>
       </c>
-      <c r="Q376">
+      <c r="Q380">
         <v>-2.5</v>
       </c>
-      <c r="R376">
-        <v>2.02</v>
-      </c>
-      <c r="S376">
-        <v>1.88</v>
-      </c>
-      <c r="T376">
+      <c r="R380">
+        <v>1.99</v>
+      </c>
+      <c r="S380">
+        <v>1.91</v>
+      </c>
+      <c r="T380">
+        <v>3.75</v>
+      </c>
+      <c r="U380">
+        <v>2.025</v>
+      </c>
+      <c r="V380">
+        <v>1.825</v>
+      </c>
+      <c r="W380">
+        <v>0.125</v>
+      </c>
+      <c r="X380">
+        <v>-1</v>
+      </c>
+      <c r="Y380">
+        <v>-1</v>
+      </c>
+      <c r="Z380">
+        <v>-1</v>
+      </c>
+      <c r="AA380">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="AB380">
+        <v>-1</v>
+      </c>
+      <c r="AC380">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>6838525</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="F381" t="s">
+        <v>34</v>
+      </c>
+      <c r="G381" t="s">
+        <v>49</v>
+      </c>
+      <c r="K381">
+        <v>1.666</v>
+      </c>
+      <c r="L381">
+        <v>4.2</v>
+      </c>
+      <c r="M381">
+        <v>4.5</v>
+      </c>
+      <c r="N381">
+        <v>1.444</v>
+      </c>
+      <c r="O381">
+        <v>4.5</v>
+      </c>
+      <c r="P381">
+        <v>7.5</v>
+      </c>
+      <c r="Q381">
+        <v>-1.25</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
+        <v>1.9</v>
+      </c>
+      <c r="T381">
+        <v>3</v>
+      </c>
+      <c r="U381">
+        <v>2.05</v>
+      </c>
+      <c r="V381">
+        <v>1.8</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>6838529</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45346.61458333334</v>
+      </c>
+      <c r="F382" t="s">
+        <v>30</v>
+      </c>
+      <c r="G382" t="s">
+        <v>32</v>
+      </c>
+      <c r="K382">
+        <v>2.2</v>
+      </c>
+      <c r="L382">
+        <v>3.6</v>
+      </c>
+      <c r="M382">
+        <v>3</v>
+      </c>
+      <c r="N382">
+        <v>2.3</v>
+      </c>
+      <c r="O382">
         <v>3.5</v>
       </c>
-      <c r="U376">
+      <c r="P382">
+        <v>2.875</v>
+      </c>
+      <c r="Q382">
+        <v>-0.25</v>
+      </c>
+      <c r="R382">
+        <v>2.08</v>
+      </c>
+      <c r="S382">
+        <v>1.82</v>
+      </c>
+      <c r="T382">
+        <v>2.5</v>
+      </c>
+      <c r="U382">
+        <v>1.95</v>
+      </c>
+      <c r="V382">
+        <v>1.9</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>6838528</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45346.66666666666</v>
+      </c>
+      <c r="F383" t="s">
+        <v>47</v>
+      </c>
+      <c r="G383" t="s">
+        <v>33</v>
+      </c>
+      <c r="K383">
+        <v>11</v>
+      </c>
+      <c r="L383">
+        <v>6.5</v>
+      </c>
+      <c r="M383">
+        <v>1.222</v>
+      </c>
+      <c r="N383">
+        <v>11</v>
+      </c>
+      <c r="O383">
+        <v>6.5</v>
+      </c>
+      <c r="P383">
+        <v>1.2</v>
+      </c>
+      <c r="Q383">
+        <v>2</v>
+      </c>
+      <c r="R383">
+        <v>1.89</v>
+      </c>
+      <c r="S383">
+        <v>2.01</v>
+      </c>
+      <c r="T383">
+        <v>3.5</v>
+      </c>
+      <c r="U383">
+        <v>1.925</v>
+      </c>
+      <c r="V383">
+        <v>1.925</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>6838527</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F384" t="s">
+        <v>35</v>
+      </c>
+      <c r="G384" t="s">
+        <v>40</v>
+      </c>
+      <c r="K384">
+        <v>1.952</v>
+      </c>
+      <c r="L384">
+        <v>3.9</v>
+      </c>
+      <c r="M384">
+        <v>3.4</v>
+      </c>
+      <c r="N384">
+        <v>1.909</v>
+      </c>
+      <c r="O384">
+        <v>4</v>
+      </c>
+      <c r="P384">
+        <v>3.5</v>
+      </c>
+      <c r="Q384">
+        <v>-0.5</v>
+      </c>
+      <c r="R384">
+        <v>1.91</v>
+      </c>
+      <c r="S384">
+        <v>1.99</v>
+      </c>
+      <c r="T384">
+        <v>2.75</v>
+      </c>
+      <c r="U384">
+        <v>2.025</v>
+      </c>
+      <c r="V384">
         <v>1.825</v>
       </c>
-      <c r="V376">
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>6838523</v>
+      </c>
+      <c r="C385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45347.34375</v>
+      </c>
+      <c r="F385" t="s">
+        <v>37</v>
+      </c>
+      <c r="G385" t="s">
+        <v>42</v>
+      </c>
+      <c r="K385">
+        <v>2.25</v>
+      </c>
+      <c r="L385">
+        <v>3.8</v>
+      </c>
+      <c r="M385">
+        <v>2.8</v>
+      </c>
+      <c r="N385">
+        <v>2.05</v>
+      </c>
+      <c r="O385">
+        <v>4</v>
+      </c>
+      <c r="P385">
+        <v>3.1</v>
+      </c>
+      <c r="Q385">
+        <v>-0.25</v>
+      </c>
+      <c r="R385">
+        <v>1.86</v>
+      </c>
+      <c r="S385">
+        <v>2.04</v>
+      </c>
+      <c r="T385">
+        <v>2.75</v>
+      </c>
+      <c r="U385">
+        <v>1.975</v>
+      </c>
+      <c r="V385">
+        <v>1.875</v>
+      </c>
+      <c r="W385">
+        <v>0</v>
+      </c>
+      <c r="X385">
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <v>0</v>
+      </c>
+      <c r="Z385">
+        <v>0</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>6838524</v>
+      </c>
+      <c r="C386" t="s">
+        <v>28</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45347.4375</v>
+      </c>
+      <c r="F386" t="s">
+        <v>29</v>
+      </c>
+      <c r="G386" t="s">
+        <v>43</v>
+      </c>
+      <c r="K386">
+        <v>1.4</v>
+      </c>
+      <c r="L386">
+        <v>4.8</v>
+      </c>
+      <c r="M386">
+        <v>7</v>
+      </c>
+      <c r="N386">
+        <v>1.5</v>
+      </c>
+      <c r="O386">
+        <v>4.5</v>
+      </c>
+      <c r="P386">
+        <v>5.75</v>
+      </c>
+      <c r="Q386">
+        <v>-1</v>
+      </c>
+      <c r="R386">
+        <v>1.82</v>
+      </c>
+      <c r="S386">
+        <v>2.08</v>
+      </c>
+      <c r="T386">
+        <v>3</v>
+      </c>
+      <c r="U386">
         <v>2.025</v>
       </c>
-      <c r="W376">
+      <c r="V386">
+        <v>1.825</v>
+      </c>
+      <c r="W386">
         <v>0</v>
       </c>
-      <c r="X376">
+      <c r="X386">
         <v>0</v>
       </c>
-      <c r="Y376">
+      <c r="Y386">
         <v>0</v>
       </c>
-      <c r="Z376">
+      <c r="Z386">
         <v>0</v>
       </c>
-      <c r="AA376">
+      <c r="AA386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>6838521</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45347.4375</v>
+      </c>
+      <c r="F387" t="s">
+        <v>48</v>
+      </c>
+      <c r="G387" t="s">
+        <v>46</v>
+      </c>
+      <c r="K387">
+        <v>8.5</v>
+      </c>
+      <c r="L387">
+        <v>5.6</v>
+      </c>
+      <c r="M387">
+        <v>1.3</v>
+      </c>
+      <c r="N387">
+        <v>9</v>
+      </c>
+      <c r="O387">
+        <v>5.5</v>
+      </c>
+      <c r="P387">
+        <v>1.3</v>
+      </c>
+      <c r="Q387">
+        <v>1.5</v>
+      </c>
+      <c r="R387">
+        <v>2.04</v>
+      </c>
+      <c r="S387">
+        <v>1.86</v>
+      </c>
+      <c r="T387">
+        <v>3</v>
+      </c>
+      <c r="U387">
+        <v>1.875</v>
+      </c>
+      <c r="V387">
+        <v>1.975</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>6838522</v>
+      </c>
+      <c r="C388" t="s">
+        <v>28</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45347.53125</v>
+      </c>
+      <c r="F388" t="s">
+        <v>31</v>
+      </c>
+      <c r="G388" t="s">
+        <v>41</v>
+      </c>
+      <c r="K388">
+        <v>2.25</v>
+      </c>
+      <c r="L388">
+        <v>3.8</v>
+      </c>
+      <c r="M388">
+        <v>2.8</v>
+      </c>
+      <c r="N388">
+        <v>2.15</v>
+      </c>
+      <c r="O388">
+        <v>3.75</v>
+      </c>
+      <c r="P388">
+        <v>3</v>
+      </c>
+      <c r="Q388">
+        <v>-0.25</v>
+      </c>
+      <c r="R388">
+        <v>1.97</v>
+      </c>
+      <c r="S388">
+        <v>1.93</v>
+      </c>
+      <c r="T388">
+        <v>3</v>
+      </c>
+      <c r="U388">
+        <v>1.975</v>
+      </c>
+      <c r="V388">
+        <v>1.875</v>
+      </c>
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>6838526</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45347.66666666666</v>
+      </c>
+      <c r="F389" t="s">
+        <v>38</v>
+      </c>
+      <c r="G389" t="s">
+        <v>39</v>
+      </c>
+      <c r="K389">
+        <v>4</v>
+      </c>
+      <c r="L389">
+        <v>4.1</v>
+      </c>
+      <c r="M389">
+        <v>1.75</v>
+      </c>
+      <c r="N389">
+        <v>3.6</v>
+      </c>
+      <c r="O389">
+        <v>4</v>
+      </c>
+      <c r="P389">
+        <v>1.85</v>
+      </c>
+      <c r="Q389">
+        <v>0.5</v>
+      </c>
+      <c r="R389">
+        <v>2.04</v>
+      </c>
+      <c r="S389">
+        <v>1.86</v>
+      </c>
+      <c r="T389">
+        <v>2.75</v>
+      </c>
+      <c r="U389">
+        <v>1.8</v>
+      </c>
+      <c r="V389">
+        <v>2.05</v>
+      </c>
+      <c r="W389">
+        <v>0</v>
+      </c>
+      <c r="X389">
+        <v>0</v>
+      </c>
+      <c r="Y389">
+        <v>0</v>
+      </c>
+      <c r="Z389">
+        <v>0</v>
+      </c>
+      <c r="AA389">
         <v>0</v>
       </c>
     </row>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -130,10 +130,10 @@
     <t>Excelsior</t>
   </si>
   <si>
-    <t>FC Volendam</t>
+    <t>Heerenveen</t>
   </si>
   <si>
-    <t>Heerenveen</t>
+    <t>FC Volendam</t>
   </si>
   <si>
     <t>Ajax</t>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1.85</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2.025</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
       <c r="W11">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.825</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,58 +1904,58 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2.05</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>2.025</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.4</v>
+      </c>
+      <c r="AA16">
+        <v>-0.5</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1993,58 +1993,58 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2248,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5159843</v>
+        <v>5159844</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q22">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
+        <v>1.76</v>
+      </c>
+      <c r="S22">
+        <v>2.155</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.825</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>2.025</v>
       </c>
-      <c r="T22">
-        <v>3.25</v>
-      </c>
-      <c r="U22">
-        <v>2.025</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>1.155</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5159844</v>
+        <v>5159843</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>-1.5</v>
+      </c>
+      <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
         <v>3.25</v>
       </c>
-      <c r="P23">
-        <v>2.45</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.76</v>
-      </c>
-      <c r="S23">
-        <v>2.155</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.155</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2601,7 +2601,7 @@
         <v>44948.34375</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5159848</v>
+        <v>5159847</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,76 +2690,76 @@
         <v>44948.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N25">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P25">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5159847</v>
+        <v>5159848</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,76 +2779,76 @@
         <v>44948.4375</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>3.25</v>
+      </c>
+      <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
+        <v>2.05</v>
+      </c>
+      <c r="N26">
+        <v>2.45</v>
+      </c>
+      <c r="O26">
+        <v>3.6</v>
+      </c>
+      <c r="P26">
+        <v>2.75</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>1.727</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>4.333</v>
-      </c>
-      <c r="N26">
-        <v>1.615</v>
-      </c>
-      <c r="O26">
-        <v>4.2</v>
-      </c>
-      <c r="P26">
-        <v>5.25</v>
-      </c>
-      <c r="Q26">
-        <v>-1</v>
-      </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
         <v>2</v>
-      </c>
-      <c r="N30">
-        <v>4.2</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
-      <c r="P30">
-        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.825</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
       </c>
-      <c r="S31">
-        <v>2.025</v>
-      </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.825</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3316,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3672,7 +3672,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4381,7 +4381,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4737,7 +4737,7 @@
         <v>44961.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5159863</v>
+        <v>5159385</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,76 +4826,76 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.4125</v>
+        <v>0.3625</v>
       </c>
       <c r="AA49">
         <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5159385</v>
+        <v>5159863</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,76 +4915,76 @@
         <v>44961.66666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P50">
+        <v>5.25</v>
+      </c>
+      <c r="Q50">
+        <v>-0.75</v>
+      </c>
+      <c r="R50">
+        <v>1.825</v>
+      </c>
+      <c r="S50">
+        <v>2.025</v>
+      </c>
+      <c r="T50">
         <v>2.5</v>
       </c>
-      <c r="Q50">
-        <v>0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.725</v>
-      </c>
-      <c r="S50">
-        <v>2.075</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.3625</v>
+        <v>0.4125</v>
       </c>
       <c r="AA50">
         <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5159866</v>
+        <v>5159865</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,76 +5182,76 @@
         <v>44962.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>2.15</v>
+      </c>
+      <c r="L53">
+        <v>3.6</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
         <v>2.375</v>
-      </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>2.75</v>
-      </c>
-      <c r="N53">
-        <v>2.5</v>
       </c>
       <c r="O53">
         <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>2.07</v>
+      </c>
+      <c r="S53">
+        <v>1.83</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>2.025</v>
+      </c>
+      <c r="V53">
         <v>1.825</v>
       </c>
-      <c r="S53">
-        <v>2.025</v>
-      </c>
-      <c r="T53">
-        <v>2.25</v>
-      </c>
-      <c r="U53">
-        <v>1.8</v>
-      </c>
-      <c r="V53">
-        <v>2.05</v>
-      </c>
       <c r="W53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5159865</v>
+        <v>5159866</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,76 +5271,76 @@
         <v>44962.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N54">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O54">
         <v>3.4</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.07</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5159868</v>
+        <v>5159387</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,58 +6072,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>50</v>
       </c>
       <c r="K63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N63">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.96</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.94</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
       <c r="W63">
-        <v>0.1419999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6132,16 +6132,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.96</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
         <v>-0.5</v>
       </c>
-      <c r="AA63">
-        <v>0.4875</v>
-      </c>
-      <c r="AB63">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5159387</v>
+        <v>5159868</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,58 +6161,58 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>50</v>
       </c>
       <c r="K64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="P64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R64">
-        <v>1.96</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.94</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U64">
+        <v>1.85</v>
+      </c>
+      <c r="V64">
         <v>2</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>0.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6221,16 +6221,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6339,7 +6339,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5159875</v>
+        <v>5159877</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,76 +6695,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
+        <v>2.15</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
         <v>1.95</v>
       </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5159877</v>
+        <v>5159875</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N71">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7229,7 +7229,7 @@
         <v>44982.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7410,7 +7410,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7573,7 +7573,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5159390</v>
+        <v>5159885</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7585,76 +7585,76 @@
         <v>44983.4375</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M80">
+        <v>1.5</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>1.444</v>
+      </c>
+      <c r="Q80">
+        <v>1.25</v>
+      </c>
+      <c r="R80">
+        <v>1.925</v>
+      </c>
+      <c r="S80">
+        <v>1.925</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="N80">
-        <v>2.5</v>
-      </c>
-      <c r="O80">
-        <v>3.1</v>
-      </c>
-      <c r="P80">
-        <v>3.1</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2.1</v>
-      </c>
-      <c r="S80">
-        <v>1.775</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z80">
+        <v>0.4625</v>
+      </c>
+      <c r="AA80">
         <v>-0.5</v>
       </c>
-      <c r="AA80">
-        <v>0.3875</v>
-      </c>
       <c r="AB80">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5159885</v>
+        <v>5159390</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,76 +7674,76 @@
         <v>44983.4375</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5159888</v>
+        <v>5159892</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,55 +7852,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
         <v>-1</v>
@@ -7918,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5159892</v>
+        <v>5159888</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,55 +7941,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>4.75</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>44989.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -8211,7 +8211,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>44997.4375</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>40</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9724,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10703,7 +10703,7 @@
         <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s">
         <v>39</v>
-      </c>
-      <c r="G122" t="s">
-        <v>38</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12124,7 +12124,7 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12658,7 +12658,7 @@
         <v>45037.625</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12747,7 +12747,7 @@
         <v>45038.57291666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -13373,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,41 +13563,41 @@
         <v>52</v>
       </c>
       <c r="K147">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
+        <v>1.025</v>
+      </c>
+      <c r="AB147">
         <v>0.95</v>
       </c>
-      <c r="AB147">
-        <v>0</v>
-      </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,40 +13652,40 @@
         <v>52</v>
       </c>
       <c r="K148">
+        <v>4.2</v>
+      </c>
+      <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>4.2</v>
+      </c>
+      <c r="O148">
+        <v>4.333</v>
+      </c>
+      <c r="P148">
+        <v>1.75</v>
+      </c>
+      <c r="Q148">
+        <v>0.75</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
         <v>2</v>
       </c>
-      <c r="L148">
-        <v>3.4</v>
-      </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>2.1</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>3.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14260,7 +14260,7 @@
         <v>45059.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
         <v>41</v>
@@ -14349,7 +14349,7 @@
         <v>45059.625</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5499720</v>
+        <v>5499718</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,13 +14883,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -14898,43 +14898,43 @@
         <v>50</v>
       </c>
       <c r="K162">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L162">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N162">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P162">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,13 +14943,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.06</v>
+        <v>0.4375</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5499719</v>
+        <v>5498582</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,76 +14972,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>50</v>
+      </c>
+      <c r="K163">
+        <v>2.05</v>
+      </c>
+      <c r="L163">
+        <v>3.5</v>
+      </c>
+      <c r="M163">
+        <v>3.4</v>
+      </c>
+      <c r="N163">
+        <v>1.909</v>
+      </c>
+      <c r="O163">
+        <v>3.8</v>
+      </c>
+      <c r="P163">
+        <v>3.8</v>
+      </c>
+      <c r="Q163">
+        <v>-0.5</v>
+      </c>
+      <c r="R163">
+        <v>1.94</v>
+      </c>
+      <c r="S163">
+        <v>1.96</v>
+      </c>
+      <c r="T163">
         <v>3</v>
       </c>
-      <c r="J163" t="s">
-        <v>52</v>
-      </c>
-      <c r="K163">
-        <v>6</v>
-      </c>
-      <c r="L163">
-        <v>4.75</v>
-      </c>
-      <c r="M163">
-        <v>1.444</v>
-      </c>
-      <c r="N163">
-        <v>6.5</v>
-      </c>
-      <c r="O163">
-        <v>4.75</v>
-      </c>
-      <c r="P163">
-        <v>1.45</v>
-      </c>
-      <c r="Q163">
-        <v>1.25</v>
-      </c>
-      <c r="R163">
-        <v>1.875</v>
-      </c>
-      <c r="S163">
-        <v>1.975</v>
-      </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499718</v>
+        <v>5499720</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,13 +15061,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -15076,43 +15076,43 @@
         <v>50</v>
       </c>
       <c r="K164">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="N164">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q164">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T164">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15121,13 +15121,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4375</v>
+        <v>1.06</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499721</v>
+        <v>5499719</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165" t="s">
+        <v>52</v>
+      </c>
+      <c r="K165">
         <v>6</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165" t="s">
-        <v>50</v>
-      </c>
-      <c r="K165">
+      <c r="L165">
+        <v>4.75</v>
+      </c>
+      <c r="M165">
         <v>1.444</v>
       </c>
-      <c r="L165">
-        <v>4.5</v>
-      </c>
-      <c r="M165">
+      <c r="N165">
         <v>6.5</v>
       </c>
-      <c r="N165">
-        <v>1.444</v>
-      </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P165">
-        <v>7.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
         <v>1.975</v>
       </c>
-      <c r="S165">
-        <v>1.875</v>
-      </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
+        <v>2.05</v>
+      </c>
+      <c r="V165">
         <v>1.8</v>
       </c>
-      <c r="V165">
-        <v>2.05</v>
-      </c>
       <c r="W165">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5498582</v>
+        <v>5505055</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,10 +15239,10 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15254,43 +15254,43 @@
         <v>50</v>
       </c>
       <c r="K166">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M166">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="S166">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,7 +15299,7 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA166">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5505055</v>
+        <v>5499491</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,7 +15328,7 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15337,67 +15337,67 @@
         <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K167">
+        <v>1.25</v>
+      </c>
+      <c r="L167">
+        <v>6</v>
+      </c>
+      <c r="M167">
+        <v>11</v>
+      </c>
+      <c r="N167">
+        <v>1.181</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>13</v>
+      </c>
+      <c r="Q167">
+        <v>-2.25</v>
+      </c>
+      <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="L167">
-        <v>3.8</v>
-      </c>
-      <c r="M167">
-        <v>4</v>
-      </c>
-      <c r="N167">
-        <v>1.75</v>
-      </c>
-      <c r="O167">
-        <v>4.2</v>
-      </c>
-      <c r="P167">
-        <v>4</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
-      <c r="R167">
-        <v>1.97</v>
-      </c>
-      <c r="S167">
-        <v>1.93</v>
-      </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499491</v>
+        <v>5499721</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,73 +15595,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M170">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="N170">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="O170">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P170">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q170">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.8</v>
+      </c>
+      <c r="V170">
         <v>2.05</v>
       </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>3.75</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>1.875</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X170">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>0.8</v>
-      </c>
-      <c r="AB170">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5539941</v>
+        <v>5702299</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>52</v>
       </c>
       <c r="K171">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L171">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U171">
+        <v>2.05</v>
+      </c>
+      <c r="V171">
+        <v>1.8</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
         <v>1.9</v>
       </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>5.5</v>
-      </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5539940</v>
+        <v>5541489</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,58 +15773,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>50</v>
       </c>
       <c r="K172">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P172">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R172">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
         <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15833,13 +15833,13 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5559912</v>
+        <v>5541488</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,76 +15862,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P173">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T173">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5541489</v>
+        <v>5559912</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,58 +15951,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>50</v>
       </c>
       <c r="K174">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="N174">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="Q174">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>3.5</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>0.2849999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16011,13 +16011,13 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5535270</v>
+        <v>5559913</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,49 +16040,49 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P175">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
         <v>1.95</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U175">
         <v>1.85</v>
@@ -16091,19 +16091,19 @@
         <v>2</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB175">
         <v>0.8500000000000001</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5539306</v>
+        <v>5539940</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,13 +16129,13 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16144,44 +16144,44 @@
         <v>50</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
         <v>3.8</v>
       </c>
       <c r="M176">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O176">
         <v>3.8</v>
       </c>
       <c r="P176">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
+        <v>1.92</v>
+      </c>
+      <c r="S176">
+        <v>1.98</v>
+      </c>
+      <c r="T176">
+        <v>3.5</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.875</v>
+      </c>
+      <c r="W176">
         <v>2</v>
       </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>1.05</v>
-      </c>
       <c r="X176">
         <v>-1</v>
       </c>
@@ -16189,16 +16189,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5541488</v>
+        <v>5539306</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M177">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N177">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
         <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
         <v>1.85</v>
       </c>
-      <c r="V177">
-        <v>2</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5702299</v>
+        <v>5535270</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,55 +16307,55 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J178" t="s">
         <v>52</v>
       </c>
       <c r="K178">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
         <v>3.6</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16364,19 +16364,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5559913</v>
+        <v>5539941</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N179">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P179">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.925</v>
+      </c>
+      <c r="T179">
+        <v>3.75</v>
+      </c>
+      <c r="U179">
+        <v>1.9</v>
+      </c>
+      <c r="V179">
         <v>1.95</v>
       </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>3.5</v>
-      </c>
-      <c r="U179">
-        <v>1.85</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
       <c r="W179">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z179">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>45078.57291666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16666,7 +16666,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -17019,7 +17019,7 @@
         <v>45149.625</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17197,7 +17197,7 @@
         <v>45150.57291666666</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>8</v>
+      </c>
+      <c r="N192">
+        <v>1.55</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
         <v>6</v>
       </c>
-      <c r="M192">
-        <v>10</v>
-      </c>
-      <c r="N192">
-        <v>1.2</v>
-      </c>
-      <c r="O192">
-        <v>7</v>
-      </c>
-      <c r="P192">
-        <v>17</v>
-      </c>
       <c r="Q192">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X192">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P193">
+        <v>17</v>
+      </c>
+      <c r="Q193">
+        <v>-2.25</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>1.8</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>6</v>
       </c>
-      <c r="Q193">
-        <v>-1</v>
-      </c>
-      <c r="R193">
-        <v>1.9</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
-      <c r="W193">
-        <v>0.55</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18268,7 +18268,7 @@
         <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>45165.48958333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>41</v>
@@ -19247,7 +19247,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19689,7 +19689,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -20048,7 +20048,7 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6838370</v>
+        <v>6838367</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,76 +20401,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X224">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC224">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6838367</v>
+        <v>6838370</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K225">
+        <v>2.1</v>
+      </c>
+      <c r="L225">
         <v>3.6</v>
       </c>
-      <c r="L225">
-        <v>3.75</v>
-      </c>
       <c r="M225">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N225">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W225">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20757,7 +20757,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>49</v>
@@ -21024,7 +21024,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21190,7 +21190,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838383</v>
+        <v>6838384</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21202,76 +21202,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F233" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K233">
+        <v>3.8</v>
+      </c>
+      <c r="L233">
+        <v>4</v>
+      </c>
+      <c r="M233">
+        <v>1.8</v>
+      </c>
+      <c r="N233">
         <v>4.333</v>
       </c>
-      <c r="L233">
-        <v>4.2</v>
-      </c>
-      <c r="M233">
-        <v>1.666</v>
-      </c>
-      <c r="N233">
-        <v>6</v>
-      </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC233">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21279,7 +21279,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838384</v>
+        <v>6838383</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21291,76 +21291,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
-        <v>3</v>
-      </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K234">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M234">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N234">
+        <v>6</v>
+      </c>
+      <c r="O234">
         <v>4.333</v>
       </c>
-      <c r="O234">
-        <v>4</v>
-      </c>
       <c r="P234">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q234">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21739,7 +21739,7 @@
         <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21917,7 +21917,7 @@
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6838392</v>
+        <v>6838391</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,10 +22092,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22107,43 +22107,43 @@
         <v>50</v>
       </c>
       <c r="K243">
+        <v>3.25</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
         <v>2.1</v>
       </c>
-      <c r="L243">
+      <c r="N243">
+        <v>3.3</v>
+      </c>
+      <c r="O243">
         <v>3.4</v>
       </c>
-      <c r="M243">
-        <v>3.4</v>
-      </c>
-      <c r="N243">
-        <v>2.375</v>
-      </c>
-      <c r="O243">
-        <v>3.5</v>
-      </c>
       <c r="P243">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S243">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V243">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W243">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>1.07</v>
+        <v>0.925</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22169,7 +22169,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838391</v>
+        <v>6838392</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,10 +22181,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G244" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22196,43 +22196,43 @@
         <v>50</v>
       </c>
       <c r="K244">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L244">
+        <v>3.4</v>
+      </c>
+      <c r="M244">
+        <v>3.4</v>
+      </c>
+      <c r="N244">
+        <v>2.375</v>
+      </c>
+      <c r="O244">
         <v>3.5</v>
       </c>
-      <c r="M244">
-        <v>2.1</v>
-      </c>
-      <c r="N244">
-        <v>3.3</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
       <c r="P244">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22241,16 +22241,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.925</v>
+        <v>1.07</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22359,7 +22359,7 @@
         <v>45205.625</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
         <v>34</v>
@@ -22448,7 +22448,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -23163,7 +23163,7 @@
         <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L258">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M258">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N258">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O258">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P258">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q258">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T258">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V258">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W258">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L259">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M259">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N259">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R259">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W259">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -24050,7 +24050,7 @@
         <v>45227.57291666666</v>
       </c>
       <c r="F265" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,58 +24495,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F270" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
         <v>50</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M270">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N270">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O270">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P270">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R270">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T270">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24555,13 +24555,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,58 +24584,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H271">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M271">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N271">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O271">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P271">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q271">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S271">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T271">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24644,13 +24644,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24676,7 +24676,7 @@
         <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25299,7 +25299,7 @@
         <v>35</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H280">
+        <v>4</v>
+      </c>
+      <c r="I280">
         <v>1</v>
       </c>
-      <c r="I280">
+      <c r="J280" t="s">
+        <v>50</v>
+      </c>
+      <c r="K280">
+        <v>1.444</v>
+      </c>
+      <c r="L280">
+        <v>4.6</v>
+      </c>
+      <c r="M280">
+        <v>5.5</v>
+      </c>
+      <c r="N280">
+        <v>1.4</v>
+      </c>
+      <c r="O280">
+        <v>5.25</v>
+      </c>
+      <c r="P280">
+        <v>7</v>
+      </c>
+      <c r="Q280">
+        <v>-1.5</v>
+      </c>
+      <c r="R280">
         <v>2</v>
       </c>
-      <c r="J280" t="s">
-        <v>52</v>
-      </c>
-      <c r="K280">
-        <v>2.15</v>
-      </c>
-      <c r="L280">
-        <v>3.4</v>
-      </c>
-      <c r="M280">
-        <v>3</v>
-      </c>
-      <c r="N280">
-        <v>1.7</v>
-      </c>
-      <c r="O280">
-        <v>4</v>
-      </c>
-      <c r="P280">
-        <v>4.75</v>
-      </c>
-      <c r="Q280">
-        <v>-0.75</v>
-      </c>
-      <c r="R280">
-        <v>1.9</v>
-      </c>
       <c r="S280">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U280">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V280">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA280">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>52</v>
+      </c>
+      <c r="K281">
+        <v>2.15</v>
+      </c>
+      <c r="L281">
+        <v>3.4</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>1.7</v>
+      </c>
+      <c r="O281">
         <v>4</v>
       </c>
-      <c r="I281">
-        <v>1</v>
-      </c>
-      <c r="J281" t="s">
-        <v>50</v>
-      </c>
-      <c r="K281">
-        <v>1.444</v>
-      </c>
-      <c r="L281">
-        <v>4.6</v>
-      </c>
-      <c r="M281">
-        <v>5.5</v>
-      </c>
-      <c r="N281">
-        <v>1.4</v>
-      </c>
-      <c r="O281">
-        <v>5.25</v>
-      </c>
       <c r="P281">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q281">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R281">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB281">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25833,7 +25833,7 @@
         <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26008,7 +26008,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G287" t="s">
         <v>41</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H292">
+        <v>3</v>
+      </c>
+      <c r="I292">
         <v>0</v>
       </c>
-      <c r="I292">
-        <v>3</v>
-      </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L292">
         <v>3.75</v>
       </c>
       <c r="M292">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N292">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
+        <v>3.8</v>
+      </c>
+      <c r="Q292">
+        <v>-0.5</v>
+      </c>
+      <c r="R292">
+        <v>1.975</v>
+      </c>
+      <c r="S292">
+        <v>1.875</v>
+      </c>
+      <c r="T292">
+        <v>2.5</v>
+      </c>
+      <c r="U292">
         <v>2</v>
       </c>
-      <c r="Q292">
-        <v>0.5</v>
-      </c>
-      <c r="R292">
-        <v>1.825</v>
-      </c>
-      <c r="S292">
-        <v>2.025</v>
-      </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
-      <c r="U292">
-        <v>2.025</v>
-      </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
+        <v>-1</v>
+      </c>
+      <c r="Z292">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA292">
+        <v>-1</v>
+      </c>
+      <c r="AB292">
         <v>1</v>
       </c>
-      <c r="Z292">
-        <v>-1</v>
-      </c>
-      <c r="AA292">
-        <v>1.025</v>
-      </c>
-      <c r="AB292">
-        <v>0</v>
-      </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
         <v>3</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L293">
         <v>3.75</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N293">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z293">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26619,7 +26619,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26631,76 +26631,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G294" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K294">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M294">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N294">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R294">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U294">
+        <v>1.95</v>
+      </c>
+      <c r="V294">
         <v>1.9</v>
       </c>
-      <c r="V294">
-        <v>1.95</v>
-      </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26708,7 +26708,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26720,76 +26720,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K295">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N295">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O295">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P295">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q295">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S295">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
+        <v>1.9</v>
+      </c>
+      <c r="V295">
         <v>1.95</v>
       </c>
-      <c r="V295">
-        <v>1.9</v>
-      </c>
       <c r="W295">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB295">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26901,7 +26901,7 @@
         <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H297">
         <v>3</v>
@@ -27165,7 +27165,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27254,7 +27254,7 @@
         <v>45262.61458333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
         <v>47</v>
@@ -27331,7 +27331,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27343,73 +27343,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G302" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K302">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L302">
+        <v>3.7</v>
+      </c>
+      <c r="M302">
+        <v>3.1</v>
+      </c>
+      <c r="N302">
+        <v>1.95</v>
+      </c>
+      <c r="O302">
+        <v>3.8</v>
+      </c>
+      <c r="P302">
         <v>3.5</v>
-      </c>
-      <c r="M302">
-        <v>3.4</v>
-      </c>
-      <c r="N302">
-        <v>2</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>3.6</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB302">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27432,73 +27432,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>50</v>
+      </c>
+      <c r="K303">
         <v>2</v>
       </c>
-      <c r="I303">
+      <c r="L303">
+        <v>3.5</v>
+      </c>
+      <c r="M303">
+        <v>3.4</v>
+      </c>
+      <c r="N303">
         <v>2</v>
       </c>
-      <c r="J303" t="s">
-        <v>51</v>
-      </c>
-      <c r="K303">
-        <v>2.05</v>
-      </c>
-      <c r="L303">
-        <v>3.7</v>
-      </c>
-      <c r="M303">
-        <v>3.1</v>
-      </c>
-      <c r="N303">
-        <v>1.95</v>
-      </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X303">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA303">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6838450</v>
+        <v>6838451</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,55 +27699,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J306" t="s">
         <v>52</v>
       </c>
       <c r="K306">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L306">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M306">
         <v>1.75</v>
       </c>
       <c r="N306">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P306">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q306">
         <v>0.5</v>
       </c>
       <c r="R306">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S306">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27756,19 +27756,19 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC306">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27776,7 +27776,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838451</v>
+        <v>6838450</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27788,55 +27788,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F307" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>52</v>
       </c>
       <c r="K307">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L307">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M307">
         <v>1.75</v>
       </c>
       <c r="N307">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P307">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q307">
         <v>0.5</v>
       </c>
       <c r="R307">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S307">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U307">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27845,19 +27845,19 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB307">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27969,7 +27969,7 @@
         <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28058,7 +28058,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -29034,10 +29034,10 @@
         <v>45276.70833333334</v>
       </c>
       <c r="F321" t="s">
+        <v>38</v>
+      </c>
+      <c r="G321" t="s">
         <v>39</v>
-      </c>
-      <c r="G321" t="s">
-        <v>38</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29200,7 +29200,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6838467</v>
+        <v>6838466</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29212,73 +29212,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F323" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="L323">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="N323">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="O323">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q323">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R323">
+        <v>2.04</v>
+      </c>
+      <c r="S323">
+        <v>1.86</v>
+      </c>
+      <c r="T323">
+        <v>2.5</v>
+      </c>
+      <c r="U323">
+        <v>1.875</v>
+      </c>
+      <c r="V323">
         <v>1.975</v>
       </c>
-      <c r="S323">
-        <v>1.875</v>
-      </c>
-      <c r="T323">
-        <v>3.5</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.95</v>
-      </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y323">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA323">
+        <v>-1</v>
+      </c>
+      <c r="AB323">
         <v>0.875</v>
-      </c>
-      <c r="AB323">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29289,7 +29289,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6838466</v>
+        <v>6838467</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29301,73 +29301,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F324" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G324" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+      <c r="J324" t="s">
+        <v>52</v>
+      </c>
+      <c r="K324">
+        <v>10</v>
+      </c>
+      <c r="L324">
+        <v>6</v>
+      </c>
+      <c r="M324">
+        <v>1.25</v>
+      </c>
+      <c r="N324">
+        <v>13</v>
+      </c>
+      <c r="O324">
+        <v>7</v>
+      </c>
+      <c r="P324">
+        <v>1.2</v>
+      </c>
+      <c r="Q324">
         <v>2</v>
       </c>
-      <c r="I324">
-        <v>2</v>
-      </c>
-      <c r="J324" t="s">
-        <v>51</v>
-      </c>
-      <c r="K324">
-        <v>4.2</v>
-      </c>
-      <c r="L324">
-        <v>3.75</v>
-      </c>
-      <c r="M324">
-        <v>1.8</v>
-      </c>
-      <c r="N324">
-        <v>4.2</v>
-      </c>
-      <c r="O324">
-        <v>3.6</v>
-      </c>
-      <c r="P324">
-        <v>1.85</v>
-      </c>
-      <c r="Q324">
-        <v>0.5</v>
-      </c>
       <c r="R324">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="S324">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U324">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z324">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB324">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC324">
         <v>-1</v>
@@ -29838,7 +29838,7 @@
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30013,7 +30013,7 @@
         <v>45305.34375</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
         <v>48</v>
@@ -30372,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30550,7 +30550,7 @@
         <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,76 +31259,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F346" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L346">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N346">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O346">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P346">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q346">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31336,7 +31336,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31348,76 +31348,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L347">
+        <v>9.5</v>
+      </c>
+      <c r="M347">
+        <v>19</v>
+      </c>
+      <c r="N347">
+        <v>1.1</v>
+      </c>
+      <c r="O347">
+        <v>10</v>
+      </c>
+      <c r="P347">
+        <v>23</v>
+      </c>
+      <c r="Q347">
+        <v>-2.5</v>
+      </c>
+      <c r="R347">
+        <v>1.9</v>
+      </c>
+      <c r="S347">
+        <v>1.95</v>
+      </c>
+      <c r="T347">
         <v>3.75</v>
       </c>
-      <c r="M347">
-        <v>2.1</v>
-      </c>
-      <c r="N347">
-        <v>2.3</v>
-      </c>
-      <c r="O347">
-        <v>3.75</v>
-      </c>
-      <c r="P347">
-        <v>2.8</v>
-      </c>
-      <c r="Q347">
-        <v>-0.25</v>
-      </c>
-      <c r="R347">
+      <c r="U347">
         <v>2.025</v>
       </c>
-      <c r="S347">
+      <c r="V347">
         <v>1.825</v>
       </c>
-      <c r="T347">
-        <v>2.5</v>
-      </c>
-      <c r="U347">
-        <v>1.975</v>
-      </c>
-      <c r="V347">
-        <v>1.875</v>
-      </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X347">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31615,7 +31615,7 @@
         <v>45319.34375</v>
       </c>
       <c r="F350" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31882,7 +31882,7 @@
         <v>45319.53125</v>
       </c>
       <c r="F353" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
@@ -32152,7 +32152,7 @@
         <v>32</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H356">
         <v>3</v>
@@ -32508,7 +32508,7 @@
         <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H360">
         <v>4</v>
@@ -33205,7 +33205,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838511</v>
+        <v>6838506</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33217,58 +33217,58 @@
         <v>45333.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>50</v>
       </c>
       <c r="K368">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L368">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M368">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N368">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O368">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P368">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q368">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R368">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S368">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T368">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U368">
+        <v>1.95</v>
+      </c>
+      <c r="V368">
         <v>1.9</v>
       </c>
-      <c r="V368">
-        <v>1.95</v>
-      </c>
       <c r="W368">
-        <v>2.5</v>
+        <v>0.615</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33277,13 +33277,13 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33294,7 +33294,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>6838506</v>
+        <v>6838511</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33306,59 +33306,59 @@
         <v>45333.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G369" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H369">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J369" t="s">
         <v>50</v>
       </c>
       <c r="K369">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L369">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M369">
+        <v>1.571</v>
+      </c>
+      <c r="N369">
         <v>3.5</v>
       </c>
-      <c r="N369">
-        <v>1.615</v>
-      </c>
       <c r="O369">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P369">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q369">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R369">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S369">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T369">
+        <v>3.25</v>
+      </c>
+      <c r="U369">
+        <v>1.9</v>
+      </c>
+      <c r="V369">
+        <v>1.95</v>
+      </c>
+      <c r="W369">
         <v>2.5</v>
       </c>
-      <c r="U369">
-        <v>1.95</v>
-      </c>
-      <c r="V369">
-        <v>1.9</v>
-      </c>
-      <c r="W369">
-        <v>0.615</v>
-      </c>
       <c r="X369">
         <v>-1</v>
       </c>
@@ -33366,13 +33366,13 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33395,7 +33395,7 @@
         <v>45333.53125</v>
       </c>
       <c r="F370" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G370" t="s">
         <v>33</v>
@@ -33828,7 +33828,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6838518</v>
+        <v>6838516</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33840,56 +33840,56 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G375" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H375">
         <v>0</v>
       </c>
       <c r="I375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
         <v>52</v>
       </c>
       <c r="K375">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L375">
         <v>3.5</v>
       </c>
       <c r="M375">
+        <v>3.3</v>
+      </c>
+      <c r="N375">
+        <v>2.2</v>
+      </c>
+      <c r="O375">
         <v>3.5</v>
       </c>
-      <c r="N375">
-        <v>1.909</v>
-      </c>
-      <c r="O375">
-        <v>3.6</v>
-      </c>
       <c r="P375">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q375">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R375">
+        <v>1.925</v>
+      </c>
+      <c r="S375">
+        <v>1.925</v>
+      </c>
+      <c r="T375">
+        <v>2.5</v>
+      </c>
+      <c r="U375">
+        <v>1.9</v>
+      </c>
+      <c r="V375">
         <v>1.95</v>
       </c>
-      <c r="S375">
-        <v>1.9</v>
-      </c>
-      <c r="T375">
-        <v>2.75</v>
-      </c>
-      <c r="U375">
-        <v>2</v>
-      </c>
-      <c r="V375">
-        <v>1.85</v>
-      </c>
       <c r="W375">
         <v>-1</v>
       </c>
@@ -33897,19 +33897,19 @@
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB375">
         <v>-1</v>
       </c>
       <c r="AC375">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6838516</v>
+        <v>6838518</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,55 +33929,55 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H376">
         <v>0</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
         <v>52</v>
       </c>
       <c r="K376">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L376">
         <v>3.5</v>
       </c>
       <c r="M376">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N376">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O376">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P376">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q376">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R376">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U376">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V376">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W376">
         <v>-1</v>
@@ -33986,19 +33986,19 @@
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB376">
         <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34199,7 +34199,7 @@
         <v>42</v>
       </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34401,19 +34401,19 @@
         <v>-1.25</v>
       </c>
       <c r="R381">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S381">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T381">
         <v>3</v>
       </c>
       <c r="U381">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V381">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34484,10 +34484,10 @@
         <v>2.5</v>
       </c>
       <c r="U382">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V382">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34632,10 +34632,10 @@
         <v>2.75</v>
       </c>
       <c r="U384">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V384">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34771,10 +34771,10 @@
         <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S386">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="T386">
         <v>3</v>
@@ -34845,10 +34845,10 @@
         <v>1.75</v>
       </c>
       <c r="R387">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S387">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="T387">
         <v>3</v>
@@ -34966,10 +34966,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F389" t="s">
+        <v>39</v>
+      </c>
+      <c r="G389" t="s">
         <v>38</v>
-      </c>
-      <c r="G389" t="s">
-        <v>39</v>
       </c>
       <c r="K389">
         <v>4</v>
@@ -34993,10 +34993,10 @@
         <v>0.75</v>
       </c>
       <c r="R389">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S389">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T389">
         <v>2.75</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,58 +1904,58 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N16">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1993,58 +1993,58 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2.05</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.975</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.4</v>
+      </c>
+      <c r="AA17">
+        <v>-0.5</v>
+      </c>
+      <c r="AB17">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5159847</v>
+        <v>5159848</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,76 +2690,76 @@
         <v>44948.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>3.25</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.05</v>
+      </c>
+      <c r="N25">
+        <v>2.45</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
+        <v>2.75</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>1.727</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>4.333</v>
-      </c>
-      <c r="N25">
-        <v>1.615</v>
-      </c>
-      <c r="O25">
-        <v>4.2</v>
-      </c>
-      <c r="P25">
-        <v>5.25</v>
-      </c>
-      <c r="Q25">
-        <v>-1</v>
-      </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5159848</v>
+        <v>5159847</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,76 +2779,76 @@
         <v>44948.4375</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
         <v>1.825</v>
       </c>
-      <c r="S30">
-        <v>2.025</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>0.825</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
+        <v>2.15</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>3.4</v>
+      </c>
+      <c r="P31">
         <v>2</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
-      <c r="P31">
-        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.825</v>
+      </c>
+      <c r="S31">
         <v>2.025</v>
       </c>
-      <c r="S31">
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
         <v>1.825</v>
       </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.825</v>
-      </c>
-      <c r="AB31">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
+        <v>3.5</v>
+      </c>
+      <c r="M39">
+        <v>3.2</v>
+      </c>
+      <c r="N39">
+        <v>2.2</v>
+      </c>
+      <c r="O39">
+        <v>3.4</v>
+      </c>
+      <c r="P39">
         <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>3.1</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>2.3</v>
+      </c>
+      <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>3.1</v>
+      </c>
+      <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>3.3</v>
+      </c>
+      <c r="P40">
         <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>2.15</v>
-      </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
-      <c r="P40">
-        <v>3.25</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5159592</v>
+        <v>5159383</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,73 +4292,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>2.5</v>
+      </c>
+      <c r="L43">
+        <v>3.4</v>
+      </c>
+      <c r="M43">
+        <v>2.7</v>
+      </c>
+      <c r="N43">
+        <v>2.25</v>
+      </c>
+      <c r="O43">
+        <v>3.5</v>
+      </c>
+      <c r="P43">
+        <v>3.1</v>
+      </c>
+      <c r="Q43">
+        <v>-0.25</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1.85</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
+        <v>1.875</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-      <c r="L43">
-        <v>5.5</v>
-      </c>
-      <c r="M43">
-        <v>1.285</v>
-      </c>
-      <c r="N43">
-        <v>13</v>
-      </c>
-      <c r="O43">
-        <v>7</v>
-      </c>
-      <c r="P43">
-        <v>1.2</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="R43">
-        <v>1.875</v>
-      </c>
-      <c r="S43">
-        <v>1.975</v>
-      </c>
-      <c r="T43">
-        <v>3.5</v>
-      </c>
-      <c r="U43">
-        <v>1.925</v>
-      </c>
-      <c r="V43">
-        <v>1.925</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>0.2</v>
-      </c>
-      <c r="Z43">
-        <v>-1</v>
-      </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB43">
-        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5159383</v>
+        <v>5159592</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,73 +4381,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>5.5</v>
+      </c>
+      <c r="M44">
+        <v>1.285</v>
+      </c>
+      <c r="N44">
+        <v>13</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>1.2</v>
+      </c>
+      <c r="Q44">
         <v>2</v>
       </c>
-      <c r="J44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44">
-        <v>2.5</v>
-      </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>2.7</v>
-      </c>
-      <c r="N44">
-        <v>2.25</v>
-      </c>
-      <c r="O44">
+      <c r="R44">
+        <v>1.875</v>
+      </c>
+      <c r="S44">
+        <v>1.975</v>
+      </c>
+      <c r="T44">
         <v>3.5</v>
       </c>
-      <c r="P44">
-        <v>3.1</v>
-      </c>
-      <c r="Q44">
-        <v>-0.25</v>
-      </c>
-      <c r="R44">
-        <v>2</v>
-      </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5159871</v>
+        <v>5159873</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>2.3</v>
+      </c>
+      <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>2.625</v>
+      </c>
+      <c r="N61">
+        <v>2.55</v>
+      </c>
+      <c r="O61">
+        <v>3.4</v>
+      </c>
+      <c r="P61">
+        <v>2.75</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
         <v>2</v>
       </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61">
-        <v>4.333</v>
-      </c>
-      <c r="L61">
-        <v>3.8</v>
-      </c>
-      <c r="M61">
-        <v>1.727</v>
-      </c>
-      <c r="N61">
-        <v>5.75</v>
-      </c>
-      <c r="O61">
-        <v>4.333</v>
-      </c>
-      <c r="P61">
-        <v>1.533</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>1.9</v>
-      </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5159873</v>
+        <v>5159871</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>2</v>
       </c>
-      <c r="I62">
+      <c r="J62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62">
+        <v>4.333</v>
+      </c>
+      <c r="L62">
+        <v>3.8</v>
+      </c>
+      <c r="M62">
+        <v>1.727</v>
+      </c>
+      <c r="N62">
+        <v>5.75</v>
+      </c>
+      <c r="O62">
+        <v>4.333</v>
+      </c>
+      <c r="P62">
+        <v>1.533</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>1.9</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.975</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62">
-        <v>2.3</v>
-      </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>2.625</v>
-      </c>
-      <c r="N62">
-        <v>2.55</v>
-      </c>
-      <c r="O62">
-        <v>3.4</v>
-      </c>
-      <c r="P62">
-        <v>2.75</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>1.85</v>
-      </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.825</v>
-      </c>
-      <c r="V62">
-        <v>2.025</v>
-      </c>
-      <c r="W62">
-        <v>1.55</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC62">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5159877</v>
+        <v>5159875</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,76 +6695,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5159875</v>
+        <v>5159877</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L71">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
+        <v>2.15</v>
+      </c>
+      <c r="Q71">
+        <v>0.25</v>
+      </c>
+      <c r="R71">
         <v>1.95</v>
       </c>
-      <c r="Q71">
-        <v>0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.85</v>
-      </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X71">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5159892</v>
+        <v>5159888</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,55 +7852,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N83">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.375</v>
+        <v>4.75</v>
       </c>
       <c r="Z83">
         <v>-1</v>
@@ -7918,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5159888</v>
+        <v>5159892</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,55 +7941,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N84">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5159900</v>
+        <v>5159598</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K105">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N105">
+        <v>2.4</v>
+      </c>
+      <c r="O105">
+        <v>3.75</v>
+      </c>
+      <c r="P105">
+        <v>2.7</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <v>1.8</v>
       </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
-      <c r="P105">
-        <v>3.6</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.825</v>
-      </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5159598</v>
+        <v>5159900</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106">
+        <v>1.7</v>
+      </c>
+      <c r="L106">
         <v>4</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>50</v>
-      </c>
-      <c r="K106">
-        <v>2.55</v>
-      </c>
-      <c r="L106">
-        <v>3.5</v>
-      </c>
       <c r="M106">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10688,7 +10688,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5159397</v>
+        <v>5159911</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10700,76 +10700,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N115">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
+        <v>0.8</v>
+      </c>
+      <c r="AB115">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5159911</v>
+        <v>5159397</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>51</v>
+      </c>
+      <c r="K116">
+        <v>1.4</v>
+      </c>
+      <c r="L116">
+        <v>4.75</v>
+      </c>
+      <c r="M116">
+        <v>6.5</v>
+      </c>
+      <c r="N116">
+        <v>1.4</v>
+      </c>
+      <c r="O116">
+        <v>4.75</v>
+      </c>
+      <c r="P116">
+        <v>6.5</v>
+      </c>
+      <c r="Q116">
+        <v>-1.25</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
-        <v>52</v>
-      </c>
-      <c r="K116">
-        <v>5</v>
-      </c>
-      <c r="L116">
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>3.75</v>
       </c>
-      <c r="M116">
-        <v>1.615</v>
-      </c>
-      <c r="N116">
-        <v>7</v>
-      </c>
-      <c r="O116">
-        <v>4.333</v>
-      </c>
-      <c r="P116">
-        <v>1.45</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>2.05</v>
-      </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
       <c r="Y116">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6480586</v>
+        <v>5159600</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45024.625</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>1.083</v>
       </c>
       <c r="L120">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="M120">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="N120">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="O120">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5159600</v>
+        <v>6480586</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,76 +11234,76 @@
         <v>45024.625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K121">
-        <v>1.083</v>
+        <v>1.444</v>
       </c>
       <c r="L121">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="O121">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="P121">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45052.625</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,40 +13563,40 @@
         <v>52</v>
       </c>
       <c r="K147">
+        <v>4.2</v>
+      </c>
+      <c r="L147">
+        <v>3.8</v>
+      </c>
+      <c r="M147">
+        <v>1.75</v>
+      </c>
+      <c r="N147">
+        <v>4.2</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
+        <v>1.75</v>
+      </c>
+      <c r="Q147">
+        <v>0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>2</v>
       </c>
-      <c r="L147">
-        <v>3.4</v>
-      </c>
-      <c r="M147">
-        <v>3.6</v>
-      </c>
-      <c r="N147">
-        <v>2.1</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>3.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45052.625</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,41 +13652,41 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.9</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
         <v>-1</v>
       </c>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
+        <v>1.025</v>
+      </c>
+      <c r="AB148">
         <v>0.95</v>
       </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5427585</v>
+        <v>5423991</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>1.65</v>
+        <v>9</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="N151">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="O151">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P151">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
         <v>1.975</v>
       </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5423991</v>
+        <v>5427585</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="L152">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="O152">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>2.025</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
         <v>1.875</v>
       </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
-      <c r="T152">
-        <v>3.5</v>
-      </c>
-      <c r="U152">
-        <v>1.875</v>
-      </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5499718</v>
+        <v>5498582</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,58 +14883,58 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>50</v>
       </c>
       <c r="K162">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="L162">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M162">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="N162">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O162">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>1.96</v>
       </c>
       <c r="T162">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>0.2849999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.4375</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5498582</v>
+        <v>5499491</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,76 +14972,76 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163">
+        <v>1.25</v>
+      </c>
+      <c r="L163">
+        <v>6</v>
+      </c>
+      <c r="M163">
+        <v>11</v>
+      </c>
+      <c r="N163">
+        <v>1.181</v>
+      </c>
+      <c r="O163">
+        <v>7</v>
+      </c>
+      <c r="P163">
+        <v>13</v>
+      </c>
+      <c r="Q163">
+        <v>-2.25</v>
+      </c>
+      <c r="R163">
         <v>2.05</v>
       </c>
-      <c r="L163">
-        <v>3.5</v>
-      </c>
-      <c r="M163">
-        <v>3.4</v>
-      </c>
-      <c r="N163">
-        <v>1.909</v>
-      </c>
-      <c r="O163">
-        <v>3.8</v>
-      </c>
-      <c r="P163">
-        <v>3.8</v>
-      </c>
-      <c r="Q163">
-        <v>-0.5</v>
-      </c>
-      <c r="R163">
-        <v>1.94</v>
-      </c>
       <c r="S163">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499720</v>
+        <v>5499718</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,13 +15061,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -15076,43 +15076,43 @@
         <v>50</v>
       </c>
       <c r="K164">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M164">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N164">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P164">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R164">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15121,13 +15121,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.06</v>
+        <v>0.4375</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5505055</v>
+        <v>5499721</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,13 +15239,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15254,43 +15254,43 @@
         <v>50</v>
       </c>
       <c r="K166">
+        <v>1.444</v>
+      </c>
+      <c r="L166">
+        <v>4.5</v>
+      </c>
+      <c r="M166">
+        <v>6.5</v>
+      </c>
+      <c r="N166">
+        <v>1.444</v>
+      </c>
+      <c r="O166">
+        <v>4.5</v>
+      </c>
+      <c r="P166">
+        <v>7.5</v>
+      </c>
+      <c r="Q166">
+        <v>-1.25</v>
+      </c>
+      <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.875</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
         <v>1.8</v>
       </c>
-      <c r="L166">
-        <v>3.8</v>
-      </c>
-      <c r="M166">
-        <v>4</v>
-      </c>
-      <c r="N166">
-        <v>1.75</v>
-      </c>
-      <c r="O166">
-        <v>4.2</v>
-      </c>
-      <c r="P166">
-        <v>4</v>
-      </c>
-      <c r="Q166">
-        <v>-0.75</v>
-      </c>
-      <c r="R166">
-        <v>1.97</v>
-      </c>
-      <c r="S166">
-        <v>1.93</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
       <c r="V166">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W166">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15299,16 +15299,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.97</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5499491</v>
+        <v>5499720</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,73 +15328,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>50</v>
+      </c>
+      <c r="K167">
+        <v>1.363</v>
+      </c>
+      <c r="L167">
+        <v>4.75</v>
+      </c>
+      <c r="M167">
+        <v>7.5</v>
+      </c>
+      <c r="N167">
+        <v>1.4</v>
+      </c>
+      <c r="O167">
+        <v>4.75</v>
+      </c>
+      <c r="P167">
+        <v>8.5</v>
+      </c>
+      <c r="Q167">
+        <v>-1.5</v>
+      </c>
+      <c r="R167">
+        <v>2.06</v>
+      </c>
+      <c r="S167">
+        <v>1.84</v>
+      </c>
+      <c r="T167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>3</v>
-      </c>
-      <c r="J167" t="s">
-        <v>51</v>
-      </c>
-      <c r="K167">
-        <v>1.25</v>
-      </c>
-      <c r="L167">
-        <v>6</v>
-      </c>
-      <c r="M167">
-        <v>11</v>
-      </c>
-      <c r="N167">
-        <v>1.181</v>
-      </c>
-      <c r="O167">
-        <v>7</v>
-      </c>
-      <c r="P167">
-        <v>13</v>
-      </c>
-      <c r="Q167">
-        <v>-2.25</v>
-      </c>
-      <c r="R167">
-        <v>2.05</v>
-      </c>
-      <c r="S167">
-        <v>1.8</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X167">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5499721</v>
+        <v>5505055</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,13 +15595,13 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -15610,43 +15610,43 @@
         <v>50</v>
       </c>
       <c r="K170">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O170">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.97</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.93</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W170">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15655,16 +15655,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.9750000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5702299</v>
+        <v>5541488</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>51</v>
+      </c>
+      <c r="K171">
+        <v>2.625</v>
+      </c>
+      <c r="L171">
+        <v>3.5</v>
+      </c>
+      <c r="M171">
+        <v>2.6</v>
+      </c>
+      <c r="N171">
+        <v>2.6</v>
+      </c>
+      <c r="O171">
+        <v>3.8</v>
+      </c>
+      <c r="P171">
+        <v>2.5</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.875</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
         <v>2</v>
       </c>
-      <c r="J171" t="s">
-        <v>52</v>
-      </c>
-      <c r="K171">
-        <v>2.7</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>2.45</v>
-      </c>
-      <c r="N171">
-        <v>2.375</v>
-      </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>2.9</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>2.05</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5541489</v>
+        <v>5702299</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L172">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="N172">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="O172">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="Q172">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
+        <v>1.8</v>
+      </c>
+      <c r="T172">
+        <v>3</v>
+      </c>
+      <c r="U172">
+        <v>2.05</v>
+      </c>
+      <c r="V172">
+        <v>1.8</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
         <v>1.9</v>
       </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>1.95</v>
-      </c>
-      <c r="V172">
-        <v>1.9</v>
-      </c>
-      <c r="W172">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
-      <c r="Y172">
-        <v>-1</v>
-      </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5541488</v>
+        <v>5559913</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,49 +15862,49 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
         <v>3.5</v>
       </c>
-      <c r="M173">
-        <v>2.6</v>
-      </c>
       <c r="N173">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O173">
+        <v>4.75</v>
+      </c>
+      <c r="P173">
         <v>3.8</v>
       </c>
-      <c r="P173">
-        <v>2.5</v>
-      </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
         <v>1.85</v>
@@ -15913,25 +15913,25 @@
         <v>2</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X173">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5559912</v>
+        <v>5541489</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,58 +15951,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>50</v>
       </c>
       <c r="K174">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="L174">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P174">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
         <v>3.5</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>2.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16011,13 +16011,13 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5559913</v>
+        <v>5559912</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,58 +16040,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M175">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N175">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
         <v>3.5</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W175">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16100,13 +16100,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5539940</v>
+        <v>5539306</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,13 +16129,13 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16144,43 +16144,43 @@
         <v>50</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>3.8</v>
       </c>
       <c r="M176">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N176">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
         <v>3.8</v>
       </c>
       <c r="P176">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S176">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16189,16 +16189,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5539306</v>
+        <v>5539941</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L177">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M177">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5539941</v>
+        <v>5539940</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,76 +16396,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M179">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N179">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O179">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T179">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,73 +18354,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L201">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M201">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N201">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P201">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.95</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
         <v>2.05</v>
       </c>
-      <c r="S201">
-        <v>1.85</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
         <v>1.05</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>1.025</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,73 +18443,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>51</v>
+      </c>
+      <c r="K202">
+        <v>5.5</v>
+      </c>
+      <c r="L202">
+        <v>4.333</v>
+      </c>
+      <c r="M202">
+        <v>1.533</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202">
+        <v>4.2</v>
+      </c>
+      <c r="P202">
+        <v>1.65</v>
+      </c>
+      <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
         <v>3</v>
       </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-      <c r="J202" t="s">
-        <v>50</v>
-      </c>
-      <c r="K202">
-        <v>1.363</v>
-      </c>
-      <c r="L202">
-        <v>4.75</v>
-      </c>
-      <c r="M202">
-        <v>8</v>
-      </c>
-      <c r="N202">
-        <v>1.444</v>
-      </c>
-      <c r="O202">
-        <v>4.75</v>
-      </c>
-      <c r="P202">
-        <v>7.5</v>
-      </c>
-      <c r="Q202">
-        <v>-1.25</v>
-      </c>
-      <c r="R202">
-        <v>1.9</v>
-      </c>
-      <c r="S202">
-        <v>1.95</v>
-      </c>
-      <c r="T202">
-        <v>3.25</v>
-      </c>
       <c r="U202">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6838387</v>
+        <v>6838386</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,76 +21736,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239">
+        <v>1.444</v>
+      </c>
+      <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
+        <v>7</v>
+      </c>
+      <c r="N239">
+        <v>1.55</v>
+      </c>
+      <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
+        <v>6</v>
+      </c>
+      <c r="Q239">
+        <v>-1</v>
+      </c>
+      <c r="R239">
+        <v>1.94</v>
+      </c>
+      <c r="S239">
+        <v>1.96</v>
+      </c>
+      <c r="T239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" t="s">
-        <v>50</v>
-      </c>
-      <c r="K239">
-        <v>1.125</v>
-      </c>
-      <c r="L239">
-        <v>8.5</v>
-      </c>
-      <c r="M239">
-        <v>17</v>
-      </c>
-      <c r="N239">
-        <v>1.035</v>
-      </c>
-      <c r="O239">
-        <v>17</v>
-      </c>
-      <c r="P239">
-        <v>34</v>
-      </c>
-      <c r="Q239">
-        <v>-3.75</v>
-      </c>
-      <c r="R239">
+      <c r="U239">
         <v>2</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>4.75</v>
-      </c>
-      <c r="U239">
-        <v>1.85</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
       <c r="W239">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
+        <v>0.96</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
-      <c r="AC239">
-        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6838386</v>
+        <v>6838387</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,76 +21825,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F240" t="s">
+        <v>33</v>
+      </c>
+      <c r="G240" t="s">
+        <v>39</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>50</v>
+      </c>
+      <c r="K240">
+        <v>1.125</v>
+      </c>
+      <c r="L240">
+        <v>8.5</v>
+      </c>
+      <c r="M240">
+        <v>17</v>
+      </c>
+      <c r="N240">
+        <v>1.035</v>
+      </c>
+      <c r="O240">
+        <v>17</v>
+      </c>
+      <c r="P240">
         <v>34</v>
       </c>
-      <c r="G240" t="s">
-        <v>48</v>
-      </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
+      <c r="Q240">
+        <v>-3.75</v>
+      </c>
+      <c r="R240">
         <v>2</v>
       </c>
-      <c r="J240" t="s">
-        <v>52</v>
-      </c>
-      <c r="K240">
-        <v>1.444</v>
-      </c>
-      <c r="L240">
-        <v>4.333</v>
-      </c>
-      <c r="M240">
-        <v>7</v>
-      </c>
-      <c r="N240">
-        <v>1.55</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>6</v>
-      </c>
-      <c r="Q240">
-        <v>-1</v>
-      </c>
-      <c r="R240">
-        <v>1.94</v>
-      </c>
       <c r="S240">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U240">
+        <v>1.85</v>
+      </c>
+      <c r="V240">
         <v>2</v>
       </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.96</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>52</v>
       </c>
       <c r="K252">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N252">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O252">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P252">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q252">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S252">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,16 +22950,16 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB252">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC252">
         <v>-0.5</v>
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,55 +22982,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M253">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N253">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P253">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R253">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S253">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
         <v>-1</v>
@@ -23039,16 +23039,16 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB253">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC253">
         <v>-0.5</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,76 +25207,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F278" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L278">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M278">
+        <v>4.5</v>
+      </c>
+      <c r="N278">
+        <v>1.55</v>
+      </c>
+      <c r="O278">
+        <v>4.5</v>
+      </c>
+      <c r="P278">
+        <v>5.25</v>
+      </c>
+      <c r="Q278">
+        <v>-1</v>
+      </c>
+      <c r="R278">
+        <v>1.875</v>
+      </c>
+      <c r="S278">
+        <v>1.975</v>
+      </c>
+      <c r="T278">
         <v>3</v>
       </c>
-      <c r="N278">
-        <v>2.25</v>
-      </c>
-      <c r="O278">
+      <c r="U278">
+        <v>1.825</v>
+      </c>
+      <c r="V278">
+        <v>2.025</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
         <v>3.5</v>
       </c>
-      <c r="P278">
-        <v>3.2</v>
-      </c>
-      <c r="Q278">
-        <v>-0.25</v>
-      </c>
-      <c r="R278">
-        <v>1.95</v>
-      </c>
-      <c r="S278">
-        <v>1.9</v>
-      </c>
-      <c r="T278">
-        <v>2.75</v>
-      </c>
-      <c r="U278">
-        <v>2.025</v>
-      </c>
-      <c r="V278">
-        <v>1.825</v>
-      </c>
-      <c r="W278">
-        <v>1.25</v>
-      </c>
-      <c r="X278">
-        <v>-1</v>
-      </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC278">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,76 +25296,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F279" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G279" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>50</v>
+      </c>
+      <c r="K279">
+        <v>2.05</v>
+      </c>
+      <c r="L279">
+        <v>3.6</v>
+      </c>
+      <c r="M279">
         <v>3</v>
       </c>
-      <c r="I279">
-        <v>3</v>
-      </c>
-      <c r="J279" t="s">
-        <v>51</v>
-      </c>
-      <c r="K279">
-        <v>1.6</v>
-      </c>
-      <c r="L279">
-        <v>4</v>
-      </c>
-      <c r="M279">
-        <v>4.5</v>
-      </c>
       <c r="N279">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T279">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
+        <v>2.025</v>
+      </c>
+      <c r="V279">
         <v>1.825</v>
       </c>
-      <c r="V279">
-        <v>2.025</v>
-      </c>
       <c r="W279">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X279">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA279">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
+        <v>-1</v>
+      </c>
+      <c r="AC279">
         <v>0.825</v>
-      </c>
-      <c r="AC279">
-        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>52</v>
+      </c>
+      <c r="K280">
+        <v>2.15</v>
+      </c>
+      <c r="L280">
+        <v>3.4</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>1.7</v>
+      </c>
+      <c r="O280">
         <v>4</v>
       </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>50</v>
-      </c>
-      <c r="K280">
-        <v>1.444</v>
-      </c>
-      <c r="L280">
-        <v>4.6</v>
-      </c>
-      <c r="M280">
-        <v>5.5</v>
-      </c>
-      <c r="N280">
-        <v>1.4</v>
-      </c>
-      <c r="O280">
-        <v>5.25</v>
-      </c>
       <c r="P280">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W280">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G281" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281">
         <v>1</v>
       </c>
-      <c r="I281">
+      <c r="J281" t="s">
+        <v>50</v>
+      </c>
+      <c r="K281">
+        <v>1.444</v>
+      </c>
+      <c r="L281">
+        <v>4.6</v>
+      </c>
+      <c r="M281">
+        <v>5.5</v>
+      </c>
+      <c r="N281">
+        <v>1.4</v>
+      </c>
+      <c r="O281">
+        <v>5.25</v>
+      </c>
+      <c r="P281">
+        <v>7</v>
+      </c>
+      <c r="Q281">
+        <v>-1.5</v>
+      </c>
+      <c r="R281">
         <v>2</v>
       </c>
-      <c r="J281" t="s">
-        <v>52</v>
-      </c>
-      <c r="K281">
-        <v>2.15</v>
-      </c>
-      <c r="L281">
-        <v>3.4</v>
-      </c>
-      <c r="M281">
-        <v>3</v>
-      </c>
-      <c r="N281">
-        <v>1.7</v>
-      </c>
-      <c r="O281">
-        <v>4</v>
-      </c>
-      <c r="P281">
-        <v>4.75</v>
-      </c>
-      <c r="Q281">
-        <v>-0.75</v>
-      </c>
-      <c r="R281">
-        <v>1.9</v>
-      </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -27331,7 +27331,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27343,73 +27343,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G302" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H302">
+        <v>3</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" t="s">
+        <v>50</v>
+      </c>
+      <c r="K302">
         <v>2</v>
       </c>
-      <c r="I302">
+      <c r="L302">
+        <v>3.5</v>
+      </c>
+      <c r="M302">
+        <v>3.4</v>
+      </c>
+      <c r="N302">
         <v>2</v>
       </c>
-      <c r="J302" t="s">
-        <v>51</v>
-      </c>
-      <c r="K302">
-        <v>2.05</v>
-      </c>
-      <c r="L302">
-        <v>3.7</v>
-      </c>
-      <c r="M302">
-        <v>3.1</v>
-      </c>
-      <c r="N302">
-        <v>1.95</v>
-      </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q302">
         <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S302">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X302">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA302">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27420,7 +27420,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27432,73 +27432,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K303">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L303">
+        <v>3.7</v>
+      </c>
+      <c r="M303">
+        <v>3.1</v>
+      </c>
+      <c r="N303">
+        <v>1.95</v>
+      </c>
+      <c r="O303">
+        <v>3.8</v>
+      </c>
+      <c r="P303">
         <v>3.5</v>
-      </c>
-      <c r="M303">
-        <v>3.4</v>
-      </c>
-      <c r="N303">
-        <v>2</v>
-      </c>
-      <c r="O303">
-        <v>3.6</v>
-      </c>
-      <c r="P303">
-        <v>3.6</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB303">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -31247,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31259,76 +31259,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G346" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L346">
+        <v>9.5</v>
+      </c>
+      <c r="M346">
+        <v>19</v>
+      </c>
+      <c r="N346">
+        <v>1.1</v>
+      </c>
+      <c r="O346">
+        <v>10</v>
+      </c>
+      <c r="P346">
+        <v>23</v>
+      </c>
+      <c r="Q346">
+        <v>-2.5</v>
+      </c>
+      <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
         <v>3.75</v>
       </c>
-      <c r="M346">
-        <v>2.1</v>
-      </c>
-      <c r="N346">
-        <v>2.3</v>
-      </c>
-      <c r="O346">
-        <v>3.75</v>
-      </c>
-      <c r="P346">
-        <v>2.8</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
+      <c r="U346">
         <v>2.025</v>
       </c>
-      <c r="S346">
+      <c r="V346">
         <v>1.825</v>
       </c>
-      <c r="T346">
-        <v>2.5</v>
-      </c>
-      <c r="U346">
-        <v>1.975</v>
-      </c>
-      <c r="V346">
-        <v>1.875</v>
-      </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X346">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31336,7 +31336,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31348,76 +31348,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L347">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N347">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O347">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P347">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -32493,7 +32493,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6838503</v>
+        <v>6838501</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32505,76 +32505,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F360" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H360">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" t="s">
+        <v>52</v>
+      </c>
+      <c r="K360">
+        <v>3.25</v>
+      </c>
+      <c r="L360">
+        <v>3.6</v>
+      </c>
+      <c r="M360">
+        <v>2.1</v>
+      </c>
+      <c r="N360">
+        <v>5.25</v>
+      </c>
+      <c r="O360">
+        <v>4.2</v>
+      </c>
+      <c r="P360">
+        <v>1.6</v>
+      </c>
+      <c r="Q360">
+        <v>1</v>
+      </c>
+      <c r="R360">
+        <v>1.85</v>
+      </c>
+      <c r="S360">
         <v>2</v>
       </c>
-      <c r="J360" t="s">
-        <v>50</v>
-      </c>
-      <c r="K360">
-        <v>1.5</v>
-      </c>
-      <c r="L360">
-        <v>4.333</v>
-      </c>
-      <c r="M360">
-        <v>6</v>
-      </c>
-      <c r="N360">
-        <v>1.285</v>
-      </c>
-      <c r="O360">
-        <v>5.5</v>
-      </c>
-      <c r="P360">
-        <v>11</v>
-      </c>
-      <c r="Q360">
-        <v>-1.75</v>
-      </c>
-      <c r="R360">
-        <v>2</v>
-      </c>
-      <c r="S360">
-        <v>1.85</v>
-      </c>
       <c r="T360">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W360">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z360">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA360">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB360">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32582,7 +32582,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6838501</v>
+        <v>6838503</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32594,76 +32594,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F361" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G361" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K361">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L361">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M361">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N361">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O361">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P361">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="Q361">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R361">
+        <v>2</v>
+      </c>
+      <c r="S361">
         <v>1.85</v>
       </c>
-      <c r="S361">
-        <v>2</v>
-      </c>
       <c r="T361">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V361">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA361">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC361">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -34095,7 +34095,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6838512</v>
+        <v>6838520</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34107,61 +34107,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
         <v>51</v>
       </c>
       <c r="K378">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L378">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M378">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N378">
         <v>1.571</v>
       </c>
       <c r="O378">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P378">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q378">
         <v>-1</v>
       </c>
       <c r="R378">
+        <v>1.95</v>
+      </c>
+      <c r="S378">
+        <v>1.9</v>
+      </c>
+      <c r="T378">
+        <v>2.75</v>
+      </c>
+      <c r="U378">
         <v>1.925</v>
       </c>
-      <c r="S378">
+      <c r="V378">
         <v>1.925</v>
       </c>
-      <c r="T378">
-        <v>3.25</v>
-      </c>
-      <c r="U378">
-        <v>2</v>
-      </c>
-      <c r="V378">
-        <v>1.85</v>
-      </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34170,13 +34170,13 @@
         <v>-1</v>
       </c>
       <c r="AA378">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
         <v>0.925</v>
-      </c>
-      <c r="AB378">
-        <v>1</v>
-      </c>
-      <c r="AC378">
-        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34184,7 +34184,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6838520</v>
+        <v>6838512</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34196,61 +34196,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F379" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379" t="s">
         <v>51</v>
       </c>
       <c r="K379">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L379">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M379">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N379">
         <v>1.571</v>
       </c>
       <c r="O379">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P379">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q379">
         <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S379">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U379">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V379">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W379">
         <v>-1</v>
       </c>
       <c r="X379">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -34259,13 +34259,13 @@
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC379">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34395,25 +34395,25 @@
         <v>4.5</v>
       </c>
       <c r="P381">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q381">
         <v>-1.25</v>
       </c>
       <c r="R381">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S381">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T381">
         <v>3</v>
       </c>
       <c r="U381">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V381">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34463,31 +34463,31 @@
         <v>3</v>
       </c>
       <c r="N382">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O382">
         <v>3.5</v>
       </c>
       <c r="P382">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q382">
         <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="S382">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T382">
         <v>2.5</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V382">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34537,22 +34537,22 @@
         <v>1.222</v>
       </c>
       <c r="N383">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O383">
         <v>6.5</v>
       </c>
       <c r="P383">
-        <v>1.2</v>
+        <v>1.222</v>
       </c>
       <c r="Q383">
         <v>2</v>
       </c>
       <c r="R383">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T383">
         <v>3.5</v>
@@ -34611,7 +34611,7 @@
         <v>3.4</v>
       </c>
       <c r="N384">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O384">
         <v>4</v>
@@ -34623,10 +34623,10 @@
         <v>-0.5</v>
       </c>
       <c r="R384">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S384">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T384">
         <v>2.75</v>
@@ -34691,16 +34691,16 @@
         <v>3.8</v>
       </c>
       <c r="P385">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q385">
         <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S385">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T385">
         <v>2.75</v>
@@ -34759,13 +34759,13 @@
         <v>7</v>
       </c>
       <c r="N386">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O386">
         <v>4.5</v>
       </c>
       <c r="P386">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q386">
         <v>-1</v>
@@ -34777,13 +34777,13 @@
         <v>2.01</v>
       </c>
       <c r="T386">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V386">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34833,10 +34833,10 @@
         <v>1.3</v>
       </c>
       <c r="N387">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O387">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P387">
         <v>1.285</v>
@@ -34845,19 +34845,19 @@
         <v>1.75</v>
       </c>
       <c r="R387">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S387">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="T387">
         <v>3</v>
       </c>
       <c r="U387">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V387">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34907,31 +34907,31 @@
         <v>2.8</v>
       </c>
       <c r="N388">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P388">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q388">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R388">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="S388">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T388">
         <v>3</v>
       </c>
       <c r="U388">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V388">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -34981,7 +34981,7 @@
         <v>1.75</v>
       </c>
       <c r="N389">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O389">
         <v>4.2</v>
@@ -34993,10 +34993,10 @@
         <v>0.75</v>
       </c>
       <c r="R389">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S389">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T389">
         <v>2.75</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Utrecht</t>
   </si>
   <si>
-    <t>NEC</t>
+    <t>Cambuur Leeuwarden</t>
   </si>
   <si>
-    <t>Cambuur Leeuwarden</t>
+    <t>NEC</t>
   </si>
   <si>
     <t>Excelsior</t>
@@ -136,10 +136,10 @@
     <t>FC Volendam</t>
   </si>
   <si>
-    <t>Ajax</t>
+    <t>Sparta Rotterdam</t>
   </si>
   <si>
-    <t>Sparta Rotterdam</t>
+    <t>Ajax</t>
   </si>
   <si>
     <t>Vitesse</t>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5159836</v>
+        <v>5159375</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,37 +1180,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="N8">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
         <v>1.9</v>
@@ -1219,34 +1219,34 @@
         <v>1.95</v>
       </c>
       <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
+        <v>2.025</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5159375</v>
+        <v>5159836</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,37 +1269,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1.9</v>
@@ -1308,34 +1308,34 @@
         <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5159839</v>
+        <v>5159590</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1625,73 +1625,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N13">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O13">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>2.025</v>
       </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.9199999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5159590</v>
+        <v>5159839</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,73 +1714,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
         <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
+        <v>2.025</v>
+      </c>
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
       <c r="W14">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1803,7 +1803,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5159841</v>
+        <v>5159842</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,10 +1889,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1904,58 +1904,58 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q16">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
+        <v>2.05</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>1.825</v>
-      </c>
-      <c r="V16">
-        <v>2.025</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.4</v>
+      </c>
+      <c r="AA16">
+        <v>-0.5</v>
+      </c>
+      <c r="AB16">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5159842</v>
+        <v>5159841</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,10 +1978,10 @@
         <v>44941.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1993,58 +1993,58 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>44947.61458333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5159844</v>
+        <v>5159843</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>-1.5</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
         <v>3.25</v>
       </c>
-      <c r="P22">
-        <v>2.45</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.76</v>
-      </c>
-      <c r="S22">
-        <v>2.155</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
       <c r="U22">
+        <v>2.025</v>
+      </c>
+      <c r="V22">
         <v>1.825</v>
       </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.155</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.825</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5159843</v>
+        <v>5159844</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44947.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
+        <v>1.76</v>
+      </c>
+      <c r="S23">
+        <v>2.155</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.825</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>1.155</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>44950.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5159851</v>
+        <v>5159852</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>3.4</v>
+      </c>
+      <c r="P30">
         <v>2</v>
-      </c>
-      <c r="N30">
-        <v>4.2</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
-      <c r="P30">
-        <v>1.85</v>
       </c>
       <c r="Q30">
         <v>0.5</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
         <v>2.025</v>
       </c>
-      <c r="S30">
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.825</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5159852</v>
+        <v>5159851</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3224,73 +3224,73 @@
         <v>44951.61458333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
         <v>0.5</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
         <v>1.825</v>
       </c>
-      <c r="S31">
-        <v>2.025</v>
-      </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.825</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,13 +3402,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3417,43 +3417,43 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L33">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O33">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L34">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O34">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q34">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3583,7 +3583,7 @@
         <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>44952.70833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5159858</v>
+        <v>5159857</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>2.3</v>
+      </c>
+      <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>3.1</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>3.3</v>
+      </c>
+      <c r="P39">
         <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39">
-        <v>2.15</v>
-      </c>
-      <c r="L39">
-        <v>3.5</v>
-      </c>
-      <c r="M39">
-        <v>3.2</v>
-      </c>
-      <c r="N39">
-        <v>2.2</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>3.25</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5159857</v>
+        <v>5159858</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
+        <v>2.2</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
         <v>3.25</v>
-      </c>
-      <c r="M40">
-        <v>3.1</v>
-      </c>
-      <c r="N40">
-        <v>2.4</v>
-      </c>
-      <c r="O40">
-        <v>3.3</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5159383</v>
+        <v>5159592</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,73 +4292,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>1.285</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>1.2</v>
+      </c>
+      <c r="Q43">
         <v>2</v>
       </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43">
-        <v>2.5</v>
-      </c>
-      <c r="L43">
-        <v>3.4</v>
-      </c>
-      <c r="M43">
-        <v>2.7</v>
-      </c>
-      <c r="N43">
-        <v>2.25</v>
-      </c>
-      <c r="O43">
+      <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
+        <v>1.975</v>
+      </c>
+      <c r="T43">
         <v>3.5</v>
       </c>
-      <c r="P43">
-        <v>3.1</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43">
-        <v>1.85</v>
-      </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5159592</v>
+        <v>5159383</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,73 +4381,73 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>2.5</v>
+      </c>
+      <c r="L44">
+        <v>3.4</v>
+      </c>
+      <c r="M44">
+        <v>2.7</v>
+      </c>
+      <c r="N44">
+        <v>2.25</v>
+      </c>
+      <c r="O44">
+        <v>3.5</v>
+      </c>
+      <c r="P44">
+        <v>3.1</v>
+      </c>
+      <c r="Q44">
+        <v>-0.25</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
+        <v>1.875</v>
+      </c>
+      <c r="W44">
+        <v>1.25</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44">
-        <v>5.5</v>
-      </c>
-      <c r="M44">
-        <v>1.285</v>
-      </c>
-      <c r="N44">
-        <v>13</v>
-      </c>
-      <c r="O44">
-        <v>7</v>
-      </c>
-      <c r="P44">
-        <v>1.2</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
-      <c r="S44">
-        <v>1.975</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.925</v>
-      </c>
-      <c r="V44">
-        <v>1.925</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>0.2</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
       <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB44">
-        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4470,7 +4470,7 @@
         <v>44955.53125</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4651,7 +4651,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5093,10 +5093,10 @@
         <v>44962.34375</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5538,10 +5538,10 @@
         <v>44968.61458333334</v>
       </c>
       <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
         <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>44969.34375</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5159873</v>
+        <v>5159871</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I61">
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>4.333</v>
+      </c>
+      <c r="L61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>5.75</v>
+      </c>
+      <c r="O61">
+        <v>4.333</v>
+      </c>
+      <c r="P61">
+        <v>1.533</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>1.9</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
+        <v>1.875</v>
+      </c>
+      <c r="V61">
+        <v>1.975</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61">
-        <v>2.3</v>
-      </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>2.625</v>
-      </c>
-      <c r="N61">
-        <v>2.55</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.75</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
-      <c r="W61">
-        <v>1.55</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5159871</v>
+        <v>5159873</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44969.4375</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>2.625</v>
+      </c>
+      <c r="N62">
+        <v>2.55</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>2.75</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>2</v>
       </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62">
-        <v>4.333</v>
-      </c>
-      <c r="L62">
-        <v>3.8</v>
-      </c>
-      <c r="M62">
-        <v>1.727</v>
-      </c>
-      <c r="N62">
-        <v>5.75</v>
-      </c>
-      <c r="O62">
-        <v>4.333</v>
-      </c>
-      <c r="P62">
-        <v>1.533</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6161,7 +6161,7 @@
         <v>44969.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -6606,7 +6606,7 @@
         <v>44976.34375</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>38</v>
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5159875</v>
+        <v>5159877</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,76 +6695,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L70">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
+        <v>2.15</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
         <v>1.95</v>
       </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5159877</v>
+        <v>5159875</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>44976.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N71">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,10 +6873,10 @@
         <v>44976.53125</v>
       </c>
       <c r="F72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
         <v>40</v>
-      </c>
-      <c r="G72" t="s">
-        <v>41</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6965,7 +6965,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>44981.66666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7321,7 +7321,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7407,7 +7407,7 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -7588,7 +7588,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -8300,7 +8300,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8475,10 +8475,10 @@
         <v>44990.53125</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8564,7 +8564,7 @@
         <v>44990.66666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8920,7 +8920,7 @@
         <v>44996.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -9009,7 +9009,7 @@
         <v>44997.34375</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9101,7 +9101,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9190,7 +9190,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>5</v>
@@ -9546,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5159598</v>
+        <v>5159900</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,73 +9810,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>52</v>
+      </c>
+      <c r="K105">
+        <v>1.7</v>
+      </c>
+      <c r="L105">
         <v>4</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K105">
-        <v>2.55</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
       <c r="M105">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
         <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5159900</v>
+        <v>5159598</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,73 +9899,73 @@
         <v>45004.4375</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
+        <v>2.7</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>1.8</v>
       </c>
-      <c r="O106">
-        <v>4</v>
-      </c>
-      <c r="P106">
-        <v>3.6</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10344,7 +10344,7 @@
         <v>45017.625</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10433,7 +10433,7 @@
         <v>45017.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10614,7 +10614,7 @@
         <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>45018.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
         <v>46</v>
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11504,7 +11504,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
@@ -11946,7 +11946,7 @@
         <v>45031.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12035,7 +12035,7 @@
         <v>45032.30208333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>42</v>
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5159402</v>
+        <v>5159918</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="L131">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5159918</v>
+        <v>5159402</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K132">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q132">
+        <v>1.75</v>
+      </c>
+      <c r="R132">
+        <v>2.02</v>
+      </c>
+      <c r="S132">
+        <v>1.88</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>2.025</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>0.25</v>
       </c>
-      <c r="R132">
-        <v>2.025</v>
-      </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
-      <c r="W132">
-        <v>2.3</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>1.02</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12302,7 +12302,7 @@
         <v>45032.48958333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P134">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q134">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45032.625</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O135">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q135">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12928,7 +12928,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5159928</v>
+        <v>5159929</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,13 +13014,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13029,43 +13029,43 @@
         <v>50</v>
       </c>
       <c r="K141">
+        <v>2.3</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>2.9</v>
+      </c>
+      <c r="N141">
         <v>2.05</v>
-      </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>3.5</v>
-      </c>
-      <c r="N141">
-        <v>1.75</v>
       </c>
       <c r="O141">
         <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13074,16 +13074,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5159929</v>
+        <v>5159928</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,13 +13103,13 @@
         <v>45039.39583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13118,43 +13118,43 @@
         <v>50</v>
       </c>
       <c r="K142">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L142">
+        <v>3.4</v>
+      </c>
+      <c r="M142">
         <v>3.5</v>
       </c>
-      <c r="M142">
-        <v>2.9</v>
-      </c>
       <c r="N142">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
         <v>3.8</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45052.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5423992</v>
+        <v>5419760</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,10 +13551,10 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>3</v>
@@ -13563,41 +13563,41 @@
         <v>52</v>
       </c>
       <c r="K147">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
@@ -13605,19 +13605,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
+        <v>1.025</v>
+      </c>
+      <c r="AB147">
         <v>0.95</v>
       </c>
-      <c r="AB147">
-        <v>0</v>
-      </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5419760</v>
+        <v>5423992</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13640,10 +13640,10 @@
         <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>3</v>
@@ -13652,40 +13652,40 @@
         <v>52</v>
       </c>
       <c r="K148">
+        <v>4.2</v>
+      </c>
+      <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>4.2</v>
+      </c>
+      <c r="O148">
+        <v>4.333</v>
+      </c>
+      <c r="P148">
+        <v>1.75</v>
+      </c>
+      <c r="Q148">
+        <v>0.75</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
         <v>2</v>
       </c>
-      <c r="L148">
-        <v>3.4</v>
-      </c>
-      <c r="M148">
-        <v>3.6</v>
-      </c>
-      <c r="N148">
-        <v>2.1</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>3.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13726,7 +13726,7 @@
         <v>45052.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5423991</v>
+        <v>5427585</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="L151">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="N151">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="O151">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q151">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R151">
+        <v>2.025</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
         <v>1.875</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
-      <c r="T151">
-        <v>3.5</v>
-      </c>
-      <c r="U151">
-        <v>1.875</v>
-      </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y151">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5427585</v>
+        <v>5423991</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45053.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K152">
-        <v>1.65</v>
+        <v>9</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="N152">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R152">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U152">
+        <v>1.875</v>
+      </c>
+      <c r="V152">
         <v>1.975</v>
       </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14174,7 +14174,7 @@
         <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14263,7 +14263,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14530,7 +14530,7 @@
         <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5498582</v>
+        <v>5505056</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,49 +14883,49 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K162">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N162">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R162">
-        <v>1.94</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.96</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
         <v>2.025</v>
@@ -14934,25 +14934,25 @@
         <v>1.825</v>
       </c>
       <c r="W162">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z162">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5499491</v>
+        <v>5499719</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,73 +14972,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>4.75</v>
+      </c>
+      <c r="M163">
+        <v>1.444</v>
+      </c>
+      <c r="N163">
+        <v>6.5</v>
+      </c>
+      <c r="O163">
+        <v>4.75</v>
+      </c>
+      <c r="P163">
+        <v>1.45</v>
+      </c>
+      <c r="Q163">
         <v>1.25</v>
       </c>
-      <c r="L163">
-        <v>6</v>
-      </c>
-      <c r="M163">
-        <v>11</v>
-      </c>
-      <c r="N163">
-        <v>1.181</v>
-      </c>
-      <c r="O163">
-        <v>7</v>
-      </c>
-      <c r="P163">
-        <v>13</v>
-      </c>
-      <c r="Q163">
-        <v>-2.25</v>
-      </c>
       <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>1.975</v>
+      </c>
+      <c r="T163">
+        <v>3.25</v>
+      </c>
+      <c r="U163">
         <v>2.05</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.8</v>
       </c>
-      <c r="T163">
-        <v>3.75</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.875</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499718</v>
+        <v>5505055</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,58 +15061,58 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>50</v>
       </c>
       <c r="K164">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M164">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.97</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="T164">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15121,16 +15121,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4375</v>
+        <v>0.97</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499719</v>
+        <v>5499720</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H165">
+        <v>4</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>3</v>
-      </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L165">
         <v>4.75</v>
       </c>
       <c r="M165">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N165">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="O165">
         <v>4.75</v>
       </c>
       <c r="P165">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q165">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>2.06</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.84</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5499720</v>
+        <v>5499718</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15331,10 +15331,10 @@
         <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -15343,43 +15343,43 @@
         <v>50</v>
       </c>
       <c r="K167">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="L167">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M167">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N167">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P167">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R167">
-        <v>2.06</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.84</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15388,13 +15388,13 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.06</v>
+        <v>0.4375</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5505056</v>
+        <v>5499491</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,73 +15417,73 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="L168">
+        <v>6</v>
+      </c>
+      <c r="M168">
+        <v>11</v>
+      </c>
+      <c r="N168">
+        <v>1.181</v>
+      </c>
+      <c r="O168">
+        <v>7</v>
+      </c>
+      <c r="P168">
+        <v>13</v>
+      </c>
+      <c r="Q168">
+        <v>-2.25</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
         <v>3.75</v>
       </c>
-      <c r="M168">
-        <v>1.75</v>
-      </c>
-      <c r="N168">
-        <v>3.8</v>
-      </c>
-      <c r="O168">
-        <v>4.2</v>
-      </c>
-      <c r="P168">
-        <v>1.8</v>
-      </c>
-      <c r="Q168">
-        <v>0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
-      <c r="T168">
-        <v>3.25</v>
-      </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
         <v>0.8</v>
       </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
-      <c r="AA168">
-        <v>1.025</v>
-      </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5535269</v>
+        <v>5498582</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,70 +15506,70 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
         <v>0</v>
       </c>
-      <c r="I169">
-        <v>3</v>
-      </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.94</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.96</v>
       </c>
       <c r="T169">
         <v>3</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5505055</v>
+        <v>5535269</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15595,70 +15595,70 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>3</v>
       </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
+        <v>1.75</v>
+      </c>
+      <c r="N170">
+        <v>4.5</v>
+      </c>
+      <c r="O170">
         <v>4</v>
       </c>
-      <c r="N170">
+      <c r="P170">
         <v>1.75</v>
       </c>
-      <c r="O170">
-        <v>4.2</v>
-      </c>
-      <c r="P170">
-        <v>4</v>
-      </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R170">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>3</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
         <v>0.75</v>
       </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
       <c r="Z170">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5541488</v>
+        <v>5539941</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,76 +15684,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K171">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M171">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N171">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P171">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5702299</v>
+        <v>5559913</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N172">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P172">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA172">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5559913</v>
+        <v>5559912</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,58 +15862,58 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N173">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15922,13 +15922,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5559912</v>
+        <v>5541488</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5539306</v>
+        <v>5702299</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
         <v>2</v>
       </c>
-      <c r="I176">
+      <c r="J176" t="s">
+        <v>52</v>
+      </c>
+      <c r="K176">
+        <v>2.7</v>
+      </c>
+      <c r="L176">
+        <v>3.75</v>
+      </c>
+      <c r="M176">
+        <v>2.45</v>
+      </c>
+      <c r="N176">
+        <v>2.375</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>2.9</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>1.8</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>2.05</v>
+      </c>
+      <c r="V176">
+        <v>1.8</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>1.9</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.8</v>
+      </c>
+      <c r="AB176">
         <v>0</v>
       </c>
-      <c r="J176" t="s">
-        <v>50</v>
-      </c>
-      <c r="K176">
-        <v>2</v>
-      </c>
-      <c r="L176">
-        <v>3.8</v>
-      </c>
-      <c r="M176">
-        <v>3.4</v>
-      </c>
-      <c r="N176">
-        <v>2.05</v>
-      </c>
-      <c r="O176">
-        <v>3.8</v>
-      </c>
-      <c r="P176">
-        <v>3.4</v>
-      </c>
-      <c r="Q176">
-        <v>-0.5</v>
-      </c>
-      <c r="R176">
-        <v>2</v>
-      </c>
-      <c r="S176">
-        <v>1.85</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>1.05</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>1</v>
-      </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
-      <c r="AB176">
-        <v>-1</v>
-      </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5539941</v>
+        <v>5539940</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H177">
+        <v>4</v>
+      </c>
+      <c r="I177">
         <v>0</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M177">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O177">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.98</v>
       </c>
       <c r="T177">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5535270</v>
+        <v>5539306</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,76 +16307,76 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
         <v>0</v>
       </c>
-      <c r="I178">
-        <v>5</v>
-      </c>
       <c r="J178" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M178">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
         <v>1.85</v>
       </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5539940</v>
+        <v>5535270</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,73 +16396,73 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K179">
         <v>3.2</v>
       </c>
       <c r="L179">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N179">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O179">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q179">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z179">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16577,7 +16577,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16752,7 +16752,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -16841,7 +16841,7 @@
         <v>45085.625</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -16933,7 +16933,7 @@
         <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>45150.625</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
         <v>49</v>
@@ -17378,7 +17378,7 @@
         <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17464,7 +17464,7 @@
         <v>45151.30208333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>37</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N192">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P192">
+        <v>17</v>
+      </c>
+      <c r="Q192">
+        <v>-2.25</v>
+      </c>
+      <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
         <v>6</v>
       </c>
-      <c r="Q192">
-        <v>-1</v>
-      </c>
-      <c r="R192">
-        <v>1.9</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>0.55</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L193">
+        <v>4.5</v>
+      </c>
+      <c r="M193">
+        <v>8</v>
+      </c>
+      <c r="N193">
+        <v>1.55</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>6</v>
       </c>
-      <c r="M193">
-        <v>10</v>
-      </c>
-      <c r="N193">
-        <v>1.2</v>
-      </c>
-      <c r="O193">
-        <v>7</v>
-      </c>
-      <c r="P193">
-        <v>17</v>
-      </c>
       <c r="Q193">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X193">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17823,7 +17823,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17912,7 +17912,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,73 +18354,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>51</v>
+      </c>
+      <c r="K201">
+        <v>5.5</v>
+      </c>
+      <c r="L201">
+        <v>4.333</v>
+      </c>
+      <c r="M201">
+        <v>1.533</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>1.65</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>2.05</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
         <v>3</v>
       </c>
-      <c r="I201">
-        <v>1</v>
-      </c>
-      <c r="J201" t="s">
-        <v>50</v>
-      </c>
-      <c r="K201">
-        <v>1.363</v>
-      </c>
-      <c r="L201">
-        <v>4.75</v>
-      </c>
-      <c r="M201">
-        <v>8</v>
-      </c>
-      <c r="N201">
-        <v>1.444</v>
-      </c>
-      <c r="O201">
-        <v>4.75</v>
-      </c>
-      <c r="P201">
-        <v>7.5</v>
-      </c>
-      <c r="Q201">
-        <v>-1.25</v>
-      </c>
-      <c r="R201">
-        <v>1.9</v>
-      </c>
-      <c r="S201">
-        <v>1.95</v>
-      </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
       <c r="U201">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,73 +18443,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K202">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L202">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N202">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
+        <v>1.9</v>
+      </c>
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>3.25</v>
+      </c>
+      <c r="U202">
         <v>2.05</v>
       </c>
-      <c r="S202">
-        <v>1.85</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
         <v>1.05</v>
-      </c>
-      <c r="AA202">
-        <v>-1</v>
-      </c>
-      <c r="AB202">
-        <v>1.025</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18621,7 +18621,7 @@
         <v>45164.57291666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
         <v>30</v>
@@ -18980,7 +18980,7 @@
         <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19066,10 +19066,10 @@
         <v>45170.625</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19603,7 +19603,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -20137,7 +20137,7 @@
         <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20404,7 +20404,7 @@
         <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20582,7 +20582,7 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20846,7 +20846,7 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
         <v>34</v>
@@ -21113,7 +21113,7 @@
         <v>45193.30208333334</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
         <v>42</v>
@@ -22003,7 +22003,7 @@
         <v>45200.30208333334</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
         <v>42</v>
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6838391</v>
+        <v>6838392</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,10 +22092,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G243" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22107,43 +22107,43 @@
         <v>50</v>
       </c>
       <c r="K243">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.4</v>
+      </c>
+      <c r="N243">
+        <v>2.375</v>
+      </c>
+      <c r="O243">
         <v>3.5</v>
       </c>
-      <c r="M243">
-        <v>2.1</v>
-      </c>
-      <c r="N243">
-        <v>3.3</v>
-      </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
       <c r="P243">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W243">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.925</v>
+        <v>1.07</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22169,7 +22169,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838392</v>
+        <v>6838391</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22181,10 +22181,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22196,43 +22196,43 @@
         <v>50</v>
       </c>
       <c r="K244">
+        <v>3.25</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
         <v>2.1</v>
       </c>
-      <c r="L244">
+      <c r="N244">
+        <v>3.3</v>
+      </c>
+      <c r="O244">
         <v>3.4</v>
       </c>
-      <c r="M244">
-        <v>3.4</v>
-      </c>
-      <c r="N244">
-        <v>2.375</v>
-      </c>
-      <c r="O244">
-        <v>3.5</v>
-      </c>
       <c r="P244">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S244">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W244">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22241,16 +22241,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.07</v>
+        <v>0.925</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22451,7 +22451,7 @@
         <v>38</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
         <v>52</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M252">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N252">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O252">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P252">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R252">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S252">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,16 +22950,16 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB252">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC252">
         <v>-0.5</v>
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,55 +22982,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L253">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N253">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O253">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P253">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q253">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W253">
         <v>-1</v>
@@ -23039,16 +23039,16 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB253">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC253">
         <v>-0.5</v>
@@ -23071,7 +23071,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F254" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
         <v>33</v>
@@ -23338,7 +23338,7 @@
         <v>45220.625</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G257" t="s">
         <v>48</v>
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L258">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M258">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N258">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P258">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q258">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R258">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U258">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W258">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L259">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M259">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N259">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O259">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P259">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q259">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R259">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S259">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W259">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -23608,7 +23608,7 @@
         <v>34</v>
       </c>
       <c r="G260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H260">
         <v>4</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6838408</v>
+        <v>6838409</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,73 +23694,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
+        <v>4</v>
+      </c>
+      <c r="J261" t="s">
+        <v>52</v>
+      </c>
+      <c r="K261">
+        <v>2.375</v>
+      </c>
+      <c r="L261">
+        <v>3.6</v>
+      </c>
+      <c r="M261">
+        <v>2.375</v>
+      </c>
+      <c r="N261">
+        <v>2.2</v>
+      </c>
+      <c r="O261">
+        <v>4.2</v>
+      </c>
+      <c r="P261">
+        <v>2.8</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.975</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>3</v>
+      </c>
+      <c r="U261">
         <v>2</v>
       </c>
-      <c r="J261" t="s">
-        <v>51</v>
-      </c>
-      <c r="K261">
-        <v>5</v>
-      </c>
-      <c r="L261">
-        <v>4</v>
-      </c>
-      <c r="M261">
-        <v>1.615</v>
-      </c>
-      <c r="N261">
-        <v>6</v>
-      </c>
-      <c r="O261">
-        <v>4.5</v>
-      </c>
-      <c r="P261">
-        <v>1.5</v>
-      </c>
-      <c r="Q261">
+      <c r="V261">
+        <v>1.85</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>-1</v>
+      </c>
+      <c r="Y261">
+        <v>1.8</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.875</v>
+      </c>
+      <c r="AB261">
         <v>1</v>
-      </c>
-      <c r="R261">
-        <v>2.025</v>
-      </c>
-      <c r="S261">
-        <v>1.825</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
-      <c r="U261">
-        <v>1.8</v>
-      </c>
-      <c r="V261">
-        <v>2.05</v>
-      </c>
-      <c r="W261">
-        <v>-1</v>
-      </c>
-      <c r="X261">
-        <v>3.5</v>
-      </c>
-      <c r="Y261">
-        <v>-1</v>
-      </c>
-      <c r="Z261">
-        <v>1.025</v>
-      </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>0.8</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6838409</v>
+        <v>6838408</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,73 +23783,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
+        <v>5</v>
+      </c>
+      <c r="L262">
         <v>4</v>
       </c>
-      <c r="J262" t="s">
-        <v>52</v>
-      </c>
-      <c r="K262">
-        <v>2.375</v>
-      </c>
-      <c r="L262">
-        <v>3.6</v>
-      </c>
       <c r="M262">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N262">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O262">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P262">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA262">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23875,7 +23875,7 @@
         <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,76 +24139,76 @@
         <v>45227.625</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L266">
+        <v>3.5</v>
+      </c>
+      <c r="M266">
+        <v>2.5</v>
+      </c>
+      <c r="N266">
+        <v>2.9</v>
+      </c>
+      <c r="O266">
         <v>3.6</v>
       </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.75</v>
-      </c>
-      <c r="O266">
-        <v>3.75</v>
-      </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
         <v>1.975</v>
-      </c>
-      <c r="S266">
-        <v>1.875</v>
       </c>
       <c r="T266">
         <v>2.75</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,76 +24228,76 @@
         <v>45227.625</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M267">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
+        <v>1.975</v>
+      </c>
+      <c r="S267">
         <v>1.875</v>
-      </c>
-      <c r="S267">
-        <v>1.975</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X267">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,58 +24495,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
         <v>50</v>
       </c>
       <c r="K270">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M270">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N270">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O270">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P270">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q270">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T270">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U270">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V270">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24555,13 +24555,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,58 +24584,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G271" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
         <v>50</v>
       </c>
       <c r="K271">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L271">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M271">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N271">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O271">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P271">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R271">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S271">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W271">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24644,13 +24644,13 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24673,7 +24673,7 @@
         <v>45232.66666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
         <v>39</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,76 +25207,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G278" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278" t="s">
+        <v>50</v>
+      </c>
+      <c r="K278">
+        <v>2.05</v>
+      </c>
+      <c r="L278">
+        <v>3.6</v>
+      </c>
+      <c r="M278">
         <v>3</v>
       </c>
-      <c r="I278">
-        <v>3</v>
-      </c>
-      <c r="J278" t="s">
-        <v>51</v>
-      </c>
-      <c r="K278">
-        <v>1.6</v>
-      </c>
-      <c r="L278">
-        <v>4</v>
-      </c>
-      <c r="M278">
-        <v>4.5</v>
-      </c>
       <c r="N278">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O278">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q278">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
+        <v>2.025</v>
+      </c>
+      <c r="V278">
         <v>1.825</v>
       </c>
-      <c r="V278">
-        <v>2.025</v>
-      </c>
       <c r="W278">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X278">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA278">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
+        <v>-1</v>
+      </c>
+      <c r="AC278">
         <v>0.825</v>
-      </c>
-      <c r="AC278">
-        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25284,7 +25284,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25296,76 +25296,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F279" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G279" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K279">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L279">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M279">
+        <v>4.5</v>
+      </c>
+      <c r="N279">
+        <v>1.55</v>
+      </c>
+      <c r="O279">
+        <v>4.5</v>
+      </c>
+      <c r="P279">
+        <v>5.25</v>
+      </c>
+      <c r="Q279">
+        <v>-1</v>
+      </c>
+      <c r="R279">
+        <v>1.875</v>
+      </c>
+      <c r="S279">
+        <v>1.975</v>
+      </c>
+      <c r="T279">
         <v>3</v>
       </c>
-      <c r="N279">
-        <v>2.25</v>
-      </c>
-      <c r="O279">
+      <c r="U279">
+        <v>1.825</v>
+      </c>
+      <c r="V279">
+        <v>2.025</v>
+      </c>
+      <c r="W279">
+        <v>-1</v>
+      </c>
+      <c r="X279">
         <v>3.5</v>
       </c>
-      <c r="P279">
-        <v>3.2</v>
-      </c>
-      <c r="Q279">
-        <v>-0.25</v>
-      </c>
-      <c r="R279">
-        <v>1.95</v>
-      </c>
-      <c r="S279">
-        <v>1.9</v>
-      </c>
-      <c r="T279">
-        <v>2.75</v>
-      </c>
-      <c r="U279">
-        <v>2.025</v>
-      </c>
-      <c r="V279">
-        <v>1.825</v>
-      </c>
-      <c r="W279">
-        <v>1.25</v>
-      </c>
-      <c r="X279">
-        <v>-1</v>
-      </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
         <v>48</v>
@@ -25474,7 +25474,7 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G281" t="s">
         <v>38</v>
@@ -25744,7 +25744,7 @@
         <v>29</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -26011,7 +26011,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26100,7 +26100,7 @@
         <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H288">
         <v>2</v>
@@ -26619,7 +26619,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26631,76 +26631,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H294">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K294">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L294">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N294">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P294">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q294">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S294">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T294">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U294">
+        <v>1.9</v>
+      </c>
+      <c r="V294">
         <v>1.95</v>
       </c>
-      <c r="V294">
-        <v>1.9</v>
-      </c>
       <c r="W294">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z294">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26708,7 +26708,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26720,76 +26720,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F295" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G295" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K295">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L295">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N295">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P295">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R295">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U295">
+        <v>1.95</v>
+      </c>
+      <c r="V295">
         <v>1.9</v>
       </c>
-      <c r="V295">
-        <v>1.95</v>
-      </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC295">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26886,7 +26886,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26898,76 +26898,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K297">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L297">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M297">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N297">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O297">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P297">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q297">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
+        <v>1.975</v>
+      </c>
+      <c r="V297">
         <v>1.875</v>
       </c>
-      <c r="V297">
-        <v>1.975</v>
-      </c>
       <c r="W297">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26975,7 +26975,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26987,76 +26987,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K298">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M298">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N298">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O298">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P298">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S298">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T298">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U298">
+        <v>1.875</v>
+      </c>
+      <c r="V298">
         <v>1.975</v>
       </c>
-      <c r="V298">
-        <v>1.875</v>
-      </c>
       <c r="W298">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X298">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
+        <v>0.825</v>
+      </c>
+      <c r="AA298">
+        <v>-1</v>
+      </c>
+      <c r="AB298">
         <v>-0.5</v>
       </c>
-      <c r="AA298">
-        <v>0.475</v>
-      </c>
-      <c r="AB298">
-        <v>-1</v>
-      </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27076,7 +27076,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27524,7 +27524,7 @@
         <v>49</v>
       </c>
       <c r="G304" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>45263.4375</v>
       </c>
       <c r="F307" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G307" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28233,10 +28233,10 @@
         <v>45269.61458333334</v>
       </c>
       <c r="F312" t="s">
+        <v>41</v>
+      </c>
+      <c r="G312" t="s">
         <v>40</v>
-      </c>
-      <c r="G312" t="s">
-        <v>41</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -28325,7 +28325,7 @@
         <v>47</v>
       </c>
       <c r="G313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28767,7 +28767,7 @@
         <v>45275.66666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G318" t="s">
         <v>32</v>
@@ -29200,7 +29200,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6838466</v>
+        <v>6838467</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29212,73 +29212,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F323" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G323" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>4</v>
+      </c>
+      <c r="J323" t="s">
+        <v>52</v>
+      </c>
+      <c r="K323">
+        <v>10</v>
+      </c>
+      <c r="L323">
+        <v>6</v>
+      </c>
+      <c r="M323">
+        <v>1.25</v>
+      </c>
+      <c r="N323">
+        <v>13</v>
+      </c>
+      <c r="O323">
+        <v>7</v>
+      </c>
+      <c r="P323">
+        <v>1.2</v>
+      </c>
+      <c r="Q323">
         <v>2</v>
       </c>
-      <c r="I323">
-        <v>2</v>
-      </c>
-      <c r="J323" t="s">
-        <v>51</v>
-      </c>
-      <c r="K323">
-        <v>4.2</v>
-      </c>
-      <c r="L323">
-        <v>3.75</v>
-      </c>
-      <c r="M323">
-        <v>1.8</v>
-      </c>
-      <c r="N323">
-        <v>4.2</v>
-      </c>
-      <c r="O323">
-        <v>3.6</v>
-      </c>
-      <c r="P323">
-        <v>1.85</v>
-      </c>
-      <c r="Q323">
-        <v>0.5</v>
-      </c>
       <c r="R323">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="S323">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U323">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z323">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB323">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29289,7 +29289,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6838467</v>
+        <v>6838466</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29301,73 +29301,73 @@
         <v>45277.4375</v>
       </c>
       <c r="F324" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K324">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="L324">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M324">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="N324">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="O324">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q324">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R324">
+        <v>2.04</v>
+      </c>
+      <c r="S324">
+        <v>1.86</v>
+      </c>
+      <c r="T324">
+        <v>2.5</v>
+      </c>
+      <c r="U324">
+        <v>1.875</v>
+      </c>
+      <c r="V324">
         <v>1.975</v>
       </c>
-      <c r="S324">
-        <v>1.875</v>
-      </c>
-      <c r="T324">
-        <v>3.5</v>
-      </c>
-      <c r="U324">
-        <v>1.9</v>
-      </c>
-      <c r="V324">
-        <v>1.95</v>
-      </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y324">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA324">
+        <v>-1</v>
+      </c>
+      <c r="AB324">
         <v>0.875</v>
-      </c>
-      <c r="AB324">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC324">
         <v>-1</v>
@@ -29390,7 +29390,7 @@
         <v>45277.53125</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G325" t="s">
         <v>47</v>
@@ -29660,7 +29660,7 @@
         <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -30105,7 +30105,7 @@
         <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H333">
         <v>2</v>
@@ -30283,7 +30283,7 @@
         <v>46</v>
       </c>
       <c r="G335" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H335">
         <v>2</v>
@@ -30458,7 +30458,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G337" t="s">
         <v>29</v>
@@ -30903,7 +30903,7 @@
         <v>45312.4375</v>
       </c>
       <c r="F342" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G342" t="s">
         <v>43</v>
@@ -30992,7 +30992,7 @@
         <v>45312.53125</v>
       </c>
       <c r="F343" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G343" t="s">
         <v>30</v>
@@ -31351,7 +31351,7 @@
         <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31425,7 +31425,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6838490</v>
+        <v>6838491</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31437,76 +31437,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G348" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>4</v>
+      </c>
+      <c r="J348" t="s">
+        <v>52</v>
+      </c>
+      <c r="K348">
+        <v>7.5</v>
+      </c>
+      <c r="L348">
+        <v>5</v>
+      </c>
+      <c r="M348">
+        <v>1.363</v>
+      </c>
+      <c r="N348">
+        <v>4.75</v>
+      </c>
+      <c r="O348">
+        <v>4.5</v>
+      </c>
+      <c r="P348">
+        <v>1.6</v>
+      </c>
+      <c r="Q348">
         <v>1</v>
       </c>
-      <c r="I348">
+      <c r="R348">
+        <v>1.85</v>
+      </c>
+      <c r="S348">
+        <v>2</v>
+      </c>
+      <c r="T348">
+        <v>3.25</v>
+      </c>
+      <c r="U348">
+        <v>1.875</v>
+      </c>
+      <c r="V348">
+        <v>1.975</v>
+      </c>
+      <c r="W348">
+        <v>-1</v>
+      </c>
+      <c r="X348">
+        <v>-1</v>
+      </c>
+      <c r="Y348">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
         <v>1</v>
       </c>
-      <c r="J348" t="s">
-        <v>51</v>
-      </c>
-      <c r="K348">
-        <v>2.7</v>
-      </c>
-      <c r="L348">
-        <v>3.6</v>
-      </c>
-      <c r="M348">
-        <v>2.375</v>
-      </c>
-      <c r="N348">
-        <v>3.2</v>
-      </c>
-      <c r="O348">
-        <v>3.6</v>
-      </c>
-      <c r="P348">
-        <v>2.15</v>
-      </c>
-      <c r="Q348">
-        <v>0.25</v>
-      </c>
-      <c r="R348">
-        <v>1.975</v>
-      </c>
-      <c r="S348">
-        <v>1.875</v>
-      </c>
-      <c r="T348">
-        <v>2.75</v>
-      </c>
-      <c r="U348">
-        <v>1.975</v>
-      </c>
-      <c r="V348">
-        <v>1.875</v>
-      </c>
-      <c r="W348">
-        <v>-1</v>
-      </c>
-      <c r="X348">
-        <v>2.6</v>
-      </c>
-      <c r="Y348">
-        <v>-1</v>
-      </c>
-      <c r="Z348">
-        <v>0.4875</v>
-      </c>
-      <c r="AA348">
-        <v>-0.5</v>
-      </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC348">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31514,7 +31514,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6838491</v>
+        <v>6838490</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31526,76 +31526,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F349" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G349" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K349">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="L349">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M349">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N349">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O349">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P349">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q349">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R349">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S349">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T349">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U349">
+        <v>1.975</v>
+      </c>
+      <c r="V349">
         <v>1.875</v>
       </c>
-      <c r="V349">
-        <v>1.975</v>
-      </c>
       <c r="W349">
         <v>-1</v>
       </c>
       <c r="X349">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y349">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA349">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB349">
+        <v>-1</v>
+      </c>
+      <c r="AC349">
         <v>0.875</v>
-      </c>
-      <c r="AC349">
-        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31707,7 +31707,7 @@
         <v>43</v>
       </c>
       <c r="G351" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H351">
         <v>2</v>
@@ -32238,7 +32238,7 @@
         <v>45325.66666666666</v>
       </c>
       <c r="F357" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G357" t="s">
         <v>33</v>
@@ -32327,7 +32327,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F358" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G358" t="s">
         <v>49</v>
@@ -32493,7 +32493,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6838501</v>
+        <v>6838503</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32505,76 +32505,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K360">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M360">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N360">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O360">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P360">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="Q360">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R360">
+        <v>2</v>
+      </c>
+      <c r="S360">
         <v>1.85</v>
       </c>
-      <c r="S360">
-        <v>2</v>
-      </c>
       <c r="T360">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U360">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V360">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA360">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC360">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32582,7 +32582,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6838503</v>
+        <v>6838501</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32594,76 +32594,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F361" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>52</v>
+      </c>
+      <c r="K361">
+        <v>3.25</v>
+      </c>
+      <c r="L361">
+        <v>3.6</v>
+      </c>
+      <c r="M361">
+        <v>2.1</v>
+      </c>
+      <c r="N361">
+        <v>5.25</v>
+      </c>
+      <c r="O361">
+        <v>4.2</v>
+      </c>
+      <c r="P361">
+        <v>1.6</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>1.85</v>
+      </c>
+      <c r="S361">
         <v>2</v>
       </c>
-      <c r="J361" t="s">
-        <v>50</v>
-      </c>
-      <c r="K361">
-        <v>1.5</v>
-      </c>
-      <c r="L361">
-        <v>4.333</v>
-      </c>
-      <c r="M361">
-        <v>6</v>
-      </c>
-      <c r="N361">
-        <v>1.285</v>
-      </c>
-      <c r="O361">
-        <v>5.5</v>
-      </c>
-      <c r="P361">
-        <v>11</v>
-      </c>
-      <c r="Q361">
-        <v>-1.75</v>
-      </c>
-      <c r="R361">
-        <v>2</v>
-      </c>
-      <c r="S361">
-        <v>1.85</v>
-      </c>
       <c r="T361">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U361">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W361">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z361">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB361">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32683,7 +32683,7 @@
         <v>45326.53125</v>
       </c>
       <c r="F362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G362" t="s">
         <v>47</v>
@@ -32775,7 +32775,7 @@
         <v>30</v>
       </c>
       <c r="G363" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -33309,7 +33309,7 @@
         <v>38</v>
       </c>
       <c r="G369" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H369">
         <v>3</v>
@@ -33487,7 +33487,7 @@
         <v>46</v>
       </c>
       <c r="G371" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H371">
         <v>2</v>
@@ -33662,7 +33662,7 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F373" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G373" t="s">
         <v>37</v>
@@ -34095,7 +34095,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6838520</v>
+        <v>6838512</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34107,61 +34107,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F378" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378" t="s">
         <v>51</v>
       </c>
       <c r="K378">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L378">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M378">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N378">
         <v>1.571</v>
       </c>
       <c r="O378">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P378">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q378">
         <v>-1</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S378">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T378">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34170,13 +34170,13 @@
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC378">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34184,7 +34184,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6838512</v>
+        <v>6838520</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34196,61 +34196,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J379" t="s">
         <v>51</v>
       </c>
       <c r="K379">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L379">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M379">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N379">
         <v>1.571</v>
       </c>
       <c r="O379">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P379">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q379">
         <v>-1</v>
       </c>
       <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.9</v>
+      </c>
+      <c r="T379">
+        <v>2.75</v>
+      </c>
+      <c r="U379">
         <v>1.925</v>
       </c>
-      <c r="S379">
+      <c r="V379">
         <v>1.925</v>
       </c>
-      <c r="T379">
-        <v>3.25</v>
-      </c>
-      <c r="U379">
-        <v>2</v>
-      </c>
-      <c r="V379">
-        <v>1.85</v>
-      </c>
       <c r="W379">
         <v>-1</v>
       </c>
       <c r="X379">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -34259,13 +34259,13 @@
         <v>-1</v>
       </c>
       <c r="AA379">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB379">
+        <v>-1</v>
+      </c>
+      <c r="AC379">
         <v>0.925</v>
-      </c>
-      <c r="AB379">
-        <v>1</v>
-      </c>
-      <c r="AC379">
-        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34379,6 +34379,15 @@
       <c r="G381" t="s">
         <v>49</v>
       </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381" t="s">
+        <v>50</v>
+      </c>
       <c r="K381">
         <v>1.666</v>
       </c>
@@ -34389,46 +34398,52 @@
         <v>4.5</v>
       </c>
       <c r="N381">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O381">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P381">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q381">
         <v>-1.25</v>
       </c>
       <c r="R381">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S381">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="T381">
         <v>3</v>
       </c>
       <c r="U381">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V381">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA381">
-        <v>0</v>
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB381">
+        <v>-1</v>
+      </c>
+      <c r="AC381">
+        <v>0.95</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34463,31 +34478,31 @@
         <v>3</v>
       </c>
       <c r="N382">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O382">
         <v>3.5</v>
       </c>
       <c r="P382">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q382">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R382">
-        <v>2.09</v>
+        <v>1.79</v>
       </c>
       <c r="S382">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U382">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V382">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34549,19 +34564,19 @@
         <v>2</v>
       </c>
       <c r="R383">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S383">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T383">
         <v>3.5</v>
       </c>
       <c r="U383">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V383">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34596,10 +34611,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G384" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K384">
         <v>1.952</v>
@@ -34632,10 +34647,10 @@
         <v>2.75</v>
       </c>
       <c r="U384">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V384">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34685,22 +34700,22 @@
         <v>2.8</v>
       </c>
       <c r="N385">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O385">
         <v>3.8</v>
       </c>
       <c r="P385">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q385">
         <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S385">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T385">
         <v>2.75</v>
@@ -34771,19 +34786,19 @@
         <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S386">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T386">
         <v>2.75</v>
       </c>
       <c r="U386">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V386">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34842,13 +34857,13 @@
         <v>1.285</v>
       </c>
       <c r="Q387">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R387">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="S387">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="T387">
         <v>3</v>
@@ -34895,7 +34910,7 @@
         <v>31</v>
       </c>
       <c r="G388" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K388">
         <v>2.25</v>
@@ -34928,10 +34943,10 @@
         <v>3</v>
       </c>
       <c r="U388">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V388">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W388">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -130,10 +130,10 @@
     <t>Excelsior</t>
   </si>
   <si>
-    <t>Heerenveen</t>
+    <t>FC Volendam</t>
   </si>
   <si>
-    <t>FC Volendam</t>
+    <t>Heerenveen</t>
   </si>
   <si>
     <t>Sparta Rotterdam</t>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5159837</v>
+        <v>5159376</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1447,73 +1447,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5159376</v>
+        <v>5159837</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1536,73 +1536,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2.025</v>
+      </c>
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
       <c r="W12">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.825</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2248,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>44948.34375</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -3316,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5159854</v>
+        <v>5159591</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,13 +3402,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3417,43 +3417,43 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="L33">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.2849999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3462,16 +3462,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5159591</v>
+        <v>5159854</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>44951.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R34">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>0.3999999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3672,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>44954.66666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>42</v>
@@ -4381,7 +4381,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4737,7 +4737,7 @@
         <v>44961.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -4918,7 +4918,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>44969.4375</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6075,7 +6075,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6339,7 +6339,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>44982.61458333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7410,7 +7410,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5159888</v>
+        <v>5159892</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7852,55 +7852,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>52</v>
       </c>
       <c r="K83">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="L83">
         <v>3.8</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>4.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
         <v>-1</v>
@@ -7918,10 +7918,10 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5159892</v>
+        <v>5159888</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,55 +7941,55 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>52</v>
       </c>
       <c r="K84">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="L84">
         <v>3.8</v>
       </c>
       <c r="M84">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N84">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
         <v>2</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>4.75</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8007,10 +8007,10 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>44989.61458333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -8211,7 +8211,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>44997.4375</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9279,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9365,7 +9365,7 @@
         <v>45002.66666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>32</v>
@@ -9724,7 +9724,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
         <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11949,7 +11949,7 @@
         <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12213,7 +12213,7 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5159401</v>
+        <v>6511816</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,76 +12391,76 @@
         <v>45032.625</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>3</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K134">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="Q134">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6511816</v>
+        <v>5159401</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,76 +12480,76 @@
         <v>45032.625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="N135">
-        <v>4.5</v>
+        <v>1.111</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P135">
-        <v>1.727</v>
+        <v>21</v>
       </c>
       <c r="Q135">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12658,7 +12658,7 @@
         <v>45037.625</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>35</v>
@@ -12747,7 +12747,7 @@
         <v>45038.57291666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -13373,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13551,7 +13551,7 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14260,7 +14260,7 @@
         <v>45059.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14349,7 +14349,7 @@
         <v>45059.625</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -15064,7 +15064,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15420,7 +15420,7 @@
         <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15773,7 +15773,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>37</v>
@@ -16307,7 +16307,7 @@
         <v>45074.39583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
         <v>43</v>
@@ -16485,7 +16485,7 @@
         <v>45078.57291666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16666,7 +16666,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -17019,7 +17019,7 @@
         <v>45149.625</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17197,7 +17197,7 @@
         <v>45150.57291666666</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>8</v>
+      </c>
+      <c r="N192">
+        <v>1.55</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
         <v>6</v>
       </c>
-      <c r="M192">
-        <v>10</v>
-      </c>
-      <c r="N192">
-        <v>1.2</v>
-      </c>
-      <c r="O192">
-        <v>7</v>
-      </c>
-      <c r="P192">
-        <v>17</v>
-      </c>
       <c r="Q192">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X192">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45151.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L193">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P193">
+        <v>17</v>
+      </c>
+      <c r="Q193">
+        <v>-2.25</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>1.8</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>6</v>
       </c>
-      <c r="Q193">
-        <v>-1</v>
-      </c>
-      <c r="R193">
-        <v>1.9</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
-      <c r="W193">
-        <v>0.55</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18179,7 +18179,7 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -18268,7 +18268,7 @@
         <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>45165.48958333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>40</v>
@@ -19247,7 +19247,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19689,7 +19689,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -20048,7 +20048,7 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20757,7 +20757,7 @@
         <v>45192.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>49</v>
@@ -21024,7 +21024,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
@@ -21828,7 +21828,7 @@
         <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -21917,7 +21917,7 @@
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22359,7 +22359,7 @@
         <v>45205.625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
         <v>34</v>
@@ -22448,7 +22448,7 @@
         <v>45206.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
         <v>36</v>
@@ -22881,7 +22881,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22893,55 +22893,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>52</v>
       </c>
       <c r="K252">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N252">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O252">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P252">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q252">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S252">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W252">
         <v>-1</v>
@@ -22950,16 +22950,16 @@
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB252">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC252">
         <v>-0.5</v>
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,55 +22982,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M253">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N253">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O253">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P253">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R253">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S253">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
         <v>2.75</v>
       </c>
       <c r="U253">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
         <v>-1</v>
@@ -23039,16 +23039,16 @@
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB253">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC253">
         <v>-0.5</v>
@@ -23163,7 +23163,7 @@
         <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6838402</v>
+        <v>6838405</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,13 +23427,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23442,43 +23442,43 @@
         <v>50</v>
       </c>
       <c r="K258">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L258">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M258">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N258">
-        <v>1.111</v>
+        <v>1.363</v>
       </c>
       <c r="O258">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="P258">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q258">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T258">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V258">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W258">
-        <v>0.111</v>
+        <v>0.363</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23487,13 +23487,13 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AC258">
         <v>-0.5</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6838405</v>
+        <v>6838402</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,13 +23516,13 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23531,43 +23531,43 @@
         <v>50</v>
       </c>
       <c r="K259">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L259">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M259">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N259">
-        <v>1.363</v>
+        <v>1.111</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R259">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U259">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W259">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23576,13 +23576,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AC259">
         <v>-0.5</v>
@@ -24050,7 +24050,7 @@
         <v>45227.57291666666</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,76 +24139,76 @@
         <v>45227.625</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K266">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L266">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M266">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N266">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O266">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P266">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q266">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
         <v>1.875</v>
-      </c>
-      <c r="S266">
-        <v>1.975</v>
       </c>
       <c r="T266">
         <v>2.75</v>
       </c>
       <c r="U266">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V266">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X266">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
         <v>-1</v>
       </c>
       <c r="AC266">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,76 +24228,76 @@
         <v>45227.625</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K267">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L267">
+        <v>3.5</v>
+      </c>
+      <c r="M267">
+        <v>2.5</v>
+      </c>
+      <c r="N267">
+        <v>2.9</v>
+      </c>
+      <c r="O267">
         <v>3.6</v>
       </c>
-      <c r="M267">
-        <v>4.333</v>
-      </c>
-      <c r="N267">
-        <v>1.75</v>
-      </c>
-      <c r="O267">
-        <v>3.75</v>
-      </c>
       <c r="P267">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
+        <v>1.875</v>
+      </c>
+      <c r="S267">
         <v>1.975</v>
-      </c>
-      <c r="S267">
-        <v>1.875</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W267">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24495,7 +24495,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G270" t="s">
         <v>37</v>
@@ -24676,7 +24676,7 @@
         <v>41</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838420</v>
+        <v>6838421</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,40 +24851,40 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H274">
         <v>1</v>
       </c>
       <c r="I274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K274">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L274">
         <v>4.5</v>
       </c>
       <c r="M274">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N274">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="O274">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P274">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="Q274">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R274">
         <v>1.9</v>
@@ -24893,22 +24893,22 @@
         <v>1.95</v>
       </c>
       <c r="T274">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U274">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V274">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y274">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
         <v>0.8999999999999999</v>
@@ -24920,7 +24920,7 @@
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6838421</v>
+        <v>6838420</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,40 +24940,40 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H275">
         <v>1</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L275">
         <v>4.5</v>
       </c>
       <c r="M275">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N275">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O275">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="P275">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="Q275">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R275">
         <v>1.9</v>
@@ -24982,22 +24982,22 @@
         <v>1.95</v>
       </c>
       <c r="T275">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V275">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z275">
         <v>0.8999999999999999</v>
@@ -25009,7 +25009,7 @@
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>36</v>
       </c>
       <c r="G279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H280">
+        <v>4</v>
+      </c>
+      <c r="I280">
         <v>1</v>
       </c>
-      <c r="I280">
+      <c r="J280" t="s">
+        <v>50</v>
+      </c>
+      <c r="K280">
+        <v>1.444</v>
+      </c>
+      <c r="L280">
+        <v>4.6</v>
+      </c>
+      <c r="M280">
+        <v>5.5</v>
+      </c>
+      <c r="N280">
+        <v>1.4</v>
+      </c>
+      <c r="O280">
+        <v>5.25</v>
+      </c>
+      <c r="P280">
+        <v>7</v>
+      </c>
+      <c r="Q280">
+        <v>-1.5</v>
+      </c>
+      <c r="R280">
         <v>2</v>
       </c>
-      <c r="J280" t="s">
-        <v>52</v>
-      </c>
-      <c r="K280">
-        <v>2.15</v>
-      </c>
-      <c r="L280">
-        <v>3.4</v>
-      </c>
-      <c r="M280">
-        <v>3</v>
-      </c>
-      <c r="N280">
-        <v>1.7</v>
-      </c>
-      <c r="O280">
-        <v>4</v>
-      </c>
-      <c r="P280">
-        <v>4.75</v>
-      </c>
-      <c r="Q280">
-        <v>-0.75</v>
-      </c>
-      <c r="R280">
-        <v>1.9</v>
-      </c>
       <c r="S280">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U280">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V280">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA280">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G281" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>52</v>
+      </c>
+      <c r="K281">
+        <v>2.15</v>
+      </c>
+      <c r="L281">
+        <v>3.4</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>1.7</v>
+      </c>
+      <c r="O281">
         <v>4</v>
       </c>
-      <c r="I281">
-        <v>1</v>
-      </c>
-      <c r="J281" t="s">
-        <v>50</v>
-      </c>
-      <c r="K281">
-        <v>1.444</v>
-      </c>
-      <c r="L281">
-        <v>4.6</v>
-      </c>
-      <c r="M281">
-        <v>5.5</v>
-      </c>
-      <c r="N281">
-        <v>1.4</v>
-      </c>
-      <c r="O281">
-        <v>5.25</v>
-      </c>
       <c r="P281">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q281">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R281">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB281">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25833,7 +25833,7 @@
         <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,73 +26008,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287" t="s">
+        <v>51</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+      <c r="L287">
+        <v>4.4</v>
+      </c>
+      <c r="M287">
+        <v>1.571</v>
+      </c>
+      <c r="N287">
+        <v>5.25</v>
+      </c>
+      <c r="O287">
+        <v>4.75</v>
+      </c>
+      <c r="P287">
+        <v>1.533</v>
+      </c>
+      <c r="Q287">
         <v>1</v>
       </c>
-      <c r="I287">
-        <v>4</v>
-      </c>
-      <c r="J287" t="s">
-        <v>52</v>
-      </c>
-      <c r="K287">
-        <v>2.625</v>
-      </c>
-      <c r="L287">
-        <v>3.6</v>
-      </c>
-      <c r="M287">
-        <v>2.5</v>
-      </c>
-      <c r="N287">
-        <v>3</v>
-      </c>
-      <c r="O287">
+      <c r="R287">
+        <v>2.04</v>
+      </c>
+      <c r="S287">
+        <v>1.86</v>
+      </c>
+      <c r="T287">
+        <v>3.25</v>
+      </c>
+      <c r="U287">
+        <v>1.9</v>
+      </c>
+      <c r="V287">
+        <v>1.95</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
         <v>3.75</v>
       </c>
-      <c r="P287">
-        <v>2.2</v>
-      </c>
-      <c r="Q287">
-        <v>0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.925</v>
-      </c>
-      <c r="S287">
-        <v>1.925</v>
-      </c>
-      <c r="T287">
-        <v>3</v>
-      </c>
-      <c r="U287">
-        <v>2.05</v>
-      </c>
-      <c r="V287">
-        <v>1.8</v>
-      </c>
-      <c r="W287">
-        <v>-1</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
       <c r="Y287">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA287">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,73 +26097,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L288">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N288">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O288">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P288">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q288">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S288">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z288">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB288">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26453,7 +26453,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G292" t="s">
         <v>32</v>
@@ -26886,7 +26886,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26898,76 +26898,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K297">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M297">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N297">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O297">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P297">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
         <v>1.975</v>
       </c>
-      <c r="V297">
-        <v>1.875</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X297">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
+        <v>0.825</v>
+      </c>
+      <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
         <v>-0.5</v>
       </c>
-      <c r="AA297">
-        <v>0.475</v>
-      </c>
-      <c r="AB297">
-        <v>-1</v>
-      </c>
       <c r="AC297">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26975,7 +26975,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26987,76 +26987,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F298" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L298">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N298">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O298">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P298">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q298">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
         <v>1.875</v>
       </c>
-      <c r="V298">
-        <v>1.975</v>
-      </c>
       <c r="W298">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27165,7 +27165,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G300" t="s">
         <v>48</v>
@@ -27254,7 +27254,7 @@
         <v>45262.61458333334</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>47</v>
@@ -27969,7 +27969,7 @@
         <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28058,7 +28058,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -29034,10 +29034,10 @@
         <v>45276.70833333334</v>
       </c>
       <c r="F321" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" t="s">
         <v>38</v>
-      </c>
-      <c r="G321" t="s">
-        <v>39</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29838,7 +29838,7 @@
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -30013,7 +30013,7 @@
         <v>45305.34375</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G332" t="s">
         <v>48</v>
@@ -30372,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30550,7 +30550,7 @@
         <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31615,7 +31615,7 @@
         <v>45319.34375</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31882,7 +31882,7 @@
         <v>45319.53125</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
@@ -32152,7 +32152,7 @@
         <v>32</v>
       </c>
       <c r="G356" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H356">
         <v>3</v>
@@ -32508,7 +32508,7 @@
         <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H360">
         <v>4</v>
@@ -33306,7 +33306,7 @@
         <v>45333.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G369" t="s">
         <v>41</v>
@@ -33395,7 +33395,7 @@
         <v>45333.53125</v>
       </c>
       <c r="F370" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G370" t="s">
         <v>33</v>
@@ -33828,7 +33828,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6838516</v>
+        <v>6838518</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33840,55 +33840,55 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G375" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H375">
         <v>0</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
         <v>52</v>
       </c>
       <c r="K375">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L375">
         <v>3.5</v>
       </c>
       <c r="M375">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N375">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O375">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P375">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S375">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T375">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
         <v>-1</v>
@@ -33897,19 +33897,19 @@
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB375">
         <v>-1</v>
       </c>
       <c r="AC375">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33917,7 +33917,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6838518</v>
+        <v>6838516</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33929,56 +33929,56 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G376" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H376">
         <v>0</v>
       </c>
       <c r="I376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
         <v>52</v>
       </c>
       <c r="K376">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L376">
         <v>3.5</v>
       </c>
       <c r="M376">
+        <v>3.3</v>
+      </c>
+      <c r="N376">
+        <v>2.2</v>
+      </c>
+      <c r="O376">
         <v>3.5</v>
       </c>
-      <c r="N376">
-        <v>1.909</v>
-      </c>
-      <c r="O376">
-        <v>3.6</v>
-      </c>
       <c r="P376">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q376">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
+        <v>1.925</v>
+      </c>
+      <c r="S376">
+        <v>1.925</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
+        <v>1.9</v>
+      </c>
+      <c r="V376">
         <v>1.95</v>
       </c>
-      <c r="S376">
-        <v>1.9</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
-      <c r="U376">
-        <v>2</v>
-      </c>
-      <c r="V376">
-        <v>1.85</v>
-      </c>
       <c r="W376">
         <v>-1</v>
       </c>
@@ -33986,19 +33986,19 @@
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB376">
         <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34199,7 +34199,7 @@
         <v>42</v>
       </c>
       <c r="G379" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34490,19 +34490,19 @@
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S382">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="T382">
         <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V382">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34552,31 +34552,31 @@
         <v>1.222</v>
       </c>
       <c r="N383">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O383">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P383">
         <v>1.222</v>
       </c>
       <c r="Q383">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R383">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S383">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34626,31 +34626,31 @@
         <v>3.4</v>
       </c>
       <c r="N384">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O384">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P384">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q384">
         <v>-0.5</v>
       </c>
       <c r="R384">
+        <v>2.07</v>
+      </c>
+      <c r="S384">
+        <v>1.83</v>
+      </c>
+      <c r="T384">
+        <v>2.5</v>
+      </c>
+      <c r="U384">
+        <v>1.9</v>
+      </c>
+      <c r="V384">
         <v>1.95</v>
-      </c>
-      <c r="S384">
-        <v>1.95</v>
-      </c>
-      <c r="T384">
-        <v>2.75</v>
-      </c>
-      <c r="U384">
-        <v>2.05</v>
-      </c>
-      <c r="V384">
-        <v>1.8</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S386">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T386">
         <v>2.75</v>
       </c>
       <c r="U386">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V386">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>1.285</v>
       </c>
       <c r="Q387">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R387">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S387">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="T387">
         <v>3</v>
@@ -34934,10 +34934,10 @@
         <v>-0.5</v>
       </c>
       <c r="R388">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S388">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T388">
         <v>3</v>
@@ -34981,10 +34981,10 @@
         <v>45347.66666666666</v>
       </c>
       <c r="F389" t="s">
+        <v>38</v>
+      </c>
+      <c r="G389" t="s">
         <v>39</v>
-      </c>
-      <c r="G389" t="s">
-        <v>38</v>
       </c>
       <c r="K389">
         <v>4</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6838450</v>
+        <v>6838451</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,55 +27699,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G306" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J306" t="s">
         <v>52</v>
       </c>
       <c r="K306">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L306">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M306">
         <v>1.75</v>
       </c>
       <c r="N306">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P306">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q306">
         <v>0.5</v>
       </c>
       <c r="R306">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S306">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27756,19 +27756,19 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC306">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27776,7 +27776,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838451</v>
+        <v>6838450</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27788,55 +27788,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F307" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>52</v>
       </c>
       <c r="K307">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L307">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M307">
         <v>1.75</v>
       </c>
       <c r="N307">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P307">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q307">
         <v>0.5</v>
       </c>
       <c r="R307">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S307">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U307">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27845,19 +27845,19 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB307">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -34766,10 +34766,10 @@
         <v>2.75</v>
       </c>
       <c r="U385">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V385">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34840,10 +34840,10 @@
         <v>3</v>
       </c>
       <c r="U386">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V386">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34905,10 +34905,10 @@
         <v>1.75</v>
       </c>
       <c r="R387">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S387">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T387">
         <v>3</v>
@@ -35053,10 +35053,10 @@
         <v>0.75</v>
       </c>
       <c r="R389">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S389">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T389">
         <v>2.75</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L23">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>2.05</v>
       </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X23">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>1.05</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>1.025</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,73 +2592,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>5.5</v>
+      </c>
+      <c r="L24">
+        <v>4.333</v>
+      </c>
+      <c r="M24">
+        <v>1.533</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>4.2</v>
+      </c>
+      <c r="P24">
+        <v>1.65</v>
+      </c>
+      <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>1.363</v>
-      </c>
-      <c r="L24">
-        <v>4.75</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>1.444</v>
-      </c>
-      <c r="O24">
-        <v>4.75</v>
-      </c>
-      <c r="P24">
-        <v>7.5</v>
-      </c>
-      <c r="Q24">
-        <v>-1.25</v>
-      </c>
-      <c r="R24">
-        <v>1.9</v>
-      </c>
-      <c r="S24">
-        <v>1.95</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838370</v>
+        <v>6838367</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X46">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6838367</v>
+        <v>6838370</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47">
+        <v>2.1</v>
+      </c>
+      <c r="L47">
         <v>3.6</v>
       </c>
-      <c r="L47">
-        <v>3.75</v>
-      </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W47">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6838384</v>
+        <v>6838383</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55">
         <v>4.333</v>
       </c>
-      <c r="O55">
-        <v>4</v>
-      </c>
       <c r="P55">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838383</v>
+        <v>6838384</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
+        <v>3.8</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1.8</v>
+      </c>
+      <c r="N56">
         <v>4.333</v>
       </c>
-      <c r="L56">
-        <v>4.2</v>
-      </c>
-      <c r="M56">
-        <v>1.666</v>
-      </c>
-      <c r="N56">
-        <v>6</v>
-      </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6838409</v>
+        <v>6838408</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,73 +7843,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83">
         <v>4</v>
       </c>
-      <c r="J83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K83">
-        <v>2.375</v>
-      </c>
-      <c r="L83">
-        <v>3.6</v>
-      </c>
       <c r="M83">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N83">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6838408</v>
+        <v>6838409</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,73 +7932,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84">
+        <v>2.375</v>
+      </c>
+      <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
+        <v>2.375</v>
+      </c>
+      <c r="N84">
+        <v>2.2</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>2.8</v>
+      </c>
+      <c r="Q84">
+        <v>-0.25</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>2</v>
       </c>
-      <c r="J84" t="s">
-        <v>49</v>
-      </c>
-      <c r="K84">
-        <v>5</v>
-      </c>
-      <c r="L84">
-        <v>4</v>
-      </c>
-      <c r="M84">
-        <v>1.615</v>
-      </c>
-      <c r="N84">
-        <v>6</v>
-      </c>
-      <c r="O84">
-        <v>4.5</v>
-      </c>
-      <c r="P84">
-        <v>1.5</v>
-      </c>
-      <c r="Q84">
+      <c r="V84">
+        <v>1.85</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>1.8</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.875</v>
+      </c>
+      <c r="AB84">
         <v>1</v>
-      </c>
-      <c r="R84">
-        <v>2.025</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2.05</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>3.5</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>1.025</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>0.8</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45227.625</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
         <v>1.875</v>
-      </c>
-      <c r="S88">
-        <v>1.975</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45227.625</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
+        <v>2.5</v>
+      </c>
+      <c r="N89">
+        <v>2.9</v>
+      </c>
+      <c r="O89">
         <v>3.6</v>
       </c>
-      <c r="M89">
-        <v>4.333</v>
-      </c>
-      <c r="N89">
-        <v>1.75</v>
-      </c>
-      <c r="O89">
-        <v>3.75</v>
-      </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
         <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>1.875</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,58 +8644,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>48</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N92">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O92">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,13 +8704,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,58 +8733,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N93">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,13 +8793,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M100">
+        <v>4.5</v>
+      </c>
+      <c r="N100">
+        <v>1.55</v>
+      </c>
+      <c r="O100">
+        <v>4.5</v>
+      </c>
+      <c r="P100">
+        <v>5.25</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="N100">
-        <v>2.25</v>
-      </c>
-      <c r="O100">
+      <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3.5</v>
       </c>
-      <c r="P100">
-        <v>3.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.25</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.05</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K101">
-        <v>1.6</v>
-      </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>4.5</v>
-      </c>
       <c r="N101">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>2.025</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.825</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102">
+        <v>2.15</v>
+      </c>
+      <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>1.7</v>
+      </c>
+      <c r="O102">
         <v>4</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>48</v>
-      </c>
-      <c r="K102">
-        <v>1.444</v>
-      </c>
-      <c r="L102">
-        <v>4.6</v>
-      </c>
-      <c r="M102">
-        <v>5.5</v>
-      </c>
-      <c r="N102">
-        <v>1.4</v>
-      </c>
-      <c r="O102">
-        <v>5.25</v>
-      </c>
       <c r="P102">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q102">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
-      <c r="I103">
+      <c r="J103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103">
+        <v>1.444</v>
+      </c>
+      <c r="L103">
+        <v>4.6</v>
+      </c>
+      <c r="M103">
+        <v>5.5</v>
+      </c>
+      <c r="N103">
+        <v>1.4</v>
+      </c>
+      <c r="O103">
+        <v>5.25</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103">
+        <v>-1.5</v>
+      </c>
+      <c r="R103">
         <v>2</v>
       </c>
-      <c r="J103" t="s">
-        <v>47</v>
-      </c>
-      <c r="K103">
-        <v>2.15</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>1.7</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>4.75</v>
-      </c>
-      <c r="Q103">
-        <v>-0.75</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
       <c r="W116">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N117">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.825</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>-0.5</v>
       </c>
-      <c r="AA119">
-        <v>0.475</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O120">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
         <v>1.875</v>
       </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,73 +11492,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
+        <v>3.7</v>
+      </c>
+      <c r="M124">
+        <v>3.1</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
         <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>2</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,73 +11581,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125">
         <v>2</v>
       </c>
-      <c r="I125">
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>3.4</v>
+      </c>
+      <c r="N125">
         <v>2</v>
       </c>
-      <c r="J125" t="s">
-        <v>49</v>
-      </c>
-      <c r="K125">
-        <v>2.05</v>
-      </c>
-      <c r="L125">
-        <v>3.7</v>
-      </c>
-      <c r="M125">
-        <v>3.1</v>
-      </c>
-      <c r="N125">
-        <v>1.95</v>
-      </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6838477</v>
+        <v>6838476</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P155">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z155">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6838476</v>
+        <v>6838477</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L156">
         <v>3.6</v>
       </c>
       <c r="M156">
+        <v>2.5</v>
+      </c>
+      <c r="N156">
+        <v>2.9</v>
+      </c>
+      <c r="O156">
+        <v>3.8</v>
+      </c>
+      <c r="P156">
+        <v>2.2</v>
+      </c>
+      <c r="Q156">
+        <v>0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.825</v>
+      </c>
+      <c r="S156">
+        <v>2.025</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
         <v>2</v>
       </c>
-      <c r="N156">
-        <v>4.2</v>
-      </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>1.75</v>
-      </c>
-      <c r="Q156">
-        <v>0.75</v>
-      </c>
-      <c r="R156">
+      <c r="V156">
         <v>1.85</v>
       </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
-      <c r="U156">
-        <v>1.975</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
+        <v>0.4125</v>
+      </c>
+      <c r="AA156">
         <v>-0.5</v>
       </c>
-      <c r="AA156">
-        <v>0.5</v>
-      </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L168">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N168">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L169">
+        <v>9.5</v>
+      </c>
+      <c r="M169">
+        <v>19</v>
+      </c>
+      <c r="N169">
+        <v>1.1</v>
+      </c>
+      <c r="O169">
+        <v>10</v>
+      </c>
+      <c r="P169">
+        <v>23</v>
+      </c>
+      <c r="Q169">
+        <v>-2.5</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
         <v>3.75</v>
       </c>
-      <c r="M169">
-        <v>2.1</v>
-      </c>
-      <c r="N169">
-        <v>2.3</v>
-      </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
-      <c r="P169">
-        <v>2.8</v>
-      </c>
-      <c r="Q169">
-        <v>-0.25</v>
-      </c>
-      <c r="R169">
+      <c r="U169">
         <v>2.025</v>
       </c>
-      <c r="S169">
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.975</v>
-      </c>
-      <c r="V169">
-        <v>1.875</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838490</v>
+        <v>6838491</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170" t="s">
+        <v>47</v>
+      </c>
+      <c r="K170">
+        <v>7.5</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="M170">
+        <v>1.363</v>
+      </c>
+      <c r="N170">
+        <v>4.75</v>
+      </c>
+      <c r="O170">
+        <v>4.5</v>
+      </c>
+      <c r="P170">
+        <v>1.6</v>
+      </c>
+      <c r="Q170">
         <v>1</v>
       </c>
-      <c r="I170">
+      <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
+        <v>1.975</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
         <v>1</v>
       </c>
-      <c r="J170" t="s">
-        <v>49</v>
-      </c>
-      <c r="K170">
-        <v>2.7</v>
-      </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>2.375</v>
-      </c>
-      <c r="N170">
-        <v>3.2</v>
-      </c>
-      <c r="O170">
-        <v>3.6</v>
-      </c>
-      <c r="P170">
-        <v>2.15</v>
-      </c>
-      <c r="Q170">
-        <v>0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.975</v>
-      </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>1.875</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2.6</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.4875</v>
-      </c>
-      <c r="AA170">
-        <v>-0.5</v>
-      </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6838491</v>
+        <v>6838490</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N171">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O171">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
         <v>1.875</v>
       </c>
-      <c r="V171">
-        <v>1.975</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.875</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N173">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L174">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6838506</v>
+        <v>6838511</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,59 +17366,59 @@
         <v>45333.4375</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>48</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M190">
+        <v>1.571</v>
+      </c>
+      <c r="N190">
         <v>3.5</v>
       </c>
-      <c r="N190">
-        <v>1.615</v>
-      </c>
       <c r="O190">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>1.9</v>
+      </c>
+      <c r="V190">
+        <v>1.95</v>
+      </c>
+      <c r="W190">
         <v>2.5</v>
       </c>
-      <c r="U190">
-        <v>1.95</v>
-      </c>
-      <c r="V190">
-        <v>1.9</v>
-      </c>
-      <c r="W190">
-        <v>0.615</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -17426,13 +17426,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6838511</v>
+        <v>6838506</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,58 +17455,58 @@
         <v>45333.4375</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>48</v>
       </c>
       <c r="K191">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
         <v>1.9</v>
       </c>
-      <c r="V191">
-        <v>1.95</v>
-      </c>
       <c r="W191">
-        <v>2.5</v>
+        <v>0.615</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17515,13 +17515,13 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6838524</v>
+        <v>6838521</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45347.4375</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="L208">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="M208">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="N208">
-        <v>1.363</v>
+        <v>12</v>
       </c>
       <c r="O208">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P208">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q208">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
         <v>2.025</v>
       </c>
-      <c r="S208">
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
         <v>1.825</v>
       </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z208">
+        <v>-0.5</v>
+      </c>
+      <c r="AA208">
+        <v>0.5125</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>1.025</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>0</v>
-      </c>
-      <c r="AC208">
-        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6838521</v>
+        <v>6838524</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45347.4375</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>2</v>
-      </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="L209">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="M209">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="N209">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="O209">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P209">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q209">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R209">
+        <v>2.025</v>
+      </c>
+      <c r="S209">
         <v>1.825</v>
       </c>
-      <c r="S209">
-        <v>2.025</v>
-      </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA209">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC209">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19339,31 +19339,31 @@
         <v>1.833</v>
       </c>
       <c r="N212">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P212">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="Q212">
         <v>0.75</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T212">
         <v>3</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19413,31 +19413,31 @@
         <v>4.2</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19487,31 +19487,31 @@
         <v>1.615</v>
       </c>
       <c r="N214">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P214">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q214">
         <v>1</v>
       </c>
       <c r="R214">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
+        <v>2.025</v>
+      </c>
+      <c r="V214">
         <v>1.825</v>
-      </c>
-      <c r="V214">
-        <v>2.025</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19573,10 +19573,10 @@
         <v>0.5</v>
       </c>
       <c r="R215">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S215">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
         <v>2.5</v>
@@ -19635,31 +19635,31 @@
         <v>4.333</v>
       </c>
       <c r="N216">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q216">
         <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19721,10 +19721,10 @@
         <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S217">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T217">
         <v>2.75</v>
@@ -19783,31 +19783,31 @@
         <v>3.3</v>
       </c>
       <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.5</v>
+      </c>
+      <c r="R218">
         <v>2.05</v>
       </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>3.3</v>
-      </c>
-      <c r="Q218">
-        <v>-0.25</v>
-      </c>
-      <c r="R218">
-        <v>1.83</v>
-      </c>
       <c r="S218">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19860,7 +19860,7 @@
         <v>1.909</v>
       </c>
       <c r="O219">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
         <v>3.6</v>
@@ -19869,19 +19869,19 @@
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19934,28 +19934,28 @@
         <v>2.45</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S220">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -130,10 +130,10 @@
     <t>NEC</t>
   </si>
   <si>
-    <t>Feyenoord</t>
+    <t>AZ</t>
   </si>
   <si>
-    <t>AZ</t>
+    <t>Feyenoord</t>
   </si>
   <si>
     <t>Almere City FC</t>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L14">
+        <v>4.5</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>1.55</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
         <v>6</v>
       </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>1.2</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
       <c r="Q14">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X14">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>-2.25</v>
+      </c>
+      <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1.85</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>6</v>
       </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>0.55</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>5.5</v>
+      </c>
+      <c r="L23">
+        <v>4.333</v>
+      </c>
+      <c r="M23">
+        <v>1.533</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>4.2</v>
+      </c>
+      <c r="P23">
+        <v>1.65</v>
+      </c>
+      <c r="Q23">
+        <v>0.75</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>1.363</v>
-      </c>
-      <c r="L23">
-        <v>4.75</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1.444</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
-      <c r="P23">
-        <v>7.5</v>
-      </c>
-      <c r="Q23">
-        <v>-1.25</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,73 +2592,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M24">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3.25</v>
+      </c>
+      <c r="U24">
         <v>2.05</v>
       </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>2.025</v>
-      </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X24">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>1.05</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>1.025</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2684,7 +2684,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45165.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6838363</v>
+        <v>6838364</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,58 +4194,58 @@
         <v>45185.625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>48</v>
       </c>
       <c r="K42">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4254,16 +4254,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6838364</v>
+        <v>6838363</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,58 +4283,58 @@
         <v>45185.625</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>9.5</v>
+      </c>
+      <c r="N43">
+        <v>1.166</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+      <c r="P43">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>-2.25</v>
+      </c>
+      <c r="R43">
+        <v>1.9</v>
+      </c>
+      <c r="S43">
+        <v>1.95</v>
+      </c>
+      <c r="T43">
         <v>3.75</v>
       </c>
-      <c r="M43">
-        <v>3.6</v>
-      </c>
-      <c r="N43">
-        <v>1.444</v>
-      </c>
-      <c r="O43">
-        <v>4.75</v>
-      </c>
-      <c r="P43">
-        <v>7.5</v>
-      </c>
-      <c r="Q43">
-        <v>-1.25</v>
-      </c>
-      <c r="R43">
+      <c r="U43">
         <v>1.925</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>1.925</v>
       </c>
-      <c r="T43">
-        <v>3</v>
-      </c>
-      <c r="U43">
-        <v>1.875</v>
-      </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>0.444</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4343,16 +4343,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838367</v>
+        <v>6838370</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
+        <v>2.1</v>
+      </c>
+      <c r="L46">
         <v>3.6</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W46">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6838370</v>
+        <v>6838367</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45186.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>45186.48958333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6838383</v>
+        <v>6838384</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
+        <v>3.8</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>1.8</v>
+      </c>
+      <c r="N55">
         <v>4.333</v>
       </c>
-      <c r="L55">
-        <v>4.2</v>
-      </c>
-      <c r="M55">
-        <v>1.666</v>
-      </c>
-      <c r="N55">
-        <v>6</v>
-      </c>
       <c r="O55">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838384</v>
+        <v>6838383</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45193.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
         <v>4.333</v>
       </c>
-      <c r="O56">
-        <v>4</v>
-      </c>
       <c r="P56">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45197.625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -5796,7 +5796,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -6419,7 +6419,7 @@
         <v>45200.48958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6956,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,55 +7042,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7099,16 +7099,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB74">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC74">
         <v>-0.5</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,16 +7188,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC75">
         <v>-0.5</v>
@@ -7576,7 +7576,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7665,7 +7665,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -8558,7 +8558,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,58 +8644,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>48</v>
       </c>
       <c r="K92">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N92">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P92">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R92">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,13 +8704,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,58 +8733,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N93">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O93">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,13 +8793,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6838420</v>
+        <v>6838421</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,7 +9000,7 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
         <v>38</v>
@@ -9009,31 +9009,31 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L96">
         <v>4.5</v>
       </c>
       <c r="M96">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N96">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="Q96">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R96">
         <v>1.9</v>
@@ -9042,22 +9042,22 @@
         <v>1.95</v>
       </c>
       <c r="T96">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y96">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>0.8999999999999999</v>
@@ -9069,7 +9069,7 @@
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6838421</v>
+        <v>6838420</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,7 +9089,7 @@
         <v>45234.61458333334</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
         <v>39</v>
@@ -9098,31 +9098,31 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L97">
         <v>4.5</v>
       </c>
       <c r="M97">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N97">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="P97">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="Q97">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R97">
         <v>1.9</v>
@@ -9131,22 +9131,22 @@
         <v>1.95</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z97">
         <v>0.8999999999999999</v>
@@ -9158,7 +9158,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>2.05</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K100">
-        <v>1.6</v>
-      </c>
-      <c r="L100">
-        <v>4</v>
-      </c>
-      <c r="M100">
-        <v>4.5</v>
-      </c>
       <c r="N100">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.825</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M101">
+        <v>4.5</v>
+      </c>
+      <c r="N101">
+        <v>1.55</v>
+      </c>
+      <c r="O101">
+        <v>4.5</v>
+      </c>
+      <c r="P101">
+        <v>5.25</v>
+      </c>
+      <c r="Q101">
+        <v>-1</v>
+      </c>
+      <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
         <v>3</v>
       </c>
-      <c r="N101">
-        <v>2.25</v>
-      </c>
-      <c r="O101">
+      <c r="U101">
+        <v>1.825</v>
+      </c>
+      <c r="V101">
+        <v>2.025</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3.5</v>
       </c>
-      <c r="P101">
-        <v>3.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.95</v>
-      </c>
-      <c r="S101">
-        <v>1.9</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
-      <c r="W101">
-        <v>1.25</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6838426</v>
+        <v>6838419</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
+      <c r="J102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102">
+        <v>1.444</v>
+      </c>
+      <c r="L102">
+        <v>4.6</v>
+      </c>
+      <c r="M102">
+        <v>5.5</v>
+      </c>
+      <c r="N102">
+        <v>1.4</v>
+      </c>
+      <c r="O102">
+        <v>5.25</v>
+      </c>
+      <c r="P102">
+        <v>7</v>
+      </c>
+      <c r="Q102">
+        <v>-1.5</v>
+      </c>
+      <c r="R102">
         <v>2</v>
       </c>
-      <c r="J102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K102">
-        <v>2.15</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>1.7</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>4.75</v>
-      </c>
-      <c r="Q102">
-        <v>-0.75</v>
-      </c>
-      <c r="R102">
-        <v>1.9</v>
-      </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6838419</v>
+        <v>6838426</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45235.53125</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103">
+        <v>2.15</v>
+      </c>
+      <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>1.7</v>
+      </c>
+      <c r="O103">
         <v>4</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103" t="s">
-        <v>48</v>
-      </c>
-      <c r="K103">
-        <v>1.444</v>
-      </c>
-      <c r="L103">
-        <v>4.6</v>
-      </c>
-      <c r="M103">
-        <v>5.5</v>
-      </c>
-      <c r="N103">
-        <v>1.4</v>
-      </c>
-      <c r="O103">
-        <v>5.25</v>
-      </c>
       <c r="P103">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10335,10 +10335,10 @@
         <v>45242.53125</v>
       </c>
       <c r="F111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" t="s">
         <v>38</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
+        <v>3.8</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
         <v>2</v>
       </c>
-      <c r="Q115">
-        <v>0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
-      <c r="S115">
-        <v>2.025</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>2.025</v>
-      </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
       </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
-        <v>1.025</v>
-      </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,73 +11492,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>48</v>
+      </c>
+      <c r="K124">
         <v>2</v>
       </c>
-      <c r="I124">
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>3.4</v>
+      </c>
+      <c r="N124">
         <v>2</v>
       </c>
-      <c r="J124" t="s">
-        <v>49</v>
-      </c>
-      <c r="K124">
-        <v>2.05</v>
-      </c>
-      <c r="L124">
-        <v>3.7</v>
-      </c>
-      <c r="M124">
-        <v>3.1</v>
-      </c>
-      <c r="N124">
-        <v>1.95</v>
-      </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,73 +11581,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
+        <v>3.7</v>
+      </c>
+      <c r="M125">
+        <v>3.1</v>
+      </c>
+      <c r="N125">
+        <v>1.95</v>
+      </c>
+      <c r="O125">
+        <v>3.8</v>
+      </c>
+      <c r="P125">
         <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>2</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11759,7 +11759,7 @@
         <v>45263.34375</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -12029,7 +12029,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12560,7 +12560,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
         <v>34</v>
@@ -13898,7 +13898,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>45305.53125</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
@@ -14966,7 +14966,7 @@
         <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L168">
+        <v>9.5</v>
+      </c>
+      <c r="M168">
+        <v>19</v>
+      </c>
+      <c r="N168">
+        <v>1.1</v>
+      </c>
+      <c r="O168">
+        <v>10</v>
+      </c>
+      <c r="P168">
+        <v>23</v>
+      </c>
+      <c r="Q168">
+        <v>-2.5</v>
+      </c>
+      <c r="R168">
+        <v>1.9</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
         <v>3.75</v>
       </c>
-      <c r="M168">
-        <v>2.1</v>
-      </c>
-      <c r="N168">
-        <v>2.3</v>
-      </c>
-      <c r="O168">
-        <v>3.75</v>
-      </c>
-      <c r="P168">
-        <v>2.8</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
+      <c r="U168">
         <v>2.025</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.825</v>
       </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.975</v>
-      </c>
-      <c r="V168">
-        <v>1.875</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L169">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N169">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15853,7 +15853,7 @@
         <v>45319.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>31</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838501</v>
+        <v>6838503</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L182">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M182">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N182">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P182">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="Q182">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6838503</v>
+        <v>6838501</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>47</v>
+      </c>
+      <c r="K183">
+        <v>3.25</v>
+      </c>
+      <c r="L183">
+        <v>3.6</v>
+      </c>
+      <c r="M183">
+        <v>2.1</v>
+      </c>
+      <c r="N183">
+        <v>5.25</v>
+      </c>
+      <c r="O183">
+        <v>4.2</v>
+      </c>
+      <c r="P183">
+        <v>1.6</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
         <v>2</v>
       </c>
-      <c r="J183" t="s">
-        <v>48</v>
-      </c>
-      <c r="K183">
-        <v>1.5</v>
-      </c>
-      <c r="L183">
-        <v>4.333</v>
-      </c>
-      <c r="M183">
-        <v>6</v>
-      </c>
-      <c r="N183">
-        <v>1.285</v>
-      </c>
-      <c r="O183">
-        <v>5.5</v>
-      </c>
-      <c r="P183">
-        <v>11</v>
-      </c>
-      <c r="Q183">
-        <v>-1.75</v>
-      </c>
-      <c r="R183">
-        <v>2</v>
-      </c>
-      <c r="S183">
-        <v>1.85</v>
-      </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z183">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17633,7 +17633,7 @@
         <v>45333.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6838519</v>
+        <v>6838515</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q195">
+        <v>0.75</v>
+      </c>
+      <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>2.025</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
+        <v>1.875</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>0.8</v>
+      </c>
+      <c r="Z195">
         <v>-0.5</v>
       </c>
-      <c r="R195">
-        <v>1.98</v>
-      </c>
-      <c r="S195">
-        <v>1.92</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
-      <c r="W195">
-        <v>0.909</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
-      <c r="Z195">
-        <v>0.98</v>
-      </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838515</v>
+        <v>6838519</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I196">
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
+        <v>1.7</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.909</v>
+      </c>
+      <c r="O196">
+        <v>3.6</v>
+      </c>
+      <c r="P196">
         <v>4</v>
       </c>
-      <c r="L196">
-        <v>3.5</v>
-      </c>
-      <c r="M196">
-        <v>1.909</v>
-      </c>
-      <c r="N196">
-        <v>5</v>
-      </c>
-      <c r="O196">
-        <v>3.5</v>
-      </c>
-      <c r="P196">
-        <v>1.8</v>
-      </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.98</v>
       </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.92</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AA196">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6838516</v>
+        <v>6838518</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N197">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O197">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6838518</v>
+        <v>6838516</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,56 +18078,56 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>2.2</v>
+      </c>
+      <c r="O198">
         <v>3.5</v>
       </c>
-      <c r="N198">
-        <v>1.909</v>
-      </c>
-      <c r="O198">
-        <v>3.6</v>
-      </c>
       <c r="P198">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.925</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.9</v>
+      </c>
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>2.75</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
-      </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18135,19 +18135,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6838520</v>
+        <v>6838512</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,61 +18256,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>49</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L200">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N200">
         <v>1.571</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P200">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
         <v>-1</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18319,13 +18319,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6838512</v>
+        <v>6838520</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,61 +18345,61 @@
         <v>45340.4375</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>49</v>
       </c>
       <c r="K201">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M201">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
         <v>1.571</v>
       </c>
       <c r="O201">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q201">
         <v>-1</v>
       </c>
       <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
         <v>1.925</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="T201">
-        <v>3.25</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18408,13 +18408,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.925</v>
-      </c>
-      <c r="AB201">
-        <v>1</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>45340.53125</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18971,7 +18971,7 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19146,7 +19146,7 @@
         <v>45347.53125</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>35</v>
@@ -19339,10 +19339,10 @@
         <v>1.833</v>
       </c>
       <c r="N212">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
         <v>1.7</v>
@@ -19351,10 +19351,10 @@
         <v>0.75</v>
       </c>
       <c r="R212">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
         <v>3</v>
@@ -19413,13 +19413,13 @@
         <v>4.2</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
@@ -19434,10 +19434,10 @@
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19487,31 +19487,31 @@
         <v>1.615</v>
       </c>
       <c r="N214">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="Q214">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
         <v>2.025</v>
-      </c>
-      <c r="V214">
-        <v>1.825</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19549,7 +19549,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K215">
         <v>4</v>
@@ -19561,31 +19561,31 @@
         <v>1.833</v>
       </c>
       <c r="N215">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q215">
         <v>0.5</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19635,31 +19635,31 @@
         <v>4.333</v>
       </c>
       <c r="N216">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O216">
         <v>4</v>
       </c>
       <c r="P216">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
         <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
+        <v>2.05</v>
+      </c>
+      <c r="V216">
         <v>1.8</v>
-      </c>
-      <c r="V216">
-        <v>2.05</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19682,7 +19682,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6838536</v>
+        <v>6838535</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19694,46 +19694,46 @@
         <v>45354.4375</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K217">
+        <v>2.05</v>
+      </c>
+      <c r="L217">
+        <v>3.6</v>
+      </c>
+      <c r="M217">
+        <v>3.3</v>
+      </c>
+      <c r="N217">
         <v>2</v>
       </c>
-      <c r="L217">
-        <v>3.75</v>
-      </c>
-      <c r="M217">
-        <v>3.4</v>
-      </c>
-      <c r="N217">
-        <v>1.666</v>
-      </c>
       <c r="O217">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S217">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19756,7 +19756,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6838535</v>
+        <v>6838536</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19768,46 +19768,46 @@
         <v>45354.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K218">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M218">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19863,7 +19863,7 @@
         <v>3.8</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
@@ -19878,10 +19878,10 @@
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19931,31 +19931,31 @@
         <v>2.5</v>
       </c>
       <c r="N220">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O220">
         <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S220">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>NEC</t>
   </si>
   <si>
-    <t>AZ</t>
+    <t>Feyenoord</t>
   </si>
   <si>
-    <t>Feyenoord</t>
+    <t>AZ</t>
   </si>
   <si>
     <t>Almere City FC</t>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P14">
+        <v>17</v>
+      </c>
+      <c r="Q14">
+        <v>-2.25</v>
+      </c>
+      <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.85</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
         <v>6</v>
       </c>
-      <c r="Q14">
-        <v>-1</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.55</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L15">
+        <v>4.5</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1.55</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1.2</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <v>17</v>
-      </c>
       <c r="Q15">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6838340</v>
+        <v>6838341</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L23">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>3.25</v>
+      </c>
+      <c r="U23">
         <v>2.05</v>
       </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="U23">
-        <v>2.025</v>
-      </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X23">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>1.05</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>1.025</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6838341</v>
+        <v>6838340</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,73 +2592,73 @@
         <v>45158.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>5.5</v>
+      </c>
+      <c r="L24">
+        <v>4.333</v>
+      </c>
+      <c r="M24">
+        <v>1.533</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>4.2</v>
+      </c>
+      <c r="P24">
+        <v>1.65</v>
+      </c>
+      <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>1.363</v>
-      </c>
-      <c r="L24">
-        <v>4.75</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>1.444</v>
-      </c>
-      <c r="O24">
-        <v>4.75</v>
-      </c>
-      <c r="P24">
-        <v>7.5</v>
-      </c>
-      <c r="Q24">
-        <v>-1.25</v>
-      </c>
-      <c r="R24">
-        <v>1.9</v>
-      </c>
-      <c r="S24">
-        <v>1.95</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2684,7 +2684,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45165.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6838359</v>
+        <v>6838358</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O37">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q37">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
+        <v>2.025</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>3.25</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
-      <c r="V37">
-        <v>1.975</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y37">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.925</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6838358</v>
+        <v>6838359</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N38">
+        <v>6.5</v>
+      </c>
+      <c r="O38">
         <v>4.75</v>
       </c>
-      <c r="O38">
-        <v>4.333</v>
-      </c>
       <c r="P38">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
@@ -4728,7 +4728,7 @@
         <v>45186.48958333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5354,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>45197.625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -5796,7 +5796,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6838387</v>
+        <v>6838386</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,76 +5885,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61">
+        <v>1.444</v>
+      </c>
+      <c r="L61">
+        <v>4.333</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>1.55</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
+      <c r="R61">
+        <v>1.94</v>
+      </c>
+      <c r="S61">
+        <v>1.96</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>48</v>
-      </c>
-      <c r="K61">
-        <v>1.125</v>
-      </c>
-      <c r="L61">
-        <v>8.5</v>
-      </c>
-      <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61">
-        <v>1.035</v>
-      </c>
-      <c r="O61">
-        <v>17</v>
-      </c>
-      <c r="P61">
-        <v>34</v>
-      </c>
-      <c r="Q61">
-        <v>-3.75</v>
-      </c>
-      <c r="R61">
+      <c r="U61">
         <v>2</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="T61">
-        <v>4.75</v>
-      </c>
-      <c r="U61">
-        <v>1.85</v>
-      </c>
-      <c r="V61">
-        <v>2</v>
-      </c>
       <c r="W61">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.96</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6838386</v>
+        <v>6838387</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62">
+        <v>1.125</v>
+      </c>
+      <c r="L62">
+        <v>8.5</v>
+      </c>
+      <c r="M62">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>1.035</v>
+      </c>
+      <c r="O62">
+        <v>17</v>
+      </c>
+      <c r="P62">
+        <v>34</v>
+      </c>
+      <c r="Q62">
+        <v>-3.75</v>
+      </c>
+      <c r="R62">
         <v>2</v>
       </c>
-      <c r="J62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K62">
-        <v>1.444</v>
-      </c>
-      <c r="L62">
-        <v>4.333</v>
-      </c>
-      <c r="M62">
-        <v>7</v>
-      </c>
-      <c r="N62">
-        <v>1.55</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-      <c r="P62">
-        <v>6</v>
-      </c>
-      <c r="Q62">
-        <v>-1</v>
-      </c>
-      <c r="R62">
-        <v>1.94</v>
-      </c>
       <c r="S62">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>2</v>
       </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.96</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6838392</v>
+        <v>6838391</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,10 +6241,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6256,43 +6256,43 @@
         <v>48</v>
       </c>
       <c r="K65">
+        <v>3.25</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
         <v>2.1</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>3.3</v>
+      </c>
+      <c r="O65">
         <v>3.4</v>
       </c>
-      <c r="M65">
-        <v>3.4</v>
-      </c>
-      <c r="N65">
-        <v>2.375</v>
-      </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
       <c r="P65">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.07</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6838391</v>
+        <v>6838392</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,10 +6330,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6345,43 +6345,43 @@
         <v>48</v>
       </c>
       <c r="K66">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>3.4</v>
+      </c>
+      <c r="N66">
+        <v>2.375</v>
+      </c>
+      <c r="O66">
         <v>3.5</v>
       </c>
-      <c r="M66">
-        <v>2.1</v>
-      </c>
-      <c r="N66">
-        <v>3.3</v>
-      </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>1.07</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>45200.48958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6956,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,55 +7042,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7099,16 +7099,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC74">
         <v>-0.5</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,16 +7188,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC75">
         <v>-0.5</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,13 +7309,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7324,43 +7324,43 @@
         <v>48</v>
       </c>
       <c r="K77">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L77">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7369,16 +7369,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.45</v>
+      </c>
+      <c r="AA77">
         <v>-0.5</v>
       </c>
-      <c r="AA77">
-        <v>0.4625</v>
-      </c>
       <c r="AB77">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,13 +7398,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7413,43 +7413,43 @@
         <v>48</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7458,16 +7458,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
+        <v>0.4625</v>
+      </c>
+      <c r="AB78">
+        <v>0.4875</v>
+      </c>
+      <c r="AC78">
         <v>-0.5</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7665,7 +7665,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6838408</v>
+        <v>6838409</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,73 +7843,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83">
+        <v>2.375</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>2.375</v>
+      </c>
+      <c r="N83">
+        <v>2.2</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>2.8</v>
+      </c>
+      <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.875</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>2</v>
       </c>
-      <c r="J83" t="s">
-        <v>49</v>
-      </c>
-      <c r="K83">
-        <v>5</v>
-      </c>
-      <c r="L83">
-        <v>4</v>
-      </c>
-      <c r="M83">
-        <v>1.615</v>
-      </c>
-      <c r="N83">
-        <v>6</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
-      <c r="P83">
-        <v>1.5</v>
-      </c>
-      <c r="Q83">
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>1.8</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
+        <v>0.875</v>
+      </c>
+      <c r="AB83">
         <v>1</v>
-      </c>
-      <c r="R83">
-        <v>2.025</v>
-      </c>
-      <c r="S83">
-        <v>1.825</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
-      <c r="V83">
-        <v>2.05</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>3.5</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>1.025</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6838409</v>
+        <v>6838408</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,73 +7932,73 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>49</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84">
         <v>4</v>
       </c>
-      <c r="J84" t="s">
-        <v>47</v>
-      </c>
-      <c r="K84">
-        <v>2.375</v>
-      </c>
-      <c r="L84">
-        <v>3.6</v>
-      </c>
       <c r="M84">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N84">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y84">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8558,7 +8558,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,73 +10157,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L109">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>4.4</v>
+      </c>
+      <c r="M110">
+        <v>1.571</v>
+      </c>
+      <c r="N110">
+        <v>5.25</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>1.533</v>
+      </c>
+      <c r="Q110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>4</v>
-      </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K110">
-        <v>2.625</v>
-      </c>
-      <c r="L110">
-        <v>3.6</v>
-      </c>
-      <c r="M110">
-        <v>2.5</v>
-      </c>
-      <c r="N110">
-        <v>3</v>
-      </c>
-      <c r="O110">
+      <c r="R110">
+        <v>2.04</v>
+      </c>
+      <c r="S110">
+        <v>1.86</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>3.75</v>
       </c>
-      <c r="P110">
-        <v>2.2</v>
-      </c>
-      <c r="Q110">
-        <v>0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
-      <c r="U110">
-        <v>2.05</v>
-      </c>
-      <c r="V110">
-        <v>1.8</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10335,10 +10335,10 @@
         <v>45242.53125</v>
       </c>
       <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
         <v>39</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
+        <v>3.8</v>
+      </c>
+      <c r="Q114">
+        <v>-0.5</v>
+      </c>
+      <c r="R114">
+        <v>1.975</v>
+      </c>
+      <c r="S114">
+        <v>1.875</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
         <v>2</v>
       </c>
-      <c r="Q114">
-        <v>0.5</v>
-      </c>
-      <c r="R114">
-        <v>1.825</v>
-      </c>
-      <c r="S114">
-        <v>2.025</v>
-      </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>2.025</v>
-      </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>1</v>
       </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>1.025</v>
-      </c>
-      <c r="AB114">
-        <v>0</v>
-      </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <v>3</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L115">
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N115">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N116">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
         <v>1.9</v>
       </c>
-      <c r="V116">
-        <v>1.95</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O117">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.9</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="V117">
-        <v>1.9</v>
-      </c>
       <c r="W117">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N120">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P120">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
         <v>1.975</v>
       </c>
-      <c r="V120">
-        <v>1.875</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>0.825</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>-0.5</v>
       </c>
-      <c r="AA120">
-        <v>0.475</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45263.34375</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -12029,7 +12029,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12560,7 +12560,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
         <v>34</v>
@@ -13898,7 +13898,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>45305.53125</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6838485</v>
+        <v>6838580</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,13 +14963,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -14978,34 +14978,34 @@
         <v>47</v>
       </c>
       <c r="K163">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N163">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="O163">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="Q163">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
         <v>1.875</v>
@@ -15020,19 +15020,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.1659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6838580</v>
+        <v>6838485</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,13 +15052,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -15067,34 +15067,34 @@
         <v>47</v>
       </c>
       <c r="K164">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N164">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R164">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
         <v>1.875</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838491</v>
+        <v>6838490</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O170">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.875</v>
       </c>
-      <c r="V170">
-        <v>1.975</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y170">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.875</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6838490</v>
+        <v>6838491</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45318.70833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171" t="s">
+        <v>47</v>
+      </c>
+      <c r="K171">
+        <v>7.5</v>
+      </c>
+      <c r="L171">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>1.363</v>
+      </c>
+      <c r="N171">
+        <v>4.75</v>
+      </c>
+      <c r="O171">
+        <v>4.5</v>
+      </c>
+      <c r="P171">
+        <v>1.6</v>
+      </c>
+      <c r="Q171">
         <v>1</v>
       </c>
-      <c r="I171">
+      <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.875</v>
+      </c>
+      <c r="V171">
+        <v>1.975</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
         <v>1</v>
       </c>
-      <c r="J171" t="s">
-        <v>49</v>
-      </c>
-      <c r="K171">
-        <v>2.7</v>
-      </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>2.375</v>
-      </c>
-      <c r="N171">
-        <v>3.2</v>
-      </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>2.15</v>
-      </c>
-      <c r="Q171">
-        <v>0.25</v>
-      </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>1.875</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.875</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>2.6</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.4875</v>
-      </c>
-      <c r="AA171">
-        <v>-0.5</v>
-      </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L173">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N173">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M174">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N174">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S174">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16743,10 +16743,10 @@
         <v>45326.4375</v>
       </c>
       <c r="F183" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" t="s">
         <v>38</v>
-      </c>
-      <c r="G183" t="s">
-        <v>39</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17102,7 +17102,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17633,7 +17633,7 @@
         <v>45333.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6838515</v>
+        <v>6838519</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
+        <v>1.7</v>
+      </c>
+      <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>4.75</v>
+      </c>
+      <c r="N195">
+        <v>1.909</v>
+      </c>
+      <c r="O195">
+        <v>3.6</v>
+      </c>
+      <c r="P195">
         <v>4</v>
       </c>
-      <c r="L195">
-        <v>3.5</v>
-      </c>
-      <c r="M195">
-        <v>1.909</v>
-      </c>
-      <c r="N195">
-        <v>5</v>
-      </c>
-      <c r="O195">
-        <v>3.5</v>
-      </c>
-      <c r="P195">
-        <v>1.8</v>
-      </c>
       <c r="Q195">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.98</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.92</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AA195">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838519</v>
+        <v>6838515</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q196">
+        <v>0.75</v>
+      </c>
+      <c r="R196">
+        <v>1.825</v>
+      </c>
+      <c r="S196">
+        <v>2.025</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>1.875</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>0.8</v>
+      </c>
+      <c r="Z196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.98</v>
-      </c>
-      <c r="S196">
-        <v>1.92</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
-      <c r="W196">
-        <v>0.909</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>0.98</v>
-      </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6838518</v>
+        <v>6838516</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,56 +17989,56 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
+        <v>3.3</v>
+      </c>
+      <c r="N197">
+        <v>2.2</v>
+      </c>
+      <c r="O197">
         <v>3.5</v>
       </c>
-      <c r="N197">
-        <v>1.909</v>
-      </c>
-      <c r="O197">
-        <v>3.6</v>
-      </c>
       <c r="P197">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
         <v>1.95</v>
       </c>
-      <c r="S197">
-        <v>1.9</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>2</v>
-      </c>
-      <c r="V197">
-        <v>1.85</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6838516</v>
+        <v>6838518</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,55 +18078,55 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18135,19 +18135,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18434,7 +18434,7 @@
         <v>45340.53125</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18971,7 +18971,7 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19146,7 +19146,7 @@
         <v>45347.53125</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
         <v>35</v>
@@ -19329,6 +19329,15 @@
       <c r="G212" t="s">
         <v>37</v>
       </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>5</v>
+      </c>
+      <c r="J212" t="s">
+        <v>47</v>
+      </c>
       <c r="K212">
         <v>4</v>
       </c>
@@ -19339,19 +19348,19 @@
         <v>1.833</v>
       </c>
       <c r="N212">
+        <v>5.25</v>
+      </c>
+      <c r="O212">
         <v>4.5</v>
       </c>
-      <c r="O212">
-        <v>4.2</v>
-      </c>
       <c r="P212">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
         <v>1.95</v>
@@ -19360,25 +19369,31 @@
         <v>3</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB212">
+        <v>1.025</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,31 +19428,31 @@
         <v>4.2</v>
       </c>
       <c r="N213">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19487,31 +19502,31 @@
         <v>1.615</v>
       </c>
       <c r="N214">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P214">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="Q214">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R214">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19549,7 +19564,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K215">
         <v>4</v>
@@ -19561,31 +19576,31 @@
         <v>1.833</v>
       </c>
       <c r="N215">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O215">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q215">
         <v>0.5</v>
       </c>
       <c r="R215">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S215">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19635,31 +19650,31 @@
         <v>4.333</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="S216">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19682,7 +19697,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6838535</v>
+        <v>6838536</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19694,46 +19709,46 @@
         <v>45354.4375</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N217">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P217">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="S217">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="T217">
         <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19756,7 +19771,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6838536</v>
+        <v>6838535</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19768,46 +19783,46 @@
         <v>45354.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N218">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O218">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P218">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
+        <v>2.06</v>
+      </c>
+      <c r="S218">
         <v>1.84</v>
-      </c>
-      <c r="S218">
-        <v>2.06</v>
       </c>
       <c r="T218">
         <v>2.75</v>
       </c>
       <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
         <v>1.85</v>
-      </c>
-      <c r="V218">
-        <v>2</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19869,10 +19884,10 @@
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T219">
         <v>2.5</v>
@@ -19931,31 +19946,31 @@
         <v>2.5</v>
       </c>
       <c r="N220">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O220">
         <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="S220">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
         <v>0</v>

--- a/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
+++ b/Netherlands Eredivisie/Netherlands Eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>NEC</t>
   </si>
   <si>
-    <t>Feyenoord</t>
+    <t>AZ</t>
   </si>
   <si>
-    <t>AZ</t>
+    <t>Feyenoord</t>
   </si>
   <si>
     <t>Almere City FC</t>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6838331</v>
+        <v>6838332</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L14">
+        <v>4.5</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>1.55</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
         <v>6</v>
       </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>1.2</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
       <c r="Q14">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X14">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6838332</v>
+        <v>6838331</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>-2.25</v>
+      </c>
+      <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1.85</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>6</v>
       </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>0.55</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2684,7 +2684,7 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45165.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6838358</v>
+        <v>6838359</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N37">
+        <v>6.5</v>
+      </c>
+      <c r="O37">
         <v>4.75</v>
       </c>
-      <c r="O37">
-        <v>4.333</v>
-      </c>
       <c r="P37">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6838359</v>
+        <v>6838358</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N38">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q38">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
+        <v>2.025</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
         <v>1.925</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>1.925</v>
       </c>
-      <c r="T38">
-        <v>3.25</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.975</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y38">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.925</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
@@ -4728,7 +4728,7 @@
         <v>45186.48958333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5354,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>45197.625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -5796,7 +5796,7 @@
         <v>45199.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6838391</v>
+        <v>6838392</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,10 +6241,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6256,43 +6256,43 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>3.4</v>
+      </c>
+      <c r="N65">
+        <v>2.375</v>
+      </c>
+      <c r="O65">
         <v>3.5</v>
       </c>
-      <c r="M65">
-        <v>2.1</v>
-      </c>
-      <c r="N65">
-        <v>3.3</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
       <c r="P65">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>1.07</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6838392</v>
+        <v>6838391</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,10 +6330,10 @@
         <v>45200.39583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6345,43 +6345,43 @@
         <v>48</v>
       </c>
       <c r="K66">
+        <v>3.25</v>
+      </c>
+      <c r="L66">
+        <v>3.5</v>
+      </c>
+      <c r="M66">
         <v>2.1</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>3.3</v>
+      </c>
+      <c r="O66">
         <v>3.4</v>
       </c>
-      <c r="M66">
-        <v>3.4</v>
-      </c>
-      <c r="N66">
-        <v>2.375</v>
-      </c>
-      <c r="O66">
-        <v>3.5</v>
-      </c>
       <c r="P66">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W66">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.07</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>45200.48958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6956,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6838399</v>
+        <v>6838400</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,55 +7042,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7099,16 +7099,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB74">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AC74">
         <v>-0.5</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6838400</v>
+        <v>6838399</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,55 +7131,55 @@
         <v>45207.39583333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7188,16 +7188,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AC75">
         <v>-0.5</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6838403</v>
+        <v>6838404</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,13 +7309,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7324,43 +7324,43 @@
         <v>48</v>
       </c>
       <c r="K77">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P77">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7369,16 +7369,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
+        <v>0.4625</v>
+      </c>
+      <c r="AB77">
+        <v>0.4875</v>
+      </c>
+      <c r="AC77">
         <v>-0.5</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6838404</v>
+        <v>6838403</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,13 +7398,13 @@
         <v>45220.57291666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7413,43 +7413,43 @@
         <v>48</v>
       </c>
       <c r="K78">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="O78">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P78">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7458,16 +7458,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
+        <v>0.45</v>
+      </c>
+      <c r="AA78">
         <v>-0.5</v>
       </c>
-      <c r="AA78">
-        <v>0.4625</v>
-      </c>
       <c r="AB78">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7576,7 +7576,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
         <v>43</v>
@@ -7665,7 +7665,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6838413</v>
+        <v>6838411</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45227.625</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L88">
+        <v>3.5</v>
+      </c>
+      <c r="M88">
+        <v>2.5</v>
+      </c>
+      <c r="N88">
+        <v>2.9</v>
+      </c>
+      <c r="O88">
         <v>3.6</v>
       </c>
-      <c r="M88">
-        <v>4.333</v>
-      </c>
-      <c r="N88">
-        <v>1.75</v>
-      </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
       <c r="P88">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
         <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.875</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6838411</v>
+        <v>6838413</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45227.625</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N89">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6838416</v>
+        <v>6838417</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,58 +8644,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>48</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N92">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O92">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T92">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,13 +8704,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6838417</v>
+        <v>6838416</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,58 +8733,58 @@
         <v>45228.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N93">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R93">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,13 +8793,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838424</v>
+        <v>6838425</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M100">
+        <v>4.5</v>
+      </c>
+      <c r="N100">
+        <v>1.55</v>
+      </c>
+      <c r="O100">
+        <v>4.5</v>
+      </c>
+      <c r="P100">
+        <v>5.25</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="N100">
-        <v>2.25</v>
-      </c>
-      <c r="O100">
+      <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3.5</v>
       </c>
-      <c r="P100">
-        <v>3.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.25</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6838425</v>
+        <v>6838424</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45235.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.05</v>
+      </c>
+      <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K101">
-        <v>1.6</v>
-      </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
-        <v>4.5</v>
-      </c>
       <c r="N101">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="V101">
-        <v>2.025</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X101">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.825</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6838431</v>
+        <v>6838433</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,73 +10157,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>49</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>4.4</v>
+      </c>
+      <c r="M109">
+        <v>1.571</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>1.533</v>
+      </c>
+      <c r="Q109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>4</v>
-      </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>2.625</v>
-      </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
-      <c r="O109">
+      <c r="R109">
+        <v>2.04</v>
+      </c>
+      <c r="S109">
+        <v>1.86</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>1.95</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>3.75</v>
       </c>
-      <c r="P109">
-        <v>2.2</v>
-      </c>
-      <c r="Q109">
-        <v>0.25</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.925</v>
-      </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
-      <c r="U109">
-        <v>2.05</v>
-      </c>
-      <c r="V109">
-        <v>1.8</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6838433</v>
+        <v>6838431</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45242.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L110">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10335,10 +10335,10 @@
         <v>45242.53125</v>
       </c>
       <c r="F111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" t="s">
         <v>38</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838438</v>
+        <v>6838437</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6838437</v>
+        <v>6838438</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
+        <v>3.8</v>
+      </c>
+      <c r="Q115">
+        <v>-0.5</v>
+      </c>
+      <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
         <v>2</v>
       </c>
-      <c r="Q115">
-        <v>0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
-      <c r="S115">
-        <v>2.025</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>2.025</v>
-      </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
       </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
-        <v>1.025</v>
-      </c>
-      <c r="AB115">
-        <v>0</v>
-      </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6838440</v>
+        <v>6838439</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O116">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
       <c r="W116">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6838439</v>
+        <v>6838440</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N117">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6838443</v>
+        <v>6838442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.825</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>-0.5</v>
       </c>
-      <c r="AA119">
-        <v>0.475</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838442</v>
+        <v>6838443</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>13</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="O120">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
         <v>1.875</v>
       </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6838447</v>
+        <v>6838448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,73 +11492,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
+        <v>3.7</v>
+      </c>
+      <c r="M124">
+        <v>3.1</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
         <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>2</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6838448</v>
+        <v>6838447</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,73 +11581,73 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125">
         <v>2</v>
       </c>
-      <c r="I125">
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>3.4</v>
+      </c>
+      <c r="N125">
         <v>2</v>
       </c>
-      <c r="J125" t="s">
-        <v>49</v>
-      </c>
-      <c r="K125">
-        <v>2.05</v>
-      </c>
-      <c r="L125">
-        <v>3.7</v>
-      </c>
-      <c r="M125">
-        <v>3.1</v>
-      </c>
-      <c r="N125">
-        <v>1.95</v>
-      </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11759,7 +11759,7 @@
         <v>45263.34375</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6838450</v>
+        <v>6838451</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,55 +11848,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>47</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M128">
         <v>1.75</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q128">
         <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6838451</v>
+        <v>6838450</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,55 +11937,55 @@
         <v>45263.4375</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L129">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
         <v>1.75</v>
       </c>
       <c r="N129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q129">
         <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>45267.70833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12560,7 +12560,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
         <v>34</v>
@@ -13898,7 +13898,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6838476</v>
+        <v>6838477</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
+        <v>2.9</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
+        <v>2.2</v>
+      </c>
+      <c r="Q155">
+        <v>0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
+        <v>2.025</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
         <v>2</v>
       </c>
-      <c r="N155">
-        <v>4.2</v>
-      </c>
-      <c r="O155">
-        <v>4</v>
-      </c>
-      <c r="P155">
-        <v>1.75</v>
-      </c>
-      <c r="Q155">
-        <v>0.75</v>
-      </c>
-      <c r="R155">
+      <c r="V155">
         <v>1.85</v>
       </c>
-      <c r="S155">
-        <v>2</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.875</v>
-      </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
+        <v>0.4125</v>
+      </c>
+      <c r="AA155">
         <v>-0.5</v>
       </c>
-      <c r="AA155">
-        <v>0.5</v>
-      </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6838477</v>
+        <v>6838476</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45305.4375</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L156">
         <v>3.6</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z156">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>45305.53125</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14785,7 +14785,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6838580</v>
+        <v>6838485</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,13 +14963,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -14978,34 +14978,34 @@
         <v>47</v>
       </c>
       <c r="K163">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N163">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P163">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R163">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
         <v>1.875</v>
@@ -15020,19 +15020,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6838485</v>
+        <v>6838580</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,13 +15052,13 @@
         <v>45312.4375</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -15067,34 +15067,34 @@
         <v>47</v>
       </c>
       <c r="K164">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L164">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N164">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
         <v>1.875</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.1659999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6838489</v>
+        <v>6838488</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L168">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>19</v>
+        <v>2.1</v>
       </c>
       <c r="N168">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>23</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838488</v>
+        <v>6838489</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45318.61458333334</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L169">
+        <v>9.5</v>
+      </c>
+      <c r="M169">
+        <v>19</v>
+      </c>
+      <c r="N169">
+        <v>1.1</v>
+      </c>
+      <c r="O169">
+        <v>10</v>
+      </c>
+      <c r="P169">
+        <v>23</v>
+      </c>
+      <c r="Q169">
+        <v>-2.5</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
         <v>3.75</v>
       </c>
-      <c r="M169">
-        <v>2.1</v>
-      </c>
-      <c r="N169">
-        <v>2.3</v>
-      </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
-      <c r="P169">
-        <v>2.8</v>
-      </c>
-      <c r="Q169">
-        <v>-0.25</v>
-      </c>
-      <c r="R169">
+      <c r="U169">
         <v>2.025</v>
       </c>
-      <c r="S169">
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.975</v>
-      </c>
-      <c r="V169">
-        <v>1.875</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6838493</v>
+        <v>6838494</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M173">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N173">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6838494</v>
+        <v>6838493</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45319.4375</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L174">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838503</v>
+        <v>6838501</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>47</v>
+      </c>
+      <c r="K182">
+        <v>3.25</v>
+      </c>
+      <c r="L182">
+        <v>3.6</v>
+      </c>
+      <c r="M182">
+        <v>2.1</v>
+      </c>
+      <c r="N182">
+        <v>5.25</v>
+      </c>
+      <c r="O182">
+        <v>4.2</v>
+      </c>
+      <c r="P182">
+        <v>1.6</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
         <v>2</v>
       </c>
-      <c r="J182" t="s">
-        <v>48</v>
-      </c>
-      <c r="K182">
-        <v>1.5</v>
-      </c>
-      <c r="L182">
-        <v>4.333</v>
-      </c>
-      <c r="M182">
-        <v>6</v>
-      </c>
-      <c r="N182">
-        <v>1.285</v>
-      </c>
-      <c r="O182">
-        <v>5.5</v>
-      </c>
-      <c r="P182">
-        <v>11</v>
-      </c>
-      <c r="Q182">
-        <v>-1.75</v>
-      </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z182">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6838501</v>
+        <v>6838503</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45326.4375</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M183">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N183">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P183">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="Q183">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.85</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17633,7 +17633,7 @@
         <v>45333.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6838519</v>
+        <v>6838515</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q195">
+        <v>0.75</v>
+      </c>
+      <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>2.025</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
+        <v>1.875</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>0.8</v>
+      </c>
+      <c r="Z195">
         <v>-0.5</v>
       </c>
-      <c r="R195">
-        <v>1.98</v>
-      </c>
-      <c r="S195">
-        <v>1.92</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
-      <c r="W195">
-        <v>0.909</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
-      <c r="Z195">
-        <v>0.98</v>
-      </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838515</v>
+        <v>6838519</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45339.61458333334</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I196">
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
+        <v>1.7</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.909</v>
+      </c>
+      <c r="O196">
+        <v>3.6</v>
+      </c>
+      <c r="P196">
         <v>4</v>
       </c>
-      <c r="L196">
-        <v>3.5</v>
-      </c>
-      <c r="M196">
-        <v>1.909</v>
-      </c>
-      <c r="N196">
-        <v>5</v>
-      </c>
-      <c r="O196">
-        <v>3.5</v>
-      </c>
-      <c r="P196">
-        <v>1.8</v>
-      </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.98</v>
       </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.92</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <